--- a/Bot/Data_shopee/Data_1_1_1.xlsx
+++ b/Bot/Data_shopee/Data_1_1_1.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:N61"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -385,66 +385,69 @@
         <v>FTxtVW</v>
       </c>
       <c r="D1" t="str">
+        <v>customized-overlay-image src</v>
+      </c>
+      <c r="E1" t="str">
         <v>DgXDzJ</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
+        <v>I0W76E</v>
+      </c>
+      <c r="G1" t="str">
         <v>bPcAVl</v>
       </c>
-      <c r="F1" t="str">
+      <c r="H1" t="str">
         <v>k9JZlv</v>
       </c>
-      <c r="G1" t="str">
+      <c r="I1" t="str">
         <v>OwmBnn</v>
       </c>
-      <c r="H1" t="str">
+      <c r="J1" t="str">
         <v>JVW3E2</v>
       </c>
-      <c r="I1" t="str">
+      <c r="K1" t="str">
         <v>bx++ig 2</v>
       </c>
-      <c r="J1" t="str">
+      <c r="L1" t="str">
         <v>k9JZlv 2</v>
       </c>
-      <c r="K1" t="str">
+      <c r="M1" t="str">
         <v>hxLzax</v>
       </c>
-      <c r="L1" t="str">
-        <v>customized-overlay-image src</v>
-      </c>
-      <c r="M1" t="str">
-        <v>I0W76E</v>
+      <c r="N1" t="str">
+        <v>iMq5a7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://shopee.co.th/In2It-Primer-PMP-15g-%E0%B8%AD%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B8%B9%E0%B8%AD%E0%B8%B4%E0%B8%97-%E0%B9%84%E0%B8%9E%E0%B8%A3%E0%B9%80%E0%B8%A1%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%81%E0%B8%B3%E0%B8%A1%E0%B8%B0%E0%B8%AB%E0%B8%A2%E0%B8%B5%E0%B9%88.-i.70998059.15370525651?sp_atk=64a37655-42ac-4e5f-ad0f-42ceefb5745d&amp;xptdk=64a37655-42ac-4e5f-ad0f-42ceefb5745d</v>
+        <v>https://shopee.co.th/%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B8%81%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B9%83%E0%B8%8A%E0%B9%89-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B9%80%E0%B8%9A%E0%B8%B2-%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B8%AA%E0%B8%94%E0%B9%83%E0%B8%AA-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B8%81%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B8%81%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%84%E0%B8%A5%E0%B8%B0%E0%B8%AA%E0%B8%B5-(1-%E0%B8%9A%E0%B8%B2%E0%B8%97-1-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99)-i.785960549.16681562652?sp_atk=ecbec984-7934-4198-a5dc-8928d890280b&amp;xptdk=ecbec984-7934-4198-a5dc-8928d890280b</v>
       </c>
       <c r="B2" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbkq-lobxlyd8mv43ed_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-22100-0306lr2p9hiv94_tn</v>
       </c>
       <c r="C2" t="str">
-        <v>-29%</v>
+        <v>-50%</v>
       </c>
       <c r="D2" t="str">
-        <v>In2It Primer++ PMP 15g อินทูอิท ไพรเมอร์เนื้อกำมะหยี่.</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
       </c>
       <c r="E2" t="str">
-        <v>฿239</v>
+        <v>กระจกพกพา น่ารักน่าใช้ น้ำหนักเบา พกพาง่าย ลายน่ารักสดใส กระจกแบบพกพา กระจกแต่งหน้า ส่งคละสี (1 บาท 1 ชิ้น)</v>
       </c>
       <c r="F2" t="str">
-        <v>170</v>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="G2" t="str">
-        <v>ขายแล้ว 25.1พัน ชิ้น</v>
+        <v>฿2</v>
       </c>
       <c r="H2" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>1</v>
       </c>
       <c r="I2" t="str">
-        <v/>
+        <v>ขายแล้ว 291.2พัน ชิ้น</v>
       </c>
       <c r="J2" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K2" t="str">
         <v/>
@@ -453,39 +456,42 @@
         <v/>
       </c>
       <c r="M2" t="str">
+        <v/>
+      </c>
+      <c r="N2" t="str">
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://shopee.co.th/LA-GLACE-Ideal-Airy-Skin-Concealer-2g-%E0%B8%84%E0%B8%AD%E0%B8%99%E0%B8%8B%E0%B8%B5%E0%B8%A5%E0%B9%80%E0%B8%A5%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%A1.-i.70998059.23835568850?sp_atk=d80b3c29-9a51-4db5-83c5-4514d139ad1c&amp;xptdk=d80b3c29-9a51-4db5-83c5-4514d139ad1c</v>
+        <v>https://shopee.co.th/Sasi-%E0%B8%A8%E0%B8%A8%E0%B8%B4-%E0%B8%84%E0%B8%B4%E0%B8%AA-%E0%B9%81%E0%B8%AD%E0%B8%99%E0%B8%94%E0%B9%8C-%E0%B8%9A%E0%B8%A5%E0%B8%B1%E0%B8%8A-%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B9%8A%E0%B8%81-4%E0%B8%81.-03-%E0%B9%80%E0%B8%9F%E0%B8%B4%E0%B8%A3%E0%B9%8C%E0%B8%AA%E0%B8%97-%E0%B8%84%E0%B8%B4%E0%B8%AA-i.31092295.18117936070?sp_atk=3d4dbf48-d92c-446c-bfe3-6efe60d0f0c0&amp;xptdk=3d4dbf48-d92c-446c-bfe3-6efe60d0f0c0</v>
       </c>
       <c r="B3" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbm6-loa1q6eksx252a_tn</v>
+        <v>https://down-th.img.susercontent.com/file/92a0923ac454d5086d13ab9be9d61470_tn</v>
       </c>
       <c r="C3" t="str">
-        <v/>
+        <v>-46%</v>
       </c>
       <c r="D3" t="str">
-        <v>LA GLACE Ideal Airy Skin Concealer 2g คอนซีลเลอร์เนื้อเซรั่ม.</v>
+        <v/>
       </c>
       <c r="E3" t="str">
-        <v>-</v>
+        <v>Sasi ศศิ คิส แอนด์ บลัช สติ๊ก 4ก. 03 เฟิร์สท คิส</v>
       </c>
       <c r="F3" t="str">
-        <v>79</v>
+        <v/>
       </c>
       <c r="G3" t="str">
-        <v>ขายแล้ว 82.2พัน ชิ้น</v>
+        <v>฿139</v>
       </c>
       <c r="H3" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>75</v>
       </c>
       <c r="I3" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 12.7พัน ชิ้น</v>
       </c>
       <c r="J3" t="str">
-        <v>389</v>
+        <v>จังหวัดพระนครศรีอยุธยา</v>
       </c>
       <c r="K3" t="str">
         <v/>
@@ -494,203 +500,218 @@
         <v/>
       </c>
       <c r="M3" t="str">
+        <v/>
+      </c>
+      <c r="N3" t="str">
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://shopee.co.th/%E2%99%A6%EF%B8%8F%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89%C2%B7%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%94%E0%B9%88%E0%B8%A7%E0%B8%99%C2%B7%E0%B8%96%E0%B8%B9%E0%B8%81%E2%99%A6%EF%B8%8FOdbo-Signature-Eyeshadow-Palette-OD276-%E0%B9%82%E0%B8%AD%E0%B8%94%E0%B8%B5%E0%B8%9A%E0%B8%B5%E0%B9%82%E0%B8%AD-%E0%B8%8B%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%99%E0%B9%80%E0%B8%88%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-%E0%B8%9E%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B8%97-x-1-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-dayse-i.11210871.20707414101?sp_atk=627c79d2-ad4e-4f6a-bb50-33e4ef65446d&amp;xptdk=627c79d2-ad4e-4f6a-bb50-33e4ef65446d</v>
+        <v>https://shopee.co.th/%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%A5%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B8%A3%E0%B8%B9%E0%B9%80%E0%B8%88%E0%B8%B2%E0%B8%B0%E0%B8%AB%E0%B8%B9%E0%B8%97%E0%B8%B3%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%AA%E0%B8%B0%E0%B8%AD%E0%B8%B2%E0%B8%94%E0%B8%A3%E0%B8%B9%E0%B9%80%E0%B8%88%E0%B8%B2%E0%B8%B0%E0%B8%AB%E0%B8%B9%E0%B8%AD%E0%B8%B8%E0%B8%9B%E0%B8%81%E0%B8%A3%E0%B8%93%E0%B9%8C%E0%B8%97%E0%B9%8D%E0%B8%B2%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%AA%E0%B8%B0%E0%B8%AD%E0%B8%B2%E0%B8%94%E0%B8%AB%E0%B8%B9-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%97%E0%B9%8D%E0%B8%B2%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%AA%E0%B8%B0%E0%B8%AD%E0%B8%B2%E0%B8%94%E0%B8%AB%E0%B8%B9-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B9%81%E0%B8%A5%E0%B9%89%E0%B8%A7%E0%B8%97%E0%B8%B4%E0%B9%89%E0%B8%87-70-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%8A%E0%B8%B8%E0%B8%94-i.132036613.12690496182?sp_atk=f5fc2528-4dbf-4487-908c-3d394edfbf3d&amp;xptdk=f5fc2528-4dbf-4487-908c-3d394edfbf3d</v>
       </c>
       <c r="B4" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rblq-lq1gn9v56lb47a_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-22100-7f258a5okuiv9b_tn</v>
       </c>
       <c r="C4" t="str">
-        <v>-74%</v>
+        <v/>
       </c>
       <c r="D4" t="str">
-        <v>♦️ของแท้·ส่งด่วน·ถูก♦️Odbo Signature Eyeshadow Palette #OD276 : โอดีบีโอ ซิกเนเจอร์ อายแชโดว์ พาเลท x 1 ชิ้น dayse</v>
+        <v/>
       </c>
       <c r="E4" t="str">
-        <v>-</v>
+        <v>ที่ล้างรูเจาะหูทำความสะอาดรูเจาะหูอุปกรณ์ทําความสะอาดหู / ที่ทําความสะอาดหู แบบใช้แล้วทิ้ง 70 ชิ้น / ชุด</v>
       </c>
       <c r="F4" t="str">
-        <v>67</v>
+        <v/>
       </c>
       <c r="G4" t="str">
-        <v>ขายแล้ว 24.7พัน ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="H4" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>18</v>
       </c>
       <c r="I4" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 19.2พัน ชิ้น</v>
       </c>
       <c r="J4" t="str">
-        <v>115</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K4" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>฿</v>
       </c>
       <c r="L4" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v>43</v>
       </c>
       <c r="M4" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v/>
+      </c>
+      <c r="N4" t="str">
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://shopee.co.th/%E0%B9%81%E0%B8%97%E0%B9%89%F0%9F%92%AF-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B9%81%E0%B8%88%E0%B8%99%E0%B8%A2%E0%B8%B1%E0%B8%A7%E0%B8%A3%E0%B9%8C-JANUA-30-ml.-%E0%B9%81%E0%B8%88%E0%B8%99%E0%B8%8A%E0%B8%B1%E0%B8%A7-i.2614841.20230861328?sp_atk=a3c16a04-54cd-4cf5-9a45-fe43292373e1&amp;xptdk=a3c16a04-54cd-4cf5-9a45-fe43292373e1</v>
+        <v>https://shopee.co.th/%E0%B9%81%E0%B8%AA%E0%B8%95%E0%B8%A1%E0%B8%9B%E0%B9%8C%E0%B8%8B%E0%B8%B4%E0%B8%A5%E0%B8%B4%E0%B9%82%E0%B8%84%E0%B8%99%E0%B9%83%E0%B8%AA-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%A1%E0%B8%B5%E0%B8%94%E0%B9%82%E0%B8%81%E0%B8%99-%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B8%9B%E0%B8%B1%E0%B9%8A%E0%B8%A1%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-DIY-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%95%E0%B8%81%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-i.76226848.14379046719?sp_atk=cf87d7d9-c018-4a9c-96cd-d5cfe1f0eb7e&amp;xptdk=cf87d7d9-c018-4a9c-96cd-d5cfe1f0eb7e</v>
       </c>
       <c r="B5" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-23030-r1esxvta7sov2a_tn</v>
+        <v>https://down-th.img.susercontent.com/file/f3ec27b47e7fc888995f07764ac9468f_tn</v>
       </c>
       <c r="C5" t="str">
-        <v>-47%</v>
+        <v>-82%</v>
       </c>
       <c r="D5" t="str">
-        <v>แท้💯% น้ำหอมแจนยัวร์ JANUA 30 ml. แจนชัว</v>
+        <v/>
       </c>
       <c r="E5" t="str">
-        <v>฿290</v>
+        <v>แสตมป์ซิลิโคนใส พร้อมมีดโกน และแผ่นปั๊มเล็บ แบบพกพา DIY สําหรับตกแต่งเล็บ</v>
       </c>
       <c r="F5" t="str">
-        <v>155</v>
+        <v/>
       </c>
       <c r="G5" t="str">
-        <v>ขายแล้ว 20.9พัน ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="H5" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>9</v>
       </c>
       <c r="I5" t="str">
-        <v/>
+        <v>ขายแล้ว 27.2พัน ชิ้น</v>
       </c>
       <c r="J5" t="str">
-        <v/>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K5" t="str">
+        <v>฿</v>
+      </c>
+      <c r="L5" t="str">
+        <v>16</v>
+      </c>
+      <c r="M5" t="str">
         <v>ร้านแนะนำ</v>
       </c>
-      <c r="L5" t="str">
-        <v/>
-      </c>
-      <c r="M5" t="str">
-        <v/>
+      <c r="N5" t="str">
+        <v>ซื้อ 3 ชิ้น ลด 3%</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://shopee.co.th/%F0%9F%91%AF%E2%80%8D%E2%99%80%EF%B8%8F(%E0%B8%A1%E0%B8%B5%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B9%80%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%81-4-%E0%B9%80%E0%B8%9A%E0%B8%AD%E0%B8%A3%E0%B9%8C)-Derra-cushion-%E0%B8%84%E0%B8%B9%E0%B8%8A%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%94%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%A3%E0%B9%88%E0%B8%B2-SPF-25-PA-10-g.-i.78549877.23930792863?sp_atk=36a76ffb-87ed-4a66-bfa5-bd8354ee0926&amp;xptdk=36a76ffb-87ed-4a66-bfa5-bd8354ee0926</v>
+        <v>https://shopee.co.th/YOTAI-L828-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B8%81%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B9%83%E0%B8%8A%E0%B9%89-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B9%80%E0%B8%9A%E0%B8%B2-%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B8%AA%E0%B8%94%E0%B9%83%E0%B8%AA-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B8%81%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-i.165601508.6249440763?sp_atk=8c27908b-4472-4e6e-b5a8-336a371bd9b5&amp;xptdk=8c27908b-4472-4e6e-b5a8-336a371bd9b5</v>
       </c>
       <c r="B6" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-23030-oqxsivyligovd7_tn</v>
+        <v>https://down-th.img.susercontent.com/file/4673f88ad34b0643a98154d8540d60d2_tn</v>
       </c>
       <c r="C6" t="str">
         <v>-50%</v>
       </c>
       <c r="D6" t="str">
-        <v>👯‍♀️(มีให้เลือก 4 เบอร์) Derra cushion คูชชั่นเดอร์ร่า SPF 25 PA+++ 10 g.</v>
+        <v/>
       </c>
       <c r="E6" t="str">
-        <v>฿369</v>
+        <v>YOTAI L828# กระจกพกพา น่ารักน่าใช้ น้ำหนักเบา พกพาง่าย ลายน่ารักสดใส กระจกแบบพกพา</v>
       </c>
       <c r="F6" t="str">
-        <v>185</v>
+        <v/>
       </c>
       <c r="G6" t="str">
-        <v>ขายแล้ว 28.3พัน ชิ้น</v>
+        <v>฿2</v>
       </c>
       <c r="H6" t="str">
-        <v>จังหวัดปทุมธานี</v>
+        <v>1</v>
       </c>
       <c r="I6" t="str">
-        <v/>
+        <v>ขายแล้ว 1.1ล้าน ชิ้น</v>
       </c>
       <c r="J6" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K6" t="str">
         <v/>
       </c>
       <c r="L6" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-d6d900f677f50efcf8aa1394468bbf73</v>
+        <v/>
       </c>
       <c r="M6" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v/>
+      </c>
+      <c r="N6" t="str">
+        <v>ซื้อ 6 ชิ้น ลด 2%</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://shopee.co.th/IN2IT-Primer-PMP-(15-g.)-%E0%B9%84%E0%B8%9E%E0%B8%A3%E0%B9%8C%E0%B9%80%E0%B8%A1%E0%B8%AD%E0%B8%A3%E0%B9%8C-i.388038998.12073810801?sp_atk=ea712a5e-d9bd-4a5e-a1ee-f0b7038be7c7&amp;xptdk=ea712a5e-d9bd-4a5e-a1ee-f0b7038be7c7</v>
+        <v>https://shopee.co.th/Uslike-%E0%B8%9A%E0%B8%A5%E0%B8%B1%E0%B8%8A%E0%B8%AD%E0%B8%AD%E0%B8%99%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1-%E0%B8%81%E0%B9%8D%E0%B8%B2%E0%B8%A1%E0%B8%B0%E0%B8%AB%E0%B8%A2%E0%B8%B5%E0%B9%88-%E0%B8%99%E0%B8%B8%E0%B9%88%E0%B8%A1-%E0%B9%80%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%9A%E0%B9%80%E0%B8%99%E0%B8%B5%E0%B8%A2%E0%B8%99-%E0%B9%83%E0%B8%AA-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-3-%E0%B8%AA%E0%B8%B5-i.409094973.11560821924?sp_atk=c9d46e12-9b7c-4623-8e46-73fe7d816b28&amp;xptdk=c9d46e12-9b7c-4623-8e46-73fe7d816b28</v>
       </c>
       <c r="B7" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul0-ljp2a7s7hvt544_tn</v>
+        <v>https://down-th.img.susercontent.com/file/7ace0b180c2c8452aae1a582ed8bc2fc_tn</v>
       </c>
       <c r="C7" t="str">
-        <v>-17%</v>
+        <v>-82%</v>
       </c>
       <c r="D7" t="str">
-        <v>IN2IT - Primer++ PMP (15 g.) ไพร์เมอร์</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="E7" t="str">
-        <v>฿239</v>
+        <v>Uslike บลัชออนเนื้อครีม กํามะหยี่ นุ่ม เรียบเนียน ใส ติดทนนาน 3 สี</v>
       </c>
       <c r="F7" t="str">
-        <v>199</v>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="G7" t="str">
-        <v>ขายแล้ว 58.9พัน ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="H7" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v>18</v>
       </c>
       <c r="I7" t="str">
-        <v/>
+        <v>ขายแล้ว 20.3พัน ชิ้น</v>
       </c>
       <c r="J7" t="str">
-        <v/>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K7" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="L7" t="str">
-        <v/>
+        <v>23</v>
       </c>
       <c r="M7" t="str">
+        <v/>
+      </c>
+      <c r="N7" t="str">
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://shopee.co.th/CeraVe-Moisturising-Cream-50ml-%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B2%E0%B8%A7%E0%B8%B5-%E0%B8%A1%E0%B8%AD%E0%B8%A2%E0%B8%AA%E0%B9%80%E0%B8%88%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%84%E0%B8%A3%E0%B8%8B%E0%B8%B4%E0%B9%88%E0%B8%87%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%9A%E0%B8%B3%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%81%E0%B8%B2%E0%B8%A2.-i.70998059.15393545437?sp_atk=bb88e6c0-84af-423b-b9dd-2df119cde597&amp;xptdk=bb88e6c0-84af-423b-b9dd-2df119cde597</v>
+        <v>https://shopee.co.th/(%F0%9F%94%A5%E0%B9%81%E0%B8%97%E0%B9%89-%E0%B8%96%E0%B8%B9%E0%B8%81%E0%B8%AA%E0%B8%B8%E0%B8%94-%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%84%E0%B8%A7%F0%9F%94%A5)-%E0%B8%A1%E0%B8%B2%E0%B8%A2%E0%B8%8A%E0%B9%89%E0%B8%AD%E0%B8%A2%E0%B8%AA%E0%B9%8C-My-Choice-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%81%E0%B8%94%E0%B8%94-Vitamin-E-i.166740845.6643331178?sp_atk=a217c007-87c5-4294-9c14-ee103b5a351a&amp;xptdk=a217c007-87c5-4294-9c14-ee103b5a351a</v>
       </c>
       <c r="B8" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbm5-lpy0elazcbwl06_tn</v>
+        <v>https://down-th.img.susercontent.com/file/7ff8b71857a7ad1df896f0fd8dbba4e5_tn</v>
       </c>
       <c r="C8" t="str">
-        <v>-5%</v>
+        <v/>
       </c>
       <c r="D8" t="str">
-        <v>CeraVe Moisturising Cream 50ml เซราวี มอยสเจอร์ไรซิ่งครีมบำรุงผิวหน้าและผิวกาย.</v>
+        <v/>
       </c>
       <c r="E8" t="str">
-        <v>฿210</v>
+        <v>(🔥แท้/ถูกสุด/ส่งไว🔥) มายช้อยส์ My Choice ครีมกันแดด Vitamin E</v>
       </c>
       <c r="F8" t="str">
-        <v>200</v>
+        <v/>
       </c>
       <c r="G8" t="str">
-        <v>ขายแล้ว 22.3พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="H8" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>32</v>
       </c>
       <c r="I8" t="str">
-        <v/>
+        <v>ขายแล้ว 30.9พัน ชิ้น</v>
       </c>
       <c r="J8" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K8" t="str">
         <v/>
@@ -699,80 +720,86 @@
         <v/>
       </c>
       <c r="M8" t="str">
+        <v/>
+      </c>
+      <c r="N8" t="str">
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://shopee.co.th/%E0%B8%A5%E0%B8%B9%E0%B8%81%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-1-%E0%B8%9A%E0%B8%B2%E0%B8%97-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%9C%E0%B8%A1-CKL719-JMF9924-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%9C%E0%B8%A1-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%9C%E0%B8%A1-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%A3%E0%B8%B5%E0%B8%94%E0%B8%9C%E0%B8%A1-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%A3%E0%B8%B5%E0%B8%94%E0%B8%9C%E0%B8%A1-%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%9C%E0%B8%A1-i.4062349.1098492468?sp_atk=86412e37-29d5-4832-b384-10590e32b960&amp;xptdk=86412e37-29d5-4832-b384-10590e32b960</v>
+        <v>https://shopee.co.th/%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87!-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%97%E0%B8%B2%E0%B8%A1%E0%B8%B7%E0%B8%AD-%F0%9F%A4%9F-hand-cream-%F0%9F%92%97-%E0%B8%AD%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%81%E0%B8%81%E0%B8%99%E0%B8%B4%E0%B8%84-%E0%B8%AA%E0%B8%81%E0%B8%B1%E0%B8%94%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B8%98%E0%B8%A3%E0%B8%A3%E0%B8%A1%E0%B8%8A%E0%B8%B2%E0%B8%95%E0%B8%B4-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B8%AD%E0%B9%88%E0%B8%AD%E0%B8%99%E0%B9%86-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%97%E0%B8%B2%E0%B8%A1%E0%B8%B7%E0%B8%AD-%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B8%99%E0%B8%B8%E0%B9%88%E0%B8%A1-%E0%B9%80%E0%B8%99%E0%B8%B5%E0%B8%A2%E0%B8%99-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%97%E0%B8%B2%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%81%E0%B8%81%E0%B8%99%E0%B8%B4%E0%B8%84-i.273127231.20851584910?sp_atk=9ec7d361-0de2-4090-9c74-ea0d50da249f&amp;xptdk=9ec7d361-0de2-4090-9c74-ea0d50da249f</v>
       </c>
       <c r="B9" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-22120-h5n6hkw1kflv3b_tn</v>
+        <v>https://down-th.img.susercontent.com/file/1a2b6b60cab3afb91eaf5e72f32fef61_tn</v>
       </c>
       <c r="C9" t="str">
-        <v>-64%</v>
+        <v>-86%</v>
       </c>
       <c r="D9" t="str">
-        <v>ลูกค้าใหม่ 1 บาท เครื่องหนีบผม CKL719 /JMF9924 เครื่องหนีบผม ที่หนีบผม เครื่องรีดผม ที่รีดผม หนีบผม</v>
+        <v/>
       </c>
       <c r="E9" t="str">
-        <v>-</v>
+        <v>พร้อมส่ง! ครีมทามือ 🤟 hand cream 💗 ออร์แกนิค สกัดจากธรรมชาติ กลิ่นหอมอ่อนๆ สำหรับทามือ ให้นุ่ม เนียน ครีมทามืออร์แกนิค</v>
       </c>
       <c r="F9" t="str">
-        <v>179</v>
+        <v/>
       </c>
       <c r="G9" t="str">
-        <v>ขายแล้ว 37.4พัน ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="H9" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>4</v>
       </c>
       <c r="I9" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 153.9พัน ชิ้น</v>
       </c>
       <c r="J9" t="str">
-        <v>500</v>
+        <v>จังหวัดนนทบุรี</v>
       </c>
       <c r="K9" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="L9" t="str">
-        <v/>
+        <v>6</v>
       </c>
       <c r="M9" t="str">
+        <v/>
+      </c>
+      <c r="N9" t="str">
         <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://shopee.co.th/Pramy-Moisturizing-Makeup-Setting-Spray-Matte-Finish-%E0%B8%9B%E0%B8%A3%E0%B8%B2%E0%B8%A1%E0%B8%B5%E0%B9%88-%E0%B9%80%E0%B8%8B%E0%B9%87%E0%B8%95%E0%B8%95%E0%B8%B4%E0%B9%89%E0%B8%87%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A3%E0%B8%A2%E0%B9%8C%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%AD%E0%B9%88%E0%B8%AD%E0%B8%99%E0%B9%82%E0%B8%A2%E0%B8%99-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%81%E0%B8%A1%E0%B8%97-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%9C%E0%B8%AA%E0%B8%A1%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%A1%E0%B8%B1%E0%B8%99.-i.70998059.14898763090?sp_atk=dbf0afd4-99ca-46f4-9e55-398ebee3baf2&amp;xptdk=dbf0afd4-99ca-46f4-9e55-398ebee3baf2</v>
+        <v>https://shopee.co.th/kingmallshop-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B8%81%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B9%83%E0%B8%8A%E0%B9%89-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B9%80%E0%B8%9A%E0%B8%B2-%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B8%AA%E0%B8%94%E0%B9%83%E0%B8%AA-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B8%81%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2A46-i.571023666.14749242723?sp_atk=47b469f5-db8c-4761-bcb2-89a3bb34dccd&amp;xptdk=47b469f5-db8c-4761-bcb2-89a3bb34dccd</v>
       </c>
       <c r="B10" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbl7-lpxxrpi1ygdi9b_tn</v>
+        <v>https://down-th.img.susercontent.com/file/d1552047e3193c8fdb547eae28dcb492_tn</v>
       </c>
       <c r="C10" t="str">
-        <v>-68%</v>
+        <v>-50%</v>
       </c>
       <c r="D10" t="str">
-        <v>Pramy Moisturizing Makeup Setting Spray Matte Finish ปรามี่ เซ็ตติ้งสเปรย์ที่อ่อนโยน เนื้อแมท สำหรับผิวผสมและผิวมัน.</v>
+        <v/>
       </c>
       <c r="E10" t="str">
-        <v>-</v>
+        <v>kingmallshop  กระจกพกพา น่ารักน่าใช้ น้ำหนักเบา พกพาง่าย ลายน่ารักสดใส กระจกแบบพกพาA46</v>
       </c>
       <c r="F10" t="str">
-        <v>139</v>
+        <v/>
       </c>
       <c r="G10" t="str">
-        <v>ขายแล้ว 16.8พัน ชิ้น</v>
+        <v>฿2</v>
       </c>
       <c r="H10" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>1</v>
       </c>
       <c r="I10" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 348.6พัน ชิ้น</v>
       </c>
       <c r="J10" t="str">
-        <v>189</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K10" t="str">
         <v/>
@@ -782,325 +809,349 @@
       </c>
       <c r="M10" t="str">
         <v/>
+      </c>
+      <c r="N10" t="str">
+        <v>ซื้อ 5 ชิ้น ลด 1%</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://shopee.co.th/Naree-Velvet-Matte-Creamy-Lip-Blur-3g-%E0%B8%99%E0%B8%B2%E0%B8%A3%E0%B8%B5-%E0%B9%80%E0%B8%A7%E0%B8%A5%E0%B9%80%E0%B8%A7%E0%B8%97-%E0%B9%81%E0%B8%A1%E0%B8%97-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%A1%E0%B8%B5%E0%B9%88-%E0%B8%A5%E0%B8%B4%E0%B8%9B-%E0%B9%80%E0%B8%9A%E0%B8%A5%E0%B8%AD.-i.70998059.18882463516?sp_atk=ef5bd1b3-580b-4cfc-a8aa-4c41795419ed&amp;xptdk=ef5bd1b3-580b-4cfc-a8aa-4c41795419ed</v>
+        <v>https://shopee.co.th/%F0%9F%87%B9%F0%9F%87%AD%F0%9F%93%8C%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%84%E0%B8%A7-%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B9%84%E0%B8%97%E0%B8%A2%E2%AD%90%EF%B8%8Fsticker-%E0%B9%80%E0%B8%9E%E0%B8%8A%E0%B8%A3%E0%B8%AA%E0%B8%B8%E0%B8%94%E0%B8%AE%E0%B8%B4%E0%B8%95%E0%B8%A1%E0%B8%B5%E0%B8%81%E0%B8%B2%E0%B8%A7%E0%B9%83%E0%B8%99%E0%B8%95%E0%B8%B1%E0%B8%A7-%E2%AD%90%EF%B8%8F-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B9%84%E0%B8%94%E0%B9%89-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B9%84%E0%B8%94%E0%B9%89%E0%B8%97%E0%B8%B8%E0%B8%81%E0%B8%AD%E0%B8%A7%E0%B8%B1%E0%B8%A2%E0%B8%A7%E0%B8%B0-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%AA%E0%B8%B2%E0%B8%A2%E0%B8%84%E0%B8%AD%E0%B8%99%E0%B9%80%E0%B8%97%E0%B8%99%E0%B8%97%E0%B9%8C%E0%B9%82%E0%B8%94%E0%B8%A2%E0%B9%80%E0%B8%89%E0%B8%9E%E0%B8%B2%E0%B8%B0-i.5262379.10570980026?sp_atk=a6bec24a-df30-43b6-a453-69157d032dc7&amp;xptdk=a6bec24a-df30-43b6-a453-69157d032dc7</v>
       </c>
       <c r="B11" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbla-lo9wf6p2kive3e_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-23020-8mbuqqdvf3mv9b_tn</v>
       </c>
       <c r="C11" t="str">
-        <v>-50%</v>
+        <v/>
       </c>
       <c r="D11" t="str">
-        <v>Naree Velvet Matte Creamy Lip Blur 3g นารี เวลเวท แมท ครีมมี่ ลิป เบลอ.</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="E11" t="str">
-        <v>฿199</v>
+        <v>🇹🇭📌ส่งไว จากไทย⭐️sticker เพชรสุดฮิตมีกาวในตัว ⭐️ ติดหน้าได้ ติดได้ทุกอวัยวะ สำหรับสายคอนเทนท์โดยเฉพาะ</v>
       </c>
       <c r="F11" t="str">
-        <v>99</v>
+        <v/>
       </c>
       <c r="G11" t="str">
-        <v>ขายแล้ว 20.4พัน ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="H11" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>49</v>
       </c>
       <c r="I11" t="str">
-        <v/>
+        <v>ขายแล้ว 20.5พัน ชิ้น</v>
       </c>
       <c r="J11" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K11" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="L11" t="str">
-        <v/>
+        <v>69</v>
       </c>
       <c r="M11" t="str">
+        <v>ร้านแนะนำ</v>
+      </c>
+      <c r="N11" t="str">
         <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://shopee.co.th/Siriraj-%E0%B8%A8%E0%B8%B4%E0%B8%A3%E0%B8%B4%E0%B8%A3%E0%B8%B2%E0%B8%8A-Soft-Care-Plus-%E0%B8%8B%E0%B8%AD%E0%B8%9F%E0%B8%97%E0%B9%8C%E0%B9%81%E0%B8%84%E0%B8%A3%E0%B9%8C-%E0%B8%9E%E0%B8%A5%E0%B8%B1%E0%B8%AA-30-%E0%B8%81%E0%B8%A3%E0%B8%B1%E0%B8%A1-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%97%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B8%A9%E0%B8%B2%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87-i.221185877.21002929912?sp_atk=012048d5-e564-43e6-b88d-7ddc7fd004fd&amp;xptdk=012048d5-e564-43e6-b88d-7ddc7fd004fd</v>
+        <v>https://shopee.co.th/%E0%B8%A1%E0%B8%B2%E0%B8%84%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B8%AA%E0%B9%88%E0%B8%87%F0%9F%94%A5%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99-%E0%B8%A1%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%84%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-BIOAOUA-%E0%B8%84%E0%B8%B1%E0%B8%94%E0%B8%AA%E0%B8%A3%E0%B8%A3%E0%B8%A7%E0%B8%B1%E0%B8%95%E0%B8%96%E0%B8%B8%E0%B8%94%E0%B8%B4%E0%B8%9A%E0%B8%99%E0%B8%B3%E0%B9%80%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B8%A1%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%AA%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B9%8C%E0%B8%81%E0%B8%AA%E0%B9%88%E0%B8%A7%E0%B8%99%E0%B8%9C%E0%B8%AA%E0%B8%A1%E0%B8%98%E0%B8%A3%E0%B8%A3%E0%B8%A1%E0%B8%8A%E0%B8%B2%E0%B8%95%E0%B8%B4-i.428385019.14524300647?sp_atk=418e5378-d939-4834-bedd-1e3119a8dc95&amp;xptdk=418e5378-d939-4834-bedd-1e3119a8dc95</v>
       </c>
       <c r="B12" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qula-lhxo93w5p677f2_tn</v>
+        <v/>
       </c>
       <c r="C12" t="str">
-        <v>-43%</v>
+        <v>-67%</v>
       </c>
       <c r="D12" t="str">
-        <v>Siriraj ศิริราช Soft Care Plus ซอฟท์แคร์ พลัส 30 กรัม ใช้สำหรับทารักษาผิวแห้ง</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-d6d900f677f50efcf8aa1394468bbf73</v>
       </c>
       <c r="E12" t="str">
-        <v>฿99</v>
+        <v>มาคหน้า ขายส่ง🔥แผ่น มาร์คหน้า BIOAOUA คัดสรรวัตถุดิบนำเข้าจากเกาหลี แผ่นมาร์สมาส์กส่วนผสมธรรมชาติ</v>
       </c>
       <c r="F12" t="str">
-        <v>56</v>
+        <v/>
       </c>
       <c r="G12" t="str">
-        <v>ขายแล้ว 54พัน ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="H12" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v>1</v>
       </c>
       <c r="I12" t="str">
-        <v/>
+        <v>ขายแล้ว 656พัน ชิ้น</v>
       </c>
       <c r="J12" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K12" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="L12" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-fd6431bb654df9a365c12d5881603682</v>
+        <v>3</v>
       </c>
       <c r="M12" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v>ร้านแนะนำ</v>
+      </c>
+      <c r="N12" t="str">
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://shopee.co.th/HEINO%E0%B9%80%E0%B8%9E%E0%B8%B4%E0%B9%88%E0%B8%A1%E0%B9%83%E0%B8%AB%E0%B8%8D%E0%B9%88%E0%B8%81%E0%B8%A7%E0%B9%89%E0%B8%B2%E0%B8%8727.6cm%E0%B8%8A%E0%B8%B1%E0%B9%89%E0%B8%99%E0%B8%A7%E0%B8%B2%E0%B8%87%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AA%E0%B8%B3%E0%B8%AD%E0%B8%B2%E0%B8%873%E0%B8%8A%E0%B8%B1%E0%B9%89%E0%B8%99-%E0%B8%AD%E0%B8%B8%E0%B8%9B%E0%B8%81%E0%B8%A3%E0%B8%93%E0%B9%8C%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%81%E0%B8%A5%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B9%80%E0%B8%81%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%AD%E0%B8%99%E0%B8%81%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%AA%E0%B8%87%E0%B8%84%E0%B9%8C%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%A1%E0%B8%B5%E0%B8%A5%E0%B8%B4%E0%B9%89%E0%B8%99%E0%B8%8A%E0%B8%B1%E0%B8%81-%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%A1%E0%B8%B4%E0%B8%95%E0%B8%A3%E0%B8%81%E0%B8%B1%E0%B8%9A%E0%B8%AA%E0%B8%B4%E0%B9%88%E0%B8%87%E0%B9%80%E0%B9%80%E0%B8%A7%E0%B8%94-i.58855422.6544513482?sp_atk=a6cf40c3-585b-4f69-8977-1d498c15863f&amp;xptdk=a6cf40c3-585b-4f69-8977-1d498c15863f</v>
+        <v>https://shopee.co.th/%E2%9C%A8%E0%B8%AA%E0%B8%B5%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B9%81%E0%B8%9F%E0%B8%A5%E0%B8%8A-%E0%B8%AA%E0%B8%B5%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B8%95%E0%B9%80%E0%B8%95%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%8A%E0%B8%B0%E0%B9%81%E0%B8%87%E0%B9%89%E0%B8%A2%E0%B8%B2%E0%B8%82%E0%B8%A1%E0%B8%B1%E0%B8%9A%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%88%E0%B8%A5%E2%9C%A8%E0%B8%AA%E0%B8%B5%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B8%95%E0%B9%80%E0%B8%95%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%80%E0%B8%9A%E0%B8%B2%E0%B8%9A%E0%B8%B2%E0%B8%87%E0%B8%84%E0%B8%B8%E0%B8%94-%E0%B8%95%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%AD%E0%B8%9A-%E0%B8%AA%E0%B8%B5%E0%B8%94%E0%B8%B4%E0%B8%AA%E0%B9%82%E0%B8%81%E0%B9%89-9-Colors%E2%9A%A1%EF%B8%8F-Frash-Diamond-Nail-Polish-i.239177333.9170127128?sp_atk=03d8d0c5-c7b8-470f-b4c0-965d42b87e2f&amp;xptdk=03d8d0c5-c7b8-470f-b4c0-965d42b87e2f</v>
       </c>
       <c r="B13" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98u-lonsp4m99hrx5f_tn</v>
+        <v/>
       </c>
       <c r="C13" t="str">
-        <v>-54%</v>
+        <v>-44%</v>
       </c>
       <c r="D13" t="str">
-        <v>HEINOเพิ่มใหญ่กว้าง27.6cmชั้นวางเครื่องสำอาง3ชั้น อุปกรณ์แต่งหน้า กล่องเก็บเอนกประสงค์แบบมีลิ้นชัก เป็นมิตรกับสิ่งเเวด</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="E13" t="str">
-        <v>-</v>
+        <v>✨สีเจลแฟลช สีกลิตเตอร์ชะแง้ยาขมับสีทาเจล✨สีกลิตเตอร์เบาบางคุด ต้องอบ สีดิสโก้ 9 Colors⚡️ Frash Diamond Nail Polish</v>
       </c>
       <c r="F13" t="str">
-        <v>45</v>
+        <v/>
       </c>
       <c r="G13" t="str">
-        <v>ขายแล้ว 98.2พัน ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="H13" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>14</v>
       </c>
       <c r="I13" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 28พัน ชิ้น</v>
       </c>
       <c r="J13" t="str">
-        <v>110</v>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
       <c r="K13" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>฿</v>
       </c>
       <c r="L13" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
+        <v>28</v>
       </c>
       <c r="M13" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v/>
+      </c>
+      <c r="N13" t="str">
+        <v>ซื้อ 4 ชิ้น ลด 4%</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://shopee.co.th/-%E0%B8%A5%E0%B8%B9%E0%B8%81%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-1-%E0%B8%9A%E0%B8%B2%E0%B8%97-%E0%B8%A5%E0%B8%94-50-AC10-CKL-JMF-1011-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%9C%E0%B8%A1-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%9C%E0%B8%A1-%E0%B8%97%E0%B8%B3%E0%B8%A7%E0%B8%AD%E0%B8%A5%E0%B8%A5%E0%B8%B8%E0%B9%88%E0%B8%A1-%E0%B8%87%E0%B8%B8%E0%B9%89%E0%B8%A1%E0%B8%9B%E0%B8%A5%E0%B8%B2%E0%B8%A2-%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%9C%E0%B8%A1%E0%B8%95%E0%B8%A3%E0%B8%87-%E0%B8%9B%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%99-4-%E0%B8%A3%E0%B8%B0%E0%B8%94%E0%B8%B1%E0%B8%9A-i.4062349.215033313?sp_atk=6230e03b-e458-4ce9-8294-ff89750d7806&amp;xptdk=6230e03b-e458-4ce9-8294-ff89750d7806</v>
+        <v>https://shopee.co.th/A204-%F0%9F%9A%A8%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%94%E0%B9%88%E0%B8%A7%E0%B8%99%F0%9F%9A%A8-%E0%B8%96%E0%B8%B9%E0%B8%81%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%AA%E0%B8%B8%E0%B8%94-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B8%81%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B8%81-%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%96%E0%B8%A1%E0%B8%A5%E0%B8%B9%E0%B8%81%E0%B8%84%E0%B9%89%E0%B8%B2-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%83%E0%B8%99%E0%B9%84%E0%B8%97%E0%B8%A2-i.120386404.10907557047?sp_atk=bb39a597-247e-44e1-8102-753871c9bb63&amp;xptdk=bb39a597-247e-44e1-8102-753871c9bb63</v>
       </c>
       <c r="B14" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-22120-24olp5qjpglv78_tn</v>
+        <v/>
       </c>
       <c r="C14" t="str">
-        <v>-77%</v>
+        <v/>
       </c>
       <c r="D14" t="str">
-        <v>[ ลูกค้าใหม่ 1 บาท ] ลด 50 AC10 CKL / JMF 1011 เครื่องหนีบผม ที่หนีบผม ทำวอลลุ่ม งุ้มปลาย หนีบผมตรง ปรับความร้อน 4 ระดับ</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="E14" t="str">
-        <v>-</v>
+        <v>A204 🚨พร้อมส่งด่วน🚨 ถูกที่สุด กระจกพกพา กระจก ของแถมลูกค้า พร้อมส่งในไทย</v>
       </c>
       <c r="F14" t="str">
-        <v>117</v>
+        <v/>
       </c>
       <c r="G14" t="str">
-        <v>ขายแล้ว 39พัน ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="H14" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>1</v>
       </c>
       <c r="I14" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 503.8พัน ชิ้น</v>
       </c>
       <c r="J14" t="str">
-        <v>175</v>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
       <c r="K14" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="L14" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-d6d900f677f50efcf8aa1394468bbf73</v>
+        <v>5</v>
       </c>
       <c r="M14" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v/>
+      </c>
+      <c r="N14" t="str">
+        <v>ซื้อ 10 ชิ้น ลด ฿1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://shopee.co.th/%E0%B8%9E%E0%B8%B1%E0%B8%9F%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%9E%E0%B8%B1%E0%B8%9F%E0%B9%81%E0%B8%9B%E0%B9%89%E0%B8%87%E0%B8%9D%E0%B8%B8%E0%B9%88%E0%B8%99-%E0%B8%97%E0%B8%A3%E0%B8%87%E0%B8%AB%E0%B8%A2%E0%B8%94%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B9%83%E0%B8%AB%E0%B8%8D%E0%B9%88-%E0%B8%AB%E0%B8%99%E0%B8%B2%E0%B8%99%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A3%E0%B8%B0%E0%B8%84%E0%B8%B2%E0%B8%A2%E0%B8%9C%E0%B8%B4%E0%B8%A7-i.1111988013.25600840401?sp_atk=b4522488-8c5a-49ab-98b2-84ce6b6be051&amp;xptdk=b4522488-8c5a-49ab-98b2-84ce6b6be051</v>
+        <v>https://shopee.co.th/%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%AA%E0%B8%AD%E0%B9%80%E0%B8%82%E0%B8%B5%E0%B8%A2%E0%B8%99%E0%B8%84%E0%B8%B4%E0%B9%89%E0%B8%A7-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%A5%E0%B8%B0%E0%B9%80%E0%B8%AD%E0%B8%B5%E0%B8%A2%E0%B8%94%E0%B8%9E%E0%B8%B4%E0%B9%80%E0%B8%A8%E0%B8%A9-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%8B%E0%B8%B5%E0%B8%94%E0%B8%88%E0%B8%B2%E0%B8%87-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-5-%E0%B8%AA%E0%B8%B5-%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%AA%E0%B8%AD%E0%B9%80%E0%B8%82%E0%B8%B5%E0%B8%A2%E0%B8%99%E0%B8%84%E0%B8%B4%E0%B9%89%E0%B8%A7-%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%95%E0%B8%B2-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AA%E0%B8%B3%E0%B8%AD%E0%B8%B2%E0%B8%87-i.345976058.15325159349?sp_atk=6d3ed316-2b9b-4cdc-a242-b28a012de418&amp;xptdk=6d3ed316-2b9b-4cdc-a242-b28a012de418</v>
       </c>
       <c r="B15" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98v-lo0wq3j8ct47d9_tn</v>
+        <v/>
       </c>
       <c r="C15" t="str">
-        <v>-83%</v>
+        <v>-97%</v>
       </c>
       <c r="D15" t="str">
-        <v>พัฟแต่งหน้า พัฟแป้งฝุ่น ทรงหยดน้ำ ขนาดใหญ่ หนานุ่มไม่ระคายผิว</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="E15" t="str">
-        <v>-</v>
+        <v>ดินสอเขียนคิ้ว เนื้อละเอียดพิเศษ ติดทนนาน ไม่ซีดจาง กันน้ำ 5 สี ดินสอเขียนคิ้ว แต่งตา เครื่องสำอาง</v>
       </c>
       <c r="F15" t="str">
-        <v>5</v>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="G15" t="str">
-        <v>ขายแล้ว 4.7พัน ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="H15" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>1</v>
       </c>
       <c r="I15" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 77.6พัน ชิ้น</v>
       </c>
       <c r="J15" t="str">
+        <v>ต่างประเทศ</v>
+      </c>
+      <c r="K15" t="str">
+        <v>฿</v>
+      </c>
+      <c r="L15" t="str">
         <v>9</v>
       </c>
-      <c r="K15" t="str">
-        <v/>
-      </c>
-      <c r="L15" t="str">
-        <v/>
-      </c>
       <c r="M15" t="str">
+        <v/>
+      </c>
+      <c r="N15" t="str">
         <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://shopee.co.th/%F0%9F%90%8F(%E0%B9%81%E0%B8%9E%E0%B8%84%E0%B9%80%E0%B8%81%E0%B8%88%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88)-CARISTA-GOAT-MILK-KERATIN-%E0%B8%84%E0%B8%B2%E0%B8%A3%E0%B8%B4%E0%B8%AA%E0%B8%95%E0%B9%89%E0%B8%B2-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B2%E0%B8%95%E0%B8%B4%E0%B8%99%E0%B8%99%E0%B8%A1%E0%B9%81%E0%B8%9E%E0%B8%B0-500-g.-i.78549877.12557325813?sp_atk=e15bd0f7-3282-45ae-a074-3d8ce525f289&amp;xptdk=e15bd0f7-3282-45ae-a074-3d8ce525f289</v>
+        <v>https://shopee.co.th/%E0%B8%8A%E0%B8%B8%E0%B8%94%E0%B9%84%E0%B8%A1%E0%B9%89%E0%B9%81%E0%B8%84%E0%B8%B0%E0%B8%AB%E0%B8%B9-%E0%B8%8A%E0%B8%B8%E0%B8%94%E0%B9%81%E0%B8%84%E0%B8%B0%E0%B8%AB%E0%B8%B9-%E0%B9%84%E0%B8%A1%E0%B9%89%E0%B9%81%E0%B8%84%E0%B8%B0%E0%B8%AB%E0%B8%B9-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B9%81%E0%B8%84%E0%B8%B0%E0%B8%AB%E0%B8%B9-%E0%B8%AA%E0%B9%81%E0%B8%95%E0%B8%99%E0%B9%80%E0%B8%A5%E0%B8%AA%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%AD%E0%B8%B2%E0%B8%8A%E0%B8%B5%E0%B8%9E-%E0%B8%84%E0%B8%A3%E0%B8%9A%E0%B8%8A%E0%B8%B8%E0%B8%94-6%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%97%E0%B8%B3%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%AA%E0%B8%B0%E0%B8%AD%E0%B8%B2%E0%B8%94%E0%B8%AB%E0%B8%B9%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD-Ear-pick-6in1-kit-Sutairu-i.448328557.21645894474?sp_atk=ca45448a-163a-4591-9074-671e80a37f49&amp;xptdk=ca45448a-163a-4591-9074-671e80a37f49</v>
       </c>
       <c r="B16" t="str">
-        <v>https://down-th.img.susercontent.com/file/dbbb6d1d4a972ca7fdbc263721159442_tn</v>
+        <v/>
       </c>
       <c r="C16" t="str">
-        <v>-31%</v>
+        <v>-76%</v>
       </c>
       <c r="D16" t="str">
-        <v>🐏(แพคเกจใหม่) CARISTA GOAT MILK KERATIN คาริสต้า เคราตินนมแพะ 500 g.</v>
+        <v/>
       </c>
       <c r="E16" t="str">
-        <v>-</v>
+        <v>ชุดไม้แคะหู ชุดแคะหู ไม้แคะหู ที่แคะหู สแตนเลสมืออาชีพ ครบชุด 6ชิ้น ทำความสะอาดหูเครื่องมือ Ear pick 6in1 kit Sutairu</v>
       </c>
       <c r="F16" t="str">
-        <v>27</v>
+        <v/>
       </c>
       <c r="G16" t="str">
-        <v>ขายแล้ว 157.5พัน ชิ้น</v>
+        <v>฿29</v>
       </c>
       <c r="H16" t="str">
-        <v>จังหวัดปทุมธานี</v>
+        <v>7</v>
       </c>
       <c r="I16" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 36.3พัน ชิ้น</v>
       </c>
       <c r="J16" t="str">
-        <v>175</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K16" t="str">
         <v/>
       </c>
       <c r="L16" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-d6d900f677f50efcf8aa1394468bbf73</v>
+        <v/>
       </c>
       <c r="M16" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v/>
+      </c>
+      <c r="N16" t="str">
+        <v>ซื้อ 6 ชิ้น ลด 2%</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://shopee.co.th/Muge-LEEN-%E0%B9%84%E0%B8%AE%E0%B9%84%E0%B8%A5%E0%B8%97%E0%B9%8C%E0%B8%84%E0%B8%AD%E0%B8%99%E0%B8%97%E0%B8%B1%E0%B8%A7%E0%B8%A3%E0%B9%8C-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%81%E0%B8%A1%E0%B8%95%E0%B8%95%E0%B9%8C-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B9%8D%E0%B8%B2-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-i.237213347.23274828336?sp_atk=1c1c3183-8af4-4fbf-90cc-69461a405cb9&amp;xptdk=1c1c3183-8af4-4fbf-90cc-69461a405cb9</v>
+        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B5%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B9%81%E0%B8%9F%E0%B8%A5%E0%B8%8A%E0%B9%84%E0%B8%94%E0%B8%A1%E0%B8%AD%E0%B8%99%E0%B8%94%E0%B9%8C%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B8%95%E0%B9%80%E0%B8%95%E0%B8%AD%E0%B8%A3%E0%B9%8C-Annies-2023-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%A1%E0%B8%B1%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%9B%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%81%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-%E0%B8%A2%E0%B8%B2%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%AA%E0%B8%B5%E0%B9%83%E0%B8%AA-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%A2%E0%B8%B2%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%AA%E0%B8%B0%E0%B8%97%E0%B9%89%E0%B8%AD%E0%B8%99%E0%B9%81%E0%B8%AA%E0%B8%87%E0%B8%95%E0%B8%B2%E0%B9%81%E0%B8%A1%E0%B8%A7-%E0%B8%AA%E0%B8%B5%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%A2%E0%B8%B9%E0%B8%A7%E0%B8%B5-3D-%E0%B9%84%E0%B8%82%E0%B9%88%E0%B8%A1%E0%B8%B8%E0%B8%81-glitter-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-%E0%B9%80%E0%B8%A1%E0%B9%87%E0%B8%94%E0%B8%AA%E0%B8%B5%E0%B9%81%E0%B8%99%E0%B9%88%E0%B8%99-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%A1%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%95%E0%B9%88%E0%B8%AD%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%81%E0%B8%9F%E0%B8%A5%E0%B8%8A%E3%80%90Luun%E3%80%91-i.295447014.9720363391?sp_atk=dcc59784-6897-4e0e-b26d-ee684c43df57&amp;xptdk=dcc59784-6897-4e0e-b26d-ee684c43df57</v>
       </c>
       <c r="B17" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7qvfw-ljm76868v3iv67_tn</v>
+        <v>https://down-th.img.susercontent.com/file/5fcdd421d81100f402ec54004cf1ace2_tn</v>
       </c>
       <c r="C17" t="str">
-        <v>-73%</v>
+        <v>-43%</v>
       </c>
       <c r="D17" t="str">
-        <v>Muge LEEN ไฮไลท์คอนทัวร์ เนื้อแมตต์ กันน้ํา ติดทนนาน</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="E17" t="str">
-        <v>-</v>
+        <v>สีเจลแฟลชไดมอนด์กลิตเตอร์ Annies 2023 น้ำมันทาเล็บเปลือกใหม่ ยาทาเล็บเจลสีใส เจลยาทาเล็บสะท้อนแสงตาแมว สีเจล สีทาเล็บเจล เจลยูวี 3D ไข่มุก glitter ติดทนนาน เม็ดสีแน่น น้ำมันเล็บต่อเล็บแฟลช【Luun】</v>
       </c>
       <c r="F17" t="str">
-        <v>11</v>
+        <v/>
       </c>
       <c r="G17" t="str">
-        <v>ขายแล้ว 11.5พัน ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="H17" t="str">
+        <v>28</v>
+      </c>
+      <c r="I17" t="str">
+        <v>ขายแล้ว 33.8พัน ชิ้น</v>
+      </c>
+      <c r="J17" t="str">
         <v>ต่างประเทศ</v>
       </c>
-      <c r="I17" t="str">
-        <v>฿</v>
-      </c>
-      <c r="J17" t="str">
-        <v>23</v>
-      </c>
       <c r="K17" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="L17" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-d6d900f677f50efcf8aa1394468bbf73</v>
+        <v>52</v>
       </c>
       <c r="M17" t="str">
         <v/>
+      </c>
+      <c r="N17" t="str">
+        <v>ซื้อ 5 ชิ้น ลด ฿2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://shopee.co.th/Mediheal-Labocare-Panteno-Lips-Healssence-10ml-%E0%B9%80%E0%B8%A1%E0%B8%94%E0%B8%B4%E0%B8%AE%E0%B8%B5%E0%B8%A5-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B9%80%E0%B8%AD%E0%B8%AA%E0%B9%80%E0%B8%8B%E0%B8%99%E0%B8%95%E0%B9%8C%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%AA%E0%B8%B5%E0%B8%8A%E0%B8%A1%E0%B8%9E%E0%B8%B9-%E0%B8%8A%E0%B9%88%E0%B8%A7%E0%B8%A2%E0%B8%9A%E0%B8%B3%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B8%9B%E0%B8%B2%E0%B8%81%E0%B9%80%E0%B8%99%E0%B8%B5%E0%B8%A2%E0%B8%99%E0%B8%99%E0%B8%B8%E0%B9%88%E0%B8%A1-%E0%B8%8A%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%8A%E0%B8%B7%E0%B9%89%E0%B8%99.-i.70998059.13056651342?sp_atk=c650f056-12d0-4346-92c5-ee2676ebad89&amp;xptdk=c650f056-12d0-4346-92c5-ee2676ebad89</v>
+        <v>https://shopee.co.th/%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%94%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2-%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%9A%E0%B8%99%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%A5%E0%B9%88%E0%B8%B2%E0%B8%87-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%94%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%9A%E0%B8%B2%E0%B8%87%E0%B8%AA%E0%B9%88%E0%B8%A7%E0%B8%99%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%81%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%8D%E0%B8%B5%E0%B9%88%E0%B8%9B%E0%B8%B8%E0%B9%88%E0%B8%99%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%94%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2-muji-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%95%E0%B9%88%E0%B8%AD%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2-i.149823108.13961213785?sp_atk=51ea321f-c1d7-4fc7-872a-0529622a361d&amp;xptdk=51ea321f-c1d7-4fc7-872a-0529622a361d</v>
       </c>
       <c r="B18" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbms-lpy15hpu6qzqe7_tn</v>
+        <v>https://down-th.img.susercontent.com/file/39fca6cb73f49e1ac7e3dce8f97d3f1a_tn</v>
       </c>
       <c r="C18" t="str">
-        <v>-51%</v>
+        <v>-96%</v>
       </c>
       <c r="D18" t="str">
-        <v>Mediheal Labocare Panteno Lips Healssence 10ml เมดิฮีล ลิปเอสเซนต์เนื้อเจลสีชมพู ช่วยบำรุงให้ปากเนียนนุ่ม ชุ่มชื้น.</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
       </c>
       <c r="E18" t="str">
-        <v>฿199</v>
+        <v>ที่ดัดขนตา, ขนตาบนและล่าง,ที่ดัดขนตาบางส่วนแบบพกพาขนาดเล็กของญี่ปุ่นและเกาหลี ที่ดัดขนตา muji เครื่องมือแต่งหน้าต่อขนตา</v>
       </c>
       <c r="F18" t="str">
-        <v>98</v>
+        <v/>
       </c>
       <c r="G18" t="str">
-        <v>ขายแล้ว 15.4พัน ชิ้น</v>
+        <v>฿25</v>
       </c>
       <c r="H18" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>1</v>
       </c>
       <c r="I18" t="str">
-        <v/>
+        <v>ขายแล้ว 92.7พัน ชิ้น</v>
       </c>
       <c r="J18" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K18" t="str">
         <v/>
@@ -1109,162 +1160,174 @@
         <v/>
       </c>
       <c r="M18" t="str">
+        <v>ร้านแนะนำ</v>
+      </c>
+      <c r="N18" t="str">
         <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://shopee.co.th/%E0%B9%84%E0%B8%94%E0%B8%A3%E0%B9%8C%E0%B9%80%E0%B8%9B%E0%B9%88%E0%B8%B2%E0%B8%9C%E0%B8%A1-2200-%E0%B8%A7%E0%B8%B1%E0%B8%95%E0%B8%95%E0%B9%8C-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%9F%E0%B8%B1%E0%B8%87%E0%B8%81%E0%B9%8C%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B8%9B%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%A3%E0%B8%B0%E0%B8%94%E0%B8%B1%E0%B8%9A-5-%E0%B8%A3%E0%B8%B0%E0%B8%94%E0%B8%B1%E0%B8%9A%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%99-%E0%B9%80%E0%B8%A2%E0%B9%87%E0%B8%99-%E0%B8%A5%E0%B8%A1%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%99%E0%B9%81%E0%B8%A3%E0%B8%87-%E0%B8%A5%E0%B8%A1%E0%B9%81%E0%B8%A3%E0%B8%87%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87%E0%B9%80%E0%B8%A3%E0%B9%87%E0%B8%A7-%E0%B8%AA%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%9F%E0%B8%97%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%99-i.240677960.3832789785?sp_atk=52f10807-8746-47c6-902e-9db9edb9d838&amp;xptdk=52f10807-8746-47c6-902e-9db9edb9d838</v>
+        <v>https://shopee.co.th/%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%AA%E0%B8%AD%E0%B9%80%E0%B8%82%E0%B8%B5%E0%B8%A2%E0%B8%99%E0%B8%84%E0%B8%B4%E0%B9%89%E0%B8%A7-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%AA%E0%B8%AD%E0%B9%80%E0%B8%82%E0%B8%B5%E0%B8%A2%E0%B8%99%E0%B8%84%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%AB%E0%B8%A1%E0%B8%B8%E0%B8%99-2-in-1-%E0%B8%A1%E0%B8%B5%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87%E0%B8%9B%E0%B8%B1%E0%B8%94%E0%B8%84%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%83%E0%B8%99%E0%B8%95%E0%B8%B1%E0%B8%A7-%E0%B8%A1%E0%B8%B5-5-%E0%B8%AA%E0%B8%B5%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B9%80%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%81-%E2%9A%A0%EF%B8%8F%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%E2%9A%A0%EF%B8%8F-i.284038002.10767868593?sp_atk=7d35366f-b65e-48ce-a865-696453e16f12&amp;xptdk=7d35366f-b65e-48ce-a865-696453e16f12</v>
       </c>
       <c r="B19" t="str">
-        <v>https://down-th.img.susercontent.com/file/5f864091145689738e417638fdaf7e66_tn</v>
+        <v>https://down-th.img.susercontent.com/file/3458f0fe5f29aef0747a6289451a82a1_tn</v>
       </c>
       <c r="C19" t="str">
-        <v>-16%</v>
+        <v>-97%</v>
       </c>
       <c r="D19" t="str">
-        <v>ไดร์เป่าผม 2200 วัตต์ พร้อมฟังก์ชั่นปรับระดับ 5 ระดับร้อน / เย็น ลมร้อนแรง ลมแรงแห้งเร็ว สายไฟทนทาน</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="E19" t="str">
-        <v>-</v>
+        <v>ดินสอเขียนคิ้ว กันน้ำ ดินสอเขียนคิ้วแบบหมุน 2 in 1 มีแปรงปัดคิ้วในตัว มี 5 สีให้เลือก ⚠️พร้อมส่ง⚠️</v>
       </c>
       <c r="F19" t="str">
-        <v>99</v>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="G19" t="str">
-        <v>ขายแล้ว 14.9พัน ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="H19" t="str">
-        <v>จังหวัดปทุมธานี</v>
+        <v>1</v>
       </c>
       <c r="I19" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 171.7พัน ชิ้น</v>
       </c>
       <c r="J19" t="str">
-        <v>100</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K19" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="L19" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v>7</v>
       </c>
       <c r="M19" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v/>
+      </c>
+      <c r="N19" t="str">
+        <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://shopee.co.th/Naturista-%E0%B9%82%E0%B8%97%E0%B8%99%E0%B9%80%E0%B8%99%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%97%E0%B8%B5%E0%B8%97%E0%B8%A3%E0%B8%B5-%E0%B8%97%E0%B8%B3%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%AA%E0%B8%B0%E0%B8%AD%E0%B8%B2%E0%B8%94%E0%B8%AA%E0%B8%B4%E0%B9%88%E0%B8%87%E0%B8%95%E0%B8%81%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B8%9A%E0%B8%99%E0%B9%83%E0%B8%9A%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%AD%E0%B8%A2%E0%B9%88%E0%B8%B2%E0%B8%87%E0%B8%A5%E0%B9%89%E0%B8%B3%E0%B8%A5%E0%B8%B6%E0%B8%81-%E0%B8%8A%E0%B9%88%E0%B8%A7%E0%B8%A2%E0%B8%9B%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%9B%E0%B8%B1%E0%B8%8D%E0%B8%AB%E0%B8%B2%E0%B8%AA%E0%B8%B4%E0%B8%A7-%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%8A%E0%B8%B1%E0%B8%9A%E0%B8%A3%E0%B8%B9%E0%B8%82%E0%B8%B8%E0%B8%A1%E0%B8%82%E0%B8%99-Tea-Tree-Facial-Toner-250ml-i.223832803.5416200813?sp_atk=57eadf9a-8c64-4fb1-9774-6d2b177b2793&amp;xptdk=57eadf9a-8c64-4fb1-9774-6d2b177b2793</v>
+        <v>https://shopee.co.th/(6%E0%B8%8B%E0%B8%AD%E0%B8%87-%E0%B8%81%E0%B8%A5%E0%B9%88%E0%B8%AD%E0%B8%87)Clear-nose-Acne-Care-Solution-Serum-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%A3%E0%B9%8C%E0%B9%82%E0%B8%99%E0%B8%AA-%E0%B9%81%E0%B8%AD%E0%B8%84%E0%B9%80%E0%B8%99%E0%B9%88-%E0%B9%81%E0%B8%84%E0%B8%A3%E0%B9%8C-%E0%B9%82%E0%B8%8B%E0%B8%A5%E0%B8%B9%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99-%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%A1-i.314059043.6257698711?sp_atk=a3ccc53e-ab96-4733-ad6e-63d6f90e874d&amp;xptdk=a3ccc53e-ab96-4733-ad6e-63d6f90e874d</v>
       </c>
       <c r="B20" t="str">
-        <v>https://down-th.img.susercontent.com/file/3a2f3064ea7f92bc4f6991fb763373ce_tn</v>
+        <v>https://down-th.img.susercontent.com/file/b9ba89248a8f6a57ca15f29d41f11fe1_tn</v>
       </c>
       <c r="C20" t="str">
-        <v>-77%</v>
+        <v/>
       </c>
       <c r="D20" t="str">
-        <v>Naturista โทนเนอร์ทีทรี ทำความสะอาดสิ่งตกค้างบนใบหน้าอย่างล้ำลึก ช่วยป้องกันปัญหาสิว และกระชับรูขุมขน Tea Tree Facial Toner 250ml</v>
+        <v/>
       </c>
       <c r="E20" t="str">
-        <v>฿390</v>
+        <v>(6ซอง/กล่อง)Clear nose Acne Care Solution Serum เครียร์โนส แอคเน่ แคร์ โซลูชั่น เซรั่ม</v>
       </c>
       <c r="F20" t="str">
-        <v>89</v>
+        <v/>
       </c>
       <c r="G20" t="str">
-        <v>ขายแล้ว 279.4พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="H20" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>181</v>
       </c>
       <c r="I20" t="str">
-        <v/>
+        <v>ขายแล้ว 46.5พัน ชิ้น</v>
       </c>
       <c r="J20" t="str">
-        <v/>
+        <v>จังหวัดมุกดาหาร</v>
       </c>
       <c r="K20" t="str">
         <v/>
       </c>
       <c r="L20" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v/>
       </c>
       <c r="M20" t="str">
+        <v>ร้านแนะนำ</v>
+      </c>
+      <c r="N20" t="str">
         <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://shopee.co.th/Banana-Boat-Aqua-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%81%E0%B8%94%E0%B8%94%E0%B8%9A%E0%B8%B2%E0%B8%99%E0%B8%B2%E0%B8%99%E0%B9%88%E0%B8%B2-%E0%B9%82%E0%B8%9A%E0%B9%89%E0%B8%97.-i.70998059.9245467680?sp_atk=090c1707-ccfd-4bc1-adc6-033bc79651b1&amp;xptdk=090c1707-ccfd-4bc1-adc6-033bc79651b1</v>
+        <v>https://shopee.co.th/%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%97%E0%B8%B2%E0%B8%A1%E0%B8%B7%E0%B8%AD-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%9A%E0%B8%B3%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87-100g%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%A1%E0%B8%B1%E0%B8%99%E0%B8%A1%E0%B9%89%E0%B8%B2-hand-cream-%E0%B8%84%E0%B8%99%E0%B8%B5%E0%B8%A1%E0%B8%9A%E0%B8%B3%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD-i.883153295.16287680915?sp_atk=ec4e45b4-3706-4d23-9e07-b28c7eecfd8c&amp;xptdk=ec4e45b4-3706-4d23-9e07-b28c7eecfd8c</v>
       </c>
       <c r="B21" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rblr-lpy1ui8idyivf3_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-22100-s70n2j8jpniv3e_tn</v>
       </c>
       <c r="C21" t="str">
-        <v>-55%</v>
+        <v>-47%</v>
       </c>
       <c r="D21" t="str">
-        <v>Banana Boat Aqua กันแดดบานาน่า โบ้ท.</v>
+        <v/>
       </c>
       <c r="E21" t="str">
-        <v>-</v>
+        <v>ครีมทามือ ครีมบำรุงมือแห้ง 100gน้ำมันม้า hand cream  คนีมบำรุงมือ</v>
       </c>
       <c r="F21" t="str">
-        <v>195</v>
+        <v/>
       </c>
       <c r="G21" t="str">
-        <v>ขายแล้ว 74.5พัน ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="H21" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>52</v>
       </c>
       <c r="I21" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 16.4พัน ชิ้น</v>
       </c>
       <c r="J21" t="str">
-        <v>329</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K21" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="L21" t="str">
-        <v/>
+        <v>232</v>
       </c>
       <c r="M21" t="str">
         <v/>
+      </c>
+      <c r="N21" t="str">
+        <v>ซื้อ 2 ชิ้น ลด 3%</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://shopee.co.th/Srichand-Skin-Moisture-Burst-Gel-Cream-10ml-%E0%B8%A8%E0%B8%A3%E0%B8%B5%E0%B8%88%E0%B8%B1%E0%B8%99%E0%B8%97%E0%B8%A3%E0%B9%8C-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%A5%E0%B9%87%E0%B8%AD%E0%B8%84%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%AD%E0%B8%B4%E0%B9%88%E0%B8%A1%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%8B%E0%B8%AD%E0%B8%87.-i.70998059.21217827137?sp_atk=c34fef6f-b94f-40cd-94ad-8fef347f7ca4&amp;xptdk=c34fef6f-b94f-40cd-94ad-8fef347f7ca4</v>
+        <v>https://shopee.co.th/kingshopping%EF%BC%88%E0%B8%A3%E0%B9%89%E0%B8%B2%E0%B8%99%E0%B9%84%E0%B8%97%E0%B8%A2)-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B8%81%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B9%83%E0%B8%8A%E0%B9%89-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B9%80%E0%B8%9A%E0%B8%B2-%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B8%AA%E0%B8%94%E0%B9%83%E0%B8%AA-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B8%81%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2A46-i.162894152.4648826768?sp_atk=df41d9b0-ff28-4ae5-befe-1db9e22847a9&amp;xptdk=df41d9b0-ff28-4ae5-befe-1db9e22847a9</v>
       </c>
       <c r="B22" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rblq-lobsgw9xsrsga9_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul2-lhds0ost8vzoa6_tn</v>
       </c>
       <c r="C22" t="str">
-        <v/>
+        <v>-50%</v>
       </c>
       <c r="D22" t="str">
-        <v>Srichand Skin Moisture Burst Gel Cream 10ml ศรีจันทร์ เจลครีมล็อคผิวอิ่มน้ำ แบบซอง.</v>
+        <v/>
       </c>
       <c r="E22" t="str">
-        <v/>
+        <v>kingshopping（ร้านไทย) กระจกพกพา น่ารักน่าใช้ น้ำหนักเบา พกพาง่าย ลายน่ารักสดใส กระจกแบบพกพาA46</v>
       </c>
       <c r="F22" t="str">
-        <v>39</v>
+        <v/>
       </c>
       <c r="G22" t="str">
-        <v>ขายแล้ว 58.8พัน ชิ้น</v>
+        <v>฿2</v>
       </c>
       <c r="H22" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>1</v>
       </c>
       <c r="I22" t="str">
-        <v/>
+        <v>ขายแล้ว 1.5ล้าน ชิ้น</v>
       </c>
       <c r="J22" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K22" t="str">
         <v/>
@@ -1273,39 +1336,42 @@
         <v/>
       </c>
       <c r="M22" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
+      </c>
+      <c r="N22" t="str">
+        <v>ซื้อ 5 ชิ้น ลด 1%</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://shopee.co.th/%F0%9F%8C%B8(%E0%B9%81%E0%B8%9E%E0%B8%84%E0%B9%80%E0%B8%81%E0%B8%88%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88)-COSMIC-%E0%B8%84%E0%B8%AD%E0%B8%AA%E0%B8%A1%E0%B8%B4%E0%B8%84-%E0%B8%84%E0%B8%AD%E0%B8%AA%E0%B8%A1%E0%B8%B4%E0%B8%81-%E0%B8%A1%E0%B8%B9%E0%B8%AA%E0%B9%80%E0%B8%97%E0%B8%9E%E0%B8%81%E0%B8%B3%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99-%E0%B8%81%E0%B8%B3%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B9%81%E0%B8%A3%E0%B9%89-%E0%B8%81%E0%B8%B3%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%AA%E0%B8%B2%E0%B8%A7-100-ml.-i.78549877.6442547811?sp_atk=bc888498-98e1-4845-ba01-67db12e96ac9&amp;xptdk=bc888498-98e1-4845-ba01-67db12e96ac9</v>
+        <v>https://shopee.co.th/%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%A5%E0%B8%B4%E0%B8%82%E0%B8%A7%E0%B8%B4%E0%B8%94-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%8A%E0%B8%B4%E0%B8%A1%E0%B9%80%E0%B8%A1%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%A1%E0%B8%B8%E0%B8%81-%E0%B9%81%E0%B8%A1%E0%B8%95%E0%B8%95%E0%B9%8C-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-%E0%B8%95%E0%B8%81%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%9B%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%81%E0%B8%95%E0%B8%B2-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%80%E0%B8%8A%E0%B9%82%E0%B8%94-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B9%81%E0%B8%97%E0%B9%88%E0%B8%87%EF%BC%8C%E0%B8%97%E0%B8%B2%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-i.244595621.10674863111?sp_atk=4cf9785b-e03a-4f41-a3ef-8f9a9e9a2317&amp;xptdk=4cf9785b-e03a-4f41-a3ef-8f9a9e9a2317</v>
       </c>
       <c r="B23" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-23030-c0sbznoujdovc6_tn</v>
+        <v>https://down-th.img.susercontent.com/file/c73dac26040ee84ccda080f18a3ef519_tn</v>
       </c>
       <c r="C23" t="str">
-        <v/>
+        <v>-83%</v>
       </c>
       <c r="D23" t="str">
-        <v>🌸(แพคเกจใหม่) COSMIC คอสมิค คอสมิก มูสเทพกำจัดขน กำจัดขนรักแร้ กำจัดขนน้องสาว 100 ml.</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="E23" t="str">
-        <v/>
+        <v>อายแชโดว์แบบลิขวิด เนื้อชิมเมอร์ มุก แมตต์ กันน้ำ กันเหงื่อ ตกแต่งเปลือกตา/อายเชโด/อายแชโดว์แบบแท่ง，ทาอายแชโดว์</v>
       </c>
       <c r="F23" t="str">
-        <v>189</v>
+        <v/>
       </c>
       <c r="G23" t="str">
-        <v>ขายแล้ว 52.4พัน ชิ้น</v>
+        <v>฿58</v>
       </c>
       <c r="H23" t="str">
-        <v>จังหวัดปทุมธานี</v>
+        <v>10</v>
       </c>
       <c r="I23" t="str">
-        <v/>
+        <v>ขายแล้ว 70.5พัน ชิ้น</v>
       </c>
       <c r="J23" t="str">
-        <v/>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K23" t="str">
         <v/>
@@ -1314,203 +1380,218 @@
         <v/>
       </c>
       <c r="M23" t="str">
+        <v/>
+      </c>
+      <c r="N23" t="str">
         <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://shopee.co.th/%F0%9F%94%A5%E0%B9%82%E0%B8%9B%E0%B8%A312.12%F0%9F%94%A5%E0%B9%82%E0%B8%84%E0%B9%89%E0%B8%94-30WOW12-%E0%B8%A5%E0%B8%94%E0%B8%AA%E0%B8%B9%E0%B8%87%E0%B8%AA%E0%B8%B8%E0%B8%94-200%E0%B8%BF.-IN2IT-PRIMER-%E0%B9%84%E0%B8%9E%E0%B8%A3%E0%B9%80%E0%B8%A1%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%81%E0%B8%B3%E0%B8%A1%E0%B8%B0%E0%B8%AB%E0%B8%A2%E0%B8%B5%E0%B9%88-PMP-15ml.-i.28469453.21885097103?sp_atk=f89bcd43-12eb-4134-86ba-563887610769&amp;xptdk=f89bcd43-12eb-4134-86ba-563887610769</v>
+        <v>https://shopee.co.th/%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AD%E0%B8%B2%E0%B8%87-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%81%E0%B8%A5%E0%B8%AD%E0%B8%AA-%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%8A%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%8A%E0%B8%B7%E0%B9%89%E0%B8%99-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-%E0%B9%80%E0%B8%9B%E0%B8%A5%E0%B8%B5%E0%B9%88%E0%B8%A2%E0%B8%99%E0%B8%AA%E0%B8%B5%E0%B9%84%E0%B8%94%E0%B9%89-i.273622042.10053874809?sp_atk=7a42595c-08e0-4d08-a015-937405130770&amp;xptdk=7a42595c-08e0-4d08-a015-937405130770</v>
       </c>
       <c r="B24" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r992-lmptwxaktg5j5b_tn</v>
+        <v>https://down-th.img.susercontent.com/file/36bae79efd7cb0fdcfb64889b8f6f052_tn</v>
       </c>
       <c r="C24" t="str">
-        <v>-41%</v>
+        <v>-99%</v>
       </c>
       <c r="D24" t="str">
-        <v>🔥โปร12.12🔥โค้ด 30WOW12 ลดสูงสุด 200฿.- IN2IT PRIMER++ ไพรเมอร์เนื้อกำมะหยี่ PMP 15ml.</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="E24" t="str">
-        <v>฿235</v>
+        <v>เครื่องสําอาง ลิปสติก ลิปกลอส ให้ความชุ่มชื้น ติดทนนาน เปลี่ยนสีได้</v>
       </c>
       <c r="F24" t="str">
-        <v>139</v>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="G24" t="str">
-        <v>ขายแล้ว 7.3พัน ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="H24" t="str">
-        <v>จังหวัดนครราชสีมา</v>
+        <v>1</v>
       </c>
       <c r="I24" t="str">
-        <v/>
+        <v>ขายแล้ว 204พัน ชิ้น</v>
       </c>
       <c r="J24" t="str">
-        <v/>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K24" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="L24" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
+        <v>9</v>
       </c>
       <c r="M24" t="str">
+        <v>ร้านแนะนำ</v>
+      </c>
+      <c r="N24" t="str">
         <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://shopee.co.th/Naturista-Tea-Tree-Special-Set-%E0%B8%8A%E0%B8%B8%E0%B8%94%E0%B8%9B%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B9%80%E0%B8%81%E0%B8%B4%E0%B8%94%E0%B8%AA%E0%B8%B4%E0%B8%A7-%E0%B8%9A%E0%B8%B3%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B8%9C%E0%B8%B4%E0%B8%A7-%E0%B9%80%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%9A%E0%B9%80%E0%B8%99%E0%B8%B5%E0%B8%A2%E0%B8%99-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%8A%E0%B8%B1%E0%B8%9A-%E0%B8%8B%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B9%80%E0%B8%8B%E0%B8%95%E0%B8%96%E0%B8%B9%E0%B8%81%E0%B8%81%E0%B8%A7%E0%B9%88%E0%B8%B2!-i.223832803.3471207676?sp_atk=fe0b8cfd-b76f-4c13-b287-81a858f01711&amp;xptdk=fe0b8cfd-b76f-4c13-b287-81a858f01711</v>
+        <v>https://shopee.co.th/%F0%9F%87%B9%F0%9F%87%AD%E0%B8%A3%E0%B9%89%E0%B8%B2%E0%B8%99%E0%B9%84%E0%B8%97%E0%B8%A2%F0%9F%87%B9%F0%9F%87%AD%E3%80%90R668%E3%80%91%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B8%B3%E0%B9%80%E0%B8%A3%E0%B9%87%E0%B8%88%E0%B8%A3%E0%B8%B9%E0%B8%9B-%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B8%B3%E0%B9%80%E0%B8%A3%E0%B9%87%E0%B8%88%E0%B8%A3%E0%B8%B9%E0%B8%9B-%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%AA%E0%B9%80%E0%B8%A3%E0%B9%87%E0%B8%88%E0%B8%A3%E0%B8%B9%E0%B8%9B-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-i.697164735.19966425966?sp_atk=1d685fa8-e1c1-4af3-abba-0406adc3090d&amp;xptdk=1d685fa8-e1c1-4af3-abba-0406adc3090d</v>
       </c>
       <c r="B25" t="str">
-        <v>https://down-th.img.susercontent.com/file/e61da4e7ad542b9d27b81f4ea0556853_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-22120-yukw6kmsllkvc8_tn</v>
       </c>
       <c r="C25" t="str">
-        <v>-77%</v>
+        <v>-53%</v>
       </c>
       <c r="D25" t="str">
-        <v>Naturista Tea Tree Special Set ชุดป้องกันการเกิดสิว บำรุงผิว เรียบเนียน กระชับ ซื้อเป็นเซตถูกกว่า!</v>
+        <v/>
       </c>
       <c r="E25" t="str">
-        <v>฿1,700</v>
+        <v>🇹🇭ร้านไทย🇹🇭【R668】เล็บปลอมสำเร็จรูป ล็บปลอมสำเร็จรูป เล็บปลอมเจล เล็บเจล เล็บเจลสเร็จรูป พร้อมส่ง</v>
       </c>
       <c r="F25" t="str">
-        <v>399</v>
+        <v/>
       </c>
       <c r="G25" t="str">
-        <v>ขายแล้ว 86.4พัน ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="H25" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>10</v>
       </c>
       <c r="I25" t="str">
-        <v/>
+        <v>ขายแล้ว 13.7พัน ชิ้น</v>
       </c>
       <c r="J25" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K25" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="L25" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>49</v>
       </c>
       <c r="M25" t="str">
+        <v/>
+      </c>
+      <c r="N25" t="str">
         <v/>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://shopee.co.th/Naturista-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%A5%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%97%E0%B8%B5%E0%B8%97%E0%B8%A3%E0%B8%B5-pH-Balance-5.5-%E0%B8%AA%E0%B8%B9%E0%B8%95%E0%B8%A3%E0%B8%AD%E0%B9%88%E0%B8%AD%E0%B8%99%E0%B9%82%E0%B8%A2%E0%B8%99-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%84%E0%B8%99%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%AA%E0%B8%B4%E0%B8%A7-%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B9%81%E0%B8%9E%E0%B9%89%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-Tea-Tree-Facial-Cleanser-300ml-i.223832803.3716295861?sp_atk=9d1b45f0-410a-4146-9a60-54fe9825dd13&amp;xptdk=9d1b45f0-410a-4146-9a60-54fe9825dd13</v>
+        <v>https://shopee.co.th/%E0%B9%80%E0%B8%8B%E0%B8%97%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-%E0%B8%9B%E0%B8%B1%E0%B8%81%E0%B9%81%E0%B8%81%E0%B9%89%E0%B8%A1-%E0%B8%84%E0%B8%B4%E0%B9%89%E0%B8%A7-%E0%B8%9B%E0%B8%B2%E0%B8%81-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-1-%E0%B9%80%E0%B8%8B%E0%B8%95-%E0%B8%A1%E0%B8%B5-8-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-i.852230243.21151604324?sp_atk=458b2065-e577-4afa-a2bd-93ecf02f38d2&amp;xptdk=458b2065-e577-4afa-a2bd-93ecf02f38d2</v>
       </c>
       <c r="B26" t="str">
-        <v>https://down-th.img.susercontent.com/file/82d41d3050c4b4ef8e831c678a527402_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-22100-delxgskgyviv45_tn</v>
       </c>
       <c r="C26" t="str">
-        <v>-88%</v>
+        <v>-62%</v>
       </c>
       <c r="D26" t="str">
-        <v>Naturista เจลล้างหน้าทีทรี pH Balance 5.5 สูตรอ่อนโยน สำหรับคนเป็นสิว และผิวแพ้ง่าย Tea Tree Facial Cleanser 300ml</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
       </c>
       <c r="E26" t="str">
-        <v>฿750</v>
+        <v>เซทแปรงแต่งหน้า อายแชโดว์ ปักแก้ม คิ้ว ปาก ขนาดพกพา  1 เซต มี 8 ชิ้น</v>
       </c>
       <c r="F26" t="str">
-        <v>89</v>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="G26" t="str">
-        <v>ขายแล้ว 513พัน ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="H26" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>10</v>
       </c>
       <c r="I26" t="str">
-        <v/>
+        <v>ขายแล้ว 35.6พัน ชิ้น</v>
       </c>
       <c r="J26" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K26" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="L26" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>15</v>
       </c>
       <c r="M26" t="str">
+        <v>ร้านแนะนำ</v>
+      </c>
+      <c r="N26" t="str">
         <v/>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://shopee.co.th/Rubycell-%E0%B8%9E%E0%B8%B1%E0%B8%9F%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%9E%E0%B8%B1%E0%B8%9F%E0%B9%81%E0%B8%9B%E0%B9%89%E0%B8%87%E0%B8%9D%E0%B8%B8%E0%B9%88%E0%B8%99-%E0%B8%9E%E0%B8%B1%E0%B8%9F%E0%B8%84%E0%B8%B8%E0%B8%8A%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99-%E0%B8%97%E0%B8%A3%E0%B8%87%E0%B8%AB%E0%B8%A2%E0%B8%94%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B9%83%E0%B8%AB%E0%B8%8D%E0%B9%88-%E0%B8%AB%E0%B8%99%E0%B8%B2%E0%B8%99%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A3%E0%B8%B0%E0%B8%84%E0%B8%B2%E0%B8%A2%E0%B8%9C%E0%B8%B4%E0%B8%A7-i.291114372.18373285225?sp_atk=96df9205-d970-4313-8afa-6a455b77f071&amp;xptdk=96df9205-d970-4313-8afa-6a455b77f071</v>
+        <v>https://shopee.co.th/S-14%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B8%A1%E0%B8%B5%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%E2%9A%A1%EF%B8%8FCappuvini-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B8%AA%E0%B9%80%E0%B8%95%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%A5%E0%B8%B4%E0%B8%84%E0%B8%A7%E0%B8%B4%E0%B8%94-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C%E0%B9%84%E0%B8%AE%E0%B9%84%E0%B8%A5%E0%B8%97%E0%B9%8C-%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%81%E0%B8%B2%E0%B8%A2%E0%B8%A1%E0%B8%B8%E0%B8%81-%E0%B9%80%E0%B9%80%E0%B8%A7%E0%B8%A7%E0%B8%A7%E0%B8%B2%E0%B8%A7%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-i.250814349.14092316989?sp_atk=effec64c-c071-4f2f-8b94-e29a86b509d5&amp;xptdk=effec64c-c071-4f2f-8b94-e29a86b509d5</v>
       </c>
       <c r="B27" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-23020-sggnwav52inv3f_tn</v>
+        <v>https://down-th.img.susercontent.com/file/df61e43671cd954554c89a8a73253642_tn</v>
       </c>
       <c r="C27" t="str">
-        <v>-82%</v>
+        <v>-61%</v>
       </c>
       <c r="D27" t="str">
-        <v>Rubycell พัฟแต่งหน้า พัฟแป้งฝุ่น พัฟคุชชั่น ทรงหยดน้ำ ขนาดใหญ่ หนานุ่มไม่ระคายผิว</v>
+        <v/>
       </c>
       <c r="E27" t="str">
-        <v>-</v>
+        <v>S-14สินค้ามีพร้อมส่ง⚡️Cappuvini อายแชโดว์กลิสเตอร์ เนื้อลิควิด อายแชโดว์ไฮไลท์ ประกายมุก เเวววาวกันน้ำ กันเหงื่อติดทนนาน</v>
       </c>
       <c r="F27" t="str">
-        <v>9</v>
+        <v/>
       </c>
       <c r="G27" t="str">
-        <v>ขายแล้ว 43พัน ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="H27" t="str">
-        <v>ต่างประเทศ</v>
+        <v>27</v>
       </c>
       <c r="I27" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 16.5พัน ชิ้น</v>
       </c>
       <c r="J27" t="str">
-        <v>14</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K27" t="str">
+        <v>฿</v>
+      </c>
+      <c r="L27" t="str">
+        <v>29</v>
+      </c>
+      <c r="M27" t="str">
         <v>ร้านแนะนำ</v>
       </c>
-      <c r="L27" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
-      </c>
-      <c r="M27" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+      <c r="N27" t="str">
+        <v/>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://shopee.co.th/Laka-Fruity-Glam-Tint-Official-Store--i.298113044.10998067233?sp_atk=a9114021-e4f1-44db-ab89-6c50cd5480fe&amp;xptdk=a9114021-e4f1-44db-ab89-6c50cd5480fe</v>
+        <v>https://shopee.co.th/%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1-10-ml.-%E0%B8%82%E0%B8%A7%E0%B8%94%E0%B8%A5%E0%B8%B0-9%E2%80%8B-%E0%B8%9A%E0%B8%B2%E0%B8%97%E0%B8%82%E0%B8%B1%E0%B9%89%E0%B8%99%E0%B8%95%E0%B9%88%E0%B8%B3-5-%E0%B8%82%E0%B8%A7%E0%B8%94-(%E0%B9%81%E0%B8%88%E0%B9%89%E0%B8%87%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99%E0%B8%AD%E0%B8%B7%E0%B9%88%E0%B8%99%E0%B9%86%E0%B9%81%E0%B8%88%E0%B9%89%E0%B8%87%E0%B9%83%E0%B8%99%E0%B8%AB%E0%B8%A1%E0%B8%B2%E0%B8%A2%E0%B9%80%E0%B8%AB%E0%B8%95%E0%B8%B8%E2%80%8B%E0%B8%AB%E0%B8%A3%E0%B8%B7%E0%B8%AD%E0%B8%82%E0%B9%89%E0%B8%AD%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1)-i.39967718.9905370002?sp_atk=13febb6b-44c1-463f-940f-c816363f02df&amp;xptdk=13febb6b-44c1-463f-940f-c816363f02df</v>
       </c>
       <c r="B28" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul3-li2jj36btx5f9b_tn</v>
+        <v>https://down-th.img.susercontent.com/file/fbf066523ada7b033bb11d7b7c4cae2a_tn</v>
       </c>
       <c r="C28" t="str">
-        <v>-28%</v>
+        <v/>
       </c>
       <c r="D28" t="str">
-        <v>Laka : Fruity Glam Tint [Official Store]</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="E28" t="str">
-        <v>฿570</v>
+        <v>น้ำหอม 10 ml. ขวดละ 9​ บาทขั้นต่ำ 5 ขวด (แจ้งกลิ่นอื่นๆแจ้งในหมายเหตุ​หรือข้อความ)</v>
       </c>
       <c r="F28" t="str">
-        <v>410</v>
+        <v/>
       </c>
       <c r="G28" t="str">
-        <v>ขายแล้ว 36.2พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="H28" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>9</v>
       </c>
       <c r="I28" t="str">
-        <v/>
+        <v>ขายแล้ว 127.9พัน ชิ้น</v>
       </c>
       <c r="J28" t="str">
-        <v/>
+        <v>จังหวัดประจวบคีรีขันธ์</v>
       </c>
       <c r="K28" t="str">
         <v/>
@@ -1519,80 +1600,86 @@
         <v/>
       </c>
       <c r="M28" t="str">
+        <v/>
+      </c>
+      <c r="N28" t="str">
         <v/>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://shopee.co.th/4%E0%B9%80%E0%B8%89%E0%B8%94%E0%B8%AA%E0%B8%B5%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B9%80%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%81(%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-%E0%B9%81%E0%B8%97%E0%B9%89)-DIKALU-%E0%B8%9E%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B8%97%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-9-%E0%B8%AA%E0%B8%B5-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%A1%E0%B8%B1%E0%B8%99-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%83%E0%B8%A2%E0%B9%84%E0%B8%AB%E0%B8%A1-%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%81%E0%B8%B2%E0%B8%A2%E0%B8%8A%E0%B8%B4%E0%B8%A1%E0%B9%80%E0%B8%A1%E0%B8%AD%E0%B8%A3%E0%B9%8C-Eye-shadow-9-color-palette-YUE-i.121739699.20806539007?sp_atk=226aab77-a04b-4b23-b50e-7d5a2c519535&amp;xptdk=226aab77-a04b-4b23-b50e-7d5a2c519535</v>
+        <v>https://shopee.co.th/Rou-Bao-%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B8%94%E0%B8%B5-%E0%B8%AD%E0%B8%B8%E0%B8%9B%E0%B8%81%E0%B8%A3%E0%B8%93%E0%B9%8C%E0%B8%95%E0%B8%81%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B9%84%E0%B8%82%E0%B9%88%E0%B8%A1%E0%B8%B8%E0%B8%81-%E0%B9%82%E0%B8%9A%E0%B8%A7%E0%B9%8C-%E0%B8%97%E0%B8%A3%E0%B8%87%E0%B8%81%E0%B8%A5%E0%B8%A1-%E0%B8%AB%E0%B8%A5%E0%B8%B2%E0%B8%81%E0%B8%AA%E0%B8%B5-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%95%E0%B8%81%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-DIY-i.854997188.21047722564?sp_atk=073155b8-7655-4e64-a8be-2b033229f24a&amp;xptdk=073155b8-7655-4e64-a8be-2b033229f24a</v>
       </c>
       <c r="B29" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbk0-lkmbvcjwpkmgb5_tn</v>
+        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lnsa2fksla4oc9_tn</v>
       </c>
       <c r="C29" t="str">
-        <v>-84%</v>
+        <v>-50%</v>
       </c>
       <c r="D29" t="str">
-        <v>4เฉดสีให้เลือก(ใหม่/แท้) DIKALU พาเลทอายแชโดว์ 9 สี เนื้อดินน้ำมัน เนื้อใยไหม ประกายชิมเมอร์ Eye shadow 9 color palette  YUE</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="E29" t="str">
-        <v>-</v>
+        <v>Rou Bao ขายดี อุปกรณ์ตกแต่งเล็บ ไข่มุก โบว์ ทรงกลม หลากสี สําหรับตกแต่งเล็บ DIY</v>
       </c>
       <c r="F29" t="str">
-        <v>3</v>
+        <v/>
       </c>
       <c r="G29" t="str">
-        <v>ขายแล้ว 10.3พัน ชิ้น</v>
+        <v>฿44</v>
       </c>
       <c r="H29" t="str">
+        <v>22</v>
+      </c>
+      <c r="I29" t="str">
+        <v>ขายแล้ว 18.2พัน ชิ้น</v>
+      </c>
+      <c r="J29" t="str">
         <v>ต่างประเทศ</v>
       </c>
-      <c r="I29" t="str">
-        <v>฿</v>
-      </c>
-      <c r="J29" t="str">
-        <v>28</v>
-      </c>
       <c r="K29" t="str">
+        <v/>
+      </c>
+      <c r="L29" t="str">
+        <v/>
+      </c>
+      <c r="M29" t="str">
         <v>ร้านแนะนำ</v>
       </c>
-      <c r="L29" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
-      </c>
-      <c r="M29" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+      <c r="N29" t="str">
+        <v>ซื้อ 2 ชิ้น ลด 5%</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://shopee.co.th/BANOBAGI-Final-Sleeping-Mask-23ml-%E0%B8%9A%E0%B8%B2%E0%B9%82%E0%B8%99%E0%B8%9A%E0%B8%B2%E0%B8%81%E0%B8%B4-%E0%B8%AA%E0%B8%A5%E0%B8%B5%E0%B8%9B%E0%B8%9B%E0%B8%B4%E0%B9%89%E0%B8%87%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B8%81%E0%B9%8C.-i.70998059.18077268132?sp_atk=bb5f57b0-2a2f-4262-8cad-bf7f8f6903d2&amp;xptdk=bb5f57b0-2a2f-4262-8cad-bf7f8f6903d2</v>
+        <v>https://shopee.co.th/%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%84%E0%B8%A7-%E2%8F%B0-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%9C%E0%B8%A1-Super-V-Inter-DeeDee-288-%E0%B8%8B%E0%B8%B8%E0%B8%9B%E0%B9%80%E0%B8%9B%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%A7%E0%B8%B5-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89-%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%A8%E0%B8%B9%E0%B8%99%E0%B8%A2%E0%B9%8C%E0%B9%84%E0%B8%97%E0%B8%A2-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%9C%E0%B8%A1-i.55984205.16356764471?sp_atk=61467ef0-c438-4dc5-83be-0350115dffdb&amp;xptdk=61467ef0-c438-4dc5-83be-0350115dffdb</v>
       </c>
       <c r="B30" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbmk-lq1u1az8x9d6e1_tn</v>
+        <v>https://down-th.img.susercontent.com/file/9d949b7aa5ed048d471369a61fc04a4f_tn</v>
       </c>
       <c r="C30" t="str">
-        <v>-42%</v>
+        <v/>
       </c>
       <c r="D30" t="str">
-        <v>BANOBAGI Final Sleeping Mask 23ml บาโนบากิ สลีปปิ้งมาสก์.</v>
+        <v/>
       </c>
       <c r="E30" t="str">
-        <v>฿88</v>
+        <v>ส่งไว ⏰ เครื่องหนีบผม Super V Inter DeeDee 288 ซุปเปอร์ วี เครื่องแท้ รับประกันศูนย์ไทย ที่หนีบผม</v>
       </c>
       <c r="F30" t="str">
-        <v>51</v>
+        <v/>
       </c>
       <c r="G30" t="str">
-        <v>ขายแล้ว 94.8พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="H30" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>615</v>
       </c>
       <c r="I30" t="str">
-        <v/>
+        <v>ขายแล้ว 29.5พัน ชิ้น</v>
       </c>
       <c r="J30" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K30" t="str">
         <v/>
@@ -1601,203 +1688,218 @@
         <v/>
       </c>
       <c r="M30" t="str">
+        <v>ร้านแนะนำ</v>
+      </c>
+      <c r="N30" t="str">
         <v/>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://shopee.co.th/%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%81%E0%B8%95-KATHY-AMREZ-MINI-MATTE-LIP-%E0%B8%A1%E0%B8%B4%E0%B8%99%E0%B8%B4%E0%B9%81%E0%B8%A1%E0%B8%97%E0%B8%A5%E0%B8%B4%E0%B8%9B-%E0%B8%A3%E0%B8%B2%E0%B8%84%E0%B8%B2-99.-(%E0%B8%9B%E0%B8%81%E0%B8%95%E0%B8%B4-199.-)-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B9%81%E0%B8%A1%E0%B8%97%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%81%E0%B8%95-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%81%E0%B8%95%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B9%81%E0%B8%A1%E0%B8%AA-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%88%E0%B8%B4%E0%B9%8B%E0%B8%A7%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B9%81%E0%B8%A1%E0%B8%AA-i.698040092.15864031102?sp_atk=bcc25ac2-bb68-4f2d-b007-490f5e6bcfa4&amp;xptdk=bcc25ac2-bb68-4f2d-b007-490f5e6bcfa4</v>
+        <v>https://shopee.co.th/%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B8%84%E0%B8%B2%E0%B8%A3%E0%B9%88%E0%B8%B2-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%AB%E0%B8%99%E0%B8%B2-%E0%B8%A2%E0%B8%B2%E0%B8%A7-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B9%8D%E0%B8%B2-i.273622042.5247274801?sp_atk=2822acb0-a6c7-405f-ad7e-6d5aba0bba24&amp;xptdk=2822acb0-a6c7-405f-ad7e-6d5aba0bba24</v>
       </c>
       <c r="B31" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98o-loe89bpvam7364_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134201-23030-ywg4jvo4ncovaf_tn</v>
       </c>
       <c r="C31" t="str">
-        <v>-63%</v>
+        <v>-99%</v>
       </c>
       <c r="D31" t="str">
-        <v>ลิปกระแต KATHY AMREZ MINI MATTE LIP / มินิแมทลิป ราคา 99.-  (ปกติ 199.-) ลิปแมทกระแต ลิปกระแตไม่ติดแมส ลิปจิ๋วไม่ติดแมส</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="E31" t="str">
-        <v>-</v>
+        <v>มาสคาร่า แบบหนา ยาว กันน้ํา</v>
       </c>
       <c r="F31" t="str">
-        <v>74</v>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="G31" t="str">
-        <v>ขายแล้ว 157.1พัน ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="H31" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>1</v>
       </c>
       <c r="I31" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 422.3พัน ชิ้น</v>
       </c>
       <c r="J31" t="str">
-        <v>94</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K31" t="str">
+        <v>฿</v>
+      </c>
+      <c r="L31" t="str">
+        <v>9</v>
+      </c>
+      <c r="M31" t="str">
         <v>ร้านแนะนำ</v>
       </c>
-      <c r="L31" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
-      </c>
-      <c r="M31" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+      <c r="N31" t="str">
+        <v/>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://shopee.co.th/-%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-DAZZLE-ME-Get-a-Grip!-Makeup-Setting-Spray-%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A3%E0%B8%A2%E0%B9%8C%E0%B8%A5%E0%B9%87%E0%B8%AD%E0%B8%84%E0%B9%80%E0%B8%A1%E0%B8%84%E0%B8%AD%E0%B8%B1%E0%B8%9E-%E0%B8%84%E0%B8%A7%E0%B8%9A%E0%B8%84%E0%B8%B8%E0%B8%A1%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%A1%E0%B8%B1%E0%B8%99-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-12-%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%A7%E0%B9%82%E0%B8%A1%E0%B8%87-i.762689085.22248431375?sp_atk=b659ba6a-5e62-44c8-9904-e055ef01361a&amp;xptdk=b659ba6a-5e62-44c8-9904-e055ef01361a</v>
+        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B8%AA%E0%B9%88%E0%B8%87%EF%BC%81%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%993-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99-(50ML)-%E0%B8%96%E0%B8%B9%E0%B8%81%E0%B8%AA%E0%B8%B8%E0%B8%94%E0%B9%83%E0%B8%99%E0%B9%80%E0%B8%A7%E0%B9%87%E0%B8%9B-COOC-COCOSILIYA-MADEMOISELLE-50ML-i.530657498.17724065203?sp_atk=6a1ad968-4b92-4ed1-885f-7a0c37f3bb64&amp;xptdk=6a1ad968-4b92-4ed1-885f-7a0c37f3bb64</v>
       </c>
       <c r="B32" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98w-lq397c7vsu8q02_tn</v>
+        <v>https://down-th.img.susercontent.com/file/b31a7af5a795ff1e86925db98d36571d_tn</v>
       </c>
       <c r="C32" t="str">
-        <v>-44%</v>
+        <v/>
       </c>
       <c r="D32" t="str">
-        <v>[ใหม่] DAZZLE ME Get a Grip! Makeup Setting Spray สเปรย์ล็อคเมคอัพ ควบคุมความมัน ติดทนนาน 12 ชั่วโมง</v>
+        <v/>
       </c>
       <c r="E32" t="str">
-        <v>฿159</v>
+        <v>สินค้าพร้อมจัดส่ง！น้ำหอมแฟชั่น3 กลิ่น (50ML) ถูกสุดในเว็ป  COOC  COCOSILIYA MADEMOISELLE 50ML</v>
       </c>
       <c r="F32" t="str">
-        <v>89</v>
+        <v/>
       </c>
       <c r="G32" t="str">
-        <v>ขายแล้ว 48.8พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="H32" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v>18</v>
       </c>
       <c r="I32" t="str">
-        <v/>
+        <v>ขายแล้ว 167.6พัน ชิ้น</v>
       </c>
       <c r="J32" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K32" t="str">
         <v/>
       </c>
       <c r="L32" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v/>
       </c>
       <c r="M32" t="str">
+        <v>ร้านแนะนำ</v>
+      </c>
+      <c r="N32" t="str">
         <v/>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://shopee.co.th/Simplus-%E0%B9%84%E0%B8%94%E0%B8%A3%E0%B9%8C%E0%B9%80%E0%B8%9B%E0%B9%88%E0%B8%B2%E0%B8%9C%E0%B8%A1-%E0%B8%9B%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B9%80%E0%B8%A3%E0%B9%87%E0%B8%A7%E0%B9%84%E0%B8%94%E0%B9%89-3-%E0%B8%A3%E0%B8%B0%E0%B8%94%E0%B8%B1%E0%B8%9A%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AB%E0%B8%B1%E0%B8%A7%E0%B8%89%E0%B8%B5%E0%B8%94%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B8%B2%E0%B8%A2%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%99-1-%E0%B8%AB%E0%B8%B1%E0%B8%A7-%E0%B8%A5%E0%B8%A1%E0%B9%80%E0%B8%A2%E0%B9%87%E0%B8%99%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%97%E0%B8%A3%E0%B8%87%E0%B8%9C%E0%B8%A1CFJH001-i.448235616.21478733691?sp_atk=d6c9c0b1-6a01-4b44-96c8-3bc7d0a9a626&amp;xptdk=d6c9c0b1-6a01-4b44-96c8-3bc7d0a9a626</v>
+        <v>https://shopee.co.th/%E3%80%90SHENZHOU%E3%80%91%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-51-100-24-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-i.171957933.17587584561?sp_atk=988e3b4c-3813-4734-958e-2d97030b9c90&amp;xptdk=988e3b4c-3813-4734-958e-2d97030b9c90</v>
       </c>
       <c r="B33" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r990-lpers3w4xfmx13_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-23010-noms2llbsvmv41_tn</v>
       </c>
       <c r="C33" t="str">
-        <v>-40%</v>
+        <v>-25%</v>
       </c>
       <c r="D33" t="str">
-        <v>Simplus ไดร์เป่าผม ปรับความเร็วได้ 3 ระดับพร้อมหัวฉีดกระจายความร้อน 1 หัว/ลมเย็นแบบพกพาเครื่องมือจัดแต่งทรงผมCFJH001</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="E33" t="str">
-        <v>-</v>
+        <v>【SHENZHOU】เล็บปลอม 51-100 24 ชิ้น</v>
       </c>
       <c r="F33" t="str">
-        <v>299</v>
+        <v/>
       </c>
       <c r="G33" t="str">
-        <v>ขายแล้ว 19.9พัน ชิ้น</v>
+        <v>฿16</v>
       </c>
       <c r="H33" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v>12</v>
       </c>
       <c r="I33" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 22.3พัน ชิ้น</v>
       </c>
       <c r="J33" t="str">
-        <v>349</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K33" t="str">
         <v/>
       </c>
       <c r="L33" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
+        <v/>
       </c>
       <c r="M33" t="str">
+        <v/>
+      </c>
+      <c r="N33" t="str">
         <v/>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://shopee.co.th/Mediheal-Labocare-Panteno-Lips-Healbalm-%E0%B9%80%E0%B8%A1%E0%B8%94%E0%B8%B4%E0%B8%AE%E0%B8%B5%E0%B8%A5-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%9A%E0%B8%B2%E0%B8%A5%E0%B9%8C%E0%B8%A1.-i.70998059.15110477490?sp_atk=f8e3770a-ba1a-4e95-ac73-8d8748908a30&amp;xptdk=f8e3770a-ba1a-4e95-ac73-8d8748908a30</v>
+        <v>https://shopee.co.th/%E0%B8%AB%E0%B8%A7%E0%B8%B5%E2%80%8B-Aveda-25cm-%E0%B8%AB%E0%B8%A7%E0%B8%B5%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87-%E0%B8%AB%E0%B8%A7%E0%B8%B5%E0%B8%9C%E0%B8%A1-%E0%B8%AB%E0%B8%A7%E0%B8%B5%E0%B9%84%E0%B8%A1%E0%B9%89-%E0%B8%AB%E0%B8%A7%E0%B8%B5%E0%B8%99%E0%B8%A7%E0%B8%94%E0%B8%A8%E0%B8%A3%E0%B8%B5%E0%B8%A9%E0%B8%B0-%E0%B8%99%E0%B8%A7%E0%B8%94%E0%B8%94%E0%B8%B9%E0%B9%81%E0%B8%A5%E0%B8%A3%E0%B8%B2%E0%B8%81%E0%B8%9C%E0%B8%A1%E0%B9%80%E0%B8%AA%E0%B9%89%E0%B8%99%E0%B8%9C%E0%B8%A1%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%87%E0%B8%A8%E0%B8%A3%E0%B8%B5%E0%B8%A9%E0%B8%B0-%E0%B8%AB%E0%B8%A7%E0%B8%B5%E0%B9%84%E0%B8%94%E0%B8%A3%E0%B9%8C-%E0%B8%94%E0%B9%89%E0%B8%B2%E0%B8%A1%E0%B9%84%E0%B8%A1%E0%B9%89-%E0%B8%A1%E0%B8%B5%E0%B8%81%E0%B8%A5%E0%B9%88%E0%B8%AD%E0%B8%87-i.431683584.11335924088?sp_atk=1fecf89a-1769-4f6b-bbc4-b12fbe3475ae&amp;xptdk=1fecf89a-1769-4f6b-bbc4-b12fbe3475ae</v>
       </c>
       <c r="B34" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbk7-lo9jwcetmjhbd5_tn</v>
+        <v>https://down-th.img.susercontent.com/file/692b6a01b693a17c55148e43792d7910_tn</v>
       </c>
       <c r="C34" t="str">
-        <v>-51%</v>
+        <v>-67%</v>
       </c>
       <c r="D34" t="str">
-        <v>Mediheal Labocare Panteno Lips Healbalm เมดิฮีล ลิปบาล์ม.</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="E34" t="str">
-        <v>฿199</v>
+        <v>หวี​ Aveda 25cm หวีแปรง หวีผม หวีไม้ หวีนวดศรีษะ นวดดูแลรากผมเส้นผมหนังศรีษะ หวีไดร์ ด้ามไม้ มีกล่อง</v>
       </c>
       <c r="F34" t="str">
-        <v>98</v>
+        <v/>
       </c>
       <c r="G34" t="str">
-        <v>ขายแล้ว 13.7พัน ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="H34" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>49</v>
       </c>
       <c r="I34" t="str">
-        <v/>
+        <v>ขายแล้ว 35.1พัน ชิ้น</v>
       </c>
       <c r="J34" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K34" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="L34" t="str">
-        <v/>
+        <v>120</v>
       </c>
       <c r="M34" t="str">
+        <v>ร้านแนะนำ</v>
+      </c>
+      <c r="N34" t="str">
         <v/>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://shopee.co.th/SASI-Sugar-Rush-Lip-Tint-Vol.2-2g-%E0%B8%A8%E0%B8%A8%E0%B8%B4-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%97%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B9%8C%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%99%E0%B9%89%E0%B8%B3.-i.70998059.24350396072?sp_atk=f1d919e6-9d17-4c90-9756-71652d38ed47&amp;xptdk=f1d919e6-9d17-4c90-9756-71652d38ed47</v>
+        <v>https://shopee.co.th/%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%AA%E0%B8%AD%E0%B9%80%E0%B8%82%E0%B8%B5%E0%B8%A2%E0%B8%99%E0%B8%84%E0%B8%B4%E0%B9%89%E0%B8%A7-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AA%E0%B8%B3%E0%B8%AD%E0%B8%B2%E0%B8%87%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-i.250304267.4629875954?sp_atk=c0ce2970-64c4-4788-b71c-aa613e343d04&amp;xptdk=c0ce2970-64c4-4788-b71c-aa613e343d04</v>
       </c>
       <c r="B35" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbk0-lo6dz8zg1smu99_tn</v>
+        <v>https://down-th.img.susercontent.com/file/bfac818517283878899c4f14b2c9555d_tn</v>
       </c>
       <c r="C35" t="str">
-        <v>-10%</v>
+        <v>-99%</v>
       </c>
       <c r="D35" t="str">
-        <v>SASI Sugar Rush Lip Tint Vol.2 2g ศศิ ลิปทินท์เนื้อน้ำ.</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="E35" t="str">
-        <v>฿99</v>
+        <v>ดินสอเขียนคิ้ว เครื่องสำอางสำหรับผู้หญิง</v>
       </c>
       <c r="F35" t="str">
-        <v>89</v>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="G35" t="str">
-        <v>ขายแล้ว 4.5พัน ชิ้น</v>
+        <v>฿89</v>
       </c>
       <c r="H35" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>1</v>
       </c>
       <c r="I35" t="str">
-        <v/>
+        <v>ขายแล้ว 662.1พัน ชิ้น</v>
       </c>
       <c r="J35" t="str">
-        <v/>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K35" t="str">
         <v/>
@@ -1806,572 +1908,614 @@
         <v/>
       </c>
       <c r="M35" t="str">
+        <v>ร้านแนะนำ</v>
+      </c>
+      <c r="N35" t="str">
         <v/>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://shopee.co.th/%E2%9C%85%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89-%E0%B8%96%E0%B8%B9%E0%B8%81%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%AA%E0%B8%B8%E0%B8%94-%E0%B8%A3%E0%B8%A7%E0%B8%A1%E0%B8%95%E0%B8%B1%E0%B8%A7%E0%B8%94%E0%B8%B1%E0%B8%87-FilliMilli-%E0%B8%AD%E0%B8%B8%E0%B8%9B%E0%B8%81%E0%B8%A3%E0%B8%93%E0%B9%8C%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87%E0%B8%A5%E0%B8%87%E0%B8%A3%E0%B8%AD%E0%B8%87%E0%B8%9E%E0%B8%B7%E0%B9%89%E0%B8%99-%E0%B8%84%E0%B8%AD%E0%B8%99%E0%B8%8B%E0%B8%B4%E0%B8%A5%E0%B9%80%E0%B8%A5%E0%B8%AD%E0%B8%A3%E0%B9%8C-Brush-Corrector-811-i.244324453.18476664872?sp_atk=0020d454-58d5-4e50-aebe-17a73d524c37&amp;xptdk=0020d454-58d5-4e50-aebe-17a73d524c37</v>
+        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B5%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-%E0%B9%82%E0%B8%A5%E0%B9%81%E0%B8%A5%E0%B8%99-%E0%B8%9E%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%8B%E0%B8%A5-%E0%B9%81%E0%B8%8A%E0%B8%A1%E0%B8%9E%E0%B8%B9%E0%B9%80%E0%B8%9E%E0%B8%B4%E0%B9%88%E0%B8%A1%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%81%E0%B8%B2%E0%B8%A2%E0%B8%AA%E0%B8%B5%E0%B8%9C%E0%B8%A1-Lolane-Pixxel-Shampoo-%E0%B9%80%E0%B8%97%E0%B8%B2-%E0%B8%A1%E0%B8%B52%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-i.156745030.4253831240?sp_atk=b0ec7e60-b6a7-4c1c-905a-71ef06d4b68c&amp;xptdk=b0ec7e60-b6a7-4c1c-905a-71ef06d4b68c</v>
       </c>
       <c r="B36" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-23030-fm0pxl5jwwov0d_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98s-lnje3ze90lyo6d_tn</v>
       </c>
       <c r="C36" t="str">
-        <v>-70%</v>
+        <v>-2%</v>
       </c>
       <c r="D36" t="str">
-        <v>✅พร้อมส่ง ของแท้ ถูกที่สุด รวมตัวดัง FilliMilli อุปกรณ์แต่งหน้า แปรงลงรองพื้น คอนซิลเลอร์ Brush Corrector 811</v>
+        <v/>
       </c>
       <c r="E36" t="str">
-        <v>-</v>
+        <v>สีใหม่ #โลแลน พิกเซล #แชมพูเพิ่มประกายสีผม  #Lolane #Pixxel  #Shampoo #เทา มี2ขนาด</v>
       </c>
       <c r="F36" t="str">
-        <v>109</v>
+        <v/>
       </c>
       <c r="G36" t="str">
-        <v>ขายแล้ว 14.6พัน ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="H36" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>95</v>
       </c>
       <c r="I36" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 28.5พัน ชิ้น</v>
       </c>
       <c r="J36" t="str">
-        <v>539</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K36" t="str">
+        <v>฿</v>
+      </c>
+      <c r="L36" t="str">
+        <v>283</v>
+      </c>
+      <c r="M36" t="str">
         <v>ร้านแนะนำ</v>
       </c>
-      <c r="L36" t="str">
-        <v/>
-      </c>
-      <c r="M36" t="str">
+      <c r="N36" t="str">
         <v/>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://shopee.co.th/%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%94%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2-%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%9A%E0%B8%99%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%A5%E0%B9%88%E0%B8%B2%E0%B8%87-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%94%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%9A%E0%B8%B2%E0%B8%87%E0%B8%AA%E0%B9%88%E0%B8%A7%E0%B8%99%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%81%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%8D%E0%B8%B5%E0%B9%88%E0%B8%9B%E0%B8%B8%E0%B9%88%E0%B8%99%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%94%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2-muji-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%95%E0%B9%88%E0%B8%AD%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2-i.149823108.13961213785?sp_atk=9e62006a-edf8-46a9-a44c-d9f4731ba125&amp;xptdk=9e62006a-edf8-46a9-a44c-d9f4731ba125</v>
+        <v>https://shopee.co.th/%E3%80%90%E0%B8%9F%E0%B8%A3%E0%B8%B5%E0%B8%81%E0%B8%B2%E0%B8%A7%E3%80%912022-%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88%E0%B8%A5%E0%B9%88%E0%B8%B2%E0%B8%AA%E0%B8%B8%E0%B8%94-24-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%9D%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%A8%E0%B8%AA-%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B9%84%E0%B8%99%E0%B8%8B%E0%B9%8C-%E0%B8%8A%E0%B8%B8%E0%B8%94-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%81%E0%B8%B2%E0%B8%A7-%E0%B8%AD%E0%B8%B0%E0%B8%84%E0%B8%A3%E0%B8%B4%E0%B8%A5%E0%B8%B4%E0%B8%84-%E0%B9%80%E0%B8%95%E0%B9%87%E0%B8%A1%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-COD-i.469166390.20519078583?sp_atk=2e0010db-9435-4dab-ba6a-3f79ed8ca9dc&amp;xptdk=2e0010db-9435-4dab-ba6a-3f79ed8ca9dc</v>
       </c>
       <c r="B37" t="str">
-        <v>https://down-th.img.susercontent.com/file/39fca6cb73f49e1ac7e3dce8f97d3f1a_tn</v>
+        <v/>
       </c>
       <c r="C37" t="str">
-        <v>-64%</v>
+        <v>-92%</v>
       </c>
       <c r="D37" t="str">
-        <v>ที่ดัดขนตา, ขนตาบนและล่าง,ที่ดัดขนตาบางส่วนแบบพกพาขนาดเล็กของญี่ปุ่นและเกาหลี ที่ดัดขนตา muji เครื่องมือแต่งหน้าต่อขนตา</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="E37" t="str">
-        <v>฿25</v>
+        <v>【ฟรีกาว】2022 ใหม่ล่าสุด 24 ชิ้น ฝรั่งเศส ปลอม ไนซ์ ชุด พร้อมกาว อะคริลิค เต็มเล็บ COD</v>
       </c>
       <c r="F37" t="str">
-        <v>9</v>
+        <v/>
       </c>
       <c r="G37" t="str">
-        <v>ขายแล้ว 92.4พัน ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="H37" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>4</v>
       </c>
       <c r="I37" t="str">
-        <v/>
+        <v>ขายแล้ว 46.7พัน ชิ้น</v>
       </c>
       <c r="J37" t="str">
-        <v/>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K37" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>฿</v>
       </c>
       <c r="L37" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
+        <v>20</v>
       </c>
       <c r="M37" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v/>
+      </c>
+      <c r="N37" t="str">
+        <v/>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://shopee.co.th/Pinkflash-%E0%B8%8A%E0%B8%B8%E0%B8%94%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%AD%E0%B9%80%E0%B8%99%E0%B8%81%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%AA%E0%B8%87%E0%B8%84%E0%B9%8C-i.320847166.15445966939?sp_atk=3aa9df78-778e-472f-886e-f6cad9793b39&amp;xptdk=3aa9df78-778e-472f-886e-f6cad9793b39</v>
+        <v>https://shopee.co.th/%E0%B8%8A%E0%B8%B8%E0%B8%94%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%84%E0%B8%B2%E0%B8%9A%E0%B8%B8%E0%B8%81%E0%B8%B4-13-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%A3%E0%B8%AD%E0%B8%87%E0%B8%9E%E0%B8%B7%E0%B9%89%E0%B8%99-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-%E0%B8%9A%E0%B8%A5%E0%B8%B1%E0%B8%8A%E0%B8%AD%E0%B8%AD%E0%B8%99-i.281190147.19018499293?sp_atk=9233807f-30a0-441f-b40f-195ec4980e25&amp;xptdk=9233807f-30a0-441f-b40f-195ec4980e25</v>
       </c>
       <c r="B38" t="str">
-        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lo4v05ka0tzbab_tn</v>
+        <v/>
       </c>
       <c r="C38" t="str">
-        <v>-96%</v>
+        <v>-68%</v>
       </c>
       <c r="D38" t="str">
-        <v>Pinkflash ชุดแปรงแต่งหน้าอเนกประสงค์</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="E38" t="str">
-        <v>-</v>
+        <v>ชุดแปรงแต่งหน้าคาบุกิ 13 ชิ้น รองพื้น อายแชโดว์ บลัชออน</v>
       </c>
       <c r="F38" t="str">
-        <v>27</v>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="G38" t="str">
-        <v>ขายแล้ว 55.5พัน ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="H38" t="str">
+        <v>10</v>
+      </c>
+      <c r="I38" t="str">
+        <v>ขายแล้ว 58.6พัน ชิ้น</v>
+      </c>
+      <c r="J38" t="str">
         <v>ต่างประเทศ</v>
       </c>
-      <c r="I38" t="str">
-        <v>฿</v>
-      </c>
-      <c r="J38" t="str">
-        <v>63</v>
-      </c>
       <c r="K38" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="L38" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
+        <v>49</v>
       </c>
       <c r="M38" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v>ร้านแนะนำ</v>
+      </c>
+      <c r="N38" t="str">
+        <v/>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://shopee.co.th/-JMF%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%9C%E0%B8%A1-CODE-NEWHAIR%E0%B8%AB%E0%B8%A3%E0%B8%B7%E0%B8%ADJMF-ET9924-%E0%B8%A5%E0%B8%9480-i.4062349.11695167453?sp_atk=cfa915b0-278a-4266-9623-a3bd65f49be0&amp;xptdk=cfa915b0-278a-4266-9623-a3bd65f49be0</v>
+        <v>https://shopee.co.th/Dior-Addict-Lip-Maximizer-2ml-%E0%B8%94%E0%B8%B4%E0%B8%AD%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%81%E0%B8%A5%E0%B8%AD%E0%B8%AA%E0%B8%AA%E0%B8%B8%E0%B8%94%E0%B9%81%E0%B8%A7%E0%B8%A7%E0%B8%A7%E0%B8%B2%E0%B8%A7-%E0%B9%80%E0%B8%9A%E0%B8%B2%E0%B8%AA%E0%B8%9A%E0%B8%B2%E0%B8%A2.-i.70998059.21512170912?sp_atk=34b41355-0e3c-49c5-8a12-8d01d34aac61&amp;xptdk=34b41355-0e3c-49c5-8a12-8d01d34aac61</v>
       </c>
       <c r="B39" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-22120-wn7g8pa2kflv23_tn</v>
+        <v/>
       </c>
       <c r="C39" t="str">
-        <v>-50%</v>
+        <v>-68%</v>
       </c>
       <c r="D39" t="str">
-        <v>/JMFเครื่องหนีบผม CODE NEWHAIRหรือJMF-ET9924 ลด80</v>
+        <v/>
       </c>
       <c r="E39" t="str">
-        <v>-</v>
+        <v>Dior Addict Lip Maximizer 2ml ดิออร์ ลิปกลอสสุดแวววาว เบาสบาย.</v>
       </c>
       <c r="F39" t="str">
-        <v>149</v>
+        <v/>
       </c>
       <c r="G39" t="str">
-        <v>ขายแล้ว 9.5พัน ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="H39" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>174</v>
       </c>
       <c r="I39" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 12.6พัน ชิ้น</v>
       </c>
       <c r="J39" t="str">
-        <v>500</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K39" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="L39" t="str">
-        <v/>
+        <v>349</v>
       </c>
       <c r="M39" t="str">
+        <v/>
+      </c>
+      <c r="N39" t="str">
         <v/>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://shopee.co.th/%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%A1%E0%B8%8A%E0%B9%88%E0%B8%A7%E0%B8%A2%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B9%88%E0%B8%B2%E0%B8%87%E0%B9%83%E0%B8%AA-%E0%B9%81%E0%B8%81%E0%B9%89%E0%B8%9B%E0%B8%B1%E0%B8%8D%E0%B8%AB%E0%B8%B2%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B8%A3%E0%B8%AD%E0%B8%A2%E0%B8%94%E0%B8%B3-%E0%B8%A3%E0%B8%AD%E0%B8%A2%E0%B9%81%E0%B8%94%E0%B8%87-The-Skin-Collection-Serum-Niacinamide10-NAG8-30ml-i.345365881.3665808158?sp_atk=4529ed83-2db1-4148-af5f-136284740031&amp;xptdk=4529ed83-2db1-4148-af5f-136284740031</v>
+        <v>https://shopee.co.th/M265-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%81%E0%B8%94%E0%B8%94%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%89%E0%B9%88%E0%B8%B3%E0%B8%A7%E0%B8%B2%E0%B8%A7%E0%B8%9C%E0%B8%B8%E0%B8%94%E0%B8%9C%E0%B9%88%E0%B8%AD%E0%B8%87-%E0%B8%95%E0%B8%B1%E0%B8%A7%E0%B8%94%E0%B8%B1%E0%B8%87-%E0%B8%AB%E0%B8%A5%E0%B8%AD%E0%B8%94%E0%B8%A1%E0%B9%88%E0%B8%A7%E0%B8%87-SPF-35-PA-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%9440ML-i.274041486.22318921481?sp_atk=c6f0836e-aafc-4354-965f-edf39c6d6524&amp;xptdk=c6f0836e-aafc-4354-965f-edf39c6d6524</v>
       </c>
       <c r="B40" t="str">
-        <v>https://down-th.img.susercontent.com/file/f607b9a0ad4c7bfbbaf41451ee126408_tn</v>
+        <v/>
       </c>
       <c r="C40" t="str">
-        <v>-76%</v>
+        <v>-71%</v>
       </c>
       <c r="D40" t="str">
-        <v>เซรั่มช่วยให้ผิวกระจ่างใส แก้ปัญหาผิวจากรอยดำ รอยแดง  The Skin Collection Serum Niacinamide10% + NAG8% 30ml</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
       </c>
       <c r="E40" t="str">
-        <v>฿590</v>
+        <v>M265 กันแดดผิวหน้าฉ่ำวาวผุดผ่อง ตัวดัง หลอดม่วง SPF 35 PA+++ ขนาด40ML</v>
       </c>
       <c r="F40" t="str">
-        <v>139</v>
+        <v/>
       </c>
       <c r="G40" t="str">
-        <v>ขายแล้ว 122.1พัน ชิ้น</v>
+        <v>฿99</v>
       </c>
       <c r="H40" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>29</v>
       </c>
       <c r="I40" t="str">
-        <v/>
+        <v>ขายแล้ว 29.6พัน ชิ้น</v>
       </c>
       <c r="J40" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K40" t="str">
         <v/>
       </c>
       <c r="L40" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v/>
       </c>
       <c r="M40" t="str">
+        <v/>
+      </c>
+      <c r="N40" t="str">
         <v/>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://shopee.co.th/%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B5%E0%B8%9C%E0%B8%A1%E0%B8%8B%E0%B8%B4%E0%B8%A5%E0%B8%B4%E0%B9%82%E0%B8%84%E0%B8%99-%E0%B8%9B%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%A3%E0%B8%B1%E0%B8%87%E0%B9%81%E0%B8%84-%E0%B8%AA%E0%B8%B5%E0%B8%82%E0%B8%B2%E0%B8%A7-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%AA%E0%B8%A3%E0%B8%B0%E0%B8%9C%E0%B8%A1-i.121739699.23550144133?sp_atk=fff635b4-f7dd-4437-8fd7-3868f126a676&amp;xptdk=fff635b4-f7dd-4437-8fd7-3868f126a676</v>
+        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%81%E0%B8%B2%E0%B8%81%E0%B9%80%E0%B8%9E%E0%B8%8A%E0%B8%A3%E0%B8%9E%E0%B8%B4%E0%B8%A1%E0%B8%9E%E0%B9%8C%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%94%E0%B8%B2%E0%B8%A7-3-%E0%B8%A1%E0%B8%B4%E0%B8%95%E0%B8%B4%E0%B8%AD%E0%B8%B8%E0%B8%9B%E0%B8%81%E0%B8%A3%E0%B8%93%E0%B9%8C%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%95%E0%B8%81%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-i.104595979.5212283116?sp_atk=40ce545d-1507-4a0a-9f2a-76a031d272c9&amp;xptdk=40ce545d-1507-4a0a-9f2a-76a031d272c9</v>
       </c>
       <c r="B41" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-23030-kevex2mvqaov02_tn</v>
+        <v/>
       </c>
       <c r="C41" t="str">
-        <v>-97%</v>
+        <v>-64%</v>
       </c>
       <c r="D41" t="str">
-        <v>แปรงหวีผมซิลิโคน ป้องกันรังแค สีขาว สําหรับสระผม</v>
+        <v/>
       </c>
       <c r="E41" t="str">
-        <v>-</v>
+        <v>สติกเกอร์กากเพชรพิมพ์ลายดาว 3 มิติอุปกรณ์สําหรับตกแต่งเล็บ</v>
       </c>
       <c r="F41" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G41" t="str">
-        <v>ขายแล้ว 32.3พัน ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="H41" t="str">
+        <v>5</v>
+      </c>
+      <c r="I41" t="str">
+        <v>ขายแล้ว 10.7พัน ชิ้น</v>
+      </c>
+      <c r="J41" t="str">
         <v>ต่างประเทศ</v>
       </c>
-      <c r="I41" t="str">
-        <v>฿</v>
-      </c>
-      <c r="J41" t="str">
+      <c r="K41" t="str">
+        <v>฿</v>
+      </c>
+      <c r="L41" t="str">
         <v>6</v>
       </c>
-      <c r="K41" t="str">
+      <c r="M41" t="str">
         <v>ร้านแนะนำ</v>
       </c>
-      <c r="L41" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
-      </c>
-      <c r="M41" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+      <c r="N41" t="str">
+        <v>ซื้อ 3 ชิ้น ลด 2%</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://shopee.co.th/bnb-barenbliss-Peach-Makes-Perfect-Lip-Tint-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%97%E0%B8%B4%E0%B8%99%E0%B8%9B%E0%B8%B2%E0%B8%81%E0%B8%89%E0%B9%88%E0%B8%B3-%E0%B8%A3%E0%B8%B4%E0%B8%A1%E0%B8%9D%E0%B8%B5%E0%B8%9B%E0%B8%B2%E0%B8%81%E0%B8%8A%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%8A%E0%B8%B7%E0%B9%88%E0%B8%99-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-12%E0%B8%8A%E0%B8%A1-i.668922905.13089494091?sp_atk=07059c9f-6df3-482c-bff8-eba4f2187d43&amp;xptdk=07059c9f-6df3-482c-bff8-eba4f2187d43</v>
+        <v>https://shopee.co.th/%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%F0%9F%92%95%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%84%E0%B8%A7-%E0%B8%AA%E0%B8%B1%E0%B9%88%E0%B8%87-2-%E0%B8%82%E0%B8%A7%E0%B8%94-368%E0%B8%BF-%E0%B9%81%E0%B8%96%E0%B8%A1%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B9%8A%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1-Withat-EDP-i.739603544.23513036496?sp_atk=57115674-553b-4afa-9b4a-af57249bbef8&amp;xptdk=57115674-553b-4afa-9b4a-af57249bbef8</v>
       </c>
       <c r="B42" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98u-lq3n6y0x2ack48_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98p-lq7yxfem2twkaa_tn</v>
       </c>
       <c r="C42" t="str">
-        <v>-33%</v>
+        <v>-55%</v>
       </c>
       <c r="D42" t="str">
-        <v>bnb barenbliss Peach Makes Perfect Lip Tint ลิปทินปากฉ่ำ ริมฝีปากชุ่มชื่น ติดทนนาน 12ชม</v>
+        <v/>
       </c>
       <c r="E42" t="str">
-        <v>฿295</v>
+        <v>พร้อมส่ง💕ส่งไว สั่ง 2 ขวด 368฿ แถมสติ๊กเกอร์ น้ำหอม Withat EDP</v>
       </c>
       <c r="F42" t="str">
+        <v/>
+      </c>
+      <c r="G42" t="str">
+        <v>-</v>
+      </c>
+      <c r="H42" t="str">
         <v>199</v>
       </c>
-      <c r="G42" t="str">
-        <v>ขายแล้ว 20พัน ชิ้น</v>
-      </c>
-      <c r="H42" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
-      </c>
       <c r="I42" t="str">
-        <v/>
+        <v>ขายแล้ว 226.8พัน ชิ้น</v>
       </c>
       <c r="J42" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K42" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="L42" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>995</v>
       </c>
       <c r="M42" t="str">
+        <v>ร้านแนะนำ</v>
+      </c>
+      <c r="N42" t="str">
         <v/>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://shopee.co.th/%F0%9F%87%B0%F0%9F%87%B7(%E0%B8%A1%E0%B8%B5%E0%B8%84%E0%B8%B4%E0%B8%A7%E0%B8%AD%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B9%82%E0%B8%84%E0%B9%89%E0%B8%94%E0%B9%80%E0%B8%8A%E0%B9%87%E0%B8%84%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89)-Numju-%E0%B8%99%E0%B8%B1%E0%B8%A1%E0%B8%88%E0%B8%B9%E0%B9%82%E0%B8%A5%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99-%E0%B8%AB%E0%B8%B1%E0%B8%A7%E0%B9%80%E0%B8%8A%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%A7%E0%B8%B4%E0%B8%95%E0%B8%B2%E0%B8%A1%E0%B8%B4%E0%B8%99%E0%B8%99%E0%B8%B3%E0%B9%80%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-100-g.%E0%B8%97-i.78549877.8926463266?sp_atk=554d5eb0-89f6-490b-b8ed-e50b07460c60&amp;xptdk=554d5eb0-89f6-490b-b8ed-e50b07460c60</v>
+        <v>https://shopee.co.th/%E0%B8%9E%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B8%97%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-9-%E0%B8%AA%E0%B8%B5-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%A1%E0%B8%B1%E0%B8%99-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%83%E0%B8%A2%E0%B9%84%E0%B8%AB%E0%B8%A1-%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%81%E0%B8%B2%E0%B8%A2%E0%B8%8A%E0%B8%B4%E0%B8%A1%E0%B9%80%E0%B8%A1%E0%B8%AD%E0%B8%A3%E0%B9%8C-Eye-shadow-9-color-i.78064667.4178543666?sp_atk=d6070a24-fdb1-449d-b278-783e8eb15734&amp;xptdk=d6070a24-fdb1-449d-b278-783e8eb15734</v>
       </c>
       <c r="B43" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98o-lkl7hb7zoogue8_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98r-lnlef2qzsqxzd2_tn</v>
       </c>
       <c r="C43" t="str">
-        <v>-36%</v>
+        <v>-83%</v>
       </c>
       <c r="D43" t="str">
-        <v>🇰🇷(มีคิวอาร์โค้ดเช็คของแท้) Numju นัมจูโลชั่น หัวเชื้อวิตามินนำเข้าจากเกาหลี 100 g.ท</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-fd6431bb654df9a365c12d5881603682</v>
       </c>
       <c r="E43" t="str">
-        <v>฿199</v>
+        <v>พาเลทอายแชโดว์ 9 สี เนื้อดินน้ำมัน เนื้อใยไหม ประกายชิมเมอร์ Eye shadow 9 color</v>
       </c>
       <c r="F43" t="str">
-        <v>128</v>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="G43" t="str">
-        <v>ขายแล้ว 169พัน ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="H43" t="str">
-        <v>จังหวัดปทุมธานี</v>
+        <v>9</v>
       </c>
       <c r="I43" t="str">
-        <v/>
+        <v>ขายแล้ว 55.5พัน ชิ้น</v>
       </c>
       <c r="J43" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K43" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="L43" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-d6d900f677f50efcf8aa1394468bbf73</v>
+        <v>17</v>
       </c>
       <c r="M43" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v>ร้านแนะนำ</v>
+      </c>
+      <c r="N43" t="str">
+        <v/>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://shopee.co.th/DAZZLE-ME-Our-Secret-Cover-Concealer-%E0%B8%84%E0%B8%AD%E0%B8%99%E0%B8%8B%E0%B8%B5%E0%B8%A5%E0%B9%80%E0%B8%A5%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%9A%E0%B8%B2%E0%B8%87%E0%B9%80%E0%B8%9A%E0%B8%B2-%E0%B8%9B%E0%B8%81%E0%B8%9B%E0%B8%B4%E0%B8%94%E0%B8%82%E0%B8%B1%E0%B9%89%E0%B8%99%E0%B8%AA%E0%B8%B8%E0%B8%94-%E0%B8%A3%E0%B8%AD%E0%B8%A2%E0%B8%AA%E0%B8%B4%E0%B8%A7-%E0%B8%A3%E0%B8%AD%E0%B8%A2%E0%B9%81%E0%B8%94%E0%B8%87-i.762689085.15784403884?sp_atk=8c6bdb21-7ab7-48f2-8969-64fde4f16516&amp;xptdk=8c6bdb21-7ab7-48f2-8969-64fde4f16516</v>
+        <v>https://shopee.co.th/%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%84%E0%B8%9A%E0%B8%95%E0%B8%B2-%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B9%8C%E0%B8%81%E0%B8%95%E0%B8%B2%E0%B8%AD%E0%B8%B8%E0%B9%88%E0%B8%99-%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B8%9B%E0%B8%B4%E0%B8%94%E0%B8%95%E0%B8%B2%EF%BC%881-%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99-%EF%BC%89%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%9B%E0%B8%B4%E0%B8%94%E0%B8%95%E0%B8%B2-%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%84%E0%B8%9A%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%99%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%94%E0%B8%A7%E0%B8%87%E0%B8%95%E0%B8%B2-%E0%B8%A5%E0%B8%94%E0%B8%AD%E0%B8%B2%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%9B%E0%B8%A7%E0%B8%94%E0%B8%95%E0%B8%B2-i.299697925.18519773356?sp_atk=9ee1ba28-1725-413d-98b3-829e5af3d2af&amp;xptdk=9ee1ba28-1725-413d-98b3-829e5af3d2af</v>
       </c>
       <c r="B44" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98x-lq38zaywxbs42a_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98r-loki0th9ym7335_tn</v>
       </c>
       <c r="C44" t="str">
-        <v>-56%</v>
+        <v>-88%</v>
       </c>
       <c r="D44" t="str">
-        <v>DAZZLE ME Our Secret Cover Concealer คอนซีลเลอร์ เนื้อบางเบา ปกปิดขั้นสุด รอยสิว รอยแดง</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
       </c>
       <c r="E44" t="str">
-        <v>฿159</v>
+        <v>แผ่นประคบตา มาส์กตาอุ่น ผ้าปิดตา（1 แผ่น ）ที่ปิดตา ประคบร้อนที่ดวงตา ลดอาการปวดตา</v>
       </c>
       <c r="F44" t="str">
-        <v>70</v>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="G44" t="str">
-        <v>ขายแล้ว 19.1พัน ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="H44" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v>1</v>
       </c>
       <c r="I44" t="str">
-        <v/>
+        <v>ขายแล้ว 201.8พัน ชิ้น</v>
       </c>
       <c r="J44" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K44" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="L44" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>5</v>
       </c>
       <c r="M44" t="str">
+        <v>ร้านแนะนำ</v>
+      </c>
+      <c r="N44" t="str">
         <v/>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://shopee.co.th/bnb-barenbliss-True-Beauty-Inside-Cushion-%E0%B8%84%E0%B8%B8%E0%B8%8A%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5%E0%B8%9C%E0%B8%AA%E0%B8%A1%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%81%E0%B8%94%E0%B8%94-SPF45-PA-%E0%B8%84%E0%B8%B8%E0%B8%A1%E0%B8%A1%E0%B8%B1%E0%B8%99-%E0%B8%9B%E0%B8%81%E0%B8%9B%E0%B8%B4%E0%B8%94%E0%B8%82%E0%B8%B1%E0%B9%89%E0%B8%99%E0%B8%AA%E0%B8%B8%E0%B8%94-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-24%E0%B8%8A%E0%B8%A1.-i.668922905.17656615411?sp_atk=df00798d-66e3-4497-a56d-35c416afc2d6&amp;xptdk=df00798d-66e3-4497-a56d-35c416afc2d6</v>
+        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%A2%E0%B8%B2%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%97%E0%B8%B9%E0%B9%82%E0%B8%97%E0%B8%99-%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B9%84%E0%B8%94%E0%B9%89-%E0%B8%A2%E0%B8%B2%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-i.517276955.16882091979?sp_atk=7cec8f60-6b8d-4c56-b32a-e52b6ff3c6a0&amp;xptdk=7cec8f60-6b8d-4c56-b32a-e52b6ff3c6a0</v>
       </c>
       <c r="B45" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r990-lq3ncl1bzb3822_tn</v>
+        <v>https://down-th.img.susercontent.com/file/45ab1c8f93680010db10ea92442d7c57_tn</v>
       </c>
       <c r="C45" t="str">
-        <v>-18%</v>
+        <v>-78%</v>
       </c>
       <c r="D45" t="str">
-        <v>bnb barenbliss True Beauty Inside Cushion คุชชั่นเกาหลีผสมกันแดด SPF45 PA+++ คุมมัน ปกปิดขั้นสุด ติดทนนาน 24ชม.</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-d6d900f677f50efcf8aa1394468bbf73</v>
       </c>
       <c r="E45" t="str">
-        <v>฿559</v>
+        <v>สีทาเล็บ น้ำยาทาเล็บ ทาเล็บ สีทาเล็บแบบทูโทน ทาเล็บลอกได้ ยาทาเล็บ</v>
       </c>
       <c r="F45" t="str">
-        <v>459</v>
+        <v/>
       </c>
       <c r="G45" t="str">
-        <v>ขายแล้ว 20.3พัน ชิ้น</v>
+        <v>฿49</v>
       </c>
       <c r="H45" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v>11</v>
       </c>
       <c r="I45" t="str">
-        <v/>
+        <v>ขายแล้ว 13พัน ชิ้น</v>
       </c>
       <c r="J45" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K45" t="str">
         <v/>
       </c>
       <c r="L45" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v/>
       </c>
       <c r="M45" t="str">
+        <v/>
+      </c>
+      <c r="N45" t="str">
         <v/>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://shopee.co.th/Naturista-%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%A1%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B8%AA%E0%B8%B2%E0%B8%A3%E0%B8%AA%E0%B8%81%E0%B8%B1%E0%B8%94%E0%B8%97%E0%B8%B5%E0%B8%97%E0%B8%A3%E0%B8%B5%E0%B9%80%E0%B8%82%E0%B9%89%E0%B8%A1%E0%B8%82%E0%B9%89%E0%B8%99-%E0%B8%8A%E0%B9%88%E0%B8%A7%E0%B8%A2%E0%B8%9B%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%9B%E0%B8%B1%E0%B8%8D%E0%B8%AB%E0%B8%B2%E0%B8%AA%E0%B8%B4%E0%B8%A7-%E0%B8%9A%E0%B8%B3%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%8A%E0%B8%B1%E0%B8%9A-%E0%B9%80%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%9A%E0%B9%80%E0%B8%99%E0%B8%B5%E0%B8%A2%E0%B8%99-Tea-Tree-Essential-Serum-50ml-i.223832803.6916201994?sp_atk=55b7438d-bce2-48eb-bfb4-f0b26b51d207&amp;xptdk=55b7438d-bce2-48eb-bfb4-f0b26b51d207</v>
+        <v>https://shopee.co.th/%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B9%81%E0%B8%88%E0%B8%99%E0%B8%A2%E0%B8%B1%E0%B8%A7%E0%B8%A3%E0%B9%8C-Janua-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-30ml.-%E0%B9%81%E0%B8%9E%E0%B9%87%E0%B8%84%E0%B9%80%E0%B8%81%E0%B9%87%E0%B8%88%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-(%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87)-i.13357361.11585997871?sp_atk=1543ae50-b790-487d-aea0-8af75ab0dc29&amp;xptdk=1543ae50-b790-487d-aea0-8af75ab0dc29</v>
       </c>
       <c r="B46" t="str">
-        <v>https://down-th.img.susercontent.com/file/5a6988ccd5b20d4dda3ce287fd31cb20_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul8-lff8jiy21jn252_tn</v>
       </c>
       <c r="C46" t="str">
-        <v>-82%</v>
+        <v/>
       </c>
       <c r="D46" t="str">
-        <v>Naturista เซรั่มจากสารสกัดทีทรีเข้มข้น ช่วยป้องกันปัญหาสิว บำรุงผิวหน้าให้กระชับ เรียบเนียน Tea Tree Essential Serum 50ml</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="E46" t="str">
-        <v>฿890</v>
+        <v>น้ำหอมแจนยัวร์ Janua ขนาด 30ml. แพ็คเก็จใหม่ (พร้อมส่ง)</v>
       </c>
       <c r="F46" t="str">
-        <v>159</v>
+        <v/>
       </c>
       <c r="G46" t="str">
-        <v>ขายแล้ว 109พัน ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="H46" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>290</v>
       </c>
       <c r="I46" t="str">
-        <v/>
+        <v>ขายแล้ว 6.8พัน ชิ้น</v>
       </c>
       <c r="J46" t="str">
-        <v/>
+        <v>จังหวัดน่าน</v>
       </c>
       <c r="K46" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="L46" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>1,250</v>
       </c>
       <c r="M46" t="str">
+        <v/>
+      </c>
+      <c r="N46" t="str">
         <v/>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://shopee.co.th/%E0%B8%96%E0%B8%B9%E0%B8%81-%E0%B9%81%E0%B8%97%E0%B9%89-%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%9F%E0%B8%A3%E0%B8%B5-%E0%B8%A5%E0%B8%B4%E0%B8%9B-4U2-Serum-Tint-Oil-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%97%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B9%8C%E0%B9%84%E0%B8%8B%E0%B8%A3%E0%B8%B1%E0%B8%9B-%E0%B8%97%E0%B8%B4%E0%B9%89%E0%B8%99%E0%B8%97%E0%B9%8C%E0%B8%AD%E0%B8%AD%E0%B8%A2%E0%B8%A5%E0%B9%8C-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%AD%E0%B8%AD%E0%B8%A2%E0%B8%A5%E0%B9%8C-%E0%B8%9B%E0%B8%B2%E0%B8%81%E0%B8%89%E0%B9%88%E0%B8%B3-%E0%B8%89%E0%B9%88%E0%B8%B3%E0%B8%A7%E0%B8%B2%E0%B8%A7-%E0%B8%AD%E0%B8%B4%E0%B9%88%E0%B8%A1%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%8A%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%8A%E0%B8%B7%E0%B9%89%E0%B8%99-i.15147300.19292525331?sp_atk=330fe270-51a7-457d-8b45-0132fe04d15c&amp;xptdk=330fe270-51a7-457d-8b45-0132fe04d15c</v>
+        <v>https://shopee.co.th/3-%E0%B8%AA%E0%B8%B5-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B8%95%E0%B9%80%E0%B8%95%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%AA%E0%B8%AD-%E0%B9%83%E0%B8%9A%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-%E0%B8%8A%E0%B8%B4%E0%B8%A1%E0%B9%80%E0%B8%A1%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B9%84%E0%B8%AE%E0%B9%84%E0%B8%A5%E0%B8%97%E0%B9%8C-%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%AA%E0%B8%B5-%E0%B8%AA%E0%B8%A7%E0%B9%88%E0%B8%B2%E0%B8%87-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B9%8D%E0%B8%B2-%E0%B9%84%E0%B8%AB%E0%B8%A1-%E0%B8%AB%E0%B8%99%E0%B8%AD%E0%B8%99-%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%95%E0%B8%B2-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AD%E0%B8%B2%E0%B8%87-i.76226901.15763408867?sp_atk=7de61a7a-76dd-49b5-8353-62592b41c8e3&amp;xptdk=7de61a7a-76dd-49b5-8353-62592b41c8e3</v>
       </c>
       <c r="B47" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98o-ll2wdqnelwfe0c_tn</v>
+        <v>https://down-th.img.susercontent.com/file/6aa26d8ce655dac70e694a4bbc8ae344_tn</v>
       </c>
       <c r="C47" t="str">
-        <v>-40%</v>
+        <v>-87%</v>
       </c>
       <c r="D47" t="str">
-        <v>ถูก/แท้/ส่งฟรี ลิป 4U2 Serum Tint Oil ลิปทินท์ไซรัป ทิ้นท์ออยล์ ลิปออยล์ ปากฉ่ำ ฉ่ำวาว อิ่มน้ำ ชุ่มชื้น</v>
+        <v/>
       </c>
       <c r="E47" t="str">
-        <v>฿299</v>
+        <v>3 สี กลิตเตอร์ อายแชโดว์ ดินสอ / ใบหน้า อายแชโดว์ ชิมเมอร์ ไฮไลท์ แต่งหน้า สี / สว่าง กันน้ํา ไหม หนอน แต่งหน้า ตา เครื่องสําอาง</v>
       </c>
       <c r="F47" t="str">
-        <v>179</v>
+        <v/>
       </c>
       <c r="G47" t="str">
-        <v>ขายแล้ว 19.9พัน ชิ้น</v>
+        <v>฿115</v>
       </c>
       <c r="H47" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>15</v>
       </c>
       <c r="I47" t="str">
-        <v/>
+        <v>ขายแล้ว 22.3พัน ชิ้น</v>
       </c>
       <c r="J47" t="str">
-        <v/>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K47" t="str">
+        <v/>
+      </c>
+      <c r="L47" t="str">
+        <v/>
+      </c>
+      <c r="M47" t="str">
         <v>ร้านแนะนำ</v>
       </c>
-      <c r="L47" t="str">
-        <v/>
-      </c>
-      <c r="M47" t="str">
-        <v/>
+      <c r="N47" t="str">
+        <v>ซื้อ 5 ชิ้น ลด 5%</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>https://shopee.co.th/%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%84%E0%B8%A7-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1-Withat-EDP%E0%B8%AA%E0%B8%B1%E0%B9%88%E0%B8%87-2-%E0%B8%82%E0%B8%A7%E0%B8%94%E0%B9%81%E0%B8%96%E0%B8%A1%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B9%8A%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C-i.739603544.23513036496?sp_atk=c89eb8f9-3759-43d2-94b0-d06f2446e797&amp;xptdk=c89eb8f9-3759-43d2-94b0-d06f2446e797</v>
+        <v>https://shopee.co.th/-9.15-%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B9%82%E0%B8%84%E0%B9%89%E0%B8%94-PSKX149-%E0%B8%A5%E0%B8%94%E0%B9%80%E0%B8%9E%E0%B8%B4%E0%B9%88%E0%B8%A1-25-KEMEI-%E0%B8%A3%E0%B8%B8%E0%B9%88%E0%B8%99-KM-5017-%E0%B8%9A%E0%B8%B1%E0%B8%95%E0%B8%95%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B8%B5%E0%B9%88%E0%B8%A2%E0%B8%99%E0%B8%95%E0%B8%B1%E0%B8%94%E0%B8%9C%E0%B8%A1%E0%B9%84%E0%B8%A3%E0%B9%89%E0%B8%AA%E0%B8%B2%E0%B8%A2-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%A3%E0%B8%AD%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B5-4-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-i.33871790.2054358386?sp_atk=2c31ca35-ff60-42f6-bed5-2eb2de8b2c2f&amp;xptdk=2c31ca35-ff60-42f6-bed5-2eb2de8b2c2f</v>
       </c>
       <c r="B48" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul3-lgga8lrkazgv93_tn</v>
+        <v>https://down-th.img.susercontent.com/file/bf6728569e7f7a55ea84956d2039fac0_tn</v>
       </c>
       <c r="C48" t="str">
-        <v>-50%</v>
+        <v>-79%</v>
       </c>
       <c r="D48" t="str">
-        <v>พร้อมส่ง ส่งไว น้ำหอม Withat EDPสั่ง 2 ขวดแถมสติ๊กเกอร์</v>
+        <v/>
       </c>
       <c r="E48" t="str">
-        <v>-</v>
+        <v>[9.15 ใส่โค้ด PSKX149 ลดเพิ่ม 25%] KEMEI รุ่น KM-5017 บัตตาเลี่ยนตัดผมไร้สาย พร้อมที่รองหวี 4 ชิ้น</v>
       </c>
       <c r="F48" t="str">
-        <v>199</v>
+        <v/>
       </c>
       <c r="G48" t="str">
-        <v>ขายแล้ว 226.4พัน ชิ้น</v>
+        <v>฿899</v>
       </c>
       <c r="H48" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>193</v>
       </c>
       <c r="I48" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 93.8พัน ชิ้น</v>
       </c>
       <c r="J48" t="str">
-        <v>995</v>
+        <v>จังหวัดปทุมธานี</v>
       </c>
       <c r="K48" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="L48" t="str">
         <v/>
       </c>
       <c r="M48" t="str">
+        <v/>
+      </c>
+      <c r="N48" t="str">
         <v/>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>https://shopee.co.th/CeraVe-Moisturising-Lotion-%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B2%E0%B8%A7%E0%B8%B5-%E0%B9%82%E0%B8%A5%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B8%9A%E0%B8%B3%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B8%9C%E0%B8%B4%E0%B8%A7-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%AA%E0%B8%B1%E0%B8%A1%E0%B8%9C%E0%B8%B1%E0%B8%AA%E0%B8%9A%E0%B8%B2%E0%B8%87%E0%B9%80%E0%B8%9A%E0%B8%B2-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%98%E0%B8%A3%E0%B8%A3%E0%B8%A1%E0%B8%94%E0%B8%B2-%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%A1%E0%B8%B1%E0%B8%99-%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%9C%E0%B8%AA%E0%B8%A1.-i.70998059.15493653056?sp_atk=181ce13d-5449-4425-859e-9b26654e6c9f&amp;xptdk=181ce13d-5449-4425-859e-9b26654e6c9f</v>
+        <v>https://shopee.co.th/%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%97%E0%B8%B2%E0%B8%A1%E0%B8%B7%E0%B8%AD-hand-cream-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99%E0%B8%AB%E0%B8%AD%E0%B8%A1-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%97%E0%B8%B2%E0%B8%A1%E0%B8%B7%E0%B8%AD-i.100890594.9702623185?sp_atk=6a3da408-cbc7-4547-857c-db53c24b4e9d&amp;xptdk=6a3da408-cbc7-4547-857c-db53c24b4e9d</v>
       </c>
       <c r="B49" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbmd-loapm1wd6pb92d_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-22110-i5m3o58l7cjv88_tn</v>
       </c>
       <c r="C49" t="str">
-        <v>-20%</v>
+        <v>-83%</v>
       </c>
       <c r="D49" t="str">
-        <v>CeraVe Moisturising Lotion เซราวี โลชั่นบำรุงผิว เนื้อสัมผัสบางเบา สำหรับผิวธรรมดา ผิวมัน ผิวผสม.</v>
+        <v/>
       </c>
       <c r="E49" t="str">
-        <v>-</v>
+        <v>ครีมทามือ hand cream กลิ่นหอม สำหรับทามือ</v>
       </c>
       <c r="F49" t="str">
-        <v>200</v>
+        <v/>
       </c>
       <c r="G49" t="str">
-        <v>ขายแล้ว 14.4พัน ชิ้น</v>
+        <v>฿29</v>
       </c>
       <c r="H49" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>5</v>
       </c>
       <c r="I49" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 93.9พัน ชิ้น</v>
       </c>
       <c r="J49" t="str">
-        <v>808</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K49" t="str">
         <v/>
@@ -2380,499 +2524,538 @@
         <v/>
       </c>
       <c r="M49" t="str">
+        <v>ร้านแนะนำ</v>
+      </c>
+      <c r="N49" t="str">
         <v/>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>https://shopee.co.th/-MOO-WOO-%E0%B8%9E%E0%B8%B1%E0%B8%9F%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%9E%E0%B8%B1%E0%B8%9F%E0%B9%81%E0%B8%9B%E0%B9%89%E0%B8%87%E0%B8%9D%E0%B8%B8%E0%B9%88%E0%B8%99-%E0%B8%9E%E0%B8%B1%E0%B8%9F%E0%B8%84%E0%B8%B8%E0%B8%8A%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99-%E0%B8%97%E0%B8%A3%E0%B8%87%E0%B8%AB%E0%B8%A2%E0%B8%94%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B9%83%E0%B8%AB%E0%B8%8D%E0%B9%88-%E0%B8%AB%E0%B8%99%E0%B8%B2%E0%B8%99%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A3%E0%B8%B0%E0%B8%84%E0%B8%B2%E0%B8%A2%E0%B8%9C%E0%B8%B4%E0%B8%A7-i.435141923.18083797654?sp_atk=81f2b167-abc1-4b8c-a487-3a084d8d7492&amp;xptdk=81f2b167-abc1-4b8c-a487-3a084d8d7492</v>
+        <v>https://shopee.co.th/Sleepy-Bear-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%AD%E0%B8%B8%E0%B8%94%E0%B8%AB%E0%B8%B9%E0%B9%80%E0%B8%A7%E0%B8%A5%E0%B8%B2%E0%B8%99%E0%B8%AD%E0%B8%99%E0%B8%94%E0%B8%B5%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%AA%E0%B8%B8%E0%B8%94-1-%E0%B8%84%E0%B8%B9%E0%B9%88-%E0%B8%A5%E0%B8%94%E0%B9%80%E0%B8%AA%E0%B8%B5%E0%B8%A2%E0%B8%87-%E0%B8%99%E0%B8%B8%E0%B9%88%E0%B8%A1-%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B8%AA%E0%B8%9A%E0%B8%B2%E0%B8%A2-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B9%80%E0%B8%88%E0%B9%87%E0%B8%9A%E0%B8%AB%E0%B8%B9-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%8B%E0%B9%89%E0%B8%B3%E0%B9%84%E0%B8%94%E0%B9%89-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AA%E0%B8%B5%E0%B8%A2%E0%B8%87%E0%B8%81%E0%B8%A3%E0%B8%99-Sleepybear-%E0%B8%8B%E0%B8%B4%E0%B8%A5%E0%B8%B4%E0%B9%82%E0%B8%84%E0%B8%99%E0%B8%AD%E0%B8%B8%E0%B8%94%E0%B8%AB%E0%B8%B9-i.376433227.8011078520?sp_atk=f56863c1-b806-4499-b001-d4f871ab8ea1&amp;xptdk=f56863c1-b806-4499-b001-d4f871ab8ea1</v>
       </c>
       <c r="B50" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98z-lq1g1drudqlg23_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98w-lpb9wglthap5b0_tn</v>
       </c>
       <c r="C50" t="str">
-        <v>-55%</v>
+        <v>-33%</v>
       </c>
       <c r="D50" t="str">
-        <v>[MOO WOO] พัฟแต่งหน้า พัฟแป้งฝุ่น พัฟคุชชั่น ทรงหยดน้ำ ขนาดใหญ่ หนานุ่มไม่ระคายผิว</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="E50" t="str">
-        <v>-</v>
+        <v>Sleepy Bear ที่อุดหูเวลานอนดีที่สุด 1 คู่ ลดเสียง นุ่ม ใส่สบาย ไม่เจ็บหู ใช้ซ้ำได้ กันเสียงกรน Sleepybear ซิลิโคนอุดหู</v>
       </c>
       <c r="F50" t="str">
-        <v>9</v>
+        <v/>
       </c>
       <c r="G50" t="str">
-        <v>ขายแล้ว 26.2พัน ชิ้น</v>
+        <v>฿89</v>
       </c>
       <c r="H50" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>60</v>
       </c>
       <c r="I50" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 80.8พัน ชิ้น</v>
       </c>
       <c r="J50" t="str">
-        <v>18</v>
+        <v>จังหวัดนนทบุรี</v>
       </c>
       <c r="K50" t="str">
         <v/>
       </c>
       <c r="L50" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v/>
       </c>
       <c r="M50" t="str">
+        <v>ร้านแนะนำ</v>
+      </c>
+      <c r="N50" t="str">
         <v/>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>https://shopee.co.th/WET-BRUSH-%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B5%E0%B8%9C%E0%B8%A1%E0%B8%97%E0%B8%A3%E0%B8%87%E0%B8%A3%E0%B8%B5-%E0%B8%A3%E0%B8%B8%E0%B9%88%E0%B8%99-%E0%B8%94%E0%B8%B4%E0%B8%AA%E0%B8%99%E0%B8%B5%E0%B8%A2%E0%B9%8C-%E0%B8%9E%E0%B8%A3%E0%B8%B4%E0%B8%99%E0%B9%80%E0%B8%8B%E0%B8%AA-%E0%B8%A1%E0%B8%B4%E0%B8%99%E0%B8%B4-DISNEY-GLITTER-BALL-MINI-DETANGLER-i.35349998.5088689689?sp_atk=94d08ac7-8570-4458-9da1-86937f454f4f&amp;xptdk=94d08ac7-8570-4458-9da1-86937f454f4f</v>
+        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89-%F0%9F%92%AFDIKALU-COCO-VENUS-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C%E0%B8%AA%E0%B8%B5%E0%B8%8A%E0%B8%B4%E0%B8%A1%E0%B9%80%E0%B8%A1%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89-%F0%9F%92%AFDIKALU-COCO-VENUS%E3%80%82-i.191552132.5404698352?sp_atk=0be148ba-4b0e-43a9-ba23-65233f67383c&amp;xptdk=0be148ba-4b0e-43a9-ba23-65233f67383c</v>
       </c>
       <c r="B51" t="str">
-        <v>https://down-th.img.susercontent.com/file/3bda24ea6f7f3b59efd7450d18226ac8_tn</v>
+        <v>https://down-th.img.susercontent.com/file/f829a5cbaa38ef5f3cbc69511552ba6b_tn</v>
       </c>
       <c r="C51" t="str">
-        <v>-13%</v>
+        <v>-6%</v>
       </c>
       <c r="D51" t="str">
-        <v>WET BRUSH แปรงหวีผมทรงรี รุ่น ดิสนีย์ พรินเซส มินิ DISNEY GLITTER BALL MINI DETANGLER</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="E51" t="str">
-        <v>-</v>
+        <v>สินค้าของแท้ 💯DIKALU COCO VENUS อายแชโดว์สีชิมเมอร์กันน้ำ ----สินค้าของแท้ 💯DIKALU COCO VENUS。</v>
       </c>
       <c r="F51" t="str">
-        <v>299</v>
+        <v/>
       </c>
       <c r="G51" t="str">
-        <v>ขายแล้ว 34.3พัน ชิ้น</v>
+        <v>฿53</v>
       </c>
       <c r="H51" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>50</v>
       </c>
       <c r="I51" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 88.6พัน ชิ้น</v>
       </c>
       <c r="J51" t="str">
-        <v>345</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K51" t="str">
         <v/>
       </c>
       <c r="L51" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
+        <v/>
       </c>
       <c r="M51" t="str">
+        <v>ร้านแนะนำ</v>
+      </c>
+      <c r="N51" t="str">
         <v/>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>https://shopee.co.th/ODBO-SIGNATURE-EYESHADOW-PALETTE-OD276%E0%B9%82%E0%B8%AD%E0%B8%94%E0%B8%B5%E0%B8%9A%E0%B8%B5%E0%B9%82%E0%B8%AD-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-%E0%B8%8B%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%99%E0%B9%80%E0%B8%88%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%9E%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B8%97-6-%E0%B8%AA%E0%B8%B5-%E0%B9%80%E0%B8%A1%E0%B9%87%E0%B8%94%E0%B8%AA%E0%B8%B5%E0%B9%81%E0%B9%81%E0%B8%99%E0%B9%88%E0%B8%99-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-i.6617518.12293237068?sp_atk=f8dcc41a-8ad6-46f6-b982-21e7ec000a83&amp;xptdk=f8dcc41a-8ad6-46f6-b982-21e7ec000a83</v>
+        <v>https://shopee.co.th/%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B8%84%E0%B8%B2%E0%B8%A3%E0%B9%88%E0%B8%B2%E0%B9%80%E0%B8%81%E0%B9%87%E0%B8%9A%E0%B9%84%E0%B8%A3%E0%B8%9C%E0%B8%A1-%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B8%84%E0%B8%B2%E0%B8%A3%E0%B9%88%E0%B8%B2%E0%B9%80%E0%B8%81%E0%B9%87%E0%B8%9A%E0%B8%A5%E0%B8%B9%E0%B8%81%E0%B8%9C%E0%B8%A1-%E0%B9%80%E0%B8%81%E0%B9%87%E0%B8%9A%E0%B8%A5%E0%B8%B9%E0%B8%81%E0%B8%9C%E0%B8%A1-%E0%B8%9C%E0%B8%A1%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A2%E0%B8%B8%E0%B9%88%E0%B8%87-%E0%B9%81%E0%B8%81%E0%B9%89%E0%B8%9B%E0%B8%B1%E0%B8%8D%E0%B8%AB%E0%B8%B2%E0%B8%AB%E0%B8%B1%E0%B8%A7%E0%B8%9F%E0%B8%B9-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B9%83%E0%B8%AA-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B9%80%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%A2%E0%B8%A7(442)-i.399297978.19811956612?sp_atk=bc13eb8e-8b8a-42ee-8408-ffaaceaac94a&amp;xptdk=bc13eb8e-8b8a-42ee-8408-ffaaceaac94a</v>
       </c>
       <c r="B52" t="str">
-        <v>https://down-th.img.susercontent.com/file/cd14426f0b132f6e02d4d037bbfabbe0_tn</v>
+        <v>https://down-th.img.susercontent.com/file/f4274d83202803574acbb9fe31c0c973_tn</v>
       </c>
       <c r="C52" t="str">
-        <v>-21%</v>
+        <v>-97%</v>
       </c>
       <c r="D52" t="str">
-        <v>ODBO SIGNATURE EYESHADOW PALETTE OD276โอดีบีโอ อายแชโดว์ ซิกเนเจอร์ พาเลท 6 สี เม็ดสีแแน่น ติดทนนาน</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="E52" t="str">
-        <v>-</v>
+        <v>มาสคาร่าเก็บไรผม มาสคาร่าเก็บลูกผม เก็บลูกผม ผมไม่ยุ่ง แก้ปัญหาหัวฟู เจลใส ไม่เหนียว(442)</v>
       </c>
       <c r="F52" t="str">
-        <v>67</v>
+        <v/>
       </c>
       <c r="G52" t="str">
-        <v>ขายแล้ว 21พัน ชิ้น</v>
+        <v>฿39</v>
       </c>
       <c r="H52" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>1</v>
       </c>
       <c r="I52" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 55.8พัน ชิ้น</v>
       </c>
       <c r="J52" t="str">
-        <v>119</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K52" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="L52" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
+        <v/>
       </c>
       <c r="M52" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v/>
+      </c>
+      <c r="N52" t="str">
+        <v/>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B1%E0%B9%88%E0%B8%87%E0%B9%83%E0%B8%99%E0%B9%84%E0%B8%A5%E0%B8%9F%E0%B9%8C%E0%B9%80%E0%B8%AB%E0%B8%A5%E0%B8%B7%E0%B8%AD-226%E0%B8%BF.-%E0%B8%A7%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%94%E0%B8%B5%E0%B8%A2%E0%B8%A7%F0%9F%94%A5%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89-%F0%9F%92%A5-ELA-RAE-ARMPIT-%E0%B8%AD%E0%B8%B5%E0%B8%AB%E0%B8%A5%E0%B9%89%E0%B8%B2%E0%B9%81%E0%B8%A3%E0%B9%89-%E0%B8%AD%E0%B8%B5%E0%B8%A5%E0%B9%88%E0%B8%B2%E0%B9%81%E0%B8%A3%E0%B8%A3%E0%B9%8C-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B9%81%E0%B8%A3%E0%B9%89%E0%B8%84%E0%B8%B3%E0%B9%81%E0%B8%99%E0%B9%89%E0%B8%A1-i.160259287.22358514442?sp_atk=f79e4204-0108-489c-a4c6-26173f8003cf&amp;xptdk=f79e4204-0108-489c-a4c6-26173f8003cf</v>
+        <v>https://shopee.co.th/Kirei-Kirei-%E0%B9%82%E0%B8%9F%E0%B8%A1%E0%B8%A5%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD-%E0%B8%84%E0%B8%B4%E0%B9%80%E0%B8%A3%E0%B8%AD%E0%B8%B4-%E0%B8%84%E0%B8%B4%E0%B9%80%E0%B8%A3%E0%B8%AD%E0%B8%B4-%E0%B8%8A%E0%B8%99%E0%B8%B4%E0%B8%94%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B9%80%E0%B8%95%E0%B8%B4%E0%B8%A1-200-%E0%B8%A1%E0%B8%A5.-%E0%B8%81%E0%B8%A3%E0%B8%AD%E0%B8%81%E0%B9%82%E0%B8%84%E0%B9%89%E0%B8%94-DIMSTWV-%E0%B8%A5%E0%B8%94-40.--i.708767115.15561975129?sp_atk=bb520ab3-02a5-417f-8fb0-bcd07cc7416e&amp;xptdk=bb520ab3-02a5-417f-8fb0-bcd07cc7416e</v>
       </c>
       <c r="B53" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98o-ln2s8uwxtc211a_tn</v>
+        <v>https://down-th.img.susercontent.com/file/eb5802441f0d786b038194793671c96f_tn</v>
       </c>
       <c r="C53" t="str">
-        <v>-14%</v>
+        <v>-29%</v>
       </c>
       <c r="D53" t="str">
-        <v>สั่งในไลฟ์เหลือ 226฿.-วันเดียว🔥พร้อมส่ง ของแท้ 💥  ELA RAE ARMPIT อีหล้าแร้ อีล่าแรร์ ครีมรักแร้คำแน้ม</v>
+        <v/>
       </c>
       <c r="E53" t="str">
-        <v>฿390</v>
+        <v>Kirei Kirei โฟมล้างมือ คิเรอิ คิเรอิ ชนิดถุงเติม 200 มล. [กรอกโค้ด DIMSTWV ลด 40.-]</v>
       </c>
       <c r="F53" t="str">
-        <v>335</v>
+        <v/>
       </c>
       <c r="G53" t="str">
-        <v>ขายแล้ว 14.4พัน ชิ้น</v>
+        <v>฿35</v>
       </c>
       <c r="H53" t="str">
-        <v>จังหวัดนนทบุรี</v>
+        <v>25</v>
       </c>
       <c r="I53" t="str">
-        <v/>
+        <v>ขายแล้ว 58.7พัน ชิ้น</v>
       </c>
       <c r="J53" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K53" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="L53" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v/>
       </c>
       <c r="M53" t="str">
+        <v/>
+      </c>
+      <c r="N53" t="str">
         <v/>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>https://shopee.co.th/%F0%9F%94%A5%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%F0%9F%94%A5-Mille-Snail-Bright-Primer-8g.-%E0%B8%A1%E0%B8%B4%E0%B8%A5%E0%B9%80%E0%B8%A5%E0%B9%88-%E0%B8%AA%E0%B9%80%E0%B8%99%E0%B8%A5-%E0%B9%84%E0%B8%9A%E0%B8%A3%E0%B9%8C%E0%B8%97-%E0%B9%84%E0%B8%9E%E0%B8%A3%E0%B9%80%E0%B8%A1%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B9%80%E0%B8%9A%E0%B8%A5%E0%B8%AD%E0%B8%A3%E0%B8%B9%E0%B8%82%E0%B8%B8%E0%B8%A1%E0%B8%82%E0%B8%99-i.28469453.23986580577?sp_atk=60ad1c85-11a4-4f55-a215-e84cf728f3e2&amp;xptdk=60ad1c85-11a4-4f55-a215-e84cf728f3e2</v>
+        <v>https://shopee.co.th/%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%9C%E0%B8%A1%E0%B8%A1%E0%B8%B4%E0%B8%99%E0%B8%B4-%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%A1%E0%B8%B4%E0%B8%99%E0%B8%B4-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-i.98842110.3812893367?sp_atk=bd6a0e9e-b1d2-4a14-9c60-70c74af67b09&amp;xptdk=bd6a0e9e-b1d2-4a14-9c60-70c74af67b09</v>
       </c>
       <c r="B54" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98p-lo718y4cqd4i33_tn</v>
+        <v>https://down-th.img.susercontent.com/file/1e7fbae13a1bc03be1a3fb644f1fd93c_tn</v>
       </c>
       <c r="C54" t="str">
-        <v>-8%</v>
+        <v>-37%</v>
       </c>
       <c r="D54" t="str">
-        <v>🔥พร้อมส่ง🔥 Mille Snail Bright Primer 8g. มิลเล่ สเนล ไบร์ท ไพรเมอร์ เบลอรูขุมขน</v>
+        <v/>
       </c>
       <c r="E54" t="str">
-        <v>฿239</v>
+        <v>เครื่องหนีบผมมินิ หนีบมินิ ขนาดพกพา</v>
       </c>
       <c r="F54" t="str">
-        <v>219</v>
+        <v/>
       </c>
       <c r="G54" t="str">
-        <v>ขายแล้ว 4.9พัน ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="H54" t="str">
-        <v>จังหวัดนครราชสีมา</v>
+        <v>34</v>
       </c>
       <c r="I54" t="str">
-        <v/>
+        <v>ขายแล้ว 56.1พัน ชิ้น</v>
       </c>
       <c r="J54" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K54" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="L54" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
+        <v>38</v>
       </c>
       <c r="M54" t="str">
+        <v/>
+      </c>
+      <c r="N54" t="str">
         <v/>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>https://shopee.co.th/%E0%B9%81%E0%B8%A1%E0%B8%97-2-%E0%B8%AD%E0%B8%B4%E0%B8%99-1-%E0%B8%AA%E0%B8%AD%E0%B8%87%E0%B8%8A%E0%B8%B1%E0%B9%89%E0%B8%99-%E0%B9%81%E0%B8%9B%E0%B9%89%E0%B8%87%E0%B8%AD%E0%B8%B1%E0%B8%94%E0%B9%81%E0%B8%82%E0%B9%87%E0%B8%87-%E0%B8%84%E0%B8%AD%E0%B8%99%E0%B8%8B%E0%B8%B5%E0%B8%A5%E0%B9%80%E0%B8%A5%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%A1%E0%B8%AD%E0%B8%A2%E0%B8%8B%E0%B9%8C%E0%B9%80%E0%B8%88%E0%B8%AD%E0%B9%84%E0%B8%A3%E0%B9%80%E0%B8%8B%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B9%80%E0%B8%9B%E0%B8%B5%E0%B8%A2%E0%B8%81%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87-YUE-i.121739699.19689538589?sp_atk=a0ff1d5c-8696-4296-a426-169f094b925a&amp;xptdk=a0ff1d5c-8696-4296-a426-169f094b925a</v>
+        <v>https://shopee.co.th/%E0%B8%9E%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B8%95%E0%B8%95%E0%B9%8C%E0%B8%84%E0%B8%AD%E0%B8%99%E0%B8%8B%E0%B8%B5%E0%B8%A5%E0%B9%80%E0%B8%A5%E0%B8%AD%E0%B8%A3%E0%B9%8C-3-%E0%B8%AA%E0%B8%B5-%E0%B8%84%E0%B8%AD%E0%B8%99%E0%B8%97%E0%B8%B1%E0%B8%A7%E0%B8%A3%E0%B9%8C-%E0%B8%84%E0%B8%AD%E0%B8%99%E0%B8%97%E0%B8%B1%E0%B8%A7%E0%B8%A3%E0%B9%8C%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%9B%E0%B8%81%E0%B8%9B%E0%B8%B4%E0%B8%94%E0%B8%A3%E0%B8%AD%E0%B8%A2%E0%B8%84%E0%B8%A5%E0%B9%89%E0%B9%8D%E0%B8%B2%E0%B9%83%E0%B8%95%E0%B9%89%E0%B8%95%E0%B8%B2-i.148820479.21308831375?sp_atk=59205e82-4248-431e-b0e5-2d76cd795b65&amp;xptdk=59205e82-4248-431e-b0e5-2d76cd795b65</v>
       </c>
       <c r="B55" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7qvfl-lhpn1mopio2a0a_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-22100-glx3j5uwc8iv16_tn</v>
       </c>
       <c r="C55" t="str">
-        <v>-67%</v>
+        <v>-78%</v>
       </c>
       <c r="D55" t="str">
-        <v>แมท 2 อิน 1 สองชั้น แป้งอัดแข็ง คอนซีลเลอร์ มอยซ์เจอไรเซอร์ ไม่แต่งหน้า เปียกและแห้ง YUE</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="E55" t="str">
-        <v>-</v>
+        <v>พาเลตต์คอนซีลเลอร์ 3 สี คอนทัวร์ คอนทัวร์หน้า ปกปิดรอยคล้ําใต้ตา</v>
       </c>
       <c r="F55" t="str">
-        <v>8</v>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="G55" t="str">
-        <v>ขายแล้ว 27.5พัน ชิ้น</v>
+        <v>฿40</v>
       </c>
       <c r="H55" t="str">
+        <v>9</v>
+      </c>
+      <c r="I55" t="str">
+        <v>ขายแล้ว 69.2พัน ชิ้น</v>
+      </c>
+      <c r="J55" t="str">
         <v>ต่างประเทศ</v>
       </c>
-      <c r="I55" t="str">
-        <v>฿</v>
-      </c>
-      <c r="J55" t="str">
-        <v>39</v>
-      </c>
       <c r="K55" t="str">
+        <v/>
+      </c>
+      <c r="L55" t="str">
+        <v/>
+      </c>
+      <c r="M55" t="str">
         <v>ร้านแนะนำ</v>
       </c>
-      <c r="L55" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
-      </c>
-      <c r="M55" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+      <c r="N55" t="str">
+        <v/>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>https://shopee.co.th/%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B8%84%E0%B8%B2%E0%B8%A3%E0%B9%88%E0%B8%B2-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%AB%E0%B8%99%E0%B8%B2-%E0%B8%A2%E0%B8%B2%E0%B8%A7-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B9%8D%E0%B8%B2-i.273622042.5247274801?sp_atk=478d69c7-fb1d-4cb9-8260-cb5f00dcf0f0&amp;xptdk=478d69c7-fb1d-4cb9-8260-cb5f00dcf0f0</v>
+        <v>https://shopee.co.th/%E0%B8%96%E0%B8%B9%E0%B8%81%E0%B8%AA%E0%B8%B8%E0%B8%94!%E0%B9%81%E0%B8%97%E0%B9%89%F0%9F%92%AF-Berina-Hair-Color-%E0%B9%80%E0%B8%9A%E0%B8%AD%E0%B8%A3%E0%B8%B5%E0%B8%99%E0%B9%88%E0%B8%B2-%E0%B8%AA%E0%B8%B5%E0%B8%A2%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%9C%E0%B8%A1-%E0%B8%AA%E0%B8%B5%E0%B8%9C%E0%B8%A1%E0%B9%80%E0%B8%9A%E0%B8%AD%E0%B8%A3%E0%B8%B4%E0%B8%99%E0%B9%88%E0%B8%B2-47%E0%B9%80%E0%B8%89%E0%B8%94%E0%B8%AA%E0%B8%B5-%E0%B9%80%E0%B8%9B%E0%B8%A5%E0%B9%88%E0%B8%87%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%81%E0%B8%B2%E0%B8%A2-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-%E0%B8%9B%E0%B8%B4%E0%B8%94%E0%B8%9C%E0%B8%A1%E0%B8%82%E0%B8%B2%E0%B8%A7-%E0%B9%80%E0%B8%9A%E0%B8%AD%E0%B8%A3%E0%B8%B4%E0%B8%99%E0%B9%88%E0%B8%B2-%E0%B9%80%E0%B8%9A%E0%B8%AD%E0%B8%A3%E0%B8%B4%E0%B8%99%E0%B9%88%E0%B8%B2-i.1159744.2345276993?sp_atk=bf4f368b-de11-46e4-acdb-bf4cbbefff9b&amp;xptdk=bf4f368b-de11-46e4-acdb-bf4cbbefff9b</v>
       </c>
       <c r="B56" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134201-23030-ywg4jvo4ncovaf_tn</v>
+        <v>https://down-th.img.susercontent.com/file/4a14624f5585af5ceaaff72808873fda_tn</v>
       </c>
       <c r="C56" t="str">
-        <v>-99%</v>
+        <v>-32%</v>
       </c>
       <c r="D56" t="str">
-        <v>มาสคาร่า แบบหนา ยาว กันน้ํา</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
       </c>
       <c r="E56" t="str">
-        <v>-</v>
+        <v>ถูกสุด!แท้💯%Berina Hair Color เบอรีน่า สีย้อมผม สีผมเบอริน่า 47เฉดสี เปล่งประกาย ติดทนนาน ปิดผมขาว เบอริน่า เบอริน่า</v>
       </c>
       <c r="F56" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G56" t="str">
-        <v>ขายแล้ว 422.2พัน ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="H56" t="str">
-        <v>ต่างประเทศ</v>
+        <v>26</v>
       </c>
       <c r="I56" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 202.6พัน ชิ้น</v>
       </c>
       <c r="J56" t="str">
-        <v>9</v>
+        <v>จังหวัดลำปาง</v>
       </c>
       <c r="K56" t="str">
+        <v>฿</v>
+      </c>
+      <c r="L56" t="str">
+        <v>43</v>
+      </c>
+      <c r="M56" t="str">
         <v>ร้านแนะนำ</v>
       </c>
-      <c r="L56" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
-      </c>
-      <c r="M56" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+      <c r="N56" t="str">
+        <v/>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>https://shopee.co.th/Dr.PONG-28D-WHITENING-DRONE-PINKY-LIP-MASK-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B9%8C%E0%B8%81%E0%B9%81%E0%B8%81%E0%B9%89%E0%B8%9B%E0%B8%B2%E0%B8%81%E0%B8%84%E0%B8%A5%E0%B9%89%E0%B8%B3-%E0%B8%9B%E0%B8%B2%E0%B8%81%E0%B8%8A%E0%B8%A1%E0%B8%9E%E0%B8%B9%E0%B8%94%E0%B8%B9%E0%B8%AD%E0%B8%A7%E0%B8%9A%E0%B8%AD%E0%B8%B4%E0%B9%88%E0%B8%A1-i.6583190.16095413625?sp_atk=4885fc16-98ef-44f1-abe3-ea224555e7ad&amp;xptdk=4885fc16-98ef-44f1-abe3-ea224555e7ad</v>
+        <v>https://shopee.co.th/%E0%B8%99%E0%B9%89%E0%B9%8D%E0%B8%B2%E0%B8%A2%E0%B8%B2%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B9%80%E0%B8%84%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%9A%E0%B9%80%E0%B8%87%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%81%E0%B8%B6%E0%B9%88%E0%B8%87%E0%B8%96%E0%B8%B2%E0%B8%A7%E0%B8%A3-60-%E0%B8%AA%E0%B8%B5-i.523478166.21340791019?sp_atk=ba37aa88-a0c0-4edd-a6a5-d058b65678fe&amp;xptdk=ba37aa88-a0c0-4edd-a6a5-d058b65678fe</v>
       </c>
       <c r="B57" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98p-lq1hh809hp961a_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-22120-e1gli54uaplv54_tn</v>
       </c>
       <c r="C57" t="str">
-        <v>-66%</v>
+        <v>-65%</v>
       </c>
       <c r="D57" t="str">
-        <v>Dr.PONG 28D WHITENING DRONE PINKY LIP MASK ลิปมาส์กแก้ปากคล้ำ ปากชมพูดูอวบอิ่ม</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="E57" t="str">
-        <v>฿590</v>
+        <v>น้ํายาทาเล็บเจล เคลือบเงาเล็บกึ่งถาวร 60 สี</v>
       </c>
       <c r="F57" t="str">
-        <v>199</v>
+        <v/>
       </c>
       <c r="G57" t="str">
-        <v>ขายแล้ว 48.9พัน ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="H57" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>9</v>
       </c>
       <c r="I57" t="str">
-        <v/>
+        <v>ขายแล้ว 59.5พัน ชิ้น</v>
       </c>
       <c r="J57" t="str">
-        <v/>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K57" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="L57" t="str">
-        <v/>
+        <v>19</v>
       </c>
       <c r="M57" t="str">
+        <v>ร้านแนะนำ</v>
+      </c>
+      <c r="N57" t="str">
         <v/>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>https://shopee.co.th/Mille-%E0%B9%84%E0%B8%9E%E0%B8%A3%E0%B9%80%E0%B8%A1%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%80%E0%B8%9A%E0%B8%A5%E0%B8%AD%E0%B8%A3%E0%B8%B9%E0%B8%82%E0%B8%B8%E0%B8%A1%E0%B8%82%E0%B8%99-%E0%B8%84%E0%B8%B8%E0%B8%A1%E0%B8%A1%E0%B8%B1%E0%B8%99-Snail-Bright-Primer-i.11199750.1058699484?sp_atk=4f567fd1-2c7b-4830-a284-c7b6a904ab53&amp;xptdk=4f567fd1-2c7b-4830-a284-c7b6a904ab53</v>
+        <v>https://shopee.co.th/%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%94%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%AA%E0%B9%80%E0%B8%95%E0%B8%99%E0%B9%80%E0%B8%A5%E0%B8%AA-%E0%B8%97%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%99-%E0%B8%A1%E0%B8%B5%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%AA%E0%B8%B4%E0%B8%97%E0%B8%98%E0%B8%B4%E0%B8%A0%E0%B8%B2%E0%B8%9E-%E0%B8%AD%E0%B8%B8%E0%B8%9B%E0%B8%81%E0%B8%A3%E0%B8%93%E0%B9%8C%E0%B9%80%E0%B8%AA%E0%B8%A3%E0%B8%B4%E0%B8%A1%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%87%E0%B8%B2%E0%B8%A1-i.198352103.14830895900?sp_atk=af05f7bd-3c16-4292-819f-f1fc4940b64f&amp;xptdk=af05f7bd-3c16-4292-819f-f1fc4940b64f</v>
       </c>
       <c r="B58" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-23030-kj2rxo0dheov52_tn</v>
+        <v>https://down-th.img.susercontent.com/file/f5d8747bd43b9a378171ff5e0615e9bc_tn</v>
       </c>
       <c r="C58" t="str">
-        <v>-33%</v>
+        <v>-94%</v>
       </c>
       <c r="D58" t="str">
-        <v>Mille ไพรเมอร์เบลอรูขุมขน คุมมัน Snail Bright Primer</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="E58" t="str">
-        <v>฿895</v>
+        <v>ที่ดัดขนตาปลอม สเตนเลส ทนทาน มีประสิทธิภาพ อุปกรณ์เสริมความงาม</v>
       </c>
       <c r="F58" t="str">
-        <v>599</v>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="G58" t="str">
-        <v>ขายแล้ว 23พัน ชิ้น</v>
+        <v>฿16</v>
       </c>
       <c r="H58" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>1</v>
       </c>
       <c r="I58" t="str">
-        <v/>
+        <v>ขายแล้ว 94.8พัน ชิ้น</v>
       </c>
       <c r="J58" t="str">
-        <v/>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K58" t="str">
         <v/>
       </c>
       <c r="L58" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v/>
       </c>
       <c r="M58" t="str">
+        <v>ร้านแนะนำ</v>
+      </c>
+      <c r="N58" t="str">
         <v/>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>https://shopee.co.th/Peach-Milk-Honey-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%81%E0%B8%A5%E0%B8%AD%E0%B8%AA-%E0%B8%99%E0%B9%89%E0%B9%8D%E0%B8%B2%E0%B8%A1%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B9%8D%E0%B8%B2%E0%B8%9C%E0%B8%B6%E0%B9%89%E0%B8%87-%E0%B8%9A%E0%B8%A3%E0%B8%A3%E0%B9%80%E0%B8%97%E0%B8%B2%E0%B8%AD%E0%B8%B2%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87-%E0%B8%8A%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%8A%E0%B8%B7%E0%B9%89%E0%B8%99-%E0%B8%88%E0%B8%B2%E0%B8%87%E0%B8%AB%E0%B8%B2%E0%B8%A2-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B9%84%E0%B8%A5%E0%B8%99%E0%B9%8C-%E0%B8%99%E0%B9%89%E0%B9%8D%E0%B8%B2-%E0%B9%80%E0%B8%9A%E0%B8%B2-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%AB%E0%B8%B1%E0%B8%A7%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87%E0%B9%83%E0%B8%AB%E0%B8%8D%E0%B9%88-%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81-%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-i.148820479.23632422982?sp_atk=e5516def-ac48-4415-a93c-89ced101d8a7&amp;xptdk=e5516def-ac48-4415-a93c-89ced101d8a7</v>
+        <v>https://shopee.co.th/MR-shopee-%F0%9F%8C%B7LAMEILA%F0%9F%8C%B7%E0%B8%9E%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B8%97%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-9%E0%B8%AA%E0%B8%B5-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%A1%E0%B8%B1%E0%B8%99-%E0%B8%AA%E0%B8%B5%E0%B8%AA%E0%B8%A7%E0%B8%A2-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-9%E0%B8%8A%E0%B9%88%E0%B8%AD%E0%B8%87-i.267371241.5658068257?sp_atk=613bfc58-55be-4b85-ae78-0afd9e99b6a8&amp;xptdk=613bfc58-55be-4b85-ae78-0afd9e99b6a8</v>
       </c>
       <c r="B59" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-23030-c1blndruspovc9_tn</v>
+        <v>https://down-th.img.susercontent.com/file/a34603824c2202125100f45fb567fbb7_tn</v>
       </c>
       <c r="C59" t="str">
-        <v>-98%</v>
+        <v>-90%</v>
       </c>
       <c r="D59" t="str">
-        <v>Peach Milk Honey ลิปกลอส น้ํามันน้ําผึ้ง บรรเทาอาการแห้ง ชุ่มชื้น จางหาย ลิปไลน์ น้ํา เบา ลิปหัวแปรงใหญ่ เกาหลี น่ารัก แต่งหน้า</v>
+        <v/>
       </c>
       <c r="E59" t="str">
-        <v>-</v>
+        <v>MR shopee  🌷LAMEILA🌷พาเลทอายแชโดว์ 9สี เนื้อดินน้ำมัน สีสวย ติดทน กันน้ำ 9ช่อง</v>
       </c>
       <c r="F59" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G59" t="str">
-        <v>ขายแล้ว 145.8พัน ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="H59" t="str">
-        <v>ต่างประเทศ</v>
+        <v>8</v>
       </c>
       <c r="I59" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 94.9พัน ชิ้น</v>
       </c>
       <c r="J59" t="str">
-        <v>10</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K59" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>฿</v>
       </c>
       <c r="L59" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v>22</v>
       </c>
       <c r="M59" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v/>
+      </c>
+      <c r="N59" t="str">
+        <v>ซื้อ 10 ชิ้น ลด 3%</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>https://shopee.co.th/DAZZLE-ME-Fruit-Justice-Lip-Balm-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%9A%E0%B8%B2%E0%B8%A5%E0%B9%8C%E0%B8%A1-%E0%B8%9A%E0%B9%8D%E0%B8%B2%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B8%A3%E0%B8%B4%E0%B8%A1%E0%B8%9D%E0%B8%B5%E0%B8%9B%E0%B8%B2%E0%B8%81%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B8%8A%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%8A%E0%B8%B7%E0%B9%89%E0%B8%99%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%A5%E0%B8%94%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%AB%E0%B8%A1%E0%B8%AD%E0%B8%87%E0%B8%84%E0%B8%A5%E0%B9%89%E0%B8%B3-%E0%B9%80%E0%B8%9B%E0%B8%A5%E0%B8%B5%E0%B9%88%E0%B8%A2%E0%B8%99%E0%B8%AA%E0%B8%B5%E0%B8%95%E0%B8%B2%E0%B8%A1%E0%B8%84%E0%B9%88%E0%B8%B2PH-%E0%B8%AA%E0%B8%B2%E0%B8%A3%E0%B8%AA%E0%B8%81%E0%B8%B1%E0%B8%94%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B8%9C%E0%B8%A5%E0%B9%84%E0%B8%A1%E0%B9%89-i.762689085.20173248802?sp_atk=bb9bebe4-99cf-4c9b-864f-9bcd2beba93c&amp;xptdk=bb9bebe4-99cf-4c9b-864f-9bcd2beba93c</v>
+        <v>https://shopee.co.th/%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B8%A1%E0%B8%B2%E0%B8%94%E0%B8%B2%E0%B8%A1%E0%B8%9F%E0%B8%B4%E0%B8%99-%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-12-%E0%B8%8A%E0%B8%A1.-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-35-ML.-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%97%E0%B8%B5%E0%B8%A2%E0%B8%9A%E0%B9%81%E0%B8%97%E0%B9%89-i.52708754.7111781106?sp_atk=e866d6eb-4608-4cc6-98a8-935f0c2781c4&amp;xptdk=e866d6eb-4608-4cc6-98a8-935f0c2781c4</v>
       </c>
       <c r="B60" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98q-lq38zayx2y1w67_tn</v>
+        <v>https://down-th.img.susercontent.com/file/79a3baa10302f5f17e7c9ff03fcb2af6_tn</v>
       </c>
       <c r="C60" t="str">
-        <v>-34%</v>
+        <v>-98%</v>
       </c>
       <c r="D60" t="str">
-        <v>DAZZLE ME Fruit Justice Lip Balm ลิปบาล์ม บํารุงริมฝีปากให้ชุ่มชื้นและลดความหมองคล้ำ เปลี่ยนสีตามค่าPH สารสกัดจากผลไม้</v>
+        <v/>
       </c>
       <c r="E60" t="str">
-        <v>฿99</v>
+        <v>น้ำหอมมาดามฟิน หอมติดทนนาน 12 ชม. ขนาด 35 ML. กลิ่นเทียบแท้</v>
       </c>
       <c r="F60" t="str">
-        <v>65</v>
+        <v/>
       </c>
       <c r="G60" t="str">
-        <v>ขายแล้ว 26.6พัน ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="H60" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v>1</v>
       </c>
       <c r="I60" t="str">
-        <v/>
+        <v>ขายแล้ว 114.5พัน ชิ้น</v>
       </c>
       <c r="J60" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K60" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="L60" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>36</v>
       </c>
       <c r="M60" t="str">
+        <v/>
+      </c>
+      <c r="N60" t="str">
         <v/>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>https://shopee.co.th/%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%A5%E0%B9%80%E0%B8%99%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%9B%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99-%E0%B8%A2%E0%B8%B2%E0%B8%A7%E0%B8%99%E0%B8%B2%E0%B8%99-1-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-aibolai888-i.148820479.9570244526?sp_atk=b7338155-7be1-4f4d-8995-84db6fcb8e54&amp;xptdk=b7338155-7be1-4f4d-8995-84db6fcb8e54</v>
+        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B5%E0%B9%83%E0%B8%AA-!%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2%E2%80%8B%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B8%94%E0%B8%B5%E2%80%8B-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%83%E0%B8%99%E0%B9%84%E0%B8%97%E0%B8%A2-%E0%B8%AA%E0%B8%B5%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%A2%E0%B8%B2%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%97%E0%B8%B8%E0%B8%81%E2%80%8B%E0%B8%AA%E0%B8%B5%E0%B8%84%E0%B8%B8%E0%B8%93%E0%B8%A0%E0%B8%B2%E0%B8%9E%E0%B9%81%E0%B8%99%E0%B9%88%E0%B8%99%E0%B8%8A%E0%B8%B1%E0%B8%94%E0%B8%AA%E0%B8%A7%E0%B8%A2-%E0%B8%9B%E0%B8%A3%E0%B8%B4%E0%B8%A1%E0%B8%B2%E0%B8%93-8ml-%E0%B8%AA%E0%B8%B8%E0%B8%94%E0%B8%84%E0%B8%B8%E0%B9%89%E0%B8%A1-%E0%B8%95%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AD%E0%B8%9A-i.289345869.18322762084?sp_atk=e9d19715-5eec-4502-8a26-c5d07202b6a8&amp;xptdk=e9d19715-5eec-4502-8a26-c5d07202b6a8</v>
       </c>
       <c r="B61" t="str">
-        <v>https://down-th.img.susercontent.com/file/201d543e2bf5c18d9f9ad3d17b5c52d8_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98s-lmtncs5l6t8uc0_tn</v>
       </c>
       <c r="C61" t="str">
-        <v>-98%</v>
+        <v>-59%</v>
       </c>
       <c r="D61" t="str">
-        <v>อายไลเนอร์ กันน้ำ ป้องกันเหงื่อ ติดทน ยาวนาน 1 ชิ้น aibolai888</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-fd6431bb654df9a365c12d5881603682</v>
       </c>
       <c r="E61" t="str">
-        <v>฿59</v>
+        <v>สีใส !สินค้า​ขายดี​ พร้อมส่งในไทย สีเจลทาเล็บ ยาทาเล็บ ทุก​สีคุณภาพแน่นชัดสวย ปริมาณ 8ml สุดคุ้ม ต้องใช้เครื่องอบ</v>
       </c>
       <c r="F61" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="G61" t="str">
-        <v>ขายแล้ว 206.8พัน ชิ้น</v>
+        <v>-</v>
       </c>
       <c r="H61" t="str">
-        <v>ต่างประเทศ</v>
+        <v>24</v>
       </c>
       <c r="I61" t="str">
-        <v/>
+        <v>ขายแล้ว 29.9พัน ชิ้น</v>
       </c>
       <c r="J61" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K61" t="str">
+        <v>฿</v>
+      </c>
+      <c r="L61" t="str">
+        <v>27</v>
+      </c>
+      <c r="M61" t="str">
         <v>ร้านแนะนำ</v>
       </c>
-      <c r="L61" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
-      </c>
-      <c r="M61" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+      <c r="N61" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/Bot/Data_shopee/Data_1_1_1.xlsx
+++ b/Bot/Data_shopee/Data_1_1_1.xlsx
@@ -412,15 +412,15 @@
         <v>k9JZlv 2</v>
       </c>
       <c r="M1" t="str">
+        <v>iMq5a7</v>
+      </c>
+      <c r="N1" t="str">
         <v>hxLzax</v>
-      </c>
-      <c r="N1" t="str">
-        <v>iMq5a7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://shopee.co.th/%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B8%81%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B9%83%E0%B8%8A%E0%B9%89-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B9%80%E0%B8%9A%E0%B8%B2-%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B8%AA%E0%B8%94%E0%B9%83%E0%B8%AA-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B8%81%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B8%81%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%84%E0%B8%A5%E0%B8%B0%E0%B8%AA%E0%B8%B5-(1-%E0%B8%9A%E0%B8%B2%E0%B8%97-1-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99)-i.785960549.16681562652?sp_atk=ecbec984-7934-4198-a5dc-8928d890280b&amp;xptdk=ecbec984-7934-4198-a5dc-8928d890280b</v>
+        <v>https://shopee.co.th/%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B8%81%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B9%83%E0%B8%8A%E0%B9%89-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B9%80%E0%B8%9A%E0%B8%B2-%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B8%AA%E0%B8%94%E0%B9%83%E0%B8%AA-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B8%81%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B8%81%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%84%E0%B8%A5%E0%B8%B0%E0%B8%AA%E0%B8%B5-(1-%E0%B8%9A%E0%B8%B2%E0%B8%97-1-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99)-i.785960549.16681562652?sp_atk=c3023761-5eb0-4ddf-96e6-70f44abc44a7&amp;xptdk=c3023761-5eb0-4ddf-96e6-70f44abc44a7</v>
       </c>
       <c r="B2" t="str">
         <v>https://down-th.img.susercontent.com/file/sg-11134201-22100-0306lr2p9hiv94_tn</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://shopee.co.th/Sasi-%E0%B8%A8%E0%B8%A8%E0%B8%B4-%E0%B8%84%E0%B8%B4%E0%B8%AA-%E0%B9%81%E0%B8%AD%E0%B8%99%E0%B8%94%E0%B9%8C-%E0%B8%9A%E0%B8%A5%E0%B8%B1%E0%B8%8A-%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B9%8A%E0%B8%81-4%E0%B8%81.-03-%E0%B9%80%E0%B8%9F%E0%B8%B4%E0%B8%A3%E0%B9%8C%E0%B8%AA%E0%B8%97-%E0%B8%84%E0%B8%B4%E0%B8%AA-i.31092295.18117936070?sp_atk=3d4dbf48-d92c-446c-bfe3-6efe60d0f0c0&amp;xptdk=3d4dbf48-d92c-446c-bfe3-6efe60d0f0c0</v>
+        <v>https://shopee.co.th/Sasi-%E0%B8%A8%E0%B8%A8%E0%B8%B4-%E0%B8%84%E0%B8%B4%E0%B8%AA-%E0%B9%81%E0%B8%AD%E0%B8%99%E0%B8%94%E0%B9%8C-%E0%B8%9A%E0%B8%A5%E0%B8%B1%E0%B8%8A-%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B9%8A%E0%B8%81-4%E0%B8%81.-03-%E0%B9%80%E0%B8%9F%E0%B8%B4%E0%B8%A3%E0%B9%8C%E0%B8%AA%E0%B8%97-%E0%B8%84%E0%B8%B4%E0%B8%AA-i.31092295.18117936070?sp_atk=f15d3c2b-a9f6-4c47-801e-1d47e6e569f5&amp;xptdk=f15d3c2b-a9f6-4c47-801e-1d47e6e569f5</v>
       </c>
       <c r="B3" t="str">
         <v>https://down-th.img.susercontent.com/file/92a0923ac454d5086d13ab9be9d61470_tn</v>
@@ -508,10 +508,10 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://shopee.co.th/%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%A5%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B8%A3%E0%B8%B9%E0%B9%80%E0%B8%88%E0%B8%B2%E0%B8%B0%E0%B8%AB%E0%B8%B9%E0%B8%97%E0%B8%B3%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%AA%E0%B8%B0%E0%B8%AD%E0%B8%B2%E0%B8%94%E0%B8%A3%E0%B8%B9%E0%B9%80%E0%B8%88%E0%B8%B2%E0%B8%B0%E0%B8%AB%E0%B8%B9%E0%B8%AD%E0%B8%B8%E0%B8%9B%E0%B8%81%E0%B8%A3%E0%B8%93%E0%B9%8C%E0%B8%97%E0%B9%8D%E0%B8%B2%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%AA%E0%B8%B0%E0%B8%AD%E0%B8%B2%E0%B8%94%E0%B8%AB%E0%B8%B9-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%97%E0%B9%8D%E0%B8%B2%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%AA%E0%B8%B0%E0%B8%AD%E0%B8%B2%E0%B8%94%E0%B8%AB%E0%B8%B9-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B9%81%E0%B8%A5%E0%B9%89%E0%B8%A7%E0%B8%97%E0%B8%B4%E0%B9%89%E0%B8%87-70-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%8A%E0%B8%B8%E0%B8%94-i.132036613.12690496182?sp_atk=f5fc2528-4dbf-4487-908c-3d394edfbf3d&amp;xptdk=f5fc2528-4dbf-4487-908c-3d394edfbf3d</v>
+        <v>https://shopee.co.th/(%F0%9F%94%A5%E0%B9%81%E0%B8%97%E0%B9%89-%E0%B8%96%E0%B8%B9%E0%B8%81%E0%B8%AA%E0%B8%B8%E0%B8%94-%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%84%E0%B8%A7%F0%9F%94%A5)-%E0%B8%A1%E0%B8%B2%E0%B8%A2%E0%B8%8A%E0%B9%89%E0%B8%AD%E0%B8%A2%E0%B8%AA%E0%B9%8C-My-Choice-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%81%E0%B8%94%E0%B8%94-Vitamin-E-i.166740845.6643331178?sp_atk=7af02277-aefb-4bea-8d6a-05cc36f9d3cc&amp;xptdk=7af02277-aefb-4bea-8d6a-05cc36f9d3cc</v>
       </c>
       <c r="B4" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-22100-7f258a5okuiv9b_tn</v>
+        <v>https://down-th.img.susercontent.com/file/7ff8b71857a7ad1df896f0fd8dbba4e5_tn</v>
       </c>
       <c r="C4" t="str">
         <v/>
@@ -520,28 +520,28 @@
         <v/>
       </c>
       <c r="E4" t="str">
-        <v>ที่ล้างรูเจาะหูทำความสะอาดรูเจาะหูอุปกรณ์ทําความสะอาดหู / ที่ทําความสะอาดหู แบบใช้แล้วทิ้ง 70 ชิ้น / ชุด</v>
+        <v>(🔥แท้/ถูกสุด/ส่งไว🔥) มายช้อยส์ My Choice ครีมกันแดด Vitamin E</v>
       </c>
       <c r="F4" t="str">
         <v/>
       </c>
       <c r="G4" t="str">
-        <v>-</v>
+        <v/>
       </c>
       <c r="H4" t="str">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I4" t="str">
-        <v>ขายแล้ว 19.2พัน ชิ้น</v>
+        <v>ขายแล้ว 30.9พัน ชิ้น</v>
       </c>
       <c r="J4" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K4" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L4" t="str">
-        <v>43</v>
+        <v/>
       </c>
       <c r="M4" t="str">
         <v/>
@@ -552,19 +552,19 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://shopee.co.th/%E0%B9%81%E0%B8%AA%E0%B8%95%E0%B8%A1%E0%B8%9B%E0%B9%8C%E0%B8%8B%E0%B8%B4%E0%B8%A5%E0%B8%B4%E0%B9%82%E0%B8%84%E0%B8%99%E0%B9%83%E0%B8%AA-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%A1%E0%B8%B5%E0%B8%94%E0%B9%82%E0%B8%81%E0%B8%99-%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B8%9B%E0%B8%B1%E0%B9%8A%E0%B8%A1%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-DIY-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%95%E0%B8%81%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-i.76226848.14379046719?sp_atk=cf87d7d9-c018-4a9c-96cd-d5cfe1f0eb7e&amp;xptdk=cf87d7d9-c018-4a9c-96cd-d5cfe1f0eb7e</v>
+        <v>https://shopee.co.th/%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87!-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%97%E0%B8%B2%E0%B8%A1%E0%B8%B7%E0%B8%AD-%F0%9F%A4%9F-hand-cream-%F0%9F%92%97-%E0%B8%AD%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%81%E0%B8%81%E0%B8%99%E0%B8%B4%E0%B8%84-%E0%B8%AA%E0%B8%81%E0%B8%B1%E0%B8%94%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B8%98%E0%B8%A3%E0%B8%A3%E0%B8%A1%E0%B8%8A%E0%B8%B2%E0%B8%95%E0%B8%B4-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B8%AD%E0%B9%88%E0%B8%AD%E0%B8%99%E0%B9%86-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%97%E0%B8%B2%E0%B8%A1%E0%B8%B7%E0%B8%AD-%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B8%99%E0%B8%B8%E0%B9%88%E0%B8%A1-%E0%B9%80%E0%B8%99%E0%B8%B5%E0%B8%A2%E0%B8%99-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%97%E0%B8%B2%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%81%E0%B8%81%E0%B8%99%E0%B8%B4%E0%B8%84-i.273127231.20851584910?sp_atk=1f7e2fa7-1a6e-4402-b68b-55b14c42f913&amp;xptdk=1f7e2fa7-1a6e-4402-b68b-55b14c42f913</v>
       </c>
       <c r="B5" t="str">
-        <v>https://down-th.img.susercontent.com/file/f3ec27b47e7fc888995f07764ac9468f_tn</v>
+        <v>https://down-th.img.susercontent.com/file/1a2b6b60cab3afb91eaf5e72f32fef61_tn</v>
       </c>
       <c r="C5" t="str">
-        <v>-82%</v>
+        <v>-86%</v>
       </c>
       <c r="D5" t="str">
         <v/>
       </c>
       <c r="E5" t="str">
-        <v>แสตมป์ซิลิโคนใส พร้อมมีดโกน และแผ่นปั๊มเล็บ แบบพกพา DIY สําหรับตกแต่งเล็บ</v>
+        <v>พร้อมส่ง! ครีมทามือ 🤟 hand cream 💗 ออร์แกนิค สกัดจากธรรมชาติ กลิ่นหอมอ่อนๆ สำหรับทามือ ให้นุ่ม เนียน ครีมทามืออร์แกนิค</v>
       </c>
       <c r="F5" t="str">
         <v/>
@@ -573,33 +573,33 @@
         <v>-</v>
       </c>
       <c r="H5" t="str">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I5" t="str">
-        <v>ขายแล้ว 27.2พัน ชิ้น</v>
+        <v>ขายแล้ว 154พัน ชิ้น</v>
       </c>
       <c r="J5" t="str">
-        <v>ต่างประเทศ</v>
+        <v>จังหวัดนนทบุรี</v>
       </c>
       <c r="K5" t="str">
         <v>฿</v>
       </c>
       <c r="L5" t="str">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M5" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="N5" t="str">
-        <v>ซื้อ 3 ชิ้น ลด 3%</v>
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://shopee.co.th/YOTAI-L828-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B8%81%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B9%83%E0%B8%8A%E0%B9%89-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B9%80%E0%B8%9A%E0%B8%B2-%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B8%AA%E0%B8%94%E0%B9%83%E0%B8%AA-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B8%81%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-i.165601508.6249440763?sp_atk=8c27908b-4472-4e6e-b5a8-336a371bd9b5&amp;xptdk=8c27908b-4472-4e6e-b5a8-336a371bd9b5</v>
+        <v>https://shopee.co.th/kingmallshop-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B8%81%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B9%83%E0%B8%8A%E0%B9%89-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B9%80%E0%B8%9A%E0%B8%B2-%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B8%AA%E0%B8%94%E0%B9%83%E0%B8%AA-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B8%81%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2A46-i.571023666.14749242723?sp_atk=b389114d-d0ef-4beb-88ea-12c007cf9ee3&amp;xptdk=b389114d-d0ef-4beb-88ea-12c007cf9ee3</v>
       </c>
       <c r="B6" t="str">
-        <v>https://down-th.img.susercontent.com/file/4673f88ad34b0643a98154d8540d60d2_tn</v>
+        <v>https://down-th.img.susercontent.com/file/d1552047e3193c8fdb547eae28dcb492_tn</v>
       </c>
       <c r="C6" t="str">
         <v>-50%</v>
@@ -608,7 +608,7 @@
         <v/>
       </c>
       <c r="E6" t="str">
-        <v>YOTAI L828# กระจกพกพา น่ารักน่าใช้ น้ำหนักเบา พกพาง่าย ลายน่ารักสดใส กระจกแบบพกพา</v>
+        <v>kingmallshop  กระจกพกพา น่ารักน่าใช้ น้ำหนักเบา พกพาง่าย ลายน่ารักสดใส กระจกแบบพกพาA46</v>
       </c>
       <c r="F6" t="str">
         <v/>
@@ -620,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="str">
-        <v>ขายแล้ว 1.1ล้าน ชิ้น</v>
+        <v>ขายแล้ว 348.6พัน ชิ้น</v>
       </c>
       <c r="J6" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
@@ -632,27 +632,27 @@
         <v/>
       </c>
       <c r="M6" t="str">
-        <v/>
+        <v>ซื้อ 5 ชิ้น ลด 1%</v>
       </c>
       <c r="N6" t="str">
-        <v>ซื้อ 6 ชิ้น ลด 2%</v>
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://shopee.co.th/Uslike-%E0%B8%9A%E0%B8%A5%E0%B8%B1%E0%B8%8A%E0%B8%AD%E0%B8%AD%E0%B8%99%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1-%E0%B8%81%E0%B9%8D%E0%B8%B2%E0%B8%A1%E0%B8%B0%E0%B8%AB%E0%B8%A2%E0%B8%B5%E0%B9%88-%E0%B8%99%E0%B8%B8%E0%B9%88%E0%B8%A1-%E0%B9%80%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%9A%E0%B9%80%E0%B8%99%E0%B8%B5%E0%B8%A2%E0%B8%99-%E0%B9%83%E0%B8%AA-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-3-%E0%B8%AA%E0%B8%B5-i.409094973.11560821924?sp_atk=c9d46e12-9b7c-4623-8e46-73fe7d816b28&amp;xptdk=c9d46e12-9b7c-4623-8e46-73fe7d816b28</v>
+        <v>https://shopee.co.th/%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%AA%E0%B8%AD%E0%B9%80%E0%B8%82%E0%B8%B5%E0%B8%A2%E0%B8%99%E0%B8%84%E0%B8%B4%E0%B9%89%E0%B8%A7-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%A5%E0%B8%B0%E0%B9%80%E0%B8%AD%E0%B8%B5%E0%B8%A2%E0%B8%94%E0%B8%9E%E0%B8%B4%E0%B9%80%E0%B8%A8%E0%B8%A9-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%8B%E0%B8%B5%E0%B8%94%E0%B8%88%E0%B8%B2%E0%B8%87-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-5-%E0%B8%AA%E0%B8%B5-%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%AA%E0%B8%AD%E0%B9%80%E0%B8%82%E0%B8%B5%E0%B8%A2%E0%B8%99%E0%B8%84%E0%B8%B4%E0%B9%89%E0%B8%A7-%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%95%E0%B8%B2-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AA%E0%B8%B3%E0%B8%AD%E0%B8%B2%E0%B8%87-i.345976058.15325159349?sp_atk=83f92c29-8b46-480f-b0f4-949332ce9134&amp;xptdk=83f92c29-8b46-480f-b0f4-949332ce9134</v>
       </c>
       <c r="B7" t="str">
-        <v>https://down-th.img.susercontent.com/file/7ace0b180c2c8452aae1a582ed8bc2fc_tn</v>
+        <v/>
       </c>
       <c r="C7" t="str">
-        <v>-82%</v>
+        <v>-97%</v>
       </c>
       <c r="D7" t="str">
         <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="E7" t="str">
-        <v>Uslike บลัชออนเนื้อครีม กํามะหยี่ นุ่ม เรียบเนียน ใส ติดทนนาน 3 สี</v>
+        <v>ดินสอเขียนคิ้ว เนื้อละเอียดพิเศษ ติดทนนาน ไม่ซีดจาง กันน้ำ 5 สี ดินสอเขียนคิ้ว แต่งตา เครื่องสำอาง</v>
       </c>
       <c r="F7" t="str">
         <v>ช้อปปี้ถูกชัวร์</v>
@@ -661,10 +661,10 @@
         <v>-</v>
       </c>
       <c r="H7" t="str">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I7" t="str">
-        <v>ขายแล้ว 20.3พัน ชิ้น</v>
+        <v>ขายแล้ว 77.6พัน ชิ้น</v>
       </c>
       <c r="J7" t="str">
         <v>ต่างประเทศ</v>
@@ -673,7 +673,7 @@
         <v>฿</v>
       </c>
       <c r="L7" t="str">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="M7" t="str">
         <v/>
@@ -684,19 +684,19 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://shopee.co.th/(%F0%9F%94%A5%E0%B9%81%E0%B8%97%E0%B9%89-%E0%B8%96%E0%B8%B9%E0%B8%81%E0%B8%AA%E0%B8%B8%E0%B8%94-%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%84%E0%B8%A7%F0%9F%94%A5)-%E0%B8%A1%E0%B8%B2%E0%B8%A2%E0%B8%8A%E0%B9%89%E0%B8%AD%E0%B8%A2%E0%B8%AA%E0%B9%8C-My-Choice-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%81%E0%B8%94%E0%B8%94-Vitamin-E-i.166740845.6643331178?sp_atk=a217c007-87c5-4294-9c14-ee103b5a351a&amp;xptdk=a217c007-87c5-4294-9c14-ee103b5a351a</v>
+        <v>https://shopee.co.th/%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1-10-ml.-%E0%B8%82%E0%B8%A7%E0%B8%94%E0%B8%A5%E0%B8%B0-9%E2%80%8B-%E0%B8%9A%E0%B8%B2%E0%B8%97%E0%B8%82%E0%B8%B1%E0%B9%89%E0%B8%99%E0%B8%95%E0%B9%88%E0%B8%B3-5-%E0%B8%82%E0%B8%A7%E0%B8%94-(%E0%B9%81%E0%B8%88%E0%B9%89%E0%B8%87%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99%E0%B8%AD%E0%B8%B7%E0%B9%88%E0%B8%99%E0%B9%86%E0%B9%81%E0%B8%88%E0%B9%89%E0%B8%87%E0%B9%83%E0%B8%99%E0%B8%AB%E0%B8%A1%E0%B8%B2%E0%B8%A2%E0%B9%80%E0%B8%AB%E0%B8%95%E0%B8%B8%E2%80%8B%E0%B8%AB%E0%B8%A3%E0%B8%B7%E0%B8%AD%E0%B8%82%E0%B9%89%E0%B8%AD%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1)-i.39967718.9905370002?sp_atk=4d8857d7-94fe-4f69-a73a-94da179dd0f7&amp;xptdk=4d8857d7-94fe-4f69-a73a-94da179dd0f7</v>
       </c>
       <c r="B8" t="str">
-        <v>https://down-th.img.susercontent.com/file/7ff8b71857a7ad1df896f0fd8dbba4e5_tn</v>
+        <v/>
       </c>
       <c r="C8" t="str">
         <v/>
       </c>
       <c r="D8" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="E8" t="str">
-        <v>(🔥แท้/ถูกสุด/ส่งไว🔥) มายช้อยส์ My Choice ครีมกันแดด Vitamin E</v>
+        <v>น้ำหอม 10 ml. ขวดละ 9​ บาทขั้นต่ำ 5 ขวด (แจ้งกลิ่นอื่นๆแจ้งในหมายเหตุ​หรือข้อความ)</v>
       </c>
       <c r="F8" t="str">
         <v/>
@@ -705,13 +705,13 @@
         <v/>
       </c>
       <c r="H8" t="str">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I8" t="str">
-        <v>ขายแล้ว 30.9พัน ชิ้น</v>
+        <v>ขายแล้ว 127.9พัน ชิ้น</v>
       </c>
       <c r="J8" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>จังหวัดประจวบคีรีขันธ์</v>
       </c>
       <c r="K8" t="str">
         <v/>
@@ -728,19 +728,19 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://shopee.co.th/%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87!-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%97%E0%B8%B2%E0%B8%A1%E0%B8%B7%E0%B8%AD-%F0%9F%A4%9F-hand-cream-%F0%9F%92%97-%E0%B8%AD%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%81%E0%B8%81%E0%B8%99%E0%B8%B4%E0%B8%84-%E0%B8%AA%E0%B8%81%E0%B8%B1%E0%B8%94%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B8%98%E0%B8%A3%E0%B8%A3%E0%B8%A1%E0%B8%8A%E0%B8%B2%E0%B8%95%E0%B8%B4-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B8%AD%E0%B9%88%E0%B8%AD%E0%B8%99%E0%B9%86-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%97%E0%B8%B2%E0%B8%A1%E0%B8%B7%E0%B8%AD-%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B8%99%E0%B8%B8%E0%B9%88%E0%B8%A1-%E0%B9%80%E0%B8%99%E0%B8%B5%E0%B8%A2%E0%B8%99-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%97%E0%B8%B2%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%81%E0%B8%81%E0%B8%99%E0%B8%B4%E0%B8%84-i.273127231.20851584910?sp_atk=9ec7d361-0de2-4090-9c74-ea0d50da249f&amp;xptdk=9ec7d361-0de2-4090-9c74-ea0d50da249f</v>
+        <v>https://shopee.co.th/%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%97%E0%B8%B2%E0%B8%A1%E0%B8%B7%E0%B8%AD-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%9A%E0%B8%B3%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87-100g%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%A1%E0%B8%B1%E0%B8%99%E0%B8%A1%E0%B9%89%E0%B8%B2-hand-cream-%E0%B8%84%E0%B8%99%E0%B8%B5%E0%B8%A1%E0%B8%9A%E0%B8%B3%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD-i.883153295.16287680915?sp_atk=d14844eb-ad55-4e52-bbfc-ba8110b27568&amp;xptdk=d14844eb-ad55-4e52-bbfc-ba8110b27568</v>
       </c>
       <c r="B9" t="str">
-        <v>https://down-th.img.susercontent.com/file/1a2b6b60cab3afb91eaf5e72f32fef61_tn</v>
+        <v/>
       </c>
       <c r="C9" t="str">
-        <v>-86%</v>
+        <v>-47%</v>
       </c>
       <c r="D9" t="str">
         <v/>
       </c>
       <c r="E9" t="str">
-        <v>พร้อมส่ง! ครีมทามือ 🤟 hand cream 💗 ออร์แกนิค สกัดจากธรรมชาติ กลิ่นหอมอ่อนๆ สำหรับทามือ ให้นุ่ม เนียน ครีมทามืออร์แกนิค</v>
+        <v>ครีมทามือ ครีมบำรุงมือแห้ง 100gน้ำมันม้า hand cream  คนีมบำรุงมือ</v>
       </c>
       <c r="F9" t="str">
         <v/>
@@ -749,22 +749,22 @@
         <v>-</v>
       </c>
       <c r="H9" t="str">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="I9" t="str">
-        <v>ขายแล้ว 153.9พัน ชิ้น</v>
+        <v>ขายแล้ว 16.4พัน ชิ้น</v>
       </c>
       <c r="J9" t="str">
-        <v>จังหวัดนนทบุรี</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K9" t="str">
         <v>฿</v>
       </c>
       <c r="L9" t="str">
-        <v>6</v>
+        <v>232</v>
       </c>
       <c r="M9" t="str">
-        <v/>
+        <v>ซื้อ 2 ชิ้น ลด 3%</v>
       </c>
       <c r="N9" t="str">
         <v/>
@@ -772,10 +772,10 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://shopee.co.th/kingmallshop-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B8%81%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B9%83%E0%B8%8A%E0%B9%89-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B9%80%E0%B8%9A%E0%B8%B2-%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B8%AA%E0%B8%94%E0%B9%83%E0%B8%AA-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B8%81%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2A46-i.571023666.14749242723?sp_atk=47b469f5-db8c-4761-bcb2-89a3bb34dccd&amp;xptdk=47b469f5-db8c-4761-bcb2-89a3bb34dccd</v>
+        <v>https://shopee.co.th/YOTAI-L828-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B8%81%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B9%83%E0%B8%8A%E0%B9%89-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B9%80%E0%B8%9A%E0%B8%B2-%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B8%AA%E0%B8%94%E0%B9%83%E0%B8%AA-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B8%81%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-i.165601508.6249440763?sp_atk=77e1ee6d-b204-4f3a-8859-7b09f4d53dbd&amp;xptdk=77e1ee6d-b204-4f3a-8859-7b09f4d53dbd</v>
       </c>
       <c r="B10" t="str">
-        <v>https://down-th.img.susercontent.com/file/d1552047e3193c8fdb547eae28dcb492_tn</v>
+        <v/>
       </c>
       <c r="C10" t="str">
         <v>-50%</v>
@@ -784,7 +784,7 @@
         <v/>
       </c>
       <c r="E10" t="str">
-        <v>kingmallshop  กระจกพกพา น่ารักน่าใช้ น้ำหนักเบา พกพาง่าย ลายน่ารักสดใส กระจกแบบพกพาA46</v>
+        <v>YOTAI L828# กระจกพกพา น่ารักน่าใช้ น้ำหนักเบา พกพาง่าย ลายน่ารักสดใส กระจกแบบพกพา</v>
       </c>
       <c r="F10" t="str">
         <v/>
@@ -796,7 +796,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="str">
-        <v>ขายแล้ว 348.6พัน ชิ้น</v>
+        <v>ขายแล้ว 1.1ล้าน ชิ้น</v>
       </c>
       <c r="J10" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
@@ -808,51 +808,51 @@
         <v/>
       </c>
       <c r="M10" t="str">
-        <v/>
+        <v>ซื้อ 6 ชิ้น ลด 2%</v>
       </c>
       <c r="N10" t="str">
-        <v>ซื้อ 5 ชิ้น ลด 1%</v>
+        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://shopee.co.th/%F0%9F%87%B9%F0%9F%87%AD%F0%9F%93%8C%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%84%E0%B8%A7-%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B9%84%E0%B8%97%E0%B8%A2%E2%AD%90%EF%B8%8Fsticker-%E0%B9%80%E0%B8%9E%E0%B8%8A%E0%B8%A3%E0%B8%AA%E0%B8%B8%E0%B8%94%E0%B8%AE%E0%B8%B4%E0%B8%95%E0%B8%A1%E0%B8%B5%E0%B8%81%E0%B8%B2%E0%B8%A7%E0%B9%83%E0%B8%99%E0%B8%95%E0%B8%B1%E0%B8%A7-%E2%AD%90%EF%B8%8F-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B9%84%E0%B8%94%E0%B9%89-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B9%84%E0%B8%94%E0%B9%89%E0%B8%97%E0%B8%B8%E0%B8%81%E0%B8%AD%E0%B8%A7%E0%B8%B1%E0%B8%A2%E0%B8%A7%E0%B8%B0-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%AA%E0%B8%B2%E0%B8%A2%E0%B8%84%E0%B8%AD%E0%B8%99%E0%B9%80%E0%B8%97%E0%B8%99%E0%B8%97%E0%B9%8C%E0%B9%82%E0%B8%94%E0%B8%A2%E0%B9%80%E0%B8%89%E0%B8%9E%E0%B8%B2%E0%B8%B0-i.5262379.10570980026?sp_atk=a6bec24a-df30-43b6-a453-69157d032dc7&amp;xptdk=a6bec24a-df30-43b6-a453-69157d032dc7</v>
+        <v>https://shopee.co.th/Uslike-%E0%B8%9A%E0%B8%A5%E0%B8%B1%E0%B8%8A%E0%B8%AD%E0%B8%AD%E0%B8%99%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1-%E0%B8%81%E0%B9%8D%E0%B8%B2%E0%B8%A1%E0%B8%B0%E0%B8%AB%E0%B8%A2%E0%B8%B5%E0%B9%88-%E0%B8%99%E0%B8%B8%E0%B9%88%E0%B8%A1-%E0%B9%80%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%9A%E0%B9%80%E0%B8%99%E0%B8%B5%E0%B8%A2%E0%B8%99-%E0%B9%83%E0%B8%AA-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-3-%E0%B8%AA%E0%B8%B5-i.409094973.11560821924?sp_atk=a7146325-1f26-46e0-96a0-a5f0b11990ae&amp;xptdk=a7146325-1f26-46e0-96a0-a5f0b11990ae</v>
       </c>
       <c r="B11" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-23020-8mbuqqdvf3mv9b_tn</v>
+        <v/>
       </c>
       <c r="C11" t="str">
-        <v/>
+        <v>-82%</v>
       </c>
       <c r="D11" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="E11" t="str">
-        <v>🇹🇭📌ส่งไว จากไทย⭐️sticker เพชรสุดฮิตมีกาวในตัว ⭐️ ติดหน้าได้ ติดได้ทุกอวัยวะ สำหรับสายคอนเทนท์โดยเฉพาะ</v>
+        <v>Uslike บลัชออนเนื้อครีม กํามะหยี่ นุ่ม เรียบเนียน ใส ติดทนนาน 3 สี</v>
       </c>
       <c r="F11" t="str">
-        <v/>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="G11" t="str">
         <v>-</v>
       </c>
       <c r="H11" t="str">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I11" t="str">
-        <v>ขายแล้ว 20.5พัน ชิ้น</v>
+        <v>ขายแล้ว 20.3พัน ชิ้น</v>
       </c>
       <c r="J11" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K11" t="str">
         <v>฿</v>
       </c>
       <c r="L11" t="str">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="M11" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="N11" t="str">
         <v/>
@@ -860,43 +860,43 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://shopee.co.th/%E0%B8%A1%E0%B8%B2%E0%B8%84%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B8%AA%E0%B9%88%E0%B8%87%F0%9F%94%A5%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99-%E0%B8%A1%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%84%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-BIOAOUA-%E0%B8%84%E0%B8%B1%E0%B8%94%E0%B8%AA%E0%B8%A3%E0%B8%A3%E0%B8%A7%E0%B8%B1%E0%B8%95%E0%B8%96%E0%B8%B8%E0%B8%94%E0%B8%B4%E0%B8%9A%E0%B8%99%E0%B8%B3%E0%B9%80%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B8%A1%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%AA%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B9%8C%E0%B8%81%E0%B8%AA%E0%B9%88%E0%B8%A7%E0%B8%99%E0%B8%9C%E0%B8%AA%E0%B8%A1%E0%B8%98%E0%B8%A3%E0%B8%A3%E0%B8%A1%E0%B8%8A%E0%B8%B2%E0%B8%95%E0%B8%B4-i.428385019.14524300647?sp_atk=418e5378-d939-4834-bedd-1e3119a8dc95&amp;xptdk=418e5378-d939-4834-bedd-1e3119a8dc95</v>
+        <v>https://shopee.co.th/MR-Beautiful-Girl-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1-%F0%9F%8C%88SHIMANG%F0%9F%8C%88-%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99%E0%B8%98%E0%B8%A3%E0%B8%A3%E0%B8%A1%E0%B8%8A%E0%B8%B2%E0%B8%95%E0%B8%B4%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%89%E0%B8%B8%E0%B8%99-%E0%B8%AD%E0%B8%A1%E0%B8%94%E0%B8%B6-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B8%A5%E0%B8%B0%E0%B8%A1%E0%B8%B8%E0%B8%99-%E0%B8%A1%E0%B8%B58%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B9%80%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%81-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%9450ML.%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B8%94%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%98%E0%B8%A3%E0%B8%A3%E0%B8%A1-i.267371241.11126556001?sp_atk=07684219-2087-4316-ab33-486607766604&amp;xptdk=07684219-2087-4316-ab33-486607766604</v>
       </c>
       <c r="B12" t="str">
         <v/>
       </c>
       <c r="C12" t="str">
-        <v>-67%</v>
+        <v>-84%</v>
       </c>
       <c r="D12" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-d6d900f677f50efcf8aa1394468bbf73</v>
+        <v/>
       </c>
       <c r="E12" t="str">
-        <v>มาคหน้า ขายส่ง🔥แผ่น มาร์คหน้า BIOAOUA คัดสรรวัตถุดิบนำเข้าจากเกาหลี แผ่นมาร์สมาส์กส่วนผสมธรรมชาติ</v>
+        <v>MR Beautiful Girl น้ำหอม 🌈SHIMANG🌈 ลิ่นธรรมชาติไม่ฉุน อมดึ กลิ่นหอมละมุน มี8กลิ่นให้เลือก ขนาด50ML.น้ำหอมสดและเป็นธรรม</v>
       </c>
       <c r="F12" t="str">
         <v/>
       </c>
       <c r="G12" t="str">
-        <v>-</v>
+        <v>฿199</v>
       </c>
       <c r="H12" t="str">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I12" t="str">
-        <v>ขายแล้ว 656พัน ชิ้น</v>
+        <v>ขายแล้ว 32.8พัน ชิ้น</v>
       </c>
       <c r="J12" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K12" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L12" t="str">
-        <v>3</v>
+        <v/>
       </c>
       <c r="M12" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>ซื้อ 10 ชิ้น ลด 3%</v>
       </c>
       <c r="N12" t="str">
         <v/>
@@ -904,19 +904,19 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://shopee.co.th/%E2%9C%A8%E0%B8%AA%E0%B8%B5%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B9%81%E0%B8%9F%E0%B8%A5%E0%B8%8A-%E0%B8%AA%E0%B8%B5%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B8%95%E0%B9%80%E0%B8%95%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%8A%E0%B8%B0%E0%B9%81%E0%B8%87%E0%B9%89%E0%B8%A2%E0%B8%B2%E0%B8%82%E0%B8%A1%E0%B8%B1%E0%B8%9A%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%88%E0%B8%A5%E2%9C%A8%E0%B8%AA%E0%B8%B5%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B8%95%E0%B9%80%E0%B8%95%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%80%E0%B8%9A%E0%B8%B2%E0%B8%9A%E0%B8%B2%E0%B8%87%E0%B8%84%E0%B8%B8%E0%B8%94-%E0%B8%95%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%AD%E0%B8%9A-%E0%B8%AA%E0%B8%B5%E0%B8%94%E0%B8%B4%E0%B8%AA%E0%B9%82%E0%B8%81%E0%B9%89-9-Colors%E2%9A%A1%EF%B8%8F-Frash-Diamond-Nail-Polish-i.239177333.9170127128?sp_atk=03d8d0c5-c7b8-470f-b4c0-965d42b87e2f&amp;xptdk=03d8d0c5-c7b8-470f-b4c0-965d42b87e2f</v>
+        <v>https://shopee.co.th/%E0%B9%81%E0%B8%AA%E0%B8%95%E0%B8%A1%E0%B8%9B%E0%B9%8C%E0%B8%8B%E0%B8%B4%E0%B8%A5%E0%B8%B4%E0%B9%82%E0%B8%84%E0%B8%99%E0%B9%83%E0%B8%AA-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%A1%E0%B8%B5%E0%B8%94%E0%B9%82%E0%B8%81%E0%B8%99-%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B8%9B%E0%B8%B1%E0%B9%8A%E0%B8%A1%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-DIY-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%95%E0%B8%81%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-i.76226848.14379046719?sp_atk=584bb1ca-ca31-46f7-9523-70d7b04e7e12&amp;xptdk=584bb1ca-ca31-46f7-9523-70d7b04e7e12</v>
       </c>
       <c r="B13" t="str">
         <v/>
       </c>
       <c r="C13" t="str">
-        <v>-44%</v>
+        <v>-82%</v>
       </c>
       <c r="D13" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v/>
       </c>
       <c r="E13" t="str">
-        <v>✨สีเจลแฟลช สีกลิตเตอร์ชะแง้ยาขมับสีทาเจล✨สีกลิตเตอร์เบาบางคุด ต้องอบ สีดิสโก้ 9 Colors⚡️ Frash Diamond Nail Polish</v>
+        <v>แสตมป์ซิลิโคนใส พร้อมมีดโกน และแผ่นปั๊มเล็บ แบบพกพา DIY สําหรับตกแต่งเล็บ</v>
       </c>
       <c r="F13" t="str">
         <v/>
@@ -925,30 +925,30 @@
         <v>-</v>
       </c>
       <c r="H13" t="str">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I13" t="str">
-        <v>ขายแล้ว 28พัน ชิ้น</v>
+        <v>ขายแล้ว 27.2พัน ชิ้น</v>
       </c>
       <c r="J13" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K13" t="str">
         <v>฿</v>
       </c>
       <c r="L13" t="str">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="M13" t="str">
-        <v/>
+        <v>ซื้อ 3 ชิ้น ลด 3%</v>
       </c>
       <c r="N13" t="str">
-        <v>ซื้อ 4 ชิ้น ลด 4%</v>
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://shopee.co.th/A204-%F0%9F%9A%A8%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%94%E0%B9%88%E0%B8%A7%E0%B8%99%F0%9F%9A%A8-%E0%B8%96%E0%B8%B9%E0%B8%81%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%AA%E0%B8%B8%E0%B8%94-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B8%81%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B8%81-%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%96%E0%B8%A1%E0%B8%A5%E0%B8%B9%E0%B8%81%E0%B8%84%E0%B9%89%E0%B8%B2-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%83%E0%B8%99%E0%B9%84%E0%B8%97%E0%B8%A2-i.120386404.10907557047?sp_atk=bb39a597-247e-44e1-8102-753871c9bb63&amp;xptdk=bb39a597-247e-44e1-8102-753871c9bb63</v>
+        <v>https://shopee.co.th/%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%84%E0%B8%A7-%E2%8F%B0-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%9C%E0%B8%A1-Super-V-Inter-DeeDee-288-%E0%B8%8B%E0%B8%B8%E0%B8%9B%E0%B9%80%E0%B8%9B%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%A7%E0%B8%B5-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89-%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%A8%E0%B8%B9%E0%B8%99%E0%B8%A2%E0%B9%8C%E0%B9%84%E0%B8%97%E0%B8%A2-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%9C%E0%B8%A1-i.55984205.16356764471?sp_atk=e0ce4bcf-c3ee-46a2-9f04-3449b1d4ae77&amp;xptdk=e0ce4bcf-c3ee-46a2-9f04-3449b1d4ae77</v>
       </c>
       <c r="B14" t="str">
         <v/>
@@ -957,75 +957,75 @@
         <v/>
       </c>
       <c r="D14" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v/>
       </c>
       <c r="E14" t="str">
-        <v>A204 🚨พร้อมส่งด่วน🚨 ถูกที่สุด กระจกพกพา กระจก ของแถมลูกค้า พร้อมส่งในไทย</v>
+        <v>ส่งไว ⏰ เครื่องหนีบผม Super V Inter DeeDee 288 ซุปเปอร์ วี เครื่องแท้ รับประกันศูนย์ไทย ที่หนีบผม</v>
       </c>
       <c r="F14" t="str">
         <v/>
       </c>
       <c r="G14" t="str">
-        <v>-</v>
+        <v/>
       </c>
       <c r="H14" t="str">
-        <v>1</v>
+        <v>615</v>
       </c>
       <c r="I14" t="str">
-        <v>ขายแล้ว 503.8พัน ชิ้น</v>
+        <v>ขายแล้ว 29.5พัน ชิ้น</v>
       </c>
       <c r="J14" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K14" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L14" t="str">
-        <v>5</v>
+        <v/>
       </c>
       <c r="M14" t="str">
         <v/>
       </c>
       <c r="N14" t="str">
-        <v>ซื้อ 10 ชิ้น ลด ฿1</v>
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://shopee.co.th/%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%AA%E0%B8%AD%E0%B9%80%E0%B8%82%E0%B8%B5%E0%B8%A2%E0%B8%99%E0%B8%84%E0%B8%B4%E0%B9%89%E0%B8%A7-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%A5%E0%B8%B0%E0%B9%80%E0%B8%AD%E0%B8%B5%E0%B8%A2%E0%B8%94%E0%B8%9E%E0%B8%B4%E0%B9%80%E0%B8%A8%E0%B8%A9-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%8B%E0%B8%B5%E0%B8%94%E0%B8%88%E0%B8%B2%E0%B8%87-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-5-%E0%B8%AA%E0%B8%B5-%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%AA%E0%B8%AD%E0%B9%80%E0%B8%82%E0%B8%B5%E0%B8%A2%E0%B8%99%E0%B8%84%E0%B8%B4%E0%B9%89%E0%B8%A7-%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%95%E0%B8%B2-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AA%E0%B8%B3%E0%B8%AD%E0%B8%B2%E0%B8%87-i.345976058.15325159349?sp_atk=6d3ed316-2b9b-4cdc-a242-b28a012de418&amp;xptdk=6d3ed316-2b9b-4cdc-a242-b28a012de418</v>
+        <v>https://shopee.co.th/Dior-Addict-Lip-Maximizer-2ml-%E0%B8%94%E0%B8%B4%E0%B8%AD%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%81%E0%B8%A5%E0%B8%AD%E0%B8%AA%E0%B8%AA%E0%B8%B8%E0%B8%94%E0%B9%81%E0%B8%A7%E0%B8%A7%E0%B8%A7%E0%B8%B2%E0%B8%A7-%E0%B9%80%E0%B8%9A%E0%B8%B2%E0%B8%AA%E0%B8%9A%E0%B8%B2%E0%B8%A2.-i.70998059.21512170912?sp_atk=fd1ef8b1-546e-44f6-8db8-55dd9240e79d&amp;xptdk=fd1ef8b1-546e-44f6-8db8-55dd9240e79d</v>
       </c>
       <c r="B15" t="str">
         <v/>
       </c>
       <c r="C15" t="str">
-        <v>-97%</v>
+        <v>-68%</v>
       </c>
       <c r="D15" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v/>
       </c>
       <c r="E15" t="str">
-        <v>ดินสอเขียนคิ้ว เนื้อละเอียดพิเศษ ติดทนนาน ไม่ซีดจาง กันน้ำ 5 สี ดินสอเขียนคิ้ว แต่งตา เครื่องสำอาง</v>
+        <v>Dior Addict Lip Maximizer 2ml ดิออร์ ลิปกลอสสุดแวววาว เบาสบาย.</v>
       </c>
       <c r="F15" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v/>
       </c>
       <c r="G15" t="str">
         <v>-</v>
       </c>
       <c r="H15" t="str">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="I15" t="str">
-        <v>ขายแล้ว 77.6พัน ชิ้น</v>
+        <v>ขายแล้ว 12.6พัน ชิ้น</v>
       </c>
       <c r="J15" t="str">
-        <v>ต่างประเทศ</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K15" t="str">
         <v>฿</v>
       </c>
       <c r="L15" t="str">
-        <v>9</v>
+        <v>349</v>
       </c>
       <c r="M15" t="str">
         <v/>
@@ -1036,31 +1036,31 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://shopee.co.th/%E0%B8%8A%E0%B8%B8%E0%B8%94%E0%B9%84%E0%B8%A1%E0%B9%89%E0%B9%81%E0%B8%84%E0%B8%B0%E0%B8%AB%E0%B8%B9-%E0%B8%8A%E0%B8%B8%E0%B8%94%E0%B9%81%E0%B8%84%E0%B8%B0%E0%B8%AB%E0%B8%B9-%E0%B9%84%E0%B8%A1%E0%B9%89%E0%B9%81%E0%B8%84%E0%B8%B0%E0%B8%AB%E0%B8%B9-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B9%81%E0%B8%84%E0%B8%B0%E0%B8%AB%E0%B8%B9-%E0%B8%AA%E0%B9%81%E0%B8%95%E0%B8%99%E0%B9%80%E0%B8%A5%E0%B8%AA%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%AD%E0%B8%B2%E0%B8%8A%E0%B8%B5%E0%B8%9E-%E0%B8%84%E0%B8%A3%E0%B8%9A%E0%B8%8A%E0%B8%B8%E0%B8%94-6%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%97%E0%B8%B3%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%AA%E0%B8%B0%E0%B8%AD%E0%B8%B2%E0%B8%94%E0%B8%AB%E0%B8%B9%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD-Ear-pick-6in1-kit-Sutairu-i.448328557.21645894474?sp_atk=ca45448a-163a-4591-9074-671e80a37f49&amp;xptdk=ca45448a-163a-4591-9074-671e80a37f49</v>
+        <v>https://shopee.co.th/YOTAI-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1-%E0%B8%A1%E0%B8%B2%E0%B8%94%E0%B8%B2%E0%B8%A1%E0%B8%9F%E0%B8%B4%E0%B8%99-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-XS-2-ml%EF%BC%88-%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%AA%E0%B8%B8%E0%B9%88%E0%B8%A1-%EF%BC%89-i.165601508.7967375282?sp_atk=ed5f2f6d-3569-4dcb-91a5-7fda51773092&amp;xptdk=ed5f2f6d-3569-4dcb-91a5-7fda51773092</v>
       </c>
       <c r="B16" t="str">
         <v/>
       </c>
       <c r="C16" t="str">
-        <v>-76%</v>
+        <v/>
       </c>
       <c r="D16" t="str">
         <v/>
       </c>
       <c r="E16" t="str">
-        <v>ชุดไม้แคะหู ชุดแคะหู ไม้แคะหู ที่แคะหู สแตนเลสมืออาชีพ ครบชุด 6ชิ้น ทำความสะอาดหูเครื่องมือ Ear pick 6in1 kit Sutairu</v>
+        <v>YOTAI น้ำหอม มาดามฟิน ขนาดพกพา XS---2 ml（---การจัดส่งแบบสุ่ม---）</v>
       </c>
       <c r="F16" t="str">
         <v/>
       </c>
       <c r="G16" t="str">
-        <v>฿29</v>
+        <v/>
       </c>
       <c r="H16" t="str">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I16" t="str">
-        <v>ขายแล้ว 36.3พัน ชิ้น</v>
+        <v>ขายแล้ว 756.6พัน ชิ้น</v>
       </c>
       <c r="J16" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
@@ -1072,27 +1072,27 @@
         <v/>
       </c>
       <c r="M16" t="str">
-        <v/>
+        <v>ซื้อ 6 ชิ้น ลด 2%</v>
       </c>
       <c r="N16" t="str">
-        <v>ซื้อ 6 ชิ้น ลด 2%</v>
+        <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B5%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B9%81%E0%B8%9F%E0%B8%A5%E0%B8%8A%E0%B9%84%E0%B8%94%E0%B8%A1%E0%B8%AD%E0%B8%99%E0%B8%94%E0%B9%8C%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B8%95%E0%B9%80%E0%B8%95%E0%B8%AD%E0%B8%A3%E0%B9%8C-Annies-2023-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%A1%E0%B8%B1%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%9B%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%81%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-%E0%B8%A2%E0%B8%B2%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%AA%E0%B8%B5%E0%B9%83%E0%B8%AA-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%A2%E0%B8%B2%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%AA%E0%B8%B0%E0%B8%97%E0%B9%89%E0%B8%AD%E0%B8%99%E0%B9%81%E0%B8%AA%E0%B8%87%E0%B8%95%E0%B8%B2%E0%B9%81%E0%B8%A1%E0%B8%A7-%E0%B8%AA%E0%B8%B5%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%A2%E0%B8%B9%E0%B8%A7%E0%B8%B5-3D-%E0%B9%84%E0%B8%82%E0%B9%88%E0%B8%A1%E0%B8%B8%E0%B8%81-glitter-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-%E0%B9%80%E0%B8%A1%E0%B9%87%E0%B8%94%E0%B8%AA%E0%B8%B5%E0%B9%81%E0%B8%99%E0%B9%88%E0%B8%99-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%A1%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%95%E0%B9%88%E0%B8%AD%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%81%E0%B8%9F%E0%B8%A5%E0%B8%8A%E3%80%90Luun%E3%80%91-i.295447014.9720363391?sp_atk=dcc59784-6897-4e0e-b26d-ee684c43df57&amp;xptdk=dcc59784-6897-4e0e-b26d-ee684c43df57</v>
+        <v>https://shopee.co.th/%E0%B8%A1%E0%B8%B2%E0%B8%84%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B8%AA%E0%B9%88%E0%B8%87%F0%9F%94%A5%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99-%E0%B8%A1%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%84%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-BIOAOUA-%E0%B8%84%E0%B8%B1%E0%B8%94%E0%B8%AA%E0%B8%A3%E0%B8%A3%E0%B8%A7%E0%B8%B1%E0%B8%95%E0%B8%96%E0%B8%B8%E0%B8%94%E0%B8%B4%E0%B8%9A%E0%B8%99%E0%B8%B3%E0%B9%80%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B8%A1%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%AA%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B9%8C%E0%B8%81%E0%B8%AA%E0%B9%88%E0%B8%A7%E0%B8%99%E0%B8%9C%E0%B8%AA%E0%B8%A1%E0%B8%98%E0%B8%A3%E0%B8%A3%E0%B8%A1%E0%B8%8A%E0%B8%B2%E0%B8%95%E0%B8%B4-i.428385019.14524300647?sp_atk=b9d1043e-9a16-4184-890d-b040771ae21c&amp;xptdk=b9d1043e-9a16-4184-890d-b040771ae21c</v>
       </c>
       <c r="B17" t="str">
-        <v>https://down-th.img.susercontent.com/file/5fcdd421d81100f402ec54004cf1ace2_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-23020-nm85tdsmz3nv20_tn</v>
       </c>
       <c r="C17" t="str">
-        <v>-43%</v>
+        <v>-67%</v>
       </c>
       <c r="D17" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-d6d900f677f50efcf8aa1394468bbf73</v>
       </c>
       <c r="E17" t="str">
-        <v>สีเจลแฟลชไดมอนด์กลิตเตอร์ Annies 2023 น้ำมันทาเล็บเปลือกใหม่ ยาทาเล็บเจลสีใส เจลยาทาเล็บสะท้อนแสงตาแมว สีเจล สีทาเล็บเจล เจลยูวี 3D ไข่มุก glitter ติดทนนาน เม็ดสีแน่น น้ำมันเล็บต่อเล็บแฟลช【Luun】</v>
+        <v>มาคหน้า ขายส่ง🔥แผ่น มาร์คหน้า BIOAOUA คัดสรรวัตถุดิบนำเข้าจากเกาหลี แผ่นมาร์สมาส์กส่วนผสมธรรมชาติ</v>
       </c>
       <c r="F17" t="str">
         <v/>
@@ -1101,107 +1101,107 @@
         <v>-</v>
       </c>
       <c r="H17" t="str">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="I17" t="str">
-        <v>ขายแล้ว 33.8พัน ชิ้น</v>
+        <v>ขายแล้ว 656.1พัน ชิ้น</v>
       </c>
       <c r="J17" t="str">
-        <v>ต่างประเทศ</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K17" t="str">
         <v>฿</v>
       </c>
       <c r="L17" t="str">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="M17" t="str">
         <v/>
       </c>
       <c r="N17" t="str">
-        <v>ซื้อ 5 ชิ้น ลด ฿2</v>
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://shopee.co.th/%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%94%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2-%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%9A%E0%B8%99%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%A5%E0%B9%88%E0%B8%B2%E0%B8%87-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%94%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%9A%E0%B8%B2%E0%B8%87%E0%B8%AA%E0%B9%88%E0%B8%A7%E0%B8%99%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%81%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%8D%E0%B8%B5%E0%B9%88%E0%B8%9B%E0%B8%B8%E0%B9%88%E0%B8%99%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%94%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2-muji-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%95%E0%B9%88%E0%B8%AD%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2-i.149823108.13961213785?sp_atk=51ea321f-c1d7-4fc7-872a-0529622a361d&amp;xptdk=51ea321f-c1d7-4fc7-872a-0529622a361d</v>
+        <v>https://shopee.co.th/%E0%B9%80%E0%B8%8B%E0%B8%97%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-%E0%B8%9B%E0%B8%B1%E0%B8%81%E0%B9%81%E0%B8%81%E0%B9%89%E0%B8%A1-%E0%B8%84%E0%B8%B4%E0%B9%89%E0%B8%A7-%E0%B8%9B%E0%B8%B2%E0%B8%81-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-1-%E0%B9%80%E0%B8%8B%E0%B8%95-%E0%B8%A1%E0%B8%B5-8-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-i.852230243.21151604324?sp_atk=06ce5de8-8eb0-4dc4-8fe4-e486ec7f7f24&amp;xptdk=06ce5de8-8eb0-4dc4-8fe4-e486ec7f7f24</v>
       </c>
       <c r="B18" t="str">
-        <v>https://down-th.img.susercontent.com/file/39fca6cb73f49e1ac7e3dce8f97d3f1a_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-22100-delxgskgyviv45_tn</v>
       </c>
       <c r="C18" t="str">
-        <v>-96%</v>
+        <v>-62%</v>
       </c>
       <c r="D18" t="str">
         <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
       </c>
       <c r="E18" t="str">
-        <v>ที่ดัดขนตา, ขนตาบนและล่าง,ที่ดัดขนตาบางส่วนแบบพกพาขนาดเล็กของญี่ปุ่นและเกาหลี ที่ดัดขนตา muji เครื่องมือแต่งหน้าต่อขนตา</v>
+        <v>เซทแปรงแต่งหน้า อายแชโดว์ ปักแก้ม คิ้ว ปาก ขนาดพกพา  1 เซต มี 8 ชิ้น</v>
       </c>
       <c r="F18" t="str">
-        <v/>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="G18" t="str">
-        <v>฿25</v>
+        <v>-</v>
       </c>
       <c r="H18" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I18" t="str">
-        <v>ขายแล้ว 92.7พัน ชิ้น</v>
+        <v>ขายแล้ว 35.7พัน ชิ้น</v>
       </c>
       <c r="J18" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K18" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="L18" t="str">
-        <v/>
+        <v>15</v>
       </c>
       <c r="M18" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="N18" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://shopee.co.th/%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%AA%E0%B8%AD%E0%B9%80%E0%B8%82%E0%B8%B5%E0%B8%A2%E0%B8%99%E0%B8%84%E0%B8%B4%E0%B9%89%E0%B8%A7-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%AA%E0%B8%AD%E0%B9%80%E0%B8%82%E0%B8%B5%E0%B8%A2%E0%B8%99%E0%B8%84%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%AB%E0%B8%A1%E0%B8%B8%E0%B8%99-2-in-1-%E0%B8%A1%E0%B8%B5%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87%E0%B8%9B%E0%B8%B1%E0%B8%94%E0%B8%84%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%83%E0%B8%99%E0%B8%95%E0%B8%B1%E0%B8%A7-%E0%B8%A1%E0%B8%B5-5-%E0%B8%AA%E0%B8%B5%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B9%80%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%81-%E2%9A%A0%EF%B8%8F%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%E2%9A%A0%EF%B8%8F-i.284038002.10767868593?sp_atk=7d35366f-b65e-48ce-a865-696453e16f12&amp;xptdk=7d35366f-b65e-48ce-a865-696453e16f12</v>
+        <v>https://shopee.co.th/%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%A5%E0%B8%B4%E0%B8%82%E0%B8%A7%E0%B8%B4%E0%B8%94-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%8A%E0%B8%B4%E0%B8%A1%E0%B9%80%E0%B8%A1%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%A1%E0%B8%B8%E0%B8%81-%E0%B9%81%E0%B8%A1%E0%B8%95%E0%B8%95%E0%B9%8C-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-%E0%B8%95%E0%B8%81%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%9B%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%81%E0%B8%95%E0%B8%B2-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%80%E0%B8%8A%E0%B9%82%E0%B8%94-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B9%81%E0%B8%97%E0%B9%88%E0%B8%87%EF%BC%8C%E0%B8%97%E0%B8%B2%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-i.244595621.10674863111?sp_atk=bc176f8d-a0b1-4410-b36e-09c53a99affa&amp;xptdk=bc176f8d-a0b1-4410-b36e-09c53a99affa</v>
       </c>
       <c r="B19" t="str">
-        <v>https://down-th.img.susercontent.com/file/3458f0fe5f29aef0747a6289451a82a1_tn</v>
+        <v>https://down-th.img.susercontent.com/file/c73dac26040ee84ccda080f18a3ef519_tn</v>
       </c>
       <c r="C19" t="str">
-        <v>-97%</v>
+        <v>-83%</v>
       </c>
       <c r="D19" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="E19" t="str">
-        <v>ดินสอเขียนคิ้ว กันน้ำ ดินสอเขียนคิ้วแบบหมุน 2 in 1 มีแปรงปัดคิ้วในตัว มี 5 สีให้เลือก ⚠️พร้อมส่ง⚠️</v>
+        <v>อายแชโดว์แบบลิขวิด เนื้อชิมเมอร์ มุก แมตต์ กันน้ำ กันเหงื่อ ตกแต่งเปลือกตา/อายเชโด/อายแชโดว์แบบแท่ง，ทาอายแชโดว์</v>
       </c>
       <c r="F19" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v/>
       </c>
       <c r="G19" t="str">
-        <v>-</v>
+        <v>฿58</v>
       </c>
       <c r="H19" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I19" t="str">
-        <v>ขายแล้ว 171.7พัน ชิ้น</v>
+        <v>ขายแล้ว 70.5พัน ชิ้น</v>
       </c>
       <c r="J19" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K19" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L19" t="str">
-        <v>7</v>
+        <v/>
       </c>
       <c r="M19" t="str">
         <v/>
@@ -1212,43 +1212,43 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://shopee.co.th/(6%E0%B8%8B%E0%B8%AD%E0%B8%87-%E0%B8%81%E0%B8%A5%E0%B9%88%E0%B8%AD%E0%B8%87)Clear-nose-Acne-Care-Solution-Serum-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%A3%E0%B9%8C%E0%B9%82%E0%B8%99%E0%B8%AA-%E0%B9%81%E0%B8%AD%E0%B8%84%E0%B9%80%E0%B8%99%E0%B9%88-%E0%B9%81%E0%B8%84%E0%B8%A3%E0%B9%8C-%E0%B9%82%E0%B8%8B%E0%B8%A5%E0%B8%B9%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99-%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%A1-i.314059043.6257698711?sp_atk=a3ccc53e-ab96-4733-ad6e-63d6f90e874d&amp;xptdk=a3ccc53e-ab96-4733-ad6e-63d6f90e874d</v>
+        <v>https://shopee.co.th/%F0%9F%87%B9%F0%9F%87%AD%E0%B8%A3%E0%B9%89%E0%B8%B2%E0%B8%99%E0%B9%84%E0%B8%97%E0%B8%A2%F0%9F%87%B9%F0%9F%87%AD%E3%80%90R668%E3%80%91%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B8%B3%E0%B9%80%E0%B8%A3%E0%B9%87%E0%B8%88%E0%B8%A3%E0%B8%B9%E0%B8%9B-%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B8%B3%E0%B9%80%E0%B8%A3%E0%B9%87%E0%B8%88%E0%B8%A3%E0%B8%B9%E0%B8%9B-%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%AA%E0%B9%80%E0%B8%A3%E0%B9%87%E0%B8%88%E0%B8%A3%E0%B8%B9%E0%B8%9B-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-i.697164735.19966425966?sp_atk=87d65567-d7d3-4279-90b6-cd40eda149bb&amp;xptdk=87d65567-d7d3-4279-90b6-cd40eda149bb</v>
       </c>
       <c r="B20" t="str">
-        <v>https://down-th.img.susercontent.com/file/b9ba89248a8f6a57ca15f29d41f11fe1_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-22120-yukw6kmsllkvc8_tn</v>
       </c>
       <c r="C20" t="str">
-        <v/>
+        <v>-53%</v>
       </c>
       <c r="D20" t="str">
         <v/>
       </c>
       <c r="E20" t="str">
-        <v>(6ซอง/กล่อง)Clear nose Acne Care Solution Serum เครียร์โนส แอคเน่ แคร์ โซลูชั่น เซรั่ม</v>
+        <v>🇹🇭ร้านไทย🇹🇭【R668】เล็บปลอมสำเร็จรูป ล็บปลอมสำเร็จรูป เล็บปลอมเจล เล็บเจล เล็บเจลสเร็จรูป พร้อมส่ง</v>
       </c>
       <c r="F20" t="str">
         <v/>
       </c>
       <c r="G20" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="H20" t="str">
-        <v>181</v>
+        <v>10</v>
       </c>
       <c r="I20" t="str">
-        <v>ขายแล้ว 46.5พัน ชิ้น</v>
+        <v>ขายแล้ว 13.7พัน ชิ้น</v>
       </c>
       <c r="J20" t="str">
-        <v>จังหวัดมุกดาหาร</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K20" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="L20" t="str">
-        <v/>
+        <v>49</v>
       </c>
       <c r="M20" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="N20" t="str">
         <v/>
@@ -1256,119 +1256,119 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://shopee.co.th/%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%97%E0%B8%B2%E0%B8%A1%E0%B8%B7%E0%B8%AD-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%9A%E0%B8%B3%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87-100g%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%A1%E0%B8%B1%E0%B8%99%E0%B8%A1%E0%B9%89%E0%B8%B2-hand-cream-%E0%B8%84%E0%B8%99%E0%B8%B5%E0%B8%A1%E0%B8%9A%E0%B8%B3%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD-i.883153295.16287680915?sp_atk=ec4e45b4-3706-4d23-9e07-b28c7eecfd8c&amp;xptdk=ec4e45b4-3706-4d23-9e07-b28c7eecfd8c</v>
+        <v>https://shopee.co.th/%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AD%E0%B8%B2%E0%B8%87-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%81%E0%B8%A5%E0%B8%AD%E0%B8%AA-%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%8A%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%8A%E0%B8%B7%E0%B9%89%E0%B8%99-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-%E0%B9%80%E0%B8%9B%E0%B8%A5%E0%B8%B5%E0%B9%88%E0%B8%A2%E0%B8%99%E0%B8%AA%E0%B8%B5%E0%B9%84%E0%B8%94%E0%B9%89-i.273622042.10053874809?sp_atk=59885aa7-e708-41ce-abc2-2add525d6d9d&amp;xptdk=59885aa7-e708-41ce-abc2-2add525d6d9d</v>
       </c>
       <c r="B21" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-22100-s70n2j8jpniv3e_tn</v>
+        <v>https://down-th.img.susercontent.com/file/36bae79efd7cb0fdcfb64889b8f6f052_tn</v>
       </c>
       <c r="C21" t="str">
-        <v>-47%</v>
+        <v>-99%</v>
       </c>
       <c r="D21" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="E21" t="str">
-        <v>ครีมทามือ ครีมบำรุงมือแห้ง 100gน้ำมันม้า hand cream  คนีมบำรุงมือ</v>
+        <v>เครื่องสําอาง ลิปสติก ลิปกลอส ให้ความชุ่มชื้น ติดทนนาน เปลี่ยนสีได้</v>
       </c>
       <c r="F21" t="str">
-        <v/>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="G21" t="str">
         <v>-</v>
       </c>
       <c r="H21" t="str">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="I21" t="str">
-        <v>ขายแล้ว 16.4พัน ชิ้น</v>
+        <v>ขายแล้ว 204พัน ชิ้น</v>
       </c>
       <c r="J21" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K21" t="str">
         <v>฿</v>
       </c>
       <c r="L21" t="str">
-        <v>232</v>
+        <v>9</v>
       </c>
       <c r="M21" t="str">
         <v/>
       </c>
       <c r="N21" t="str">
-        <v>ซื้อ 2 ชิ้น ลด 3%</v>
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://shopee.co.th/kingshopping%EF%BC%88%E0%B8%A3%E0%B9%89%E0%B8%B2%E0%B8%99%E0%B9%84%E0%B8%97%E0%B8%A2)-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B8%81%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B9%83%E0%B8%8A%E0%B9%89-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B9%80%E0%B8%9A%E0%B8%B2-%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B8%AA%E0%B8%94%E0%B9%83%E0%B8%AA-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B8%81%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2A46-i.162894152.4648826768?sp_atk=df41d9b0-ff28-4ae5-befe-1db9e22847a9&amp;xptdk=df41d9b0-ff28-4ae5-befe-1db9e22847a9</v>
+        <v>https://shopee.co.th/A204-%F0%9F%9A%A8%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%94%E0%B9%88%E0%B8%A7%E0%B8%99%F0%9F%9A%A8-%E0%B8%96%E0%B8%B9%E0%B8%81%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%AA%E0%B8%B8%E0%B8%94-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B8%81%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B8%81-%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%96%E0%B8%A1%E0%B8%A5%E0%B8%B9%E0%B8%81%E0%B8%84%E0%B9%89%E0%B8%B2-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%83%E0%B8%99%E0%B9%84%E0%B8%97%E0%B8%A2-i.120386404.10907557047?sp_atk=525eee2f-2b9e-45fe-a9a1-2360b47b2b79&amp;xptdk=525eee2f-2b9e-45fe-a9a1-2360b47b2b79</v>
       </c>
       <c r="B22" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul2-lhds0ost8vzoa6_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98s-lnpgqm7f4i7kba_tn</v>
       </c>
       <c r="C22" t="str">
-        <v>-50%</v>
+        <v/>
       </c>
       <c r="D22" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="E22" t="str">
-        <v>kingshopping（ร้านไทย) กระจกพกพา น่ารักน่าใช้ น้ำหนักเบา พกพาง่าย ลายน่ารักสดใส กระจกแบบพกพาA46</v>
+        <v>A204 🚨พร้อมส่งด่วน🚨 ถูกที่สุด กระจกพกพา กระจก ของแถมลูกค้า พร้อมส่งในไทย</v>
       </c>
       <c r="F22" t="str">
         <v/>
       </c>
       <c r="G22" t="str">
-        <v>฿2</v>
+        <v>-</v>
       </c>
       <c r="H22" t="str">
         <v>1</v>
       </c>
       <c r="I22" t="str">
-        <v>ขายแล้ว 1.5ล้าน ชิ้น</v>
+        <v>ขายแล้ว 503.8พัน ชิ้น</v>
       </c>
       <c r="J22" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
       <c r="K22" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="L22" t="str">
-        <v/>
+        <v>5</v>
       </c>
       <c r="M22" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>ซื้อ 10 ชิ้น ลด ฿1</v>
       </c>
       <c r="N22" t="str">
-        <v>ซื้อ 5 ชิ้น ลด 1%</v>
+        <v/>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://shopee.co.th/%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%A5%E0%B8%B4%E0%B8%82%E0%B8%A7%E0%B8%B4%E0%B8%94-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%8A%E0%B8%B4%E0%B8%A1%E0%B9%80%E0%B8%A1%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%A1%E0%B8%B8%E0%B8%81-%E0%B9%81%E0%B8%A1%E0%B8%95%E0%B8%95%E0%B9%8C-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD-%E0%B8%95%E0%B8%81%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%9B%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%81%E0%B8%95%E0%B8%B2-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%80%E0%B8%8A%E0%B9%82%E0%B8%94-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B9%81%E0%B8%97%E0%B9%88%E0%B8%87%EF%BC%8C%E0%B8%97%E0%B8%B2%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-i.244595621.10674863111?sp_atk=4cf9785b-e03a-4f41-a3ef-8f9a9e9a2317&amp;xptdk=4cf9785b-e03a-4f41-a3ef-8f9a9e9a2317</v>
+        <v>https://shopee.co.th/3-%E0%B8%AA%E0%B8%B5-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B8%95%E0%B9%80%E0%B8%95%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%AA%E0%B8%AD-%E0%B9%83%E0%B8%9A%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-%E0%B8%8A%E0%B8%B4%E0%B8%A1%E0%B9%80%E0%B8%A1%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B9%84%E0%B8%AE%E0%B9%84%E0%B8%A5%E0%B8%97%E0%B9%8C-%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%AA%E0%B8%B5-%E0%B8%AA%E0%B8%A7%E0%B9%88%E0%B8%B2%E0%B8%87-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B9%8D%E0%B8%B2-%E0%B9%84%E0%B8%AB%E0%B8%A1-%E0%B8%AB%E0%B8%99%E0%B8%AD%E0%B8%99-%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%95%E0%B8%B2-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AD%E0%B8%B2%E0%B8%87-i.76226901.15763408867?sp_atk=9f0b252d-44ac-4e46-aa6f-7fa314071cbd&amp;xptdk=9f0b252d-44ac-4e46-aa6f-7fa314071cbd</v>
       </c>
       <c r="B23" t="str">
-        <v>https://down-th.img.susercontent.com/file/c73dac26040ee84ccda080f18a3ef519_tn</v>
+        <v>https://down-th.img.susercontent.com/file/6aa26d8ce655dac70e694a4bbc8ae344_tn</v>
       </c>
       <c r="C23" t="str">
-        <v>-83%</v>
+        <v>-87%</v>
       </c>
       <c r="D23" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v/>
       </c>
       <c r="E23" t="str">
-        <v>อายแชโดว์แบบลิขวิด เนื้อชิมเมอร์ มุก แมตต์ กันน้ำ กันเหงื่อ ตกแต่งเปลือกตา/อายเชโด/อายแชโดว์แบบแท่ง，ทาอายแชโดว์</v>
+        <v>3 สี กลิตเตอร์ อายแชโดว์ ดินสอ / ใบหน้า อายแชโดว์ ชิมเมอร์ ไฮไลท์ แต่งหน้า สี / สว่าง กันน้ํา ไหม หนอน แต่งหน้า ตา เครื่องสําอาง</v>
       </c>
       <c r="F23" t="str">
         <v/>
       </c>
       <c r="G23" t="str">
-        <v>฿58</v>
+        <v>฿115</v>
       </c>
       <c r="H23" t="str">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I23" t="str">
-        <v>ขายแล้ว 70.5พัน ชิ้น</v>
+        <v>ขายแล้ว 22.3พัน ชิ้น</v>
       </c>
       <c r="J23" t="str">
         <v>ต่างประเทศ</v>
@@ -1380,159 +1380,159 @@
         <v/>
       </c>
       <c r="M23" t="str">
-        <v/>
+        <v>ซื้อ 5 ชิ้น ลด 5%</v>
       </c>
       <c r="N23" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://shopee.co.th/%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AD%E0%B8%B2%E0%B8%87-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%81%E0%B8%A5%E0%B8%AD%E0%B8%AA-%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%8A%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%8A%E0%B8%B7%E0%B9%89%E0%B8%99-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-%E0%B9%80%E0%B8%9B%E0%B8%A5%E0%B8%B5%E0%B9%88%E0%B8%A2%E0%B8%99%E0%B8%AA%E0%B8%B5%E0%B9%84%E0%B8%94%E0%B9%89-i.273622042.10053874809?sp_atk=7a42595c-08e0-4d08-a015-937405130770&amp;xptdk=7a42595c-08e0-4d08-a015-937405130770</v>
+        <v>https://shopee.co.th/Rou-Bao-%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B8%94%E0%B8%B5-%E0%B8%AD%E0%B8%B8%E0%B8%9B%E0%B8%81%E0%B8%A3%E0%B8%93%E0%B9%8C%E0%B8%95%E0%B8%81%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B9%84%E0%B8%82%E0%B9%88%E0%B8%A1%E0%B8%B8%E0%B8%81-%E0%B9%82%E0%B8%9A%E0%B8%A7%E0%B9%8C-%E0%B8%97%E0%B8%A3%E0%B8%87%E0%B8%81%E0%B8%A5%E0%B8%A1-%E0%B8%AB%E0%B8%A5%E0%B8%B2%E0%B8%81%E0%B8%AA%E0%B8%B5-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%95%E0%B8%81%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-DIY-i.854997188.21047722564?sp_atk=bb573a03-8575-4ca9-ac76-8400aa3b2cc9&amp;xptdk=bb573a03-8575-4ca9-ac76-8400aa3b2cc9</v>
       </c>
       <c r="B24" t="str">
-        <v>https://down-th.img.susercontent.com/file/36bae79efd7cb0fdcfb64889b8f6f052_tn</v>
+        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lnsa2fksla4oc9_tn</v>
       </c>
       <c r="C24" t="str">
-        <v>-99%</v>
+        <v>-50%</v>
       </c>
       <c r="D24" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="E24" t="str">
-        <v>เครื่องสําอาง ลิปสติก ลิปกลอส ให้ความชุ่มชื้น ติดทนนาน เปลี่ยนสีได้</v>
+        <v>Rou Bao ขายดี อุปกรณ์ตกแต่งเล็บ ไข่มุก โบว์ ทรงกลม หลากสี สําหรับตกแต่งเล็บ DIY</v>
       </c>
       <c r="F24" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v/>
       </c>
       <c r="G24" t="str">
-        <v>-</v>
+        <v>฿44</v>
       </c>
       <c r="H24" t="str">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="I24" t="str">
-        <v>ขายแล้ว 204พัน ชิ้น</v>
+        <v>ขายแล้ว 18.2พัน ชิ้น</v>
       </c>
       <c r="J24" t="str">
         <v>ต่างประเทศ</v>
       </c>
       <c r="K24" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L24" t="str">
-        <v>9</v>
+        <v/>
       </c>
       <c r="M24" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>ซื้อ 2 ชิ้น ลด 5%</v>
       </c>
       <c r="N24" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://shopee.co.th/%F0%9F%87%B9%F0%9F%87%AD%E0%B8%A3%E0%B9%89%E0%B8%B2%E0%B8%99%E0%B9%84%E0%B8%97%E0%B8%A2%F0%9F%87%B9%F0%9F%87%AD%E3%80%90R668%E3%80%91%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B8%B3%E0%B9%80%E0%B8%A3%E0%B9%87%E0%B8%88%E0%B8%A3%E0%B8%B9%E0%B8%9B-%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B8%B3%E0%B9%80%E0%B8%A3%E0%B9%87%E0%B8%88%E0%B8%A3%E0%B8%B9%E0%B8%9B-%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%AA%E0%B9%80%E0%B8%A3%E0%B9%87%E0%B8%88%E0%B8%A3%E0%B8%B9%E0%B8%9B-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-i.697164735.19966425966?sp_atk=1d685fa8-e1c1-4af3-abba-0406adc3090d&amp;xptdk=1d685fa8-e1c1-4af3-abba-0406adc3090d</v>
+        <v>https://shopee.co.th/%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A3%E0%B8%A2%E0%B9%8C%E0%B9%81%E0%B8%AD%E0%B8%A5%E0%B8%81%E0%B8%AD%E0%B8%AE%E0%B8%AD%E0%B8%A5%E0%B9%8C75-1-000ml.%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B8%A1%E0%B8%B2%E0%B8%81%E0%B8%81%E0%B8%81(%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99%E0%B9%81%E0%B8%9A%E0%B8%A3%E0%B8%99%E0%B8%94%E0%B9%8C%E0%B9%80%E0%B8%99%E0%B8%A1)-i.217059246.12124789072?sp_atk=1a6a355c-29f8-4581-995d-0d3679b161c5&amp;xptdk=1a6a355c-29f8-4581-995d-0d3679b161c5</v>
       </c>
       <c r="B25" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-22120-yukw6kmsllkvc8_tn</v>
+        <v>https://down-th.img.susercontent.com/file/7de06b663eb1aa4012b89370e9f27faa_tn</v>
       </c>
       <c r="C25" t="str">
-        <v>-53%</v>
+        <v>-15%</v>
       </c>
       <c r="D25" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
       </c>
       <c r="E25" t="str">
-        <v>🇹🇭ร้านไทย🇹🇭【R668】เล็บปลอมสำเร็จรูป ล็บปลอมสำเร็จรูป เล็บปลอมเจล เล็บเจล เล็บเจลสเร็จรูป พร้อมส่ง</v>
+        <v>สเปรย์แอลกอฮอล์75%1,000ml.หอมมากกก(กลิ่นแบรนด์เนม)</v>
       </c>
       <c r="F25" t="str">
         <v/>
       </c>
       <c r="G25" t="str">
-        <v>-</v>
+        <v>฿80</v>
       </c>
       <c r="H25" t="str">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="I25" t="str">
-        <v>ขายแล้ว 13.7พัน ชิ้น</v>
+        <v>ขายแล้ว 153.3พัน ชิ้น</v>
       </c>
       <c r="J25" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
       <c r="K25" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L25" t="str">
-        <v>49</v>
+        <v/>
       </c>
       <c r="M25" t="str">
         <v/>
       </c>
       <c r="N25" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://shopee.co.th/%E0%B9%80%E0%B8%8B%E0%B8%97%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-%E0%B8%9B%E0%B8%B1%E0%B8%81%E0%B9%81%E0%B8%81%E0%B9%89%E0%B8%A1-%E0%B8%84%E0%B8%B4%E0%B9%89%E0%B8%A7-%E0%B8%9B%E0%B8%B2%E0%B8%81-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-1-%E0%B9%80%E0%B8%8B%E0%B8%95-%E0%B8%A1%E0%B8%B5-8-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-i.852230243.21151604324?sp_atk=458b2065-e577-4afa-a2bd-93ecf02f38d2&amp;xptdk=458b2065-e577-4afa-a2bd-93ecf02f38d2</v>
+        <v>https://shopee.co.th/kingshopping%EF%BC%88%E0%B8%A3%E0%B9%89%E0%B8%B2%E0%B8%99%E0%B9%84%E0%B8%97%E0%B8%A2)-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B8%81%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B9%83%E0%B8%8A%E0%B9%89-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B9%80%E0%B8%9A%E0%B8%B2-%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B8%AA%E0%B8%94%E0%B9%83%E0%B8%AA-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%88%E0%B8%81%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2A46-i.162894152.4648826768?sp_atk=7b7879d3-39c8-42aa-8612-a9741152dbb5&amp;xptdk=7b7879d3-39c8-42aa-8612-a9741152dbb5</v>
       </c>
       <c r="B26" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-22100-delxgskgyviv45_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul2-lhds0ost8vzoa6_tn</v>
       </c>
       <c r="C26" t="str">
-        <v>-62%</v>
+        <v>-50%</v>
       </c>
       <c r="D26" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
+        <v/>
       </c>
       <c r="E26" t="str">
-        <v>เซทแปรงแต่งหน้า อายแชโดว์ ปักแก้ม คิ้ว ปาก ขนาดพกพา  1 เซต มี 8 ชิ้น</v>
+        <v>kingshopping（ร้านไทย) กระจกพกพา น่ารักน่าใช้ น้ำหนักเบา พกพาง่าย ลายน่ารักสดใส กระจกแบบพกพาA46</v>
       </c>
       <c r="F26" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v/>
       </c>
       <c r="G26" t="str">
-        <v>-</v>
+        <v>฿2</v>
       </c>
       <c r="H26" t="str">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I26" t="str">
-        <v>ขายแล้ว 35.6พัน ชิ้น</v>
+        <v>ขายแล้ว 1.5ล้าน ชิ้น</v>
       </c>
       <c r="J26" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K26" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L26" t="str">
-        <v>15</v>
+        <v/>
       </c>
       <c r="M26" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>ซื้อ 5 ชิ้น ลด 1%</v>
       </c>
       <c r="N26" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://shopee.co.th/S-14%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B8%A1%E0%B8%B5%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%E2%9A%A1%EF%B8%8FCappuvini-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B8%AA%E0%B9%80%E0%B8%95%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%A5%E0%B8%B4%E0%B8%84%E0%B8%A7%E0%B8%B4%E0%B8%94-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C%E0%B9%84%E0%B8%AE%E0%B9%84%E0%B8%A5%E0%B8%97%E0%B9%8C-%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%81%E0%B8%B2%E0%B8%A2%E0%B8%A1%E0%B8%B8%E0%B8%81-%E0%B9%80%E0%B9%80%E0%B8%A7%E0%B8%A7%E0%B8%A7%E0%B8%B2%E0%B8%A7%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-i.250814349.14092316989?sp_atk=effec64c-c071-4f2f-8b94-e29a86b509d5&amp;xptdk=effec64c-c071-4f2f-8b94-e29a86b509d5</v>
+        <v>https://shopee.co.th/%F0%9F%87%B9%F0%9F%87%AD%F0%9F%93%8C%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%84%E0%B8%A7-%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B9%84%E0%B8%97%E0%B8%A2%E2%AD%90%EF%B8%8Fsticker-%E0%B9%80%E0%B8%9E%E0%B8%8A%E0%B8%A3%E0%B8%AA%E0%B8%B8%E0%B8%94%E0%B8%AE%E0%B8%B4%E0%B8%95%E0%B8%A1%E0%B8%B5%E0%B8%81%E0%B8%B2%E0%B8%A7%E0%B9%83%E0%B8%99%E0%B8%95%E0%B8%B1%E0%B8%A7-%E2%AD%90%EF%B8%8F-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B9%84%E0%B8%94%E0%B9%89-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B9%84%E0%B8%94%E0%B9%89%E0%B8%97%E0%B8%B8%E0%B8%81%E0%B8%AD%E0%B8%A7%E0%B8%B1%E0%B8%A2%E0%B8%A7%E0%B8%B0-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%AA%E0%B8%B2%E0%B8%A2%E0%B8%84%E0%B8%AD%E0%B8%99%E0%B9%80%E0%B8%97%E0%B8%99%E0%B8%97%E0%B9%8C%E0%B9%82%E0%B8%94%E0%B8%A2%E0%B9%80%E0%B8%89%E0%B8%9E%E0%B8%B2%E0%B8%B0-i.5262379.10570980026?sp_atk=19bedd18-099d-4d48-9370-643e08eea8e4&amp;xptdk=19bedd18-099d-4d48-9370-643e08eea8e4</v>
       </c>
       <c r="B27" t="str">
-        <v>https://down-th.img.susercontent.com/file/df61e43671cd954554c89a8a73253642_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-23020-8mbuqqdvf3mv9b_tn</v>
       </c>
       <c r="C27" t="str">
-        <v>-61%</v>
+        <v/>
       </c>
       <c r="D27" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="E27" t="str">
-        <v>S-14สินค้ามีพร้อมส่ง⚡️Cappuvini อายแชโดว์กลิสเตอร์ เนื้อลิควิด อายแชโดว์ไฮไลท์ ประกายมุก เเวววาวกันน้ำ กันเหงื่อติดทนนาน</v>
+        <v>🇹🇭📌ส่งไว จากไทย⭐️sticker เพชรสุดฮิตมีกาวในตัว ⭐️ ติดหน้าได้ ติดได้ทุกอวัยวะ สำหรับสายคอนเทนท์โดยเฉพาะ</v>
       </c>
       <c r="F27" t="str">
         <v/>
@@ -1541,10 +1541,10 @@
         <v>-</v>
       </c>
       <c r="H27" t="str">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="I27" t="str">
-        <v>ขายแล้ว 16.5พัน ชิ้น</v>
+        <v>ขายแล้ว 20.5พัน ชิ้น</v>
       </c>
       <c r="J27" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
@@ -1553,51 +1553,51 @@
         <v>฿</v>
       </c>
       <c r="L27" t="str">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="M27" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="N27" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://shopee.co.th/%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1-10-ml.-%E0%B8%82%E0%B8%A7%E0%B8%94%E0%B8%A5%E0%B8%B0-9%E2%80%8B-%E0%B8%9A%E0%B8%B2%E0%B8%97%E0%B8%82%E0%B8%B1%E0%B9%89%E0%B8%99%E0%B8%95%E0%B9%88%E0%B8%B3-5-%E0%B8%82%E0%B8%A7%E0%B8%94-(%E0%B9%81%E0%B8%88%E0%B9%89%E0%B8%87%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99%E0%B8%AD%E0%B8%B7%E0%B9%88%E0%B8%99%E0%B9%86%E0%B9%81%E0%B8%88%E0%B9%89%E0%B8%87%E0%B9%83%E0%B8%99%E0%B8%AB%E0%B8%A1%E0%B8%B2%E0%B8%A2%E0%B9%80%E0%B8%AB%E0%B8%95%E0%B8%B8%E2%80%8B%E0%B8%AB%E0%B8%A3%E0%B8%B7%E0%B8%AD%E0%B8%82%E0%B9%89%E0%B8%AD%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1)-i.39967718.9905370002?sp_atk=13febb6b-44c1-463f-940f-c816363f02df&amp;xptdk=13febb6b-44c1-463f-940f-c816363f02df</v>
+        <v>https://shopee.co.th/%E3%80%90%E0%B8%9F%E0%B8%A3%E0%B8%B5%E0%B8%81%E0%B8%B2%E0%B8%A7%E3%80%912022-%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88%E0%B8%A5%E0%B9%88%E0%B8%B2%E0%B8%AA%E0%B8%B8%E0%B8%94-24-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%9D%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%A8%E0%B8%AA-%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B9%84%E0%B8%99%E0%B8%8B%E0%B9%8C-%E0%B8%8A%E0%B8%B8%E0%B8%94-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%81%E0%B8%B2%E0%B8%A7-%E0%B8%AD%E0%B8%B0%E0%B8%84%E0%B8%A3%E0%B8%B4%E0%B8%A5%E0%B8%B4%E0%B8%84-%E0%B9%80%E0%B8%95%E0%B9%87%E0%B8%A1%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-COD-i.469166390.20519078583?sp_atk=7bff804a-46f5-4be1-88b4-125fa3575d93&amp;xptdk=7bff804a-46f5-4be1-88b4-125fa3575d93</v>
       </c>
       <c r="B28" t="str">
-        <v>https://down-th.img.susercontent.com/file/fbf066523ada7b033bb11d7b7c4cae2a_tn</v>
+        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lkv5ln0eztzy3f_tn</v>
       </c>
       <c r="C28" t="str">
-        <v/>
+        <v>-92%</v>
       </c>
       <c r="D28" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="E28" t="str">
-        <v>น้ำหอม 10 ml. ขวดละ 9​ บาทขั้นต่ำ 5 ขวด (แจ้งกลิ่นอื่นๆแจ้งในหมายเหตุ​หรือข้อความ)</v>
+        <v>【ฟรีกาว】2022 ใหม่ล่าสุด 24 ชิ้น ฝรั่งเศส ปลอม ไนซ์ ชุด พร้อมกาว อะคริลิค เต็มเล็บ COD</v>
       </c>
       <c r="F28" t="str">
         <v/>
       </c>
       <c r="G28" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="H28" t="str">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I28" t="str">
-        <v>ขายแล้ว 127.9พัน ชิ้น</v>
+        <v>ขายแล้ว 46.7พัน ชิ้น</v>
       </c>
       <c r="J28" t="str">
-        <v>จังหวัดประจวบคีรีขันธ์</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K28" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="L28" t="str">
-        <v/>
+        <v>20</v>
       </c>
       <c r="M28" t="str">
         <v/>
@@ -1608,34 +1608,34 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://shopee.co.th/Rou-Bao-%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B8%94%E0%B8%B5-%E0%B8%AD%E0%B8%B8%E0%B8%9B%E0%B8%81%E0%B8%A3%E0%B8%93%E0%B9%8C%E0%B8%95%E0%B8%81%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B9%84%E0%B8%82%E0%B9%88%E0%B8%A1%E0%B8%B8%E0%B8%81-%E0%B9%82%E0%B8%9A%E0%B8%A7%E0%B9%8C-%E0%B8%97%E0%B8%A3%E0%B8%87%E0%B8%81%E0%B8%A5%E0%B8%A1-%E0%B8%AB%E0%B8%A5%E0%B8%B2%E0%B8%81%E0%B8%AA%E0%B8%B5-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%95%E0%B8%81%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-DIY-i.854997188.21047722564?sp_atk=073155b8-7655-4e64-a8be-2b033229f24a&amp;xptdk=073155b8-7655-4e64-a8be-2b033229f24a</v>
+        <v>https://shopee.co.th/-9.15-%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B9%82%E0%B8%84%E0%B9%89%E0%B8%94-PSKX149-%E0%B8%A5%E0%B8%94%E0%B9%80%E0%B8%9E%E0%B8%B4%E0%B9%88%E0%B8%A1-25-KEMEI-%E0%B8%A3%E0%B8%B8%E0%B9%88%E0%B8%99-KM-5017-%E0%B8%9A%E0%B8%B1%E0%B8%95%E0%B8%95%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B8%B5%E0%B9%88%E0%B8%A2%E0%B8%99%E0%B8%95%E0%B8%B1%E0%B8%94%E0%B8%9C%E0%B8%A1%E0%B9%84%E0%B8%A3%E0%B9%89%E0%B8%AA%E0%B8%B2%E0%B8%A2-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%A3%E0%B8%AD%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B5-4-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-i.33871790.2054358386?sp_atk=5b0a5315-9763-474c-a564-274eead85c57&amp;xptdk=5b0a5315-9763-474c-a564-274eead85c57</v>
       </c>
       <c r="B29" t="str">
-        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lnsa2fksla4oc9_tn</v>
+        <v>https://down-th.img.susercontent.com/file/bf6728569e7f7a55ea84956d2039fac0_tn</v>
       </c>
       <c r="C29" t="str">
-        <v>-50%</v>
+        <v>-79%</v>
       </c>
       <c r="D29" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v/>
       </c>
       <c r="E29" t="str">
-        <v>Rou Bao ขายดี อุปกรณ์ตกแต่งเล็บ ไข่มุก โบว์ ทรงกลม หลากสี สําหรับตกแต่งเล็บ DIY</v>
+        <v>[9.15 ใส่โค้ด PSKX149 ลดเพิ่ม 25%] KEMEI รุ่น KM-5017 บัตตาเลี่ยนตัดผมไร้สาย พร้อมที่รองหวี 4 ชิ้น</v>
       </c>
       <c r="F29" t="str">
         <v/>
       </c>
       <c r="G29" t="str">
-        <v>฿44</v>
+        <v>฿899</v>
       </c>
       <c r="H29" t="str">
-        <v>22</v>
+        <v>193</v>
       </c>
       <c r="I29" t="str">
-        <v>ขายแล้ว 18.2พัน ชิ้น</v>
+        <v>ขายแล้ว 93.8พัน ชิ้น</v>
       </c>
       <c r="J29" t="str">
-        <v>ต่างประเทศ</v>
+        <v>จังหวัดปทุมธานี</v>
       </c>
       <c r="K29" t="str">
         <v/>
@@ -1644,59 +1644,59 @@
         <v/>
       </c>
       <c r="M29" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="N29" t="str">
-        <v>ซื้อ 2 ชิ้น ลด 5%</v>
+        <v/>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://shopee.co.th/%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%84%E0%B8%A7-%E2%8F%B0-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%9C%E0%B8%A1-Super-V-Inter-DeeDee-288-%E0%B8%8B%E0%B8%B8%E0%B8%9B%E0%B9%80%E0%B8%9B%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%A7%E0%B8%B5-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89-%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%A8%E0%B8%B9%E0%B8%99%E0%B8%A2%E0%B9%8C%E0%B9%84%E0%B8%97%E0%B8%A2-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%9C%E0%B8%A1-i.55984205.16356764471?sp_atk=61467ef0-c438-4dc5-83be-0350115dffdb&amp;xptdk=61467ef0-c438-4dc5-83be-0350115dffdb</v>
+        <v>https://shopee.co.th/%E0%B8%AB%E0%B8%A7%E0%B8%B5%E2%80%8B-Aveda-25cm-%E0%B8%AB%E0%B8%A7%E0%B8%B5%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87-%E0%B8%AB%E0%B8%A7%E0%B8%B5%E0%B8%9C%E0%B8%A1-%E0%B8%AB%E0%B8%A7%E0%B8%B5%E0%B9%84%E0%B8%A1%E0%B9%89-%E0%B8%AB%E0%B8%A7%E0%B8%B5%E0%B8%99%E0%B8%A7%E0%B8%94%E0%B8%A8%E0%B8%A3%E0%B8%B5%E0%B8%A9%E0%B8%B0-%E0%B8%99%E0%B8%A7%E0%B8%94%E0%B8%94%E0%B8%B9%E0%B9%81%E0%B8%A5%E0%B8%A3%E0%B8%B2%E0%B8%81%E0%B8%9C%E0%B8%A1%E0%B9%80%E0%B8%AA%E0%B9%89%E0%B8%99%E0%B8%9C%E0%B8%A1%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%87%E0%B8%A8%E0%B8%A3%E0%B8%B5%E0%B8%A9%E0%B8%B0-%E0%B8%AB%E0%B8%A7%E0%B8%B5%E0%B9%84%E0%B8%94%E0%B8%A3%E0%B9%8C-%E0%B8%94%E0%B9%89%E0%B8%B2%E0%B8%A1%E0%B9%84%E0%B8%A1%E0%B9%89-%E0%B8%A1%E0%B8%B5%E0%B8%81%E0%B8%A5%E0%B9%88%E0%B8%AD%E0%B8%87-i.431683584.11335924088?sp_atk=0ea4c7f9-6a24-4a63-948a-aab8754909d5&amp;xptdk=0ea4c7f9-6a24-4a63-948a-aab8754909d5</v>
       </c>
       <c r="B30" t="str">
-        <v>https://down-th.img.susercontent.com/file/9d949b7aa5ed048d471369a61fc04a4f_tn</v>
+        <v>https://down-th.img.susercontent.com/file/692b6a01b693a17c55148e43792d7910_tn</v>
       </c>
       <c r="C30" t="str">
-        <v/>
+        <v>-67%</v>
       </c>
       <c r="D30" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="E30" t="str">
-        <v>ส่งไว ⏰ เครื่องหนีบผม Super V Inter DeeDee 288 ซุปเปอร์ วี เครื่องแท้ รับประกันศูนย์ไทย ที่หนีบผม</v>
+        <v>หวี​ Aveda 25cm หวีแปรง หวีผม หวีไม้ หวีนวดศรีษะ นวดดูแลรากผมเส้นผมหนังศรีษะ หวีไดร์ ด้ามไม้ มีกล่อง</v>
       </c>
       <c r="F30" t="str">
         <v/>
       </c>
       <c r="G30" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="H30" t="str">
-        <v>615</v>
+        <v>49</v>
       </c>
       <c r="I30" t="str">
-        <v>ขายแล้ว 29.5พัน ชิ้น</v>
+        <v>ขายแล้ว 35.1พัน ชิ้น</v>
       </c>
       <c r="J30" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K30" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="L30" t="str">
-        <v/>
+        <v>120</v>
       </c>
       <c r="M30" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="N30" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://shopee.co.th/%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B8%84%E0%B8%B2%E0%B8%A3%E0%B9%88%E0%B8%B2-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%AB%E0%B8%99%E0%B8%B2-%E0%B8%A2%E0%B8%B2%E0%B8%A7-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B9%8D%E0%B8%B2-i.273622042.5247274801?sp_atk=2822acb0-a6c7-405f-ad7e-6d5aba0bba24&amp;xptdk=2822acb0-a6c7-405f-ad7e-6d5aba0bba24</v>
+        <v>https://shopee.co.th/%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B8%84%E0%B8%B2%E0%B8%A3%E0%B9%88%E0%B8%B2-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%AB%E0%B8%99%E0%B8%B2-%E0%B8%A2%E0%B8%B2%E0%B8%A7-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B9%8D%E0%B8%B2-i.273622042.5247274801?sp_atk=e6c423e8-8c88-4757-a498-b8fbb555ebfd&amp;xptdk=e6c423e8-8c88-4757-a498-b8fbb555ebfd</v>
       </c>
       <c r="B31" t="str">
         <v>https://down-th.img.susercontent.com/file/th-11134201-23030-ywg4jvo4ncovaf_tn</v>
@@ -1720,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="str">
-        <v>ขายแล้ว 422.3พัน ชิ้น</v>
+        <v>ขายแล้ว 422.4พัน ชิ้น</v>
       </c>
       <c r="J31" t="str">
         <v>ต่างประเทศ</v>
@@ -1732,86 +1732,86 @@
         <v>9</v>
       </c>
       <c r="M31" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="N31" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B8%AA%E0%B9%88%E0%B8%87%EF%BC%81%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%993-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99-(50ML)-%E0%B8%96%E0%B8%B9%E0%B8%81%E0%B8%AA%E0%B8%B8%E0%B8%94%E0%B9%83%E0%B8%99%E0%B9%80%E0%B8%A7%E0%B9%87%E0%B8%9B-COOC-COCOSILIYA-MADEMOISELLE-50ML-i.530657498.17724065203?sp_atk=6a1ad968-4b92-4ed1-885f-7a0c37f3bb64&amp;xptdk=6a1ad968-4b92-4ed1-885f-7a0c37f3bb64</v>
+        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%81%E0%B8%B2%E0%B8%81%E0%B9%80%E0%B8%9E%E0%B8%8A%E0%B8%A3%E0%B8%9E%E0%B8%B4%E0%B8%A1%E0%B8%9E%E0%B9%8C%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%94%E0%B8%B2%E0%B8%A7-3-%E0%B8%A1%E0%B8%B4%E0%B8%95%E0%B8%B4%E0%B8%AD%E0%B8%B8%E0%B8%9B%E0%B8%81%E0%B8%A3%E0%B8%93%E0%B9%8C%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%95%E0%B8%81%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-i.104595979.5212283116?sp_atk=d918cba0-61d9-4b17-b504-f99f4a658a25&amp;xptdk=d918cba0-61d9-4b17-b504-f99f4a658a25</v>
       </c>
       <c r="B32" t="str">
-        <v>https://down-th.img.susercontent.com/file/b31a7af5a795ff1e86925db98d36571d_tn</v>
+        <v>https://down-th.img.susercontent.com/file/cd1d37a8ed8e22d5f04f2d77008eec85_tn</v>
       </c>
       <c r="C32" t="str">
-        <v/>
+        <v>-64%</v>
       </c>
       <c r="D32" t="str">
         <v/>
       </c>
       <c r="E32" t="str">
-        <v>สินค้าพร้อมจัดส่ง！น้ำหอมแฟชั่น3 กลิ่น (50ML) ถูกสุดในเว็ป  COOC  COCOSILIYA MADEMOISELLE 50ML</v>
+        <v>สติกเกอร์กากเพชรพิมพ์ลายดาว 3 มิติอุปกรณ์สําหรับตกแต่งเล็บ</v>
       </c>
       <c r="F32" t="str">
         <v/>
       </c>
       <c r="G32" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="H32" t="str">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="I32" t="str">
-        <v>ขายแล้ว 167.6พัน ชิ้น</v>
+        <v>ขายแล้ว 10.7พัน ชิ้น</v>
       </c>
       <c r="J32" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K32" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="L32" t="str">
-        <v/>
+        <v>6</v>
       </c>
       <c r="M32" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>ซื้อ 3 ชิ้น ลด 2%</v>
       </c>
       <c r="N32" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://shopee.co.th/%E3%80%90SHENZHOU%E3%80%91%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-51-100-24-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-i.171957933.17587584561?sp_atk=988e3b4c-3813-4734-958e-2d97030b9c90&amp;xptdk=988e3b4c-3813-4734-958e-2d97030b9c90</v>
+        <v>https://shopee.co.th/M265-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%81%E0%B8%94%E0%B8%94%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%89%E0%B9%88%E0%B8%B3%E0%B8%A7%E0%B8%B2%E0%B8%A7%E0%B8%9C%E0%B8%B8%E0%B8%94%E0%B8%9C%E0%B9%88%E0%B8%AD%E0%B8%87-%E0%B8%95%E0%B8%B1%E0%B8%A7%E0%B8%94%E0%B8%B1%E0%B8%87-%E0%B8%AB%E0%B8%A5%E0%B8%AD%E0%B8%94%E0%B8%A1%E0%B9%88%E0%B8%A7%E0%B8%87-SPF-35-PA-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%9440ML-i.274041486.22318921481?sp_atk=e86dccaf-7ca5-49fc-832a-13163757d53d&amp;xptdk=e86dccaf-7ca5-49fc-832a-13163757d53d</v>
       </c>
       <c r="B33" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-23010-noms2llbsvmv41_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-23010-jogggkxipdmv46_tn</v>
       </c>
       <c r="C33" t="str">
-        <v>-25%</v>
+        <v>-71%</v>
       </c>
       <c r="D33" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
       </c>
       <c r="E33" t="str">
-        <v>【SHENZHOU】เล็บปลอม 51-100 24 ชิ้น</v>
+        <v>M265 กันแดดผิวหน้าฉ่ำวาวผุดผ่อง ตัวดัง หลอดม่วง SPF 35 PA+++ ขนาด40ML</v>
       </c>
       <c r="F33" t="str">
         <v/>
       </c>
       <c r="G33" t="str">
-        <v>฿16</v>
+        <v>฿99</v>
       </c>
       <c r="H33" t="str">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I33" t="str">
-        <v>ขายแล้ว 22.3พัน ชิ้น</v>
+        <v>ขายแล้ว 29.6พัน ชิ้น</v>
       </c>
       <c r="J33" t="str">
-        <v>ต่างประเทศ</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K33" t="str">
         <v/>
@@ -1828,87 +1828,87 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://shopee.co.th/%E0%B8%AB%E0%B8%A7%E0%B8%B5%E2%80%8B-Aveda-25cm-%E0%B8%AB%E0%B8%A7%E0%B8%B5%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87-%E0%B8%AB%E0%B8%A7%E0%B8%B5%E0%B8%9C%E0%B8%A1-%E0%B8%AB%E0%B8%A7%E0%B8%B5%E0%B9%84%E0%B8%A1%E0%B9%89-%E0%B8%AB%E0%B8%A7%E0%B8%B5%E0%B8%99%E0%B8%A7%E0%B8%94%E0%B8%A8%E0%B8%A3%E0%B8%B5%E0%B8%A9%E0%B8%B0-%E0%B8%99%E0%B8%A7%E0%B8%94%E0%B8%94%E0%B8%B9%E0%B9%81%E0%B8%A5%E0%B8%A3%E0%B8%B2%E0%B8%81%E0%B8%9C%E0%B8%A1%E0%B9%80%E0%B8%AA%E0%B9%89%E0%B8%99%E0%B8%9C%E0%B8%A1%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%87%E0%B8%A8%E0%B8%A3%E0%B8%B5%E0%B8%A9%E0%B8%B0-%E0%B8%AB%E0%B8%A7%E0%B8%B5%E0%B9%84%E0%B8%94%E0%B8%A3%E0%B9%8C-%E0%B8%94%E0%B9%89%E0%B8%B2%E0%B8%A1%E0%B9%84%E0%B8%A1%E0%B9%89-%E0%B8%A1%E0%B8%B5%E0%B8%81%E0%B8%A5%E0%B9%88%E0%B8%AD%E0%B8%87-i.431683584.11335924088?sp_atk=1fecf89a-1769-4f6b-bbc4-b12fbe3475ae&amp;xptdk=1fecf89a-1769-4f6b-bbc4-b12fbe3475ae</v>
+        <v>https://shopee.co.th/%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%94%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2-%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%9A%E0%B8%99%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%A5%E0%B9%88%E0%B8%B2%E0%B8%87-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%94%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%9A%E0%B8%B2%E0%B8%87%E0%B8%AA%E0%B9%88%E0%B8%A7%E0%B8%99%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%81%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%8D%E0%B8%B5%E0%B9%88%E0%B8%9B%E0%B8%B8%E0%B9%88%E0%B8%99%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%94%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2-muji-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%95%E0%B9%88%E0%B8%AD%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2-i.149823108.13961213785?sp_atk=b0a75571-ca95-4346-b2b4-669280e8feb6&amp;xptdk=b0a75571-ca95-4346-b2b4-669280e8feb6</v>
       </c>
       <c r="B34" t="str">
-        <v>https://down-th.img.susercontent.com/file/692b6a01b693a17c55148e43792d7910_tn</v>
+        <v>https://down-th.img.susercontent.com/file/39fca6cb73f49e1ac7e3dce8f97d3f1a_tn</v>
       </c>
       <c r="C34" t="str">
-        <v>-67%</v>
+        <v>-96%</v>
       </c>
       <c r="D34" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
       </c>
       <c r="E34" t="str">
-        <v>หวี​ Aveda 25cm หวีแปรง หวีผม หวีไม้ หวีนวดศรีษะ นวดดูแลรากผมเส้นผมหนังศรีษะ หวีไดร์ ด้ามไม้ มีกล่อง</v>
+        <v>ที่ดัดขนตา, ขนตาบนและล่าง,ที่ดัดขนตาบางส่วนแบบพกพาขนาดเล็กของญี่ปุ่นและเกาหลี ที่ดัดขนตา muji เครื่องมือแต่งหน้าต่อขนตา</v>
       </c>
       <c r="F34" t="str">
         <v/>
       </c>
       <c r="G34" t="str">
-        <v>-</v>
+        <v>฿25</v>
       </c>
       <c r="H34" t="str">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="I34" t="str">
-        <v>ขายแล้ว 35.1พัน ชิ้น</v>
+        <v>ขายแล้ว 92.7พัน ชิ้น</v>
       </c>
       <c r="J34" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K34" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L34" t="str">
-        <v>120</v>
+        <v/>
       </c>
       <c r="M34" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="N34" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://shopee.co.th/%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%AA%E0%B8%AD%E0%B9%80%E0%B8%82%E0%B8%B5%E0%B8%A2%E0%B8%99%E0%B8%84%E0%B8%B4%E0%B9%89%E0%B8%A7-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AA%E0%B8%B3%E0%B8%AD%E0%B8%B2%E0%B8%87%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-i.250304267.4629875954?sp_atk=c0ce2970-64c4-4788-b71c-aa613e343d04&amp;xptdk=c0ce2970-64c4-4788-b71c-aa613e343d04</v>
+        <v>https://shopee.co.th/%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%AA%E0%B8%AD%E0%B9%80%E0%B8%82%E0%B8%B5%E0%B8%A2%E0%B8%99%E0%B8%84%E0%B8%B4%E0%B9%89%E0%B8%A7-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%AA%E0%B8%AD%E0%B9%80%E0%B8%82%E0%B8%B5%E0%B8%A2%E0%B8%99%E0%B8%84%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%AB%E0%B8%A1%E0%B8%B8%E0%B8%99-2-in-1-%E0%B8%A1%E0%B8%B5%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87%E0%B8%9B%E0%B8%B1%E0%B8%94%E0%B8%84%E0%B8%B4%E0%B9%89%E0%B8%A7%E0%B9%83%E0%B8%99%E0%B8%95%E0%B8%B1%E0%B8%A7-%E0%B8%A1%E0%B8%B5-5-%E0%B8%AA%E0%B8%B5%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B9%80%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%81-%E2%9A%A0%EF%B8%8F%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%E2%9A%A0%EF%B8%8F-i.284038002.10767868593?sp_atk=59babeb9-d405-429d-ae8d-707d96d68b66&amp;xptdk=59babeb9-d405-429d-ae8d-707d96d68b66</v>
       </c>
       <c r="B35" t="str">
-        <v>https://down-th.img.susercontent.com/file/bfac818517283878899c4f14b2c9555d_tn</v>
+        <v>https://down-th.img.susercontent.com/file/3458f0fe5f29aef0747a6289451a82a1_tn</v>
       </c>
       <c r="C35" t="str">
-        <v>-99%</v>
+        <v>-97%</v>
       </c>
       <c r="D35" t="str">
         <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="E35" t="str">
-        <v>ดินสอเขียนคิ้ว เครื่องสำอางสำหรับผู้หญิง</v>
+        <v>ดินสอเขียนคิ้ว กันน้ำ ดินสอเขียนคิ้วแบบหมุน 2 in 1 มีแปรงปัดคิ้วในตัว มี 5 สีให้เลือก ⚠️พร้อมส่ง⚠️</v>
       </c>
       <c r="F35" t="str">
         <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="G35" t="str">
-        <v>฿89</v>
+        <v>-</v>
       </c>
       <c r="H35" t="str">
         <v>1</v>
       </c>
       <c r="I35" t="str">
-        <v>ขายแล้ว 662.1พัน ชิ้น</v>
+        <v>ขายแล้ว 171.7พัน ชิ้น</v>
       </c>
       <c r="J35" t="str">
-        <v>ต่างประเทศ</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K35" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="L35" t="str">
-        <v/>
+        <v>7</v>
       </c>
       <c r="M35" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="N35" t="str">
         <v/>
@@ -1916,19 +1916,19 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B5%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-%E0%B9%82%E0%B8%A5%E0%B9%81%E0%B8%A5%E0%B8%99-%E0%B8%9E%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%8B%E0%B8%A5-%E0%B9%81%E0%B8%8A%E0%B8%A1%E0%B8%9E%E0%B8%B9%E0%B9%80%E0%B8%9E%E0%B8%B4%E0%B9%88%E0%B8%A1%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%81%E0%B8%B2%E0%B8%A2%E0%B8%AA%E0%B8%B5%E0%B8%9C%E0%B8%A1-Lolane-Pixxel-Shampoo-%E0%B9%80%E0%B8%97%E0%B8%B2-%E0%B8%A1%E0%B8%B52%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-i.156745030.4253831240?sp_atk=b0ec7e60-b6a7-4c1c-905a-71ef06d4b68c&amp;xptdk=b0ec7e60-b6a7-4c1c-905a-71ef06d4b68c</v>
+        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B5%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B9%81%E0%B8%9F%E0%B8%A5%E0%B8%8A%E0%B9%84%E0%B8%94%E0%B8%A1%E0%B8%AD%E0%B8%99%E0%B8%94%E0%B9%8C%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B8%95%E0%B9%80%E0%B8%95%E0%B8%AD%E0%B8%A3%E0%B9%8C-Annies-2023-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%A1%E0%B8%B1%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%9B%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%81%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-%E0%B8%A2%E0%B8%B2%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%AA%E0%B8%B5%E0%B9%83%E0%B8%AA-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%A2%E0%B8%B2%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%AA%E0%B8%B0%E0%B8%97%E0%B9%89%E0%B8%AD%E0%B8%99%E0%B9%81%E0%B8%AA%E0%B8%87%E0%B8%95%E0%B8%B2%E0%B9%81%E0%B8%A1%E0%B8%A7-%E0%B8%AA%E0%B8%B5%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%A2%E0%B8%B9%E0%B8%A7%E0%B8%B5-3D-%E0%B9%84%E0%B8%82%E0%B9%88%E0%B8%A1%E0%B8%B8%E0%B8%81-glitter-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-%E0%B9%80%E0%B8%A1%E0%B9%87%E0%B8%94%E0%B8%AA%E0%B8%B5%E0%B9%81%E0%B8%99%E0%B9%88%E0%B8%99-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%A1%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%95%E0%B9%88%E0%B8%AD%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%81%E0%B8%9F%E0%B8%A5%E0%B8%8A%E3%80%90Luun%E3%80%91-i.295447014.9720363391?sp_atk=70a61c8f-e675-4e05-b1f1-9769ccd1c68d&amp;xptdk=70a61c8f-e675-4e05-b1f1-9769ccd1c68d</v>
       </c>
       <c r="B36" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98s-lnje3ze90lyo6d_tn</v>
+        <v>https://down-th.img.susercontent.com/file/5fcdd421d81100f402ec54004cf1ace2_tn</v>
       </c>
       <c r="C36" t="str">
-        <v>-2%</v>
+        <v>-43%</v>
       </c>
       <c r="D36" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="E36" t="str">
-        <v>สีใหม่ #โลแลน พิกเซล #แชมพูเพิ่มประกายสีผม  #Lolane #Pixxel  #Shampoo #เทา มี2ขนาด</v>
+        <v>สีเจลแฟลชไดมอนด์กลิตเตอร์ Annies 2023 น้ำมันทาเล็บเปลือกใหม่ ยาทาเล็บเจลสีใส เจลยาทาเล็บสะท้อนแสงตาแมว สีเจล สีทาเล็บเจล เจลยูวี 3D ไข่มุก glitter ติดทนนาน เม็ดสีแน่น น้ำมันเล็บต่อเล็บแฟลช【Luun】</v>
       </c>
       <c r="F36" t="str">
         <v/>
@@ -1937,22 +1937,22 @@
         <v>-</v>
       </c>
       <c r="H36" t="str">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I36" t="str">
-        <v>ขายแล้ว 28.5พัน ชิ้น</v>
+        <v>ขายแล้ว 33.8พัน ชิ้น</v>
       </c>
       <c r="J36" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K36" t="str">
         <v>฿</v>
       </c>
       <c r="L36" t="str">
-        <v>283</v>
+        <v>52</v>
       </c>
       <c r="M36" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>ซื้อ 5 ชิ้น ลด ฿2</v>
       </c>
       <c r="N36" t="str">
         <v/>
@@ -1960,19 +1960,19 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://shopee.co.th/%E3%80%90%E0%B8%9F%E0%B8%A3%E0%B8%B5%E0%B8%81%E0%B8%B2%E0%B8%A7%E3%80%912022-%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88%E0%B8%A5%E0%B9%88%E0%B8%B2%E0%B8%AA%E0%B8%B8%E0%B8%94-24-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%9D%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%A8%E0%B8%AA-%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B9%84%E0%B8%99%E0%B8%8B%E0%B9%8C-%E0%B8%8A%E0%B8%B8%E0%B8%94-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%81%E0%B8%B2%E0%B8%A7-%E0%B8%AD%E0%B8%B0%E0%B8%84%E0%B8%A3%E0%B8%B4%E0%B8%A5%E0%B8%B4%E0%B8%84-%E0%B9%80%E0%B8%95%E0%B9%87%E0%B8%A1%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-COD-i.469166390.20519078583?sp_atk=2e0010db-9435-4dab-ba6a-3f79ed8ca9dc&amp;xptdk=2e0010db-9435-4dab-ba6a-3f79ed8ca9dc</v>
+        <v>https://shopee.co.th/%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%F0%9F%92%95%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%84%E0%B8%A7-%E0%B8%AA%E0%B8%B1%E0%B9%88%E0%B8%87-2-%E0%B8%82%E0%B8%A7%E0%B8%94-368%E0%B8%BF-%E0%B9%81%E0%B8%96%E0%B8%A1%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B9%8A%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1-Withat-EDP-i.739603544.23513036496?sp_atk=4b3e97fc-9e05-4628-95e4-13ce93c27a91&amp;xptdk=4b3e97fc-9e05-4628-95e4-13ce93c27a91</v>
       </c>
       <c r="B37" t="str">
         <v/>
       </c>
       <c r="C37" t="str">
-        <v>-92%</v>
+        <v>-55%</v>
       </c>
       <c r="D37" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v/>
       </c>
       <c r="E37" t="str">
-        <v>【ฟรีกาว】2022 ใหม่ล่าสุด 24 ชิ้น ฝรั่งเศส ปลอม ไนซ์ ชุด พร้อมกาว อะคริลิค เต็มเล็บ COD</v>
+        <v>พร้อมส่ง💕ส่งไว สั่ง 2 ขวด 368฿ แถมสติ๊กเกอร์ น้ำหอม Withat EDP</v>
       </c>
       <c r="F37" t="str">
         <v/>
@@ -1981,66 +1981,66 @@
         <v>-</v>
       </c>
       <c r="H37" t="str">
-        <v>4</v>
+        <v>199</v>
       </c>
       <c r="I37" t="str">
-        <v>ขายแล้ว 46.7พัน ชิ้น</v>
+        <v>ขายแล้ว 226.8พัน ชิ้น</v>
       </c>
       <c r="J37" t="str">
-        <v>ต่างประเทศ</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K37" t="str">
         <v>฿</v>
       </c>
       <c r="L37" t="str">
-        <v>20</v>
+        <v>995</v>
       </c>
       <c r="M37" t="str">
         <v/>
       </c>
       <c r="N37" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://shopee.co.th/%E0%B8%8A%E0%B8%B8%E0%B8%94%E0%B9%81%E0%B8%9B%E0%B8%A3%E0%B8%87%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%84%E0%B8%B2%E0%B8%9A%E0%B8%B8%E0%B8%81%E0%B8%B4-13-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%A3%E0%B8%AD%E0%B8%87%E0%B8%9E%E0%B8%B7%E0%B9%89%E0%B8%99-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-%E0%B8%9A%E0%B8%A5%E0%B8%B1%E0%B8%8A%E0%B8%AD%E0%B8%AD%E0%B8%99-i.281190147.19018499293?sp_atk=9233807f-30a0-441f-b40f-195ec4980e25&amp;xptdk=9233807f-30a0-441f-b40f-195ec4980e25</v>
+        <v>https://shopee.co.th/%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%9C%E0%B8%A1%E0%B8%A1%E0%B8%B4%E0%B8%99%E0%B8%B4-%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%A1%E0%B8%B4%E0%B8%99%E0%B8%B4-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-i.98842110.3812893367?sp_atk=9b4e6e95-9e8d-4146-bc33-987c6305c8da&amp;xptdk=9b4e6e95-9e8d-4146-bc33-987c6305c8da</v>
       </c>
       <c r="B38" t="str">
         <v/>
       </c>
       <c r="C38" t="str">
-        <v>-68%</v>
+        <v>-37%</v>
       </c>
       <c r="D38" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v/>
       </c>
       <c r="E38" t="str">
-        <v>ชุดแปรงแต่งหน้าคาบุกิ 13 ชิ้น รองพื้น อายแชโดว์ บลัชออน</v>
+        <v>เครื่องหนีบผมมินิ หนีบมินิ ขนาดพกพา</v>
       </c>
       <c r="F38" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v/>
       </c>
       <c r="G38" t="str">
         <v>-</v>
       </c>
       <c r="H38" t="str">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="I38" t="str">
-        <v>ขายแล้ว 58.6พัน ชิ้น</v>
+        <v>ขายแล้ว 56.1พัน ชิ้น</v>
       </c>
       <c r="J38" t="str">
-        <v>ต่างประเทศ</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K38" t="str">
         <v>฿</v>
       </c>
       <c r="L38" t="str">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="M38" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="N38" t="str">
         <v/>
@@ -2048,78 +2048,78 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://shopee.co.th/Dior-Addict-Lip-Maximizer-2ml-%E0%B8%94%E0%B8%B4%E0%B8%AD%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%81%E0%B8%A5%E0%B8%AD%E0%B8%AA%E0%B8%AA%E0%B8%B8%E0%B8%94%E0%B9%81%E0%B8%A7%E0%B8%A7%E0%B8%A7%E0%B8%B2%E0%B8%A7-%E0%B9%80%E0%B8%9A%E0%B8%B2%E0%B8%AA%E0%B8%9A%E0%B8%B2%E0%B8%A2.-i.70998059.21512170912?sp_atk=34b41355-0e3c-49c5-8a12-8d01d34aac61&amp;xptdk=34b41355-0e3c-49c5-8a12-8d01d34aac61</v>
+        <v>https://shopee.co.th/%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%AA%E0%B8%AD%E0%B9%80%E0%B8%82%E0%B8%B5%E0%B8%A2%E0%B8%99%E0%B8%84%E0%B8%B4%E0%B9%89%E0%B8%A7-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AA%E0%B8%B3%E0%B8%AD%E0%B8%B2%E0%B8%87%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-i.250304267.4629875954?sp_atk=6fe1f74e-4f79-4f87-8272-9af646fca15d&amp;xptdk=6fe1f74e-4f79-4f87-8272-9af646fca15d</v>
       </c>
       <c r="B39" t="str">
         <v/>
       </c>
       <c r="C39" t="str">
-        <v>-68%</v>
+        <v>-99%</v>
       </c>
       <c r="D39" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="E39" t="str">
-        <v>Dior Addict Lip Maximizer 2ml ดิออร์ ลิปกลอสสุดแวววาว เบาสบาย.</v>
+        <v>ดินสอเขียนคิ้ว เครื่องสำอางสำหรับผู้หญิง</v>
       </c>
       <c r="F39" t="str">
-        <v/>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="G39" t="str">
-        <v>-</v>
+        <v>฿89</v>
       </c>
       <c r="H39" t="str">
-        <v>174</v>
+        <v>1</v>
       </c>
       <c r="I39" t="str">
-        <v>ขายแล้ว 12.6พัน ชิ้น</v>
+        <v>ขายแล้ว 662.1พัน ชิ้น</v>
       </c>
       <c r="J39" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K39" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L39" t="str">
-        <v>349</v>
+        <v/>
       </c>
       <c r="M39" t="str">
         <v/>
       </c>
       <c r="N39" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://shopee.co.th/M265-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%81%E0%B8%94%E0%B8%94%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%89%E0%B9%88%E0%B8%B3%E0%B8%A7%E0%B8%B2%E0%B8%A7%E0%B8%9C%E0%B8%B8%E0%B8%94%E0%B8%9C%E0%B9%88%E0%B8%AD%E0%B8%87-%E0%B8%95%E0%B8%B1%E0%B8%A7%E0%B8%94%E0%B8%B1%E0%B8%87-%E0%B8%AB%E0%B8%A5%E0%B8%AD%E0%B8%94%E0%B8%A1%E0%B9%88%E0%B8%A7%E0%B8%87-SPF-35-PA-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%9440ML-i.274041486.22318921481?sp_atk=c6f0836e-aafc-4354-965f-edf39c6d6524&amp;xptdk=c6f0836e-aafc-4354-965f-edf39c6d6524</v>
+        <v>https://shopee.co.th/%E3%80%90SHENZHOU%E3%80%91%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-51-100-24-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-i.171957933.17587584561?sp_atk=9c27efb6-add0-4297-80d9-49c9b82c7386&amp;xptdk=9c27efb6-add0-4297-80d9-49c9b82c7386</v>
       </c>
       <c r="B40" t="str">
         <v/>
       </c>
       <c r="C40" t="str">
-        <v>-71%</v>
+        <v>-25%</v>
       </c>
       <c r="D40" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="E40" t="str">
-        <v>M265 กันแดดผิวหน้าฉ่ำวาวผุดผ่อง ตัวดัง หลอดม่วง SPF 35 PA+++ ขนาด40ML</v>
+        <v>【SHENZHOU】เล็บปลอม 51-100 24 ชิ้น</v>
       </c>
       <c r="F40" t="str">
         <v/>
       </c>
       <c r="G40" t="str">
-        <v>฿99</v>
+        <v>฿16</v>
       </c>
       <c r="H40" t="str">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I40" t="str">
-        <v>ขายแล้ว 29.6พัน ชิ้น</v>
+        <v>ขายแล้ว 22.3พัน ชิ้น</v>
       </c>
       <c r="J40" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K40" t="str">
         <v/>
@@ -2136,87 +2136,87 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%81%E0%B8%B2%E0%B8%81%E0%B9%80%E0%B8%9E%E0%B8%8A%E0%B8%A3%E0%B8%9E%E0%B8%B4%E0%B8%A1%E0%B8%9E%E0%B9%8C%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%94%E0%B8%B2%E0%B8%A7-3-%E0%B8%A1%E0%B8%B4%E0%B8%95%E0%B8%B4%E0%B8%AD%E0%B8%B8%E0%B8%9B%E0%B8%81%E0%B8%A3%E0%B8%93%E0%B9%8C%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%95%E0%B8%81%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-i.104595979.5212283116?sp_atk=40ce545d-1507-4a0a-9f2a-76a031d272c9&amp;xptdk=40ce545d-1507-4a0a-9f2a-76a031d272c9</v>
+        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B8%AA%E0%B9%88%E0%B8%87%EF%BC%81%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%993-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99-(50ML)-%E0%B8%96%E0%B8%B9%E0%B8%81%E0%B8%AA%E0%B8%B8%E0%B8%94%E0%B9%83%E0%B8%99%E0%B9%80%E0%B8%A7%E0%B9%87%E0%B8%9B-COOC-COCOSILIYA-MADEMOISELLE-50ML-i.530657498.17724065203?sp_atk=7382959b-263f-4e4d-b119-b2f61e5ab543&amp;xptdk=7382959b-263f-4e4d-b119-b2f61e5ab543</v>
       </c>
       <c r="B41" t="str">
         <v/>
       </c>
       <c r="C41" t="str">
-        <v>-64%</v>
+        <v/>
       </c>
       <c r="D41" t="str">
         <v/>
       </c>
       <c r="E41" t="str">
-        <v>สติกเกอร์กากเพชรพิมพ์ลายดาว 3 มิติอุปกรณ์สําหรับตกแต่งเล็บ</v>
+        <v>สินค้าพร้อมจัดส่ง！น้ำหอมแฟชั่น3 กลิ่น (50ML) ถูกสุดในเว็ป  COOC  COCOSILIYA MADEMOISELLE 50ML</v>
       </c>
       <c r="F41" t="str">
         <v/>
       </c>
       <c r="G41" t="str">
-        <v>-</v>
+        <v/>
       </c>
       <c r="H41" t="str">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I41" t="str">
-        <v>ขายแล้ว 10.7พัน ชิ้น</v>
+        <v>ขายแล้ว 167.7พัน ชิ้น</v>
       </c>
       <c r="J41" t="str">
-        <v>ต่างประเทศ</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K41" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L41" t="str">
-        <v>6</v>
+        <v/>
       </c>
       <c r="M41" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="N41" t="str">
-        <v>ซื้อ 3 ชิ้น ลด 2%</v>
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://shopee.co.th/%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%F0%9F%92%95%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%84%E0%B8%A7-%E0%B8%AA%E0%B8%B1%E0%B9%88%E0%B8%87-2-%E0%B8%82%E0%B8%A7%E0%B8%94-368%E0%B8%BF-%E0%B9%81%E0%B8%96%E0%B8%A1%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B9%8A%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1-Withat-EDP-i.739603544.23513036496?sp_atk=57115674-553b-4afa-9b4a-af57249bbef8&amp;xptdk=57115674-553b-4afa-9b4a-af57249bbef8</v>
+        <v>https://shopee.co.th/%F0%9F%94%A5%E0%B9%83%E0%B8%AA%E0%B9%88-BESTJ006-%E0%B8%A5%E0%B8%94%E0%B9%80%E0%B8%9E%E0%B8%B4%E0%B9%88%E0%B8%A1-15-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A1%E0%B8%B5%E0%B8%82%E0%B8%B1%E0%B9%89%E0%B8%99%E0%B8%95%E0%B9%88%E0%B8%B3%F0%9F%94%A5(F-009)%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%80%E0%B8%A3%E0%B9%87%E0%B8%A7%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B9%84%E0%B8%97%E0%B8%A2%F0%9F%9A%9A%E0%B8%84%E0%B9%88%E0%B8%B2%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%96%E0%B8%B9%E0%B8%81%E0%B8%AA%E0%B8%B8%E0%B8%94-2%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99-%E0%B8%8B%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B9%81%E0%B8%9B%E0%B8%B0%E0%B8%9C%E0%B8%A1-%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%9C%E0%B8%A1%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B9%87%E0%B8%9A%E0%B8%9C%E0%B8%A1-i.190438850.3623855081?sp_atk=2e226d14-105c-4708-8d76-df0940f75231&amp;xptdk=2e226d14-105c-4708-8d76-df0940f75231</v>
       </c>
       <c r="B42" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98p-lq7yxfem2twkaa_tn</v>
+        <v>https://down-th.img.susercontent.com/file/7d90710e59ccea8c12c5e7193a9c6fa0_tn</v>
       </c>
       <c r="C42" t="str">
-        <v>-55%</v>
+        <v>-83%</v>
       </c>
       <c r="D42" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="E42" t="str">
-        <v>พร้อมส่ง💕ส่งไว สั่ง 2 ขวด 368฿ แถมสติ๊กเกอร์ น้ำหอม Withat EDP</v>
+        <v>🔥ใส่ BESTJ006 ลดเพิ่ม 15% ไม่มีขั้นต่ำ🔥(F-009)ส่งเร็วจากไทย🚚ค่าส่งถูกสุด 2แผ่น/ซองแผ่นแปะผม แผ่นติดผมแต่งหน้า แผ่นเก็บผม</v>
       </c>
       <c r="F42" t="str">
-        <v/>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="G42" t="str">
-        <v>-</v>
+        <v>฿6</v>
       </c>
       <c r="H42" t="str">
-        <v>199</v>
+        <v>1</v>
       </c>
       <c r="I42" t="str">
-        <v>ขายแล้ว 226.8พัน ชิ้น</v>
+        <v>ขายแล้ว 2.3ล้าน ชิ้น</v>
       </c>
       <c r="J42" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
       <c r="K42" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L42" t="str">
-        <v>995</v>
+        <v/>
       </c>
       <c r="M42" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="N42" t="str">
         <v/>
@@ -2224,87 +2224,87 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://shopee.co.th/%E0%B8%9E%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B8%97%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-9-%E0%B8%AA%E0%B8%B5-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%A1%E0%B8%B1%E0%B8%99-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%83%E0%B8%A2%E0%B9%84%E0%B8%AB%E0%B8%A1-%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%81%E0%B8%B2%E0%B8%A2%E0%B8%8A%E0%B8%B4%E0%B8%A1%E0%B9%80%E0%B8%A1%E0%B8%AD%E0%B8%A3%E0%B9%8C-Eye-shadow-9-color-i.78064667.4178543666?sp_atk=d6070a24-fdb1-449d-b278-783e8eb15734&amp;xptdk=d6070a24-fdb1-449d-b278-783e8eb15734</v>
+        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89-%F0%9F%92%AFDIKALU-COCO-VENUS-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C%E0%B8%AA%E0%B8%B5%E0%B8%8A%E0%B8%B4%E0%B8%A1%E0%B9%80%E0%B8%A1%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89-%F0%9F%92%AFDIKALU-COCO-VENUS%E3%80%82-i.191552132.5404698352?sp_atk=e0404aea-beea-497f-8947-84c22ef1bc8f&amp;xptdk=e0404aea-beea-497f-8947-84c22ef1bc8f</v>
       </c>
       <c r="B43" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98r-lnlef2qzsqxzd2_tn</v>
+        <v>https://down-th.img.susercontent.com/file/f829a5cbaa38ef5f3cbc69511552ba6b_tn</v>
       </c>
       <c r="C43" t="str">
-        <v>-83%</v>
+        <v>-6%</v>
       </c>
       <c r="D43" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-fd6431bb654df9a365c12d5881603682</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="E43" t="str">
-        <v>พาเลทอายแชโดว์ 9 สี เนื้อดินน้ำมัน เนื้อใยไหม ประกายชิมเมอร์ Eye shadow 9 color</v>
+        <v>สินค้าของแท้ 💯DIKALU COCO VENUS อายแชโดว์สีชิมเมอร์กันน้ำ ----สินค้าของแท้ 💯DIKALU COCO VENUS。</v>
       </c>
       <c r="F43" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v/>
       </c>
       <c r="G43" t="str">
-        <v>-</v>
+        <v>฿53</v>
       </c>
       <c r="H43" t="str">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="I43" t="str">
-        <v>ขายแล้ว 55.5พัน ชิ้น</v>
+        <v>ขายแล้ว 88.6พัน ชิ้น</v>
       </c>
       <c r="J43" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K43" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L43" t="str">
-        <v>17</v>
+        <v/>
       </c>
       <c r="M43" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="N43" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://shopee.co.th/%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%84%E0%B8%9A%E0%B8%95%E0%B8%B2-%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B9%8C%E0%B8%81%E0%B8%95%E0%B8%B2%E0%B8%AD%E0%B8%B8%E0%B9%88%E0%B8%99-%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B8%9B%E0%B8%B4%E0%B8%94%E0%B8%95%E0%B8%B2%EF%BC%881-%E0%B9%81%E0%B8%9C%E0%B9%88%E0%B8%99-%EF%BC%89%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%9B%E0%B8%B4%E0%B8%94%E0%B8%95%E0%B8%B2-%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%84%E0%B8%9A%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%99%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%94%E0%B8%A7%E0%B8%87%E0%B8%95%E0%B8%B2-%E0%B8%A5%E0%B8%94%E0%B8%AD%E0%B8%B2%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%9B%E0%B8%A7%E0%B8%94%E0%B8%95%E0%B8%B2-i.299697925.18519773356?sp_atk=9ee1ba28-1725-413d-98b3-829e5af3d2af&amp;xptdk=9ee1ba28-1725-413d-98b3-829e5af3d2af</v>
+        <v>https://shopee.co.th/Kirei-Kirei-%E0%B9%82%E0%B8%9F%E0%B8%A1%E0%B8%A5%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD-%E0%B8%84%E0%B8%B4%E0%B9%80%E0%B8%A3%E0%B8%AD%E0%B8%B4-%E0%B8%84%E0%B8%B4%E0%B9%80%E0%B8%A3%E0%B8%AD%E0%B8%B4-%E0%B8%8A%E0%B8%99%E0%B8%B4%E0%B8%94%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B9%80%E0%B8%95%E0%B8%B4%E0%B8%A1-200-%E0%B8%A1%E0%B8%A5.-%E0%B8%81%E0%B8%A3%E0%B8%AD%E0%B8%81%E0%B9%82%E0%B8%84%E0%B9%89%E0%B8%94-DIMSTWV-%E0%B8%A5%E0%B8%94-40.--i.708767115.15561975129?sp_atk=f20d4444-ab77-4bd1-a264-72fa9cd0299a&amp;xptdk=f20d4444-ab77-4bd1-a264-72fa9cd0299a</v>
       </c>
       <c r="B44" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98r-loki0th9ym7335_tn</v>
+        <v>https://down-th.img.susercontent.com/file/eb5802441f0d786b038194793671c96f_tn</v>
       </c>
       <c r="C44" t="str">
-        <v>-88%</v>
+        <v>-29%</v>
       </c>
       <c r="D44" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
+        <v/>
       </c>
       <c r="E44" t="str">
-        <v>แผ่นประคบตา มาส์กตาอุ่น ผ้าปิดตา（1 แผ่น ）ที่ปิดตา ประคบร้อนที่ดวงตา ลดอาการปวดตา</v>
+        <v>Kirei Kirei โฟมล้างมือ คิเรอิ คิเรอิ ชนิดถุงเติม 200 มล. [กรอกโค้ด DIMSTWV ลด 40.-]</v>
       </c>
       <c r="F44" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v/>
       </c>
       <c r="G44" t="str">
-        <v>-</v>
+        <v>฿35</v>
       </c>
       <c r="H44" t="str">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I44" t="str">
-        <v>ขายแล้ว 201.8พัน ชิ้น</v>
+        <v>ขายแล้ว 58.7พัน ชิ้น</v>
       </c>
       <c r="J44" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K44" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L44" t="str">
-        <v>5</v>
+        <v/>
       </c>
       <c r="M44" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="N44" t="str">
         <v/>
@@ -2312,34 +2312,34 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%A2%E0%B8%B2%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%AA%E0%B8%B5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%97%E0%B8%B9%E0%B9%82%E0%B8%97%E0%B8%99-%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%A5%E0%B8%AD%E0%B8%81%E0%B9%84%E0%B8%94%E0%B9%89-%E0%B8%A2%E0%B8%B2%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-i.517276955.16882091979?sp_atk=7cec8f60-6b8d-4c56-b32a-e52b6ff3c6a0&amp;xptdk=7cec8f60-6b8d-4c56-b32a-e52b6ff3c6a0</v>
+        <v>https://shopee.co.th/LANBENA-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%9A%E0%B8%B2%E0%B8%A5%E0%B9%8C%E0%B8%A1-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B9%8C%E0%B8%81-%E0%B8%AA%E0%B8%B2%E0%B8%A3%E0%B8%AA%E0%B8%81%E0%B8%B1%E0%B8%94%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B8%98%E0%B8%A3%E0%B8%A3%E0%B8%A1%E0%B8%8A%E0%B8%B2%E0%B8%95%E0%B8%B4-%E0%B8%9A%E0%B8%B3%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B8%9B%E0%B8%B2%E0%B8%81%E0%B8%8A%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%8A%E0%B8%B7%E0%B9%88%E0%B8%99-i.86465195.2428889528?sp_atk=7a8d5e80-5484-44e2-939b-3e3771b3af7d&amp;xptdk=7a8d5e80-5484-44e2-939b-3e3771b3af7d</v>
       </c>
       <c r="B45" t="str">
-        <v>https://down-th.img.susercontent.com/file/45ab1c8f93680010db10ea92442d7c57_tn</v>
+        <v>https://down-th.img.susercontent.com/file/429ae1bc33940b0cc159fb05f73279e0_tn</v>
       </c>
       <c r="C45" t="str">
-        <v>-78%</v>
+        <v>-87%</v>
       </c>
       <c r="D45" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-d6d900f677f50efcf8aa1394468bbf73</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="E45" t="str">
-        <v>สีทาเล็บ น้ำยาทาเล็บ ทาเล็บ สีทาเล็บแบบทูโทน ทาเล็บลอกได้ ยาทาเล็บ</v>
+        <v>LANBENA ลิปบาล์ม ลิปมาส์ก สารสกัดจากธรรมชาติ บำรุงปากชุ่มชื่น</v>
       </c>
       <c r="F45" t="str">
         <v/>
       </c>
       <c r="G45" t="str">
-        <v>฿49</v>
+        <v>฿312</v>
       </c>
       <c r="H45" t="str">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="I45" t="str">
-        <v>ขายแล้ว 13พัน ชิ้น</v>
+        <v>ขายแล้ว 8.6พัน ชิ้น</v>
       </c>
       <c r="J45" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K45" t="str">
         <v/>
@@ -2356,19 +2356,19 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://shopee.co.th/%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B9%81%E0%B8%88%E0%B8%99%E0%B8%A2%E0%B8%B1%E0%B8%A7%E0%B8%A3%E0%B9%8C-Janua-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-30ml.-%E0%B9%81%E0%B8%9E%E0%B9%87%E0%B8%84%E0%B9%80%E0%B8%81%E0%B9%87%E0%B8%88%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-(%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87)-i.13357361.11585997871?sp_atk=1543ae50-b790-487d-aea0-8af75ab0dc29&amp;xptdk=1543ae50-b790-487d-aea0-8af75ab0dc29</v>
+        <v>https://shopee.co.th/%F0%9F%92%A5-%E0%B9%82%E0%B8%A5%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99-%E0%B8%AA%E0%B8%B8%E0%B8%94%E0%B8%AE%E0%B8%B4%E0%B8%95%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B8%94%E0%B8%B5%E0%B8%AA%E0%B8%B8%E0%B8%94-%F0%9F%92%A5-Mizumi-%E0%B8%A1%E0%B8%B4%E0%B8%8B%E0%B8%B6%E0%B8%A1%E0%B8%B4-Mistine-%E0%B8%A1%E0%B8%B4%E0%B8%AA%E0%B8%97%E0%B8%B5%E0%B8%99-NIVEA-%E0%B8%99%E0%B8%B5%E0%B9%80%E0%B8%A7%E0%B8%B5%E0%B8%A2-Johnson-%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%A1%E0%B8%9A%E0%B8%B3%E0%B8%A3%E0%B8%B8%E0%B8%87%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%81%E0%B8%B2%E0%B8%A2-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%81%E0%B8%94%E0%B8%94-%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%97%E0%B8%B2%E0%B8%9C%E0%B8%B4%E0%B8%A7-i.47072761.19940999181?sp_atk=65804c2e-85ca-4296-ad5b-039f86592cdb&amp;xptdk=65804c2e-85ca-4296-ad5b-039f86592cdb</v>
       </c>
       <c r="B46" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul8-lff8jiy21jn252_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r991-lob1sbksqjn4b4_tn</v>
       </c>
       <c r="C46" t="str">
-        <v/>
+        <v>-64%</v>
       </c>
       <c r="D46" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v/>
       </c>
       <c r="E46" t="str">
-        <v>น้ำหอมแจนยัวร์ Janua ขนาด 30ml. แพ็คเก็จใหม่ (พร้อมส่ง)</v>
+        <v>💥 โลชั่น สุดฮิตขายดีสุด 💥 Mizumi มิซึมิ , Mistine มิสทีน , NIVEA นีเวีย , Johnson เซรั่มบำรุงผิวกาย กันแดด ครีมทาผิว</v>
       </c>
       <c r="F46" t="str">
         <v/>
@@ -2377,189 +2377,189 @@
         <v>-</v>
       </c>
       <c r="H46" t="str">
-        <v>290</v>
+        <v>115</v>
       </c>
       <c r="I46" t="str">
-        <v>ขายแล้ว 6.8พัน ชิ้น</v>
+        <v>ขายแล้ว 16.2พัน ชิ้น</v>
       </c>
       <c r="J46" t="str">
-        <v>จังหวัดน่าน</v>
+        <v>จังหวัดนครราชสีมา</v>
       </c>
       <c r="K46" t="str">
         <v>฿</v>
       </c>
       <c r="L46" t="str">
-        <v>1,250</v>
+        <v>179</v>
       </c>
       <c r="M46" t="str">
         <v/>
       </c>
       <c r="N46" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://shopee.co.th/3-%E0%B8%AA%E0%B8%B5-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B8%95%E0%B9%80%E0%B8%95%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%AA%E0%B8%AD-%E0%B9%83%E0%B8%9A%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-%E0%B8%8A%E0%B8%B4%E0%B8%A1%E0%B9%80%E0%B8%A1%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B9%84%E0%B8%AE%E0%B9%84%E0%B8%A5%E0%B8%97%E0%B9%8C-%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%AA%E0%B8%B5-%E0%B8%AA%E0%B8%A7%E0%B9%88%E0%B8%B2%E0%B8%87-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B9%8D%E0%B8%B2-%E0%B9%84%E0%B8%AB%E0%B8%A1-%E0%B8%AB%E0%B8%99%E0%B8%AD%E0%B8%99-%E0%B9%81%E0%B8%95%E0%B9%88%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%95%E0%B8%B2-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AD%E0%B8%B2%E0%B8%87-i.76226901.15763408867?sp_atk=7de61a7a-76dd-49b5-8353-62592b41c8e3&amp;xptdk=7de61a7a-76dd-49b5-8353-62592b41c8e3</v>
+        <v>https://shopee.co.th/S-14%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B8%A1%E0%B8%B5%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%E2%9A%A1%EF%B8%8FCappuvini-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B8%AA%E0%B9%80%E0%B8%95%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%A5%E0%B8%B4%E0%B8%84%E0%B8%A7%E0%B8%B4%E0%B8%94-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C%E0%B9%84%E0%B8%AE%E0%B9%84%E0%B8%A5%E0%B8%97%E0%B9%8C-%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%81%E0%B8%B2%E0%B8%A2%E0%B8%A1%E0%B8%B8%E0%B8%81-%E0%B9%80%E0%B9%80%E0%B8%A7%E0%B8%A7%E0%B8%A7%E0%B8%B2%E0%B8%A7%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-i.250814349.14092316989?sp_atk=d407d581-f5c2-4684-9ca2-5f95567739d6&amp;xptdk=d407d581-f5c2-4684-9ca2-5f95567739d6</v>
       </c>
       <c r="B47" t="str">
-        <v>https://down-th.img.susercontent.com/file/6aa26d8ce655dac70e694a4bbc8ae344_tn</v>
+        <v>https://down-th.img.susercontent.com/file/df61e43671cd954554c89a8a73253642_tn</v>
       </c>
       <c r="C47" t="str">
-        <v>-87%</v>
+        <v>-61%</v>
       </c>
       <c r="D47" t="str">
         <v/>
       </c>
       <c r="E47" t="str">
-        <v>3 สี กลิตเตอร์ อายแชโดว์ ดินสอ / ใบหน้า อายแชโดว์ ชิมเมอร์ ไฮไลท์ แต่งหน้า สี / สว่าง กันน้ํา ไหม หนอน แต่งหน้า ตา เครื่องสําอาง</v>
+        <v>S-14สินค้ามีพร้อมส่ง⚡️Cappuvini อายแชโดว์กลิสเตอร์ เนื้อลิควิด อายแชโดว์ไฮไลท์ ประกายมุก เเวววาวกันน้ำ กันเหงื่อติดทนนาน</v>
       </c>
       <c r="F47" t="str">
         <v/>
       </c>
       <c r="G47" t="str">
-        <v>฿115</v>
+        <v>-</v>
       </c>
       <c r="H47" t="str">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I47" t="str">
-        <v>ขายแล้ว 22.3พัน ชิ้น</v>
+        <v>ขายแล้ว 16.5พัน ชิ้น</v>
       </c>
       <c r="J47" t="str">
-        <v>ต่างประเทศ</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K47" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="L47" t="str">
-        <v/>
+        <v>29</v>
       </c>
       <c r="M47" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="N47" t="str">
-        <v>ซื้อ 5 ชิ้น ลด 5%</v>
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>https://shopee.co.th/-9.15-%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B9%82%E0%B8%84%E0%B9%89%E0%B8%94-PSKX149-%E0%B8%A5%E0%B8%94%E0%B9%80%E0%B8%9E%E0%B8%B4%E0%B9%88%E0%B8%A1-25-KEMEI-%E0%B8%A3%E0%B8%B8%E0%B9%88%E0%B8%99-KM-5017-%E0%B8%9A%E0%B8%B1%E0%B8%95%E0%B8%95%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B8%B5%E0%B9%88%E0%B8%A2%E0%B8%99%E0%B8%95%E0%B8%B1%E0%B8%94%E0%B8%9C%E0%B8%A1%E0%B9%84%E0%B8%A3%E0%B9%89%E0%B8%AA%E0%B8%B2%E0%B8%A2-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%A3%E0%B8%AD%E0%B8%87%E0%B8%AB%E0%B8%A7%E0%B8%B5-4-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-i.33871790.2054358386?sp_atk=2c31ca35-ff60-42f6-bed5-2eb2de8b2c2f&amp;xptdk=2c31ca35-ff60-42f6-bed5-2eb2de8b2c2f</v>
+        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B5%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-%E0%B9%82%E0%B8%A5%E0%B9%81%E0%B8%A5%E0%B8%99-%E0%B8%9E%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%8B%E0%B8%A5-%E0%B9%81%E0%B8%8A%E0%B8%A1%E0%B8%9E%E0%B8%B9%E0%B9%80%E0%B8%9E%E0%B8%B4%E0%B9%88%E0%B8%A1%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%81%E0%B8%B2%E0%B8%A2%E0%B8%AA%E0%B8%B5%E0%B8%9C%E0%B8%A1-Lolane-Pixxel-Shampoo-%E0%B9%80%E0%B8%97%E0%B8%B2-%E0%B8%A1%E0%B8%B52%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-i.156745030.4253831240?sp_atk=d8a9d263-1d9e-496b-9a29-4311bbbb34e6&amp;xptdk=d8a9d263-1d9e-496b-9a29-4311bbbb34e6</v>
       </c>
       <c r="B48" t="str">
-        <v>https://down-th.img.susercontent.com/file/bf6728569e7f7a55ea84956d2039fac0_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98s-lnje3ze90lyo6d_tn</v>
       </c>
       <c r="C48" t="str">
-        <v>-79%</v>
+        <v>-2%</v>
       </c>
       <c r="D48" t="str">
         <v/>
       </c>
       <c r="E48" t="str">
-        <v>[9.15 ใส่โค้ด PSKX149 ลดเพิ่ม 25%] KEMEI รุ่น KM-5017 บัตตาเลี่ยนตัดผมไร้สาย พร้อมที่รองหวี 4 ชิ้น</v>
+        <v>สีใหม่ #โลแลน พิกเซล #แชมพูเพิ่มประกายสีผม  #Lolane #Pixxel  #Shampoo #เทา มี2ขนาด</v>
       </c>
       <c r="F48" t="str">
         <v/>
       </c>
       <c r="G48" t="str">
-        <v>฿899</v>
+        <v>-</v>
       </c>
       <c r="H48" t="str">
-        <v>193</v>
+        <v>95</v>
       </c>
       <c r="I48" t="str">
-        <v>ขายแล้ว 93.8พัน ชิ้น</v>
+        <v>ขายแล้ว 28.5พัน ชิ้น</v>
       </c>
       <c r="J48" t="str">
-        <v>จังหวัดปทุมธานี</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K48" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="L48" t="str">
-        <v/>
+        <v>283</v>
       </c>
       <c r="M48" t="str">
         <v/>
       </c>
       <c r="N48" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>https://shopee.co.th/%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%97%E0%B8%B2%E0%B8%A1%E0%B8%B7%E0%B8%AD-hand-cream-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99%E0%B8%AB%E0%B8%AD%E0%B8%A1-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%97%E0%B8%B2%E0%B8%A1%E0%B8%B7%E0%B8%AD-i.100890594.9702623185?sp_atk=6a3da408-cbc7-4547-857c-db53c24b4e9d&amp;xptdk=6a3da408-cbc7-4547-857c-db53c24b4e9d</v>
+        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B5%E0%B8%9C%E0%B8%B6%E0%B9%89%E0%B8%87%E0%B9%81%E0%B8%A1%E0%B9%88%E0%B9%80%E0%B8%A5%E0%B8%B5%E0%B8%A2%E0%B8%9A-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%95%E0%B8%A5%E0%B8%B1%E0%B8%9A-%E0%B9%81%E0%B8%A5%E0%B8%B0-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%AA%E0%B8%95%E0%B8%B7%E0%B9%8A%E0%B8%81%E0%B8%AA%E0%B8%9C%E0%B8%B6%E0%B9%89%E0%B8%87%E0%B9%81%E0%B8%A1%E0%B9%88%E0%B9%80%E0%B8%A5%E0%B8%B5%E0%B8%A2%E0%B8%9A-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%A1%E0%B8%B1%E0%B8%99-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%8A%E0%B9%88%E0%B8%A7%E0%B8%A2%E0%B8%9C%E0%B8%A5%E0%B8%B1%E0%B8%94%E0%B9%80%E0%B8%8B%E0%B8%A5%E0%B8%9C%E0%B8%B4%E0%B8%A7%E0%B8%9B%E0%B8%B2%E0%B8%81%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%84%E0%B8%A5%E0%B9%89%E0%B8%B3%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B9%80%E0%B8%9B%E0%B8%A5%E0%B8%B5%E0%B9%88%E0%B8%A2%E0%B8%99%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%AA%E0%B8%B5%E0%B8%8A%E0%B8%A1%E0%B8%9E%E0%B8%B9-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-3-2.4-%E0%B8%81%E0%B8%A3%E0%B8%B1%E0%B8%A1-i.18062071.176305290?sp_atk=4861a5fc-6308-4ba8-bc11-a58f3fcc983e&amp;xptdk=4861a5fc-6308-4ba8-bc11-a58f3fcc983e</v>
       </c>
       <c r="B49" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-22110-i5m3o58l7cjv88_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98o-lkxpyb5rlywc22_tn</v>
       </c>
       <c r="C49" t="str">
-        <v>-83%</v>
+        <v>-50%</v>
       </c>
       <c r="D49" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
       </c>
       <c r="E49" t="str">
-        <v>ครีมทามือ hand cream กลิ่นหอม สำหรับทามือ</v>
+        <v>สีผึ้งแม่เลียบ แบบตลับ และ ลิปสตื๊กสผึ้งแม่เลียบ ลิปมัน ที่ช่วยผลัดเซลผิวปากที่คล้ำให้เปลี่ยนเป็นสีชมพู ขนาด 3,2.4 กรัม</v>
       </c>
       <c r="F49" t="str">
-        <v/>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="G49" t="str">
-        <v>฿29</v>
+        <v>-</v>
       </c>
       <c r="H49" t="str">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I49" t="str">
-        <v>ขายแล้ว 93.9พัน ชิ้น</v>
+        <v>ขายแล้ว 58พัน ชิ้น</v>
       </c>
       <c r="J49" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K49" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="L49" t="str">
-        <v/>
+        <v>59</v>
       </c>
       <c r="M49" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="N49" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>https://shopee.co.th/Sleepy-Bear-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%AD%E0%B8%B8%E0%B8%94%E0%B8%AB%E0%B8%B9%E0%B9%80%E0%B8%A7%E0%B8%A5%E0%B8%B2%E0%B8%99%E0%B8%AD%E0%B8%99%E0%B8%94%E0%B8%B5%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%AA%E0%B8%B8%E0%B8%94-1-%E0%B8%84%E0%B8%B9%E0%B9%88-%E0%B8%A5%E0%B8%94%E0%B9%80%E0%B8%AA%E0%B8%B5%E0%B8%A2%E0%B8%87-%E0%B8%99%E0%B8%B8%E0%B9%88%E0%B8%A1-%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B8%AA%E0%B8%9A%E0%B8%B2%E0%B8%A2-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B9%80%E0%B8%88%E0%B9%87%E0%B8%9A%E0%B8%AB%E0%B8%B9-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%8B%E0%B9%89%E0%B8%B3%E0%B9%84%E0%B8%94%E0%B9%89-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AA%E0%B8%B5%E0%B8%A2%E0%B8%87%E0%B8%81%E0%B8%A3%E0%B8%99-Sleepybear-%E0%B8%8B%E0%B8%B4%E0%B8%A5%E0%B8%B4%E0%B9%82%E0%B8%84%E0%B8%99%E0%B8%AD%E0%B8%B8%E0%B8%94%E0%B8%AB%E0%B8%B9-i.376433227.8011078520?sp_atk=f56863c1-b806-4499-b001-d4f871ab8ea1&amp;xptdk=f56863c1-b806-4499-b001-d4f871ab8ea1</v>
+        <v>https://shopee.co.th/%E0%B8%8B%E0%B8%B7%E0%B9%89%E0%B8%AD1%E0%B9%81%E0%B8%96%E0%B8%A11%E0%B8%9F%E0%B8%A3%E0%B8%B5!!!-%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%88%E0%B8%B1%E0%B8%94%E0%B8%AA%E0%B9%88%E0%B8%87-%E0%B9%80%E0%B8%9E%E0%B8%B4%E0%B9%88%E0%B8%A1%E0%B8%A5%E0%B8%87%E0%B8%A3%E0%B8%B2%E0%B8%A2%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%8A%E0%B8%AD%E0%B8%9A%E0%B9%84%E0%B8%94%E0%B9%89%E0%B9%80%E0%B8%A5%E0%B8%A2%E0%B8%84%E0%B9%88%E0%B8%B0%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1-COOC-COCOSILIYA-EAU-DE-PARFUM-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%EF%BC%88-50MLX50-i.530657498.14571784074?sp_atk=495144a6-6caa-4024-963e-45d1e91a5fb4&amp;xptdk=495144a6-6caa-4024-963e-45d1e91a5fb4</v>
       </c>
       <c r="B50" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98w-lpb9wglthap5b0_tn</v>
+        <v>https://down-th.img.susercontent.com/file/84466357f7e162a308345eaed61a3e86_tn</v>
       </c>
       <c r="C50" t="str">
-        <v>-33%</v>
+        <v/>
       </c>
       <c r="D50" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v/>
       </c>
       <c r="E50" t="str">
-        <v>Sleepy Bear ที่อุดหูเวลานอนดีที่สุด 1 คู่ ลดเสียง นุ่ม ใส่สบาย ไม่เจ็บหู ใช้ซ้ำได้ กันเสียงกรน Sleepybear ซิลิโคนอุดหู</v>
+        <v>ซื้อ1แถม1ฟรี!!! สินค้าพร้อมจัดส่ง เพิ่มลงรายการที่ชอบได้เลยค่ะน้ำหอม COOC COCOSILIYA EAU DE PARFUM น้ำหอมแฟชั่น（ 50MLX50</v>
       </c>
       <c r="F50" t="str">
         <v/>
       </c>
       <c r="G50" t="str">
-        <v>฿89</v>
+        <v/>
       </c>
       <c r="H50" t="str">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="I50" t="str">
-        <v>ขายแล้ว 80.8พัน ชิ้น</v>
+        <v>ขายแล้ว 39.5พัน ชิ้น</v>
       </c>
       <c r="J50" t="str">
-        <v>จังหวัดนนทบุรี</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K50" t="str">
         <v/>
@@ -2568,86 +2568,86 @@
         <v/>
       </c>
       <c r="M50" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="N50" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89-%F0%9F%92%AFDIKALU-COCO-VENUS-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C%E0%B8%AA%E0%B8%B5%E0%B8%8A%E0%B8%B4%E0%B8%A1%E0%B9%80%E0%B8%A1%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%97%E0%B9%89-%F0%9F%92%AFDIKALU-COCO-VENUS%E3%80%82-i.191552132.5404698352?sp_atk=0be148ba-4b0e-43a9-ba23-65233f67383c&amp;xptdk=0be148ba-4b0e-43a9-ba23-65233f67383c</v>
+        <v>https://shopee.co.th/ODBO-SIGNATURE-EYESHADOW-PALETTE-OD276%E0%B9%82%E0%B8%AD%E0%B8%94%E0%B8%B5%E0%B8%9A%E0%B8%B5%E0%B9%82%E0%B8%AD-%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-%E0%B8%8B%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%99%E0%B9%80%E0%B8%88%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%9E%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B8%97-6-%E0%B8%AA%E0%B8%B5-%E0%B9%80%E0%B8%A1%E0%B9%87%E0%B8%94%E0%B8%AA%E0%B8%B5%E0%B9%81%E0%B9%81%E0%B8%99%E0%B9%88%E0%B8%99-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-i.97338386.21306930595?sp_atk=0ce8811d-8a7d-4ec8-b75a-7eed00efba34&amp;xptdk=0ce8811d-8a7d-4ec8-b75a-7eed00efba34</v>
       </c>
       <c r="B51" t="str">
-        <v>https://down-th.img.susercontent.com/file/f829a5cbaa38ef5f3cbc69511552ba6b_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r990-llsxtsaamx3b79_tn</v>
       </c>
       <c r="C51" t="str">
-        <v>-6%</v>
+        <v/>
       </c>
       <c r="D51" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v/>
       </c>
       <c r="E51" t="str">
-        <v>สินค้าของแท้ 💯DIKALU COCO VENUS อายแชโดว์สีชิมเมอร์กันน้ำ ----สินค้าของแท้ 💯DIKALU COCO VENUS。</v>
+        <v>ODBO SIGNATURE EYESHADOW PALETTE OD276โอดีบีโอ อายแชโดว์ ซิกเนเจอร์ พาเลท 6 สี เม็ดสีแแน่น ติดทนนาน</v>
       </c>
       <c r="F51" t="str">
         <v/>
       </c>
       <c r="G51" t="str">
-        <v>฿53</v>
+        <v>-</v>
       </c>
       <c r="H51" t="str">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="I51" t="str">
-        <v>ขายแล้ว 88.6พัน ชิ้น</v>
+        <v>ขายแล้ว 20.9พัน ชิ้น</v>
       </c>
       <c r="J51" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>จังหวัดสุรินทร์</v>
       </c>
       <c r="K51" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="L51" t="str">
-        <v/>
+        <v>115</v>
       </c>
       <c r="M51" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="N51" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>https://shopee.co.th/%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B8%84%E0%B8%B2%E0%B8%A3%E0%B9%88%E0%B8%B2%E0%B9%80%E0%B8%81%E0%B9%87%E0%B8%9A%E0%B9%84%E0%B8%A3%E0%B8%9C%E0%B8%A1-%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B8%84%E0%B8%B2%E0%B8%A3%E0%B9%88%E0%B8%B2%E0%B9%80%E0%B8%81%E0%B9%87%E0%B8%9A%E0%B8%A5%E0%B8%B9%E0%B8%81%E0%B8%9C%E0%B8%A1-%E0%B9%80%E0%B8%81%E0%B9%87%E0%B8%9A%E0%B8%A5%E0%B8%B9%E0%B8%81%E0%B8%9C%E0%B8%A1-%E0%B8%9C%E0%B8%A1%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A2%E0%B8%B8%E0%B9%88%E0%B8%87-%E0%B9%81%E0%B8%81%E0%B9%89%E0%B8%9B%E0%B8%B1%E0%B8%8D%E0%B8%AB%E0%B8%B2%E0%B8%AB%E0%B8%B1%E0%B8%A7%E0%B8%9F%E0%B8%B9-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B9%83%E0%B8%AA-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B9%80%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%A2%E0%B8%A7(442)-i.399297978.19811956612?sp_atk=bc13eb8e-8b8a-42ee-8408-ffaaceaac94a&amp;xptdk=bc13eb8e-8b8a-42ee-8408-ffaaceaac94a</v>
+        <v>https://shopee.co.th/%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%81%E0%B8%B2%E0%B8%A7-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B9%8D%E0%B8%B2-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%96%E0%B8%AD%E0%B8%94%E0%B8%AD%E0%B8%AD%E0%B8%81%E0%B9%84%E0%B8%94%E0%B9%89-%E0%B8%88%E0%B9%8D%E0%B8%B2%E0%B8%99%E0%B8%A7%E0%B8%99-24-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-i.566134482.13941876990?sp_atk=1d724a6d-56a1-438d-8664-85f7adee1577&amp;xptdk=1d724a6d-56a1-438d-8664-85f7adee1577</v>
       </c>
       <c r="B52" t="str">
-        <v>https://down-th.img.susercontent.com/file/f4274d83202803574acbb9fe31c0c973_tn</v>
+        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lq26f02kvghhaf_tn</v>
       </c>
       <c r="C52" t="str">
-        <v>-97%</v>
+        <v>-90%</v>
       </c>
       <c r="D52" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="E52" t="str">
-        <v>มาสคาร่าเก็บไรผม มาสคาร่าเก็บลูกผม เก็บลูกผม ผมไม่ยุ่ง แก้ปัญหาหัวฟู เจลใส ไม่เหนียว(442)</v>
+        <v>เล็บปลอม พร้อมกาว กันน้ํา แบบถอดออกได้ จํานวน 24 ชิ้น</v>
       </c>
       <c r="F52" t="str">
         <v/>
       </c>
       <c r="G52" t="str">
-        <v>฿39</v>
+        <v>฿100</v>
       </c>
       <c r="H52" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I52" t="str">
-        <v>ขายแล้ว 55.8พัน ชิ้น</v>
+        <v>ขายแล้ว 97.1พัน ชิ้น</v>
       </c>
       <c r="J52" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K52" t="str">
         <v/>
@@ -2659,39 +2659,39 @@
         <v/>
       </c>
       <c r="N52" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>https://shopee.co.th/Kirei-Kirei-%E0%B9%82%E0%B8%9F%E0%B8%A1%E0%B8%A5%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD-%E0%B8%84%E0%B8%B4%E0%B9%80%E0%B8%A3%E0%B8%AD%E0%B8%B4-%E0%B8%84%E0%B8%B4%E0%B9%80%E0%B8%A3%E0%B8%AD%E0%B8%B4-%E0%B8%8A%E0%B8%99%E0%B8%B4%E0%B8%94%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B9%80%E0%B8%95%E0%B8%B4%E0%B8%A1-200-%E0%B8%A1%E0%B8%A5.-%E0%B8%81%E0%B8%A3%E0%B8%AD%E0%B8%81%E0%B9%82%E0%B8%84%E0%B9%89%E0%B8%94-DIMSTWV-%E0%B8%A5%E0%B8%94-40.--i.708767115.15561975129?sp_atk=bb520ab3-02a5-417f-8fb0-bcd07cc7416e&amp;xptdk=bb520ab3-02a5-417f-8fb0-bcd07cc7416e</v>
+        <v>https://shopee.co.th/(6%E0%B8%8B%E0%B8%AD%E0%B8%87-%E0%B8%81%E0%B8%A5%E0%B9%88%E0%B8%AD%E0%B8%87)Clear-nose-Acne-Care-Solution-Serum-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%A3%E0%B9%8C%E0%B9%82%E0%B8%99%E0%B8%AA-%E0%B9%81%E0%B8%AD%E0%B8%84%E0%B9%80%E0%B8%99%E0%B9%88-%E0%B9%81%E0%B8%84%E0%B8%A3%E0%B9%8C-%E0%B9%82%E0%B8%8B%E0%B8%A5%E0%B8%B9%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99-%E0%B9%80%E0%B8%8B%E0%B8%A3%E0%B8%B1%E0%B9%88%E0%B8%A1-i.314059043.6257698711?sp_atk=0a28b944-6ca9-46db-982e-0298f71cd631&amp;xptdk=0a28b944-6ca9-46db-982e-0298f71cd631</v>
       </c>
       <c r="B53" t="str">
-        <v>https://down-th.img.susercontent.com/file/eb5802441f0d786b038194793671c96f_tn</v>
+        <v>https://down-th.img.susercontent.com/file/b9ba89248a8f6a57ca15f29d41f11fe1_tn</v>
       </c>
       <c r="C53" t="str">
-        <v>-29%</v>
+        <v/>
       </c>
       <c r="D53" t="str">
         <v/>
       </c>
       <c r="E53" t="str">
-        <v>Kirei Kirei โฟมล้างมือ คิเรอิ คิเรอิ ชนิดถุงเติม 200 มล. [กรอกโค้ด DIMSTWV ลด 40.-]</v>
+        <v>(6ซอง/กล่อง)Clear nose Acne Care Solution Serum เครียร์โนส แอคเน่ แคร์ โซลูชั่น เซรั่ม</v>
       </c>
       <c r="F53" t="str">
         <v/>
       </c>
       <c r="G53" t="str">
-        <v>฿35</v>
+        <v/>
       </c>
       <c r="H53" t="str">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="I53" t="str">
-        <v>ขายแล้ว 58.7พัน ชิ้น</v>
+        <v>ขายแล้ว 46.5พัน ชิ้น</v>
       </c>
       <c r="J53" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>จังหวัดมุกดาหาร</v>
       </c>
       <c r="K53" t="str">
         <v/>
@@ -2703,83 +2703,83 @@
         <v/>
       </c>
       <c r="N53" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>https://shopee.co.th/%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%9C%E0%B8%A1%E0%B8%A1%E0%B8%B4%E0%B8%99%E0%B8%B4-%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%A1%E0%B8%B4%E0%B8%99%E0%B8%B4-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-i.98842110.3812893367?sp_atk=bd6a0e9e-b1d2-4a14-9c60-70c74af67b09&amp;xptdk=bd6a0e9e-b1d2-4a14-9c60-70c74af67b09</v>
+        <v>https://shopee.co.th/%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%94%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%AA%E0%B9%80%E0%B8%95%E0%B8%99%E0%B9%80%E0%B8%A5%E0%B8%AA-%E0%B8%97%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%99-%E0%B8%A1%E0%B8%B5%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%AA%E0%B8%B4%E0%B8%97%E0%B8%98%E0%B8%B4%E0%B8%A0%E0%B8%B2%E0%B8%9E-%E0%B8%AD%E0%B8%B8%E0%B8%9B%E0%B8%81%E0%B8%A3%E0%B8%93%E0%B9%8C%E0%B9%80%E0%B8%AA%E0%B8%A3%E0%B8%B4%E0%B8%A1%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%87%E0%B8%B2%E0%B8%A1-i.198352103.14830895900?sp_atk=97458d0e-d47d-4e80-8170-11bde884a30a&amp;xptdk=97458d0e-d47d-4e80-8170-11bde884a30a</v>
       </c>
       <c r="B54" t="str">
-        <v>https://down-th.img.susercontent.com/file/1e7fbae13a1bc03be1a3fb644f1fd93c_tn</v>
+        <v>https://down-th.img.susercontent.com/file/f5d8747bd43b9a378171ff5e0615e9bc_tn</v>
       </c>
       <c r="C54" t="str">
-        <v>-37%</v>
+        <v>-94%</v>
       </c>
       <c r="D54" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="E54" t="str">
-        <v>เครื่องหนีบผมมินิ หนีบมินิ ขนาดพกพา</v>
+        <v>ที่ดัดขนตาปลอม สเตนเลส ทนทาน มีประสิทธิภาพ อุปกรณ์เสริมความงาม</v>
       </c>
       <c r="F54" t="str">
-        <v/>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="G54" t="str">
-        <v>-</v>
+        <v>฿16</v>
       </c>
       <c r="H54" t="str">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="I54" t="str">
-        <v>ขายแล้ว 56.1พัน ชิ้น</v>
+        <v>ขายแล้ว 94.8พัน ชิ้น</v>
       </c>
       <c r="J54" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K54" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L54" t="str">
-        <v>38</v>
+        <v/>
       </c>
       <c r="M54" t="str">
         <v/>
       </c>
       <c r="N54" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>https://shopee.co.th/%E0%B8%9E%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B8%95%E0%B8%95%E0%B9%8C%E0%B8%84%E0%B8%AD%E0%B8%99%E0%B8%8B%E0%B8%B5%E0%B8%A5%E0%B9%80%E0%B8%A5%E0%B8%AD%E0%B8%A3%E0%B9%8C-3-%E0%B8%AA%E0%B8%B5-%E0%B8%84%E0%B8%AD%E0%B8%99%E0%B8%97%E0%B8%B1%E0%B8%A7%E0%B8%A3%E0%B9%8C-%E0%B8%84%E0%B8%AD%E0%B8%99%E0%B8%97%E0%B8%B1%E0%B8%A7%E0%B8%A3%E0%B9%8C%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2-%E0%B8%9B%E0%B8%81%E0%B8%9B%E0%B8%B4%E0%B8%94%E0%B8%A3%E0%B8%AD%E0%B8%A2%E0%B8%84%E0%B8%A5%E0%B9%89%E0%B9%8D%E0%B8%B2%E0%B9%83%E0%B8%95%E0%B9%89%E0%B8%95%E0%B8%B2-i.148820479.21308831375?sp_atk=59205e82-4248-431e-b0e5-2d76cd795b65&amp;xptdk=59205e82-4248-431e-b0e5-2d76cd795b65</v>
+        <v>https://shopee.co.th/%F0%9F%8E%80%F0%9F%8E%80%E0%B8%A1%E0%B8%B2%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%F0%9F%8E%80%F0%9F%8E%80-Mascara-Waterproof-SHEDOES-%E0%B8%A1%E0%B8%B2%E0%B8%AA%E0%B8%84%E0%B8%B2%E0%B8%A3%E0%B9%88%E0%B8%B2%E0%B8%AA%E0%B8%B5%E0%B8%94%E0%B8%B3%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AB%E0%B8%87%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B9%80%E0%B8%A5%E0%B8%AD%E0%B8%B0-%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B9%80%E0%B8%9B%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%99-i.271462076.10097638634?sp_atk=cff59d63-b8f6-4662-a2f5-78d55f74f125&amp;xptdk=cff59d63-b8f6-4662-a2f5-78d55f74f125</v>
       </c>
       <c r="B55" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-22100-glx3j5uwc8iv16_tn</v>
+        <v>https://down-th.img.susercontent.com/file/494ecdcf7fb5d65917d38d96c713e64f_tn</v>
       </c>
       <c r="C55" t="str">
-        <v>-78%</v>
+        <v>-63%</v>
       </c>
       <c r="D55" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v/>
       </c>
       <c r="E55" t="str">
-        <v>พาเลตต์คอนซีลเลอร์ 3 สี คอนทัวร์ คอนทัวร์หน้า ปกปิดรอยคล้ําใต้ตา</v>
+        <v>🎀🎀มาใหม่พร้อมส่ง🎀🎀 Mascara Waterproof SHEDOES มาสคาร่าสีดำกันน้ำกันเหงื่อติดทน ไม่เลอะ ไม่เปื้อน</v>
       </c>
       <c r="F55" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v/>
       </c>
       <c r="G55" t="str">
-        <v>฿40</v>
+        <v>฿39</v>
       </c>
       <c r="H55" t="str">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I55" t="str">
-        <v>ขายแล้ว 69.2พัน ชิ้น</v>
+        <v>ขายแล้ว 62.6พัน ชิ้น</v>
       </c>
       <c r="J55" t="str">
-        <v>ต่างประเทศ</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K55" t="str">
         <v/>
@@ -2788,95 +2788,95 @@
         <v/>
       </c>
       <c r="M55" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="N55" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>https://shopee.co.th/%E0%B8%96%E0%B8%B9%E0%B8%81%E0%B8%AA%E0%B8%B8%E0%B8%94!%E0%B9%81%E0%B8%97%E0%B9%89%F0%9F%92%AF-Berina-Hair-Color-%E0%B9%80%E0%B8%9A%E0%B8%AD%E0%B8%A3%E0%B8%B5%E0%B8%99%E0%B9%88%E0%B8%B2-%E0%B8%AA%E0%B8%B5%E0%B8%A2%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%9C%E0%B8%A1-%E0%B8%AA%E0%B8%B5%E0%B8%9C%E0%B8%A1%E0%B9%80%E0%B8%9A%E0%B8%AD%E0%B8%A3%E0%B8%B4%E0%B8%99%E0%B9%88%E0%B8%B2-47%E0%B9%80%E0%B8%89%E0%B8%94%E0%B8%AA%E0%B8%B5-%E0%B9%80%E0%B8%9B%E0%B8%A5%E0%B9%88%E0%B8%87%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%81%E0%B8%B2%E0%B8%A2-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-%E0%B8%9B%E0%B8%B4%E0%B8%94%E0%B8%9C%E0%B8%A1%E0%B8%82%E0%B8%B2%E0%B8%A7-%E0%B9%80%E0%B8%9A%E0%B8%AD%E0%B8%A3%E0%B8%B4%E0%B8%99%E0%B9%88%E0%B8%B2-%E0%B9%80%E0%B8%9A%E0%B8%AD%E0%B8%A3%E0%B8%B4%E0%B8%99%E0%B9%88%E0%B8%B2-i.1159744.2345276993?sp_atk=bf4f368b-de11-46e4-acdb-bf4cbbefff9b&amp;xptdk=bf4f368b-de11-46e4-acdb-bf4cbbefff9b</v>
+        <v>https://shopee.co.th/%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%97%E0%B8%B2%E0%B8%A1%E0%B8%B7%E0%B8%AD-hand-cream-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99%E0%B8%AB%E0%B8%AD%E0%B8%A1-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%97%E0%B8%B2%E0%B8%A1%E0%B8%B7%E0%B8%AD-i.100890594.9702623185?sp_atk=05b5f515-d61b-4403-84da-da74447e752b&amp;xptdk=05b5f515-d61b-4403-84da-da74447e752b</v>
       </c>
       <c r="B56" t="str">
-        <v>https://down-th.img.susercontent.com/file/4a14624f5585af5ceaaff72808873fda_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-22110-i5m3o58l7cjv88_tn</v>
       </c>
       <c r="C56" t="str">
-        <v>-32%</v>
+        <v>-83%</v>
       </c>
       <c r="D56" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
+        <v/>
       </c>
       <c r="E56" t="str">
-        <v>ถูกสุด!แท้💯%Berina Hair Color เบอรีน่า สีย้อมผม สีผมเบอริน่า 47เฉดสี เปล่งประกาย ติดทนนาน ปิดผมขาว เบอริน่า เบอริน่า</v>
+        <v>ครีมทามือ hand cream กลิ่นหอม สำหรับทามือ</v>
       </c>
       <c r="F56" t="str">
         <v/>
       </c>
       <c r="G56" t="str">
-        <v>-</v>
+        <v>฿29</v>
       </c>
       <c r="H56" t="str">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="I56" t="str">
-        <v>ขายแล้ว 202.6พัน ชิ้น</v>
+        <v>ขายแล้ว 93.9พัน ชิ้น</v>
       </c>
       <c r="J56" t="str">
-        <v>จังหวัดลำปาง</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K56" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L56" t="str">
-        <v>43</v>
+        <v/>
       </c>
       <c r="M56" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="N56" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>https://shopee.co.th/%E0%B8%99%E0%B9%89%E0%B9%8D%E0%B8%B2%E0%B8%A2%E0%B8%B2%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%88%E0%B8%A5-%E0%B9%80%E0%B8%84%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%9A%E0%B9%80%E0%B8%87%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A%E0%B8%81%E0%B8%B6%E0%B9%88%E0%B8%87%E0%B8%96%E0%B8%B2%E0%B8%A7%E0%B8%A3-60-%E0%B8%AA%E0%B8%B5-i.523478166.21340791019?sp_atk=ba37aa88-a0c0-4edd-a6a5-d058b65678fe&amp;xptdk=ba37aa88-a0c0-4edd-a6a5-d058b65678fe</v>
+        <v>https://shopee.co.th/%E0%B8%8A%E0%B8%B8%E0%B8%94%E0%B9%84%E0%B8%A1%E0%B9%89%E0%B9%81%E0%B8%84%E0%B8%B0%E0%B8%AB%E0%B8%B9-%E0%B8%8A%E0%B8%B8%E0%B8%94%E0%B9%81%E0%B8%84%E0%B8%B0%E0%B8%AB%E0%B8%B9-%E0%B9%84%E0%B8%A1%E0%B9%89%E0%B9%81%E0%B8%84%E0%B8%B0%E0%B8%AB%E0%B8%B9-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B9%81%E0%B8%84%E0%B8%B0%E0%B8%AB%E0%B8%B9-%E0%B8%AA%E0%B9%81%E0%B8%95%E0%B8%99%E0%B9%80%E0%B8%A5%E0%B8%AA%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%AD%E0%B8%B2%E0%B8%8A%E0%B8%B5%E0%B8%9E-%E0%B8%84%E0%B8%A3%E0%B8%9A%E0%B8%8A%E0%B8%B8%E0%B8%94-6%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%97%E0%B8%B3%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%AA%E0%B8%B0%E0%B8%AD%E0%B8%B2%E0%B8%94%E0%B8%AB%E0%B8%B9%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%A1%E0%B8%B7%E0%B8%AD-Ear-pick-6in1-kit-Sutairu-i.448328557.21645894474?sp_atk=605d6ccb-e991-437a-be31-d792cf228edd&amp;xptdk=605d6ccb-e991-437a-be31-d792cf228edd</v>
       </c>
       <c r="B57" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-22120-e1gli54uaplv54_tn</v>
+        <v>https://down-th.img.susercontent.com/file/201f6bda1abdcdcdfe446ea7a859657c_tn</v>
       </c>
       <c r="C57" t="str">
-        <v>-65%</v>
+        <v>-76%</v>
       </c>
       <c r="D57" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v/>
       </c>
       <c r="E57" t="str">
-        <v>น้ํายาทาเล็บเจล เคลือบเงาเล็บกึ่งถาวร 60 สี</v>
+        <v>ชุดไม้แคะหู ชุดแคะหู ไม้แคะหู ที่แคะหู สแตนเลสมืออาชีพ ครบชุด 6ชิ้น ทำความสะอาดหูเครื่องมือ Ear pick 6in1 kit Sutairu</v>
       </c>
       <c r="F57" t="str">
         <v/>
       </c>
       <c r="G57" t="str">
-        <v>-</v>
+        <v>฿29</v>
       </c>
       <c r="H57" t="str">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I57" t="str">
-        <v>ขายแล้ว 59.5พัน ชิ้น</v>
+        <v>ขายแล้ว 36.3พัน ชิ้น</v>
       </c>
       <c r="J57" t="str">
-        <v>ต่างประเทศ</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
       <c r="K57" t="str">
-        <v>฿</v>
+        <v/>
       </c>
       <c r="L57" t="str">
-        <v>19</v>
+        <v/>
       </c>
       <c r="M57" t="str">
-        <v>ร้านแนะนำ</v>
+        <v>ซื้อ 6 ชิ้น ลด 2%</v>
       </c>
       <c r="N57" t="str">
         <v/>
@@ -2884,63 +2884,63 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>https://shopee.co.th/%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%94%E0%B8%B1%E0%B8%94%E0%B8%82%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%9B%E0%B8%A5%E0%B8%AD%E0%B8%A1-%E0%B8%AA%E0%B9%80%E0%B8%95%E0%B8%99%E0%B9%80%E0%B8%A5%E0%B8%AA-%E0%B8%97%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%99-%E0%B8%A1%E0%B8%B5%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%AA%E0%B8%B4%E0%B8%97%E0%B8%98%E0%B8%B4%E0%B8%A0%E0%B8%B2%E0%B8%9E-%E0%B8%AD%E0%B8%B8%E0%B8%9B%E0%B8%81%E0%B8%A3%E0%B8%93%E0%B9%8C%E0%B9%80%E0%B8%AA%E0%B8%A3%E0%B8%B4%E0%B8%A1%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%87%E0%B8%B2%E0%B8%A1-i.198352103.14830895900?sp_atk=af05f7bd-3c16-4292-819f-f1fc4940b64f&amp;xptdk=af05f7bd-3c16-4292-819f-f1fc4940b64f</v>
+        <v>https://shopee.co.th/%E0%B8%96%E0%B8%B9%E0%B8%81%E0%B8%AA%E0%B8%B8%E0%B8%94!%E0%B9%81%E0%B8%97%E0%B9%89%F0%9F%92%AF-Berina-Hair-Color-%E0%B9%80%E0%B8%9A%E0%B8%AD%E0%B8%A3%E0%B8%B5%E0%B8%99%E0%B9%88%E0%B8%B2-%E0%B8%AA%E0%B8%B5%E0%B8%A2%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%9C%E0%B8%A1-%E0%B8%AA%E0%B8%B5%E0%B8%9C%E0%B8%A1%E0%B9%80%E0%B8%9A%E0%B8%AD%E0%B8%A3%E0%B8%B4%E0%B8%99%E0%B9%88%E0%B8%B2-47%E0%B9%80%E0%B8%89%E0%B8%94%E0%B8%AA%E0%B8%B5-%E0%B9%80%E0%B8%9B%E0%B8%A5%E0%B9%88%E0%B8%87%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%81%E0%B8%B2%E0%B8%A2-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-%E0%B8%9B%E0%B8%B4%E0%B8%94%E0%B8%9C%E0%B8%A1%E0%B8%82%E0%B8%B2%E0%B8%A7-%E0%B9%80%E0%B8%9A%E0%B8%AD%E0%B8%A3%E0%B8%B4%E0%B8%99%E0%B9%88%E0%B8%B2-%E0%B9%80%E0%B8%9A%E0%B8%AD%E0%B8%A3%E0%B8%B4%E0%B8%99%E0%B9%88%E0%B8%B2-i.1159744.2345276993?sp_atk=251043e3-ddd5-4b99-a6b7-5b01cb54bc37&amp;xptdk=251043e3-ddd5-4b99-a6b7-5b01cb54bc37</v>
       </c>
       <c r="B58" t="str">
-        <v>https://down-th.img.susercontent.com/file/f5d8747bd43b9a378171ff5e0615e9bc_tn</v>
+        <v>https://down-th.img.susercontent.com/file/4a14624f5585af5ceaaff72808873fda_tn</v>
       </c>
       <c r="C58" t="str">
-        <v>-94%</v>
+        <v>-32%</v>
       </c>
       <c r="D58" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
       </c>
       <c r="E58" t="str">
-        <v>ที่ดัดขนตาปลอม สเตนเลส ทนทาน มีประสิทธิภาพ อุปกรณ์เสริมความงาม</v>
+        <v>ถูกสุด!แท้💯%Berina Hair Color เบอรีน่า สีย้อมผม สีผมเบอริน่า 47เฉดสี เปล่งประกาย ติดทนนาน ปิดผมขาว เบอริน่า เบอริน่า</v>
       </c>
       <c r="F58" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v/>
       </c>
       <c r="G58" t="str">
-        <v>฿16</v>
+        <v>-</v>
       </c>
       <c r="H58" t="str">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="I58" t="str">
-        <v>ขายแล้ว 94.8พัน ชิ้น</v>
+        <v>ขายแล้ว 202.6พัน ชิ้น</v>
       </c>
       <c r="J58" t="str">
-        <v>ต่างประเทศ</v>
+        <v>จังหวัดลำปาง</v>
       </c>
       <c r="K58" t="str">
-        <v/>
+        <v>฿</v>
       </c>
       <c r="L58" t="str">
-        <v/>
+        <v>43</v>
       </c>
       <c r="M58" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="N58" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>https://shopee.co.th/MR-shopee-%F0%9F%8C%B7LAMEILA%F0%9F%8C%B7%E0%B8%9E%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B8%97%E0%B8%AD%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%8A%E0%B9%82%E0%B8%94%E0%B8%A7%E0%B9%8C-9%E0%B8%AA%E0%B8%B5-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%A1%E0%B8%B1%E0%B8%99-%E0%B8%AA%E0%B8%B5%E0%B8%AA%E0%B8%A7%E0%B8%A2-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-9%E0%B8%8A%E0%B9%88%E0%B8%AD%E0%B8%87-i.267371241.5658068257?sp_atk=613bfc58-55be-4b85-ae78-0afd9e99b6a8&amp;xptdk=613bfc58-55be-4b85-ae78-0afd9e99b6a8</v>
+        <v>https://shopee.co.th/Abpopa-DAIMANPU%C2%AE-%E0%B8%A5%E0%B8%B4%E0%B8%9B%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B9%81%E0%B8%A1%E0%B8%95%E0%B8%95%E0%B9%8C-%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%A5%E0%B8%B5%E0%B9%88-%E0%B9%80%E0%B8%84%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%9A%E0%B9%80%E0%B8%87%E0%B8%B2-%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-i.93231183.21544411741?sp_atk=1e7dbdbe-30d9-4dd5-bb85-166c381184ac&amp;xptdk=1e7dbdbe-30d9-4dd5-bb85-166c381184ac</v>
       </c>
       <c r="B59" t="str">
-        <v>https://down-th.img.susercontent.com/file/a34603824c2202125100f45fb567fbb7_tn</v>
+        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-loay7nqcvrnr4a_tn</v>
       </c>
       <c r="C59" t="str">
-        <v>-90%</v>
+        <v>-67%</v>
       </c>
       <c r="D59" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="E59" t="str">
-        <v>MR shopee  🌷LAMEILA🌷พาเลทอายแชโดว์ 9สี เนื้อดินน้ำมัน สีสวย ติดทน กันน้ำ 9ช่อง</v>
+        <v>Abpopa DAIMANPU® ลิปสติก เนื้อแมตต์ เจลลี่ เคลือบเงา ติดทนนาน</v>
       </c>
       <c r="F59" t="str">
         <v/>
@@ -2949,42 +2949,42 @@
         <v>-</v>
       </c>
       <c r="H59" t="str">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="I59" t="str">
-        <v>ขายแล้ว 94.9พัน ชิ้น</v>
+        <v>ขายแล้ว 21.5พัน ชิ้น</v>
       </c>
       <c r="J59" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>ต่างประเทศ</v>
       </c>
       <c r="K59" t="str">
         <v>฿</v>
       </c>
       <c r="L59" t="str">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M59" t="str">
         <v/>
       </c>
       <c r="N59" t="str">
-        <v>ซื้อ 10 ชิ้น ลด 3%</v>
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>https://shopee.co.th/%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B8%A1%E0%B8%B2%E0%B8%94%E0%B8%B2%E0%B8%A1%E0%B8%9F%E0%B8%B4%E0%B8%99-%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-12-%E0%B8%8A%E0%B8%A1.-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-35-ML.-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%97%E0%B8%B5%E0%B8%A2%E0%B8%9A%E0%B9%81%E0%B8%97%E0%B9%89-i.52708754.7111781106?sp_atk=e866d6eb-4608-4cc6-98a8-935f0c2781c4&amp;xptdk=e866d6eb-4608-4cc6-98a8-935f0c2781c4</v>
+        <v>https://shopee.co.th/%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1-%E0%B9%82%E0%B8%A5%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B8%A1%E0%B8%B2%E0%B8%A2%E0%B8%8A%E0%B9%89%E0%B8%AD%E0%B8%A2%E0%B8%AA%E0%B9%8C-8-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-100-ml-%E0%B8%81%E0%B8%A5%E0%B8%B4%E0%B9%88%E0%B8%99%E0%B8%AB%E0%B8%AD%E0%B8%A1%E0%B8%95%E0%B8%B4%E0%B8%94%E0%B8%97%E0%B8%99%E0%B8%99%E0%B8%B2%E0%B8%99-Perfume-Body-Lotion-i.4102104.14558845296?sp_atk=983c9fe5-6097-4859-98ab-06173a3e8f64&amp;xptdk=983c9fe5-6097-4859-98ab-06173a3e8f64</v>
       </c>
       <c r="B60" t="str">
-        <v>https://down-th.img.susercontent.com/file/79a3baa10302f5f17e7c9ff03fcb2af6_tn</v>
+        <v>https://down-th.img.susercontent.com/file/cb7e73faa59ee1dacbcf5f412af89fc1_tn</v>
       </c>
       <c r="C60" t="str">
-        <v>-98%</v>
+        <v>-9%</v>
       </c>
       <c r="D60" t="str">
         <v/>
       </c>
       <c r="E60" t="str">
-        <v>น้ำหอมมาดามฟิน หอมติดทนนาน 12 ชม. ขนาด 35 ML. กลิ่นเทียบแท้</v>
+        <v>พร้อมส่ง น้ำหอม โลชั่นน้ำหอมมายช้อยส์ 8 กลิ่น ขนาด 100 ml กลิ่นหอมติดทนนาน Perfume Body Lotion</v>
       </c>
       <c r="F60" t="str">
         <v/>
@@ -2993,10 +2993,10 @@
         <v>-</v>
       </c>
       <c r="H60" t="str">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I60" t="str">
-        <v>ขายแล้ว 114.5พัน ชิ้น</v>
+        <v>ขายแล้ว 47.7พัน ชิ้น</v>
       </c>
       <c r="J60" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
@@ -3005,42 +3005,42 @@
         <v>฿</v>
       </c>
       <c r="L60" t="str">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="M60" t="str">
         <v/>
       </c>
       <c r="N60" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B5%E0%B9%83%E0%B8%AA-!%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2%E2%80%8B%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B8%94%E0%B8%B5%E2%80%8B-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%83%E0%B8%99%E0%B9%84%E0%B8%97%E0%B8%A2-%E0%B8%AA%E0%B8%B5%E0%B9%80%E0%B8%88%E0%B8%A5%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%A2%E0%B8%B2%E0%B8%97%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%9A-%E0%B8%97%E0%B8%B8%E0%B8%81%E2%80%8B%E0%B8%AA%E0%B8%B5%E0%B8%84%E0%B8%B8%E0%B8%93%E0%B8%A0%E0%B8%B2%E0%B8%9E%E0%B9%81%E0%B8%99%E0%B9%88%E0%B8%99%E0%B8%8A%E0%B8%B1%E0%B8%94%E0%B8%AA%E0%B8%A7%E0%B8%A2-%E0%B8%9B%E0%B8%A3%E0%B8%B4%E0%B8%A1%E0%B8%B2%E0%B8%93-8ml-%E0%B8%AA%E0%B8%B8%E0%B8%94%E0%B8%84%E0%B8%B8%E0%B9%89%E0%B8%A1-%E0%B8%95%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AD%E0%B8%9A-i.289345869.18322762084?sp_atk=e9d19715-5eec-4502-8a26-c5d07202b6a8&amp;xptdk=e9d19715-5eec-4502-8a26-c5d07202b6a8</v>
+        <v>https://shopee.co.th/%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%A1%E0%B9%89%E0%B8%A7%E0%B8%99%E0%B8%9C%E0%B8%A1-CB-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%A1%E0%B9%89%E0%B8%A7%E0%B8%99%E0%B8%9C%E0%B8%A1-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%A5%E0%B8%AD%E0%B8%99%E0%B8%9C%E0%B8%A1-%E0%B9%81%E0%B8%81%E0%B8%99%E0%B8%A1%E0%B9%89%E0%B8%A7%E0%B8%99%E0%B8%9C%E0%B8%A1-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%9C%E0%B8%A1-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%A5%E0%B8%AD%E0%B8%99%E0%B8%9C%E0%B8%A1-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B9%80%E0%B8%9B%E0%B8%B5%E0%B8%A2%E0%B8%81%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B9%81%E0%B8%AB%E0%B9%89%E0%B8%87-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%AB%E0%B8%99%E0%B8%B5%E0%B8%9A%E0%B8%9C%E0%B8%A1-i.431683584.9776438013?sp_atk=78fb1680-528a-4f33-8dc4-8e7b6ca8a5bb&amp;xptdk=78fb1680-528a-4f33-8dc4-8e7b6ca8a5bb</v>
       </c>
       <c r="B61" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98s-lmtncs5l6t8uc0_tn</v>
+        <v>https://down-th.img.susercontent.com/file/f2e0a118819e642dec188df1df7019db_tn</v>
       </c>
       <c r="C61" t="str">
-        <v>-59%</v>
+        <v>-38%</v>
       </c>
       <c r="D61" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-fd6431bb654df9a365c12d5881603682</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="E61" t="str">
-        <v>สีใส !สินค้า​ขายดี​ พร้อมส่งในไทย สีเจลทาเล็บ ยาทาเล็บ ทุก​สีคุณภาพแน่นชัดสวย ปริมาณ 8ml สุดคุ้ม ต้องใช้เครื่องอบ</v>
+        <v>เครื่องม้วนผม CB ที่ม้วนผม ที่ลอนผม แกนม้วนผม เครื่องหนีบผม เครื่องลอนผม แบบเปียกและแบบแห้ง ที่หนีบผม</v>
       </c>
       <c r="F61" t="str">
-        <v/>
+        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
       <c r="G61" t="str">
         <v>-</v>
       </c>
       <c r="H61" t="str">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="I61" t="str">
-        <v>ขายแล้ว 29.9พัน ชิ้น</v>
+        <v>ขายแล้ว 52.6พัน ชิ้น</v>
       </c>
       <c r="J61" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
@@ -3049,13 +3049,13 @@
         <v>฿</v>
       </c>
       <c r="L61" t="str">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="M61" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="N61" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
     </row>
   </sheetData>

--- a/Bot/Data_shopee/Data_1_1_1.xlsx
+++ b/Bot/Data_shopee/Data_1_1_1.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:L61"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -400,106 +400,97 @@
         <v>k9JZlv</v>
       </c>
       <c r="I1" t="str">
+        <v>bx++ig 2</v>
+      </c>
+      <c r="J1" t="str">
+        <v>k9JZlv 2</v>
+      </c>
+      <c r="K1" t="str">
         <v>OwmBnn</v>
       </c>
-      <c r="J1" t="str">
+      <c r="L1" t="str">
         <v>JVW3E2</v>
-      </c>
-      <c r="K1" t="str">
-        <v>bx++ig 2</v>
-      </c>
-      <c r="L1" t="str">
-        <v>k9JZlv 2</v>
-      </c>
-      <c r="M1" t="str">
-        <v>I0W76E</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://shopee.co.th/%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87-%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%AB%E0%B8%A5%E0%B9%88%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99-%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%87PU-i.415648330.19873815289?sp_atk=00ed7b55-a00d-4d73-b8ad-d9cf3308f2e4&amp;xptdk=00ed7b55-a00d-4d73-b8ad-d9cf3308f2e4</v>
+        <v>https://shopee.co.th/%E0%B8%9D%E0%B8%B2%E0%B8%84%E0%B8%A3%E0%B8%AD%E0%B8%9A%E0%B8%9B%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%A5%E0%B9%89%E0%B8%AD%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%87-%E0%B8%A5%E0%B8%94%E0%B9%80%E0%B8%AA%E0%B8%B5%E0%B8%A2%E0%B8%87%E0%B8%A3%E0%B8%9A%E0%B8%81%E0%B8%A7%E0%B8%99-%E0%B8%88%E0%B9%8D%E0%B8%B2%E0%B8%99%E0%B8%A7%E0%B8%99-8-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%95%E0%B9%88%E0%B8%AD%E0%B8%8A%E0%B8%B8%E0%B8%94-i.991638582.23675945446?sp_atk=0aadd2b1-bb84-4a5c-a4ed-c99cc3156340&amp;xptdk=0aadd2b1-bb84-4a5c-a4ed-c99cc3156340</v>
       </c>
       <c r="B2" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-23020-udrbxm8xkqnv65_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7qve5-lk2o32k9ge0u36_tn</v>
       </c>
       <c r="C2" t="str">
         <v>ร้านแนะนำ</v>
       </c>
       <c r="D2" t="str">
-        <v>-24%</v>
+        <v>-88%</v>
       </c>
       <c r="E2" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
       </c>
       <c r="F2" t="str">
-        <v>กระเป๋าสะพายข้าง สะพายไหล่แฟชั่น หนังPU</v>
+        <v>ฝาครอบป้องกันล้อกระเป๋าเดินทาง ลดเสียงรบกวน จํานวน 8 ชิ้น ต่อชุด</v>
       </c>
       <c r="G2" t="str">
-        <v>฿139</v>
+        <v>-</v>
       </c>
       <c r="H2" t="str">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="I2" t="str">
-        <v>ขายแล้ว 9.3พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="J2" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>35</v>
       </c>
       <c r="K2" t="str">
-        <v/>
+        <v>ขายแล้ว 10.9พัน ชิ้น</v>
       </c>
       <c r="L2" t="str">
-        <v/>
-      </c>
-      <c r="M2" t="str">
-        <v/>
+        <v>ต่างประเทศ</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://shopee.co.th/-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%96%E0%B8%B6%E0%B8%87%E0%B9%84%E0%B8%97%E0%B8%A2%E0%B9%80%E0%B9%80%E0%B8%A5%E0%B9%89%E0%B8%A7-Ugreen-Pouch-Bag-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B8%9E%E0%B8%B2%E0%B8%A7%E0%B9%80%E0%B8%A7%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B9%81%E0%B8%9A%E0%B8%87%E0%B8%84%E0%B9%8C-%E0%B8%97%E0%B8%B3%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%AA%E0%B8%B0%E0%B8%AD%E0%B8%B2%E0%B8%94%E0%B9%84%E0%B8%94%E0%B9%89-i.153078644.2534481311?sp_atk=7d0653fa-ded9-4e17-991c-232b7a2a2bcb&amp;xptdk=7d0653fa-ded9-4e17-991c-232b7a2a2bcb</v>
+        <v>https://shopee.co.th/%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87-%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%AB%E0%B8%A5%E0%B9%88%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99-%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%87PU-i.415648330.19873815289?sp_atk=9d67e2d0-9d89-4e59-8b80-33d4e74cc16a&amp;xptdk=9d67e2d0-9d89-4e59-8b80-33d4e74cc16a</v>
       </c>
       <c r="B3" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-22110-fxugyulteojva0_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-23020-udrbxm8xkqnv65_tn</v>
       </c>
       <c r="C3" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D3" t="str">
-        <v>-39%</v>
+        <v>-24%</v>
       </c>
       <c r="E3" t="str">
         <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F3" t="str">
-        <v>[พร้อมส่ง ของถึงไทยเเล้ว] Ugreen Pouch Bag กระเป๋าใส่พาวเวอร์แบงค์ ทำความสะอาดได้</v>
+        <v>กระเป๋าสะพายข้าง สะพายไหล่แฟชั่น หนังPU</v>
       </c>
       <c r="G3" t="str">
-        <v>฿80</v>
+        <v>฿139</v>
       </c>
       <c r="H3" t="str">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="I3" t="str">
-        <v>ขายแล้ว 12.7พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="J3" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v/>
       </c>
       <c r="K3" t="str">
-        <v/>
+        <v>ขายแล้ว 9.5พัน ชิ้น</v>
       </c>
       <c r="L3" t="str">
-        <v/>
-      </c>
-      <c r="M3" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://shopee.co.th/%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87-%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%AB%E0%B8%A5%E0%B9%88-i.415648330.20979204696?sp_atk=0355692d-581e-4854-8243-1a0c28c4090c&amp;xptdk=0355692d-581e-4854-8243-1a0c28c4090c</v>
+        <v>https://shopee.co.th/%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87-%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%AB%E0%B8%A5%E0%B9%88-i.415648330.20979204696?sp_atk=d4a3611d-e14c-431a-b515-56b418a54e19&amp;xptdk=d4a3611d-e14c-431a-b515-56b418a54e19</v>
       </c>
       <c r="B4" t="str">
         <v>https://down-th.img.susercontent.com/file/th-11134207-7qukx-lkhy26uldn1l5d_tn</v>
@@ -523,24 +514,21 @@
         <v>128</v>
       </c>
       <c r="I4" t="str">
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="str">
         <v>ขายแล้ว 3.4พัน ชิ้น</v>
       </c>
-      <c r="J4" t="str">
+      <c r="L4" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
-      </c>
-      <c r="K4" t="str">
-        <v/>
-      </c>
-      <c r="L4" t="str">
-        <v/>
-      </c>
-      <c r="M4" t="str">
-        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://shopee.co.th/%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%8A%E0%B8%B2%E0%B8%A2-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B8%AA%E0%B8%B5-%E0%B8%97%E0%B8%A3%E0%B8%87%E0%B8%AA%E0%B8%B5%E0%B9%88%E0%B9%80%E0%B8%AB%E0%B8%A5%E0%B8%B5%E0%B9%88%E0%B8%A2%E0%B8%A1%E0%B9%81%E0%B8%99%E0%B8%A7%E0%B8%99%E0%B8%AD%E0%B8%99-%E0%B8%A1%E0%B8%B5%E0%B8%AB%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%AA%E0%B8%B5%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B9%80%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%81-i.278259715.21226199357?sp_atk=f4480c97-1401-44f4-a4f3-63ad8f2aa1ee&amp;xptdk=f4480c97-1401-44f4-a4f3-63ad8f2aa1ee</v>
+        <v>https://shopee.co.th/%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%8A%E0%B8%B2%E0%B8%A2-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B8%AA%E0%B8%B5-%E0%B8%97%E0%B8%A3%E0%B8%87%E0%B8%AA%E0%B8%B5%E0%B9%88%E0%B9%80%E0%B8%AB%E0%B8%A5%E0%B8%B5%E0%B9%88%E0%B8%A2%E0%B8%A1%E0%B9%81%E0%B8%99%E0%B8%A7%E0%B8%99%E0%B8%AD%E0%B8%99-%E0%B8%A1%E0%B8%B5%E0%B8%AB%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%AA%E0%B8%B5%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B9%80%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%81-i.278259715.21226199357?sp_atk=db3061c2-9922-4eb8-90b3-fd3f3a34f195&amp;xptdk=db3061c2-9922-4eb8-90b3-fd3f3a34f195</v>
       </c>
       <c r="B5" t="str">
         <v>https://down-th.img.susercontent.com/file/6c8eac4d2c85dc5ab1ea82af3fcad726_tn</v>
@@ -564,65 +552,59 @@
         <v>83</v>
       </c>
       <c r="I5" t="str">
-        <v>ขายแล้ว 11.7พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="J5" t="str">
+        <v>90</v>
+      </c>
+      <c r="K5" t="str">
+        <v>ขายแล้ว 11.8พัน ชิ้น</v>
+      </c>
+      <c r="L5" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
-      </c>
-      <c r="K5" t="str">
-        <v>฿</v>
-      </c>
-      <c r="L5" t="str">
-        <v>90</v>
-      </c>
-      <c r="M5" t="str">
-        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://shopee.co.th/%E0%B8%9D%E0%B8%B2%E0%B8%84%E0%B8%A3%E0%B8%AD%E0%B8%9A%E0%B8%9B%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%A5%E0%B9%89%E0%B8%AD%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%87-%E0%B8%A5%E0%B8%94%E0%B9%80%E0%B8%AA%E0%B8%B5%E0%B8%A2%E0%B8%87%E0%B8%A3%E0%B8%9A%E0%B8%81%E0%B8%A7%E0%B8%99-%E0%B8%88%E0%B9%8D%E0%B8%B2%E0%B8%99%E0%B8%A7%E0%B8%99-8-%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99-%E0%B8%95%E0%B9%88%E0%B8%AD%E0%B8%8A%E0%B8%B8%E0%B8%94-i.991638582.23675945446?sp_atk=729647b7-8d08-4af3-94ce-79e2250aadbe&amp;xptdk=729647b7-8d08-4af3-94ce-79e2250aadbe</v>
+        <v>https://shopee.co.th/%F0%9F%94%A5%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%F0%9F%94%A5%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87-%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%87PU-%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%AB%E0%B8%A5%E0%B9%88-i.415648330.23782193118?sp_atk=dd1aedbc-4ca5-4d01-ba7b-1bfc9af1d393&amp;xptdk=dd1aedbc-4ca5-4d01-ba7b-1bfc9af1d393</v>
       </c>
       <c r="B6" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7qve5-lk2o32k9ge0u36_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98r-lmev663anrta90_tn</v>
       </c>
       <c r="C6" t="str">
         <v>ร้านแนะนำ</v>
       </c>
       <c r="D6" t="str">
-        <v>-88%</v>
+        <v>-38%</v>
       </c>
       <c r="E6" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F6" t="str">
-        <v>ฝาครอบป้องกันล้อกระเป๋าเดินทาง ลดเสียงรบกวน จํานวน 8 ชิ้น ต่อชุด</v>
+        <v>🔥พร้อมส่ง🔥กระเป๋าสะพายข้าง หนังPU แฟชั่น กันน้ำ กระเป๋าสะพายไหล่</v>
       </c>
       <c r="G6" t="str">
         <v>-</v>
       </c>
       <c r="H6" t="str">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="I6" t="str">
-        <v>ขายแล้ว 10.7พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="J6" t="str">
-        <v>ต่างประเทศ</v>
+        <v>139</v>
       </c>
       <c r="K6" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 664 ชิ้น</v>
       </c>
       <c r="L6" t="str">
-        <v>35</v>
-      </c>
-      <c r="M6" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://shopee.co.th/GUCSELECTED(B1832)-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87-%E0%B8%AA%E0%B8%B5%E0%B8%9E%E0%B8%B7%E0%B9%89%E0%B8%99-%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B9%84%E0%B8%99%E0%B8%A5%E0%B9%88%E0%B8%AD%E0%B8%99-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5(%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A1%E0%B8%B5%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%AB%E0%B9%89%E0%B8%AD%E0%B8%A2%E0%B9%81%E0%B8%96%E0%B8%A1)-i.13835021.14996369190?sp_atk=990498ed-de98-4ce6-b018-010d8fb430b4&amp;xptdk=990498ed-de98-4ce6-b018-010d8fb430b4</v>
+        <v>https://shopee.co.th/GUCSELECTED(B1832)-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87-%E0%B8%AA%E0%B8%B5%E0%B8%9E%E0%B8%B7%E0%B9%89%E0%B8%99-%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B9%84%E0%B8%99%E0%B8%A5%E0%B9%88%E0%B8%AD%E0%B8%99-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5(%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A1%E0%B8%B5%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%AB%E0%B9%89%E0%B8%AD%E0%B8%A2%E0%B9%81%E0%B8%96%E0%B8%A1)-i.13835021.14996369190?sp_atk=f9ce0516-8354-42e8-8269-41ed841ea0a1&amp;xptdk=f9ce0516-8354-42e8-8269-41ed841ea0a1</v>
       </c>
       <c r="B7" t="str">
         <v>https://down-th.img.susercontent.com/file/th-11134207-23020-1jfcu95f8cnv66_tn</v>
@@ -646,765 +628,708 @@
         <v>59</v>
       </c>
       <c r="I7" t="str">
-        <v>ขายแล้ว 4.3พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="J7" t="str">
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <v>ขายแล้ว 4.4พัน ชิ้น</v>
+      </c>
+      <c r="L7" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
-      </c>
-      <c r="K7" t="str">
-        <v/>
-      </c>
-      <c r="L7" t="str">
-        <v/>
-      </c>
-      <c r="M7" t="str">
-        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://shopee.co.th/%F0%9F%94%A5%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%F0%9F%94%A5%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87-%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%87PU-%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%AB%E0%B8%A5%E0%B9%88-i.415648330.23782193118?sp_atk=25f02771-e32d-4f70-894b-d9df7ab731c8&amp;xptdk=25f02771-e32d-4f70-894b-d9df7ab731c8</v>
+        <v>https://shopee.co.th/%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%F0%9F%9A%9A-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99-%E0%B8%97%E0%B8%A3%E0%B8%87%E0%B8%8B%E0%B8%B5%E0%B8%A3%E0%B8%B5%E0%B8%99-%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%80%E0%B8%A7%E0%B9%89%E0%B8%B2%E0%B9%81%E0%B8%82%E0%B8%99%E0%B8%AE%E0%B8%B4%E0%B8%95%E0%B8%A1%E0%B8%B2%E0%B8%81-%E0%B8%AA%E0%B8%B2%E0%B8%A2%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%87-i.415648330.20945302552?sp_atk=92d36e31-5e1a-4b23-9448-dd81e508d9fa&amp;xptdk=92d36e31-5e1a-4b23-9448-dd81e508d9fa</v>
       </c>
       <c r="B8" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98r-lmev663anrta90_tn</v>
+        <v>https://down-th.img.susercontent.com/file/d632da5d27f7ecc82ce45af132cc330c_tn</v>
       </c>
       <c r="C8" t="str">
         <v>ร้านแนะนำ</v>
       </c>
       <c r="D8" t="str">
-        <v>-38%</v>
+        <v>-51%</v>
       </c>
       <c r="E8" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
       </c>
       <c r="F8" t="str">
-        <v>🔥พร้อมส่ง🔥กระเป๋าสะพายข้าง หนังPU แฟชั่น กันน้ำ กระเป๋าสะพายไหล่</v>
+        <v>พร้อมส่ง🚚  กระเป๋าแฟชั่น ทรงซีรีน สะพายข้าง กระเป๋าเว้าแขนฮิตมาก  สายหนัง</v>
       </c>
       <c r="G8" t="str">
         <v>-</v>
       </c>
       <c r="H8" t="str">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="I8" t="str">
-        <v>ขายแล้ว 629 ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="J8" t="str">
+        <v>139</v>
+      </c>
+      <c r="K8" t="str">
+        <v>ขายแล้ว 7.1พัน ชิ้น</v>
+      </c>
+      <c r="L8" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
-      </c>
-      <c r="K8" t="str">
-        <v>฿</v>
-      </c>
-      <c r="L8" t="str">
-        <v>139</v>
-      </c>
-      <c r="M8" t="str">
-        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://shopee.co.th/kingshopping-(%E0%B8%A3%E0%B9%89%E0%B8%B2%E0%B8%99%E0%B9%84%E0%B8%97%E0%B8%A2)-%E0%B8%82%E0%B8%A7%E0%B8%94%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A3%E0%B8%A2%E0%B9%8C%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%9420ml-%E0%B8%AA%E0%B8%B2%E0%B8%A1%E0%B8%B2%E0%B8%A3%E0%B8%96%E0%B9%80%E0%B8%95%E0%B8%B4%E0%B8%A1%E0%B9%81%E0%B8%AD%E0%B8%A5%E0%B8%81%E0%B8%AD%E0%B8%AE%E0%B8%AD%E0%B8%A5%E0%B9%8C%E0%B8%8B%E0%B9%89%E0%B8%B3%E0%B9%84%E0%B8%94%E0%B9%89-(Refill)-%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A3%E0%B8%A2%E0%B9%8C%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1-%E0%B9%81%E0%B8%AD%E0%B8%A5%E0%B8%81%E0%B8%AD%E0%B8%AE%E0%B8%AD%E0%B8%A5%E0%B9%8C-CY664-i.162894152.10218624249?sp_atk=274c9c01-ef6b-4e05-8b05-f570e6023c62&amp;xptdk=274c9c01-ef6b-4e05-8b05-f570e6023c62</v>
+        <v>https://shopee.co.th/%F0%9D%91%AC%F0%9D%91%BD%F0%9D%91%AC-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%80%E0%B8%9B%E0%B9%89%E0%B9%80%E0%B8%8B%E0%B8%954%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99%E0%B8%AB%E0%B8%A1%E0%B8%B5%E0%B8%99%E0%B9%89%E0%B8%AD%E0%B8%A2%E0%B8%AA%E0%B8%B5%E0%B8%9E%E0%B8%B7%E0%B9%89%E0%B8%99%E0%B8%88%E0%B8%B8%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%84%E0%B8%94%E0%B9%89%E0%B9%80%E0%B8%A2%E0%B8%AD%E0%B8%B0%E0%B8%AA%E0%B8%B8%E0%B8%94%E0%B8%84%E0%B8%B8%E0%B9%89%E0%B8%A1-2022-%E0%B9%80%E0%B8%97%E0%B8%A3%E0%B8%99%E0%B8%94%E0%B9%8C%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%80%E0%B8%9B%E0%B9%89%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B9%86-(E-232)-i.37723018.4556319398?sp_atk=3334dd40-2e1b-4a38-984c-c7c742f4671b&amp;xptdk=3334dd40-2e1b-4a38-984c-c7c742f4671b</v>
       </c>
       <c r="B9" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul1-lfuzorecnlsfc9_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbka-lma06x8wxzkbc8_tn</v>
       </c>
       <c r="C9" t="str">
         <v>ร้านแนะนำ</v>
       </c>
       <c r="D9" t="str">
-        <v>-80%</v>
+        <v>-63%</v>
       </c>
       <c r="E9" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F9" t="str">
-        <v>kingshopping (ร้านไทย) ขวดสเปรย์การ์ด20ml สามารถเติมแอลกอฮอล์ซ้ำได้  (Refill) สเปรย์น้ำหอม แอลกอฮอล์ CY664</v>
+        <v>𝑬𝑽𝑬 กระเป๋าเป้เซต4ชิ้นหมีน้อยสีพื้นจุของได้เยอะสุดคุ้ม 2022 เทรนด์แฟชั่นกระเป๋าเป้น่ารักๆ (E-232)</v>
       </c>
       <c r="G9" t="str">
-        <v>฿15</v>
+        <v>-</v>
       </c>
       <c r="H9" t="str">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="I9" t="str">
-        <v>ขายแล้ว 528.8พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="J9" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>169</v>
       </c>
       <c r="K9" t="str">
-        <v/>
+        <v>ขายแล้ว 12.6พัน ชิ้น</v>
       </c>
       <c r="L9" t="str">
-        <v/>
-      </c>
-      <c r="M9" t="str">
-        <v/>
+        <v>จังหวัดนนทบุรี</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://shopee.co.th/BEZ-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%87%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%81-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%87-%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%87%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%81-luggage-scale-travel-i.378343069.20477159428?sp_atk=e0f1bc2d-133d-4a32-8a69-445d7d8b9c53&amp;xptdk=e0f1bc2d-133d-4a32-8a69-445d7d8b9c53</v>
+        <v>https://shopee.co.th/(B-514)%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%87%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B8%A1%E0%B8%B2%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-i.26237854.17259728857?sp_atk=0d1c7906-4a43-4ac0-b950-457d3aee8458&amp;xptdk=0d1c7906-4a43-4ac0-b950-457d3aee8458</v>
       </c>
       <c r="B10" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qula-lev8lrlybk7l1f_tn</v>
+        <v>https://down-th.img.susercontent.com/file/600e2bdf45225d05e2d391da1a5c6bce_tn</v>
       </c>
       <c r="C10" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D10" t="str">
-        <v>-49%</v>
+        <v>-26%</v>
       </c>
       <c r="E10" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="F10" t="str">
-        <v>BEZ ที่ชั่งน้ำหนัก กระเป๋าเดินทาง เครื่องชั่งน้ำหนัก luggage scale travel</v>
+        <v>(B-514)กระเป๋าหนังสำหรับผู้หญิง กระเป๋าสะพายข้าง สไตล์เกาหลี แฟชั่นมาใหม่</v>
       </c>
       <c r="G10" t="str">
-        <v>฿329</v>
+        <v>-</v>
       </c>
       <c r="H10" t="str">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="I10" t="str">
-        <v>ขายแล้ว 3พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="J10" t="str">
-        <v>จังหวัดนนทบุรี</v>
+        <v>89</v>
       </c>
       <c r="K10" t="str">
-        <v/>
+        <v>ขายแล้ว 30.7พัน ชิ้น</v>
       </c>
       <c r="L10" t="str">
-        <v/>
-      </c>
-      <c r="M10" t="str">
-        <v/>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://shopee.co.th/%F0%9D%91%AC%F0%9D%91%BD%F0%9D%91%AC-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%80%E0%B8%9B%E0%B9%89%E0%B9%80%E0%B8%8B%E0%B8%954%E0%B8%8A%E0%B8%B4%E0%B9%89%E0%B8%99%E0%B8%AB%E0%B8%A1%E0%B8%B5%E0%B8%99%E0%B9%89%E0%B8%AD%E0%B8%A2%E0%B8%AA%E0%B8%B5%E0%B8%9E%E0%B8%B7%E0%B9%89%E0%B8%99%E0%B8%88%E0%B8%B8%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%84%E0%B8%94%E0%B9%89%E0%B9%80%E0%B8%A2%E0%B8%AD%E0%B8%B0%E0%B8%AA%E0%B8%B8%E0%B8%94%E0%B8%84%E0%B8%B8%E0%B9%89%E0%B8%A1-2022-%E0%B9%80%E0%B8%97%E0%B8%A3%E0%B8%99%E0%B8%94%E0%B9%8C%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%80%E0%B8%9B%E0%B9%89%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B9%86-(E-232)-i.37723018.4556319398?sp_atk=98f02e6c-9588-4446-9ce4-88ac6d73a956&amp;xptdk=98f02e6c-9588-4446-9ce4-88ac6d73a956</v>
+        <v>https://shopee.co.th/(B-233)%F0%9F%94%A5-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87-%E0%B8%88%E0%B8%B8%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%84%E0%B8%94%E0%B9%89%E0%B9%80%E0%B8%A2%E0%B8%AD%E0%B8%B0-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-%E0%B9%80%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%9A%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-%E0%B8%A1%E0%B8%B5%E0%B8%8B%E0%B8%B4%E0%B8%9B-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-%E0%B9%83%E0%B8%9A%E0%B9%83%E0%B8%AB%E0%B8%8D%E0%B9%88-HOOTO-i.26237854.18191370560?sp_atk=1fce6c39-ea77-43ee-920d-e62cb977d696&amp;xptdk=1fce6c39-ea77-43ee-920d-e62cb977d696</v>
       </c>
       <c r="B11" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbka-lma06x8wxzkbc8_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbkc-lman6m90mzi18b_tn</v>
       </c>
       <c r="C11" t="str">
         <v>ร้านแนะนำ</v>
       </c>
       <c r="D11" t="str">
-        <v>-63%</v>
+        <v>-50%</v>
       </c>
       <c r="E11" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F11" t="str">
-        <v>𝑬𝑽𝑬 กระเป๋าเป้เซต4ชิ้นหมีน้อยสีพื้นจุของได้เยอะสุดคุ้ม 2022 เทรนด์แฟชั่นกระเป๋าเป้น่ารักๆ (E-232)</v>
+        <v>(B-233)🔥 กระเป๋าสะพายข้าง จุของได้เยอะ สไตล์เกาหลี เรียบง่าย มีซิป สําหรับผู้หญิง ใบใหญ่ HOOTO</v>
       </c>
       <c r="G11" t="str">
-        <v>-</v>
+        <v>฿150</v>
       </c>
       <c r="H11" t="str">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="I11" t="str">
-        <v>ขายแล้ว 12.6พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="J11" t="str">
-        <v>จังหวัดนนทบุรี</v>
+        <v/>
       </c>
       <c r="K11" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 6.2พัน ชิ้น</v>
       </c>
       <c r="L11" t="str">
-        <v>169</v>
-      </c>
-      <c r="M11" t="str">
-        <v/>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://shopee.co.th/MINISO-%E0%B8%AB%E0%B8%A1%E0%B8%AD%E0%B8%99%E0%B8%A3%E0%B8%AD%E0%B8%87%E0%B8%84%E0%B8%AD-%E0%B8%AB%E0%B8%A1%E0%B8%AD%E0%B8%99%E0%B8%A3%E0%B8%AD%E0%B8%87%E0%B8%84%E0%B8%AD%E0%B8%95%E0%B8%B1%E0%B8%A7U%E0%B8%A1%E0%B8%B5%E0%B8%AE%E0%B8%B9%E0%B9%89%E0%B8%94-%E0%B8%AD%E0%B8%B8%E0%B8%9B%E0%B8%81%E0%B8%A3%E0%B8%93%E0%B9%8C%E0%B9%80%E0%B8%AA%E0%B8%A3%E0%B8%B4%E0%B8%A1%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%87-We-Bare-Bears-i.84544309.1743649436?sp_atk=bec048e8-164b-4519-aaa4-5574f2643c54&amp;xptdk=bec048e8-164b-4519-aaa4-5574f2643c54</v>
+        <v>https://shopee.co.th/%F0%9D%91%AC%F0%9D%91%BD%F0%9D%91%AC-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%96%E0%B8%B7%E0%B8%AD%E0%B9%83%E0%B8%9A%E0%B8%A2%E0%B8%B2%E0%B8%A7-3-%E0%B8%8B%E0%B8%B4%E0%B8%9B-***%E0%B9%83%E0%B8%99%E0%B8%81%E0%B8%A3%E0%B8%93%E0%B8%B5%E0%B8%82%E0%B8%B6%E0%B9%89%E0%B8%99-Flash-Sales-%E0%B8%88%E0%B8%B0%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A1%E0%B8%B5%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%81%E0%B8%B1%E0%B8%99**-i.37723018.1900030400?sp_atk=3a36e656-5a57-4680-8c75-69395f47146d&amp;xptdk=3a36e656-5a57-4680-8c75-69395f47146d</v>
       </c>
       <c r="B12" t="str">
-        <v>https://down-th.img.susercontent.com/file/e81fe06ed01587409983902130a507da_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rblt-lma7ibumawp101_tn</v>
       </c>
       <c r="C12" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D12" t="str">
-        <v/>
+        <v>-76%</v>
       </c>
       <c r="E12" t="str">
         <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F12" t="str">
-        <v>MINISO หมอนรองคอ หมอนรองคอตัวUมีฮู้ด อุปกรณ์เสริมสำหรับเดินทาง We Bare Bears</v>
+        <v>𝑬𝑽𝑬 กระเป๋าถือใบยาว 3 ซิป  ***ในกรณีขึ้น Flash Sales จะไม่มีประกัน**</v>
       </c>
       <c r="G12" t="str">
-        <v/>
+        <v>฿99</v>
       </c>
       <c r="H12" t="str">
-        <v>259</v>
+        <v>45</v>
       </c>
       <c r="I12" t="str">
-        <v>ขายแล้ว 6.4พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="J12" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v/>
       </c>
       <c r="K12" t="str">
-        <v/>
+        <v>ขายแล้ว 43.5พัน ชิ้น</v>
       </c>
       <c r="L12" t="str">
-        <v/>
-      </c>
-      <c r="M12" t="str">
-        <v/>
+        <v>จังหวัดนนทบุรี</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://shopee.co.th/%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%F0%9F%9A%9A-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99-%E0%B8%97%E0%B8%A3%E0%B8%87%E0%B8%8B%E0%B8%B5%E0%B8%A3%E0%B8%B5%E0%B8%99-%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%80%E0%B8%A7%E0%B9%89%E0%B8%B2%E0%B9%81%E0%B8%82%E0%B8%99%E0%B8%AE%E0%B8%B4%E0%B8%95%E0%B8%A1%E0%B8%B2%E0%B8%81-%E0%B8%AA%E0%B8%B2%E0%B8%A2%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%87-i.415648330.20945302552?sp_atk=d2e1fd24-2845-4644-92f9-14adb17bd0f5&amp;xptdk=d2e1fd24-2845-4644-92f9-14adb17bd0f5</v>
+        <v>https://shopee.co.th/%F0%9D%91%AC%F0%9D%91%BD%F0%9D%91%AC-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%83%E0%B8%9A%E0%B8%A2%E0%B8%B2%E0%B8%A7-**%E0%B9%83%E0%B8%99%E0%B8%81%E0%B8%A3%E0%B8%93%E0%B8%B5%E0%B8%82%E0%B8%B6%E0%B9%89%E0%B8%99-Flash-Sales-%E0%B8%88%E0%B8%B0%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A1%E0%B8%B5%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%81%E0%B8%B1%E0%B8%99**-(E-093)-i.37723018.1819015979?sp_atk=45f0a24c-50a3-4733-8560-e67823cc4b40&amp;xptdk=45f0a24c-50a3-4733-8560-e67823cc4b40</v>
       </c>
       <c r="B13" t="str">
-        <v>https://down-th.img.susercontent.com/file/d632da5d27f7ecc82ce45af132cc330c_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7r9c1-llabthpwq2lobe_tn</v>
       </c>
       <c r="C13" t="str">
         <v>ร้านแนะนำ</v>
       </c>
       <c r="D13" t="str">
-        <v>-51%</v>
+        <v>-94%</v>
       </c>
       <c r="E13" t="str">
         <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
       </c>
       <c r="F13" t="str">
-        <v>พร้อมส่ง🚚  กระเป๋าแฟชั่น ทรงซีรีน สะพายข้าง กระเป๋าเว้าแขนฮิตมาก  สายหนัง</v>
+        <v>𝑬𝑽𝑬 กระเป๋าใบยาว **ในกรณีขึ้น Flash Sales จะไม่มีประกัน** (E-093)</v>
       </c>
       <c r="G13" t="str">
         <v>-</v>
       </c>
       <c r="H13" t="str">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="I13" t="str">
-        <v>ขายแล้ว 7พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="J13" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>16</v>
       </c>
       <c r="K13" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 155.8พัน ชิ้น</v>
       </c>
       <c r="L13" t="str">
-        <v>139</v>
-      </c>
-      <c r="M13" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v>จังหวัดนนทบุรี</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://shopee.co.th/%F0%9D%91%AC%F0%9D%91%BD%F0%9D%91%AC-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%83%E0%B8%9A%E0%B8%A2%E0%B8%B2%E0%B8%A7-**%E0%B9%83%E0%B8%99%E0%B8%81%E0%B8%A3%E0%B8%93%E0%B8%B5%E0%B8%82%E0%B8%B6%E0%B9%89%E0%B8%99-Flash-Sales-%E0%B8%88%E0%B8%B0%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A1%E0%B8%B5%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%81%E0%B8%B1%E0%B8%99**-(E-093)-i.37723018.1819015979?sp_atk=653a5564-1fe7-450b-b4d5-716515d9197c&amp;xptdk=653a5564-1fe7-450b-b4d5-716515d9197c</v>
+        <v>https://shopee.co.th/Look-After-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%8B%E0%B8%B4%E0%B8%9B%E0%B9%83%E0%B8%AA-%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B9%80%E0%B8%AA%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%9C%E0%B9%89%E0%B8%B2-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%87-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AA%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B8%A2%E0%B8%B1%E0%B8%9A-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B9%80%E0%B8%81%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9A%E0%B8%B5%E0%B8%A2%E0%B8%9A-%E0%B9%80%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%9A%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A2-i.418614072.13347172946?sp_atk=68e3b3ec-7632-4589-bd25-794fd0c2ff0d&amp;xptdk=68e3b3ec-7632-4589-bd25-794fd0c2ff0d</v>
       </c>
       <c r="B14" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7r9c1-llabthpwq2lobe_tn</v>
+        <v>https://down-th.img.susercontent.com/file/8c9e935a7a4826fdb484d15c01424ed1_tn</v>
       </c>
       <c r="C14" t="str">
         <v>ร้านแนะนำ</v>
       </c>
       <c r="D14" t="str">
-        <v>-94%</v>
+        <v>-78%</v>
       </c>
       <c r="E14" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F14" t="str">
-        <v>𝑬𝑽𝑬 กระเป๋าใบยาว **ในกรณีขึ้น Flash Sales จะไม่มีประกัน** (E-093)</v>
+        <v>Look After ถุงซิปใส ใส่เสื้อผ้า สำหรับเดินทาง กันเสื้อผ้ายับ กันน้ำ เก็บเป็นระเบียบ เรียบร้อย</v>
       </c>
       <c r="G14" t="str">
         <v>-</v>
       </c>
       <c r="H14" t="str">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I14" t="str">
-        <v>ขายแล้ว 155.7พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="J14" t="str">
-        <v>จังหวัดนนทบุรี</v>
+        <v>10</v>
       </c>
       <c r="K14" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 266.8พัน ชิ้น</v>
       </c>
       <c r="L14" t="str">
-        <v>16</v>
-      </c>
-      <c r="M14" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://shopee.co.th/(B-514)%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%87%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B8%A1%E0%B8%B2%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-i.26237854.17259728857?sp_atk=84b88990-7323-4b89-965d-1d18bdda1c61&amp;xptdk=84b88990-7323-4b89-965d-1d18bdda1c61</v>
+        <v>https://shopee.co.th/%F0%9F%87%B9%F0%9F%87%AD%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B9%84%E0%B8%97%E0%B8%A2%F0%9F%87%B9%F0%9F%87%AD%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%AB%E0%B8%B9%E0%B8%A3%E0%B8%B9%E0%B8%94%E0%B8%9E%E0%B8%A5%E0%B8%B2%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81%E0%B8%9E%E0%B8%B4%E0%B8%A1%E0%B8%9E%E0%B9%8C%E0%B8%A5%E0%B8%B2%E0%B8%A27%E0%B9%81%E0%B8%9A%E0%B8%9A-4%E0%B9%84%E0%B8%8B%E0%B8%A3%E0%B9%8C-%E0%B8%A3%E0%B8%B2%E0%B8%84%E0%B8%B2%E0%B8%95%E0%B9%88%E0%B8%AD%E0%B9%83%E0%B8%9A-i.251425372.7534749953?sp_atk=a4b603f0-f08e-4f3e-a461-c20761ca5126&amp;xptdk=a4b603f0-f08e-4f3e-a461-c20761ca5126</v>
       </c>
       <c r="B15" t="str">
-        <v>https://down-th.img.susercontent.com/file/600e2bdf45225d05e2d391da1a5c6bce_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98t-lnh4cld9m2cn80_tn</v>
       </c>
       <c r="C15" t="str">
         <v>ร้านแนะนำ</v>
       </c>
       <c r="D15" t="str">
-        <v>-26%</v>
+        <v>-50%</v>
       </c>
       <c r="E15" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F15" t="str">
-        <v>(B-514)กระเป๋าหนังสำหรับผู้หญิง กระเป๋าสะพายข้าง สไตล์เกาหลี แฟชั่นมาใหม่</v>
+        <v>🇹🇭พร้อมส่งจากไทย🇹🇭ถุงหูรูดพลาสติกพิมพ์ลาย7แบบ:4ไซร์/ราคาต่อใบ</v>
       </c>
       <c r="G15" t="str">
         <v>-</v>
       </c>
       <c r="H15" t="str">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="I15" t="str">
-        <v>ขายแล้ว 30.4พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="J15" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v>7</v>
       </c>
       <c r="K15" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 89.2พัน ชิ้น</v>
       </c>
       <c r="L15" t="str">
-        <v>89</v>
-      </c>
-      <c r="M15" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v>จังหวัดนนทบุรี</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://shopee.co.th/(B-233)%F0%9F%94%A5-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87-%E0%B8%88%E0%B8%B8%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%84%E0%B8%94%E0%B9%89%E0%B9%80%E0%B8%A2%E0%B8%AD%E0%B8%B0-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-%E0%B9%80%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%9A%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-%E0%B8%A1%E0%B8%B5%E0%B8%8B%E0%B8%B4%E0%B8%9B-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-%E0%B9%83%E0%B8%9A%E0%B9%83%E0%B8%AB%E0%B8%8D%E0%B9%88-HOOTO-i.26237854.18191370560?sp_atk=6231aea3-7eb2-4af0-b369-e449951ecde4&amp;xptdk=6231aea3-7eb2-4af0-b369-e449951ecde4</v>
+        <v>https://shopee.co.th/UUMIR-%E0%B8%AB%E0%B8%A1%E0%B8%A7%E0%B8%81%E0%B8%9A%E0%B8%B1%E0%B8%81%E0%B9%80%E0%B8%81%E0%B9%87%E0%B8%95-%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B8%9D%E0%B9%89%E0%B8%B2%E0%B8%A2-%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B8%A2%E0%B8%B5%E0%B8%99-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%81%E0%B8%94%E0%B8%94-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%8A%E0%B8%B2%E0%B8%A2-i.460955551.21750593168?sp_atk=d9f26382-15d0-4fc2-8aa3-8f321efd6df7&amp;xptdk=d9f26382-15d0-4fc2-8aa3-8f321efd6df7</v>
       </c>
       <c r="B16" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbkc-lman6m90mzi18b_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7qvfp-lii9455pt6k301_tn</v>
       </c>
       <c r="C16" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D16" t="str">
-        <v>-50%</v>
+        <v>-84%</v>
       </c>
       <c r="E16" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F16" t="str">
-        <v>(B-233)🔥 กระเป๋าสะพายข้าง จุของได้เยอะ สไตล์เกาหลี เรียบง่าย มีซิป สําหรับผู้หญิง ใบใหญ่ HOOTO</v>
+        <v>UUMIR  หมวกบักเก็ต ผ้าฝ้าย ผ้ายีน กันแดด สําหรับผู้หญิง และผู้ชาย</v>
       </c>
       <c r="G16" t="str">
-        <v>฿150</v>
+        <v>฿346</v>
       </c>
       <c r="H16" t="str">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="I16" t="str">
-        <v>ขายแล้ว 6.1พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="J16" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v/>
       </c>
       <c r="K16" t="str">
-        <v/>
+        <v>ขายแล้ว 1.8พัน ชิ้น</v>
       </c>
       <c r="L16" t="str">
-        <v/>
-      </c>
-      <c r="M16" t="str">
-        <v/>
+        <v>ต่างประเทศ</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://shopee.co.th/B-952%F0%9F%94%A5-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5%E0%B9%83%E0%B8%95%E0%B9%89%E0%B8%A7%E0%B8%87%E0%B9%81%E0%B8%82%E0%B8%99-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-Bentoy-Milkjoy-i.26237854.22233719809?sp_atk=39b9de30-73dd-4cb3-a55b-de41f7da51c2&amp;xptdk=39b9de30-73dd-4cb3-a55b-de41f7da51c2</v>
+        <v>https://shopee.co.th/%F0%9F%94%A5%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B9%82%E0%B8%84%E0%B9%89%E0%B8%94-INCLZ12-%E0%B8%A5%E0%B8%94-50-%F0%9F%94%A5-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%AB%E0%B8%A5%E0%B9%88-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2-%E0%B8%8D%E0%B8%B5%E0%B9%88%E0%B8%9B%E0%B8%B8%E0%B9%88%E0%B8%99-Retro-%E0%B8%A1%E0%B8%B5%E0%B8%AA%E0%B8%B2%E0%B8%A2%E0%B8%84%E0%B8%A5%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B9%84%E0%B8%AB%E0%B8%A5%E0%B9%88-%E0%B8%97%E0%B8%A3%E0%B8%87-%E0%B8%AA%E0%B8%B5%E0%B9%88%E0%B9%80%E0%B8%AB%E0%B8%A5%E0%B8%B5%E0%B9%88%E0%B8%A2%E0%B8%A1%E0%B9%81%E0%B8%99%E0%B8%A7%E0%B8%99%E0%B8%AD%E0%B8%99-%E0%B8%A1%E0%B8%B5-5-%E0%B8%AA%E0%B8%B5-i.62685270.21438951997?sp_atk=70d22fee-b909-4aa2-bb3b-c0375f039093&amp;xptdk=70d22fee-b909-4aa2-bb3b-c0375f039093</v>
       </c>
       <c r="B17" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-23030-45rv1dxaaxove1_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98u-lojcb4ooygv362_tn</v>
       </c>
       <c r="C17" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D17" t="str">
-        <v>-75%</v>
+        <v/>
       </c>
       <c r="E17" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F17" t="str">
-        <v>B-952🔥 กระเป๋าสะพายข้าง สไตล์เกาหลีใต้วงแขน สําหรับผู้หญิง Bentoy Milkjoy</v>
+        <v>🔥ใส่โค้ด INCLZ12 ลด 50%🔥 กระเป๋าสะพายไหล่ กระเป๋า ญี่ปุ่น Retro มีสายคล้องไหล่ ทรง สี่เหลี่ยมแนวนอน มี 5 สี</v>
       </c>
       <c r="G17" t="str">
-        <v>-</v>
+        <v/>
       </c>
       <c r="H17" t="str">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="I17" t="str">
-        <v>ขายแล้ว 40.2พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="J17" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v/>
       </c>
       <c r="K17" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 14.4พัน ชิ้น</v>
       </c>
       <c r="L17" t="str">
-        <v>49</v>
-      </c>
-      <c r="M17" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://shopee.co.th/%E0%B8%A5%E0%B8%9415-%E0%B9%82%E0%B8%84%E0%B9%89%E0%B8%94-FBSJUNE15DD15-%F0%9F%94%A5-B-271%F0%9F%94%A5-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B8%A5%E0%B8%B9%E0%B8%81%E0%B8%9F%E0%B8%B9%E0%B8%81-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%96%E0%B8%B7%E0%B8%AD-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-%E0%B9%83%E0%B8%9A%E0%B9%83%E0%B8%AB%E0%B8%8D%E0%B9%88-Bear-i.26237854.15745790678?sp_atk=3c3300d9-7709-4c02-8795-346d42986a00&amp;xptdk=3c3300d9-7709-4c02-8795-346d42986a00</v>
+        <v>https://shopee.co.th/JUST-STAR-%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5%E0%B8%A2%E0%B9%89%E0%B8%AD%E0%B8%99%E0%B8%A2%E0%B8%B8%E0%B8%84-ins-%E0%B8%AA%E0%B8%B5%E0%B9%81%E0%B8%94%E0%B8%87%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AD%E0%B8%B2%E0%B8%99%E0%B8%A1%E0%B8%B4%E0%B8%99%E0%B8%B4%E0%B9%80%E0%B8%A1%E0%B8%AA%E0%B9%80%E0%B8%8B%E0%B8%99%E0%B9%80%E0%B8%88%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%81%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87%E0%B8%97%E0%B8%B8%E0%B8%81%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B9%81%E0%B8%82%E0%B9%88%E0%B8%87%E0%B8%82%E0%B8%B1%E0%B8%99%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B9%80%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%9A%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%82%E0%B8%97%E0%B8%A3%E0%B8%A8%E0%B8%B1%E0%B8%9E%E0%B8%97%E0%B9%8C%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%96%E0%B8%B7%E0%B8%AD-i.593652892.20518065192?sp_atk=3c43e9d0-550c-47a1-82e5-06be8a86e06d&amp;xptdk=3c43e9d0-550c-47a1-82e5-06be8a86e06d</v>
       </c>
       <c r="B18" t="str">
-        <v>https://down-th.img.susercontent.com/file/531d7954c06c53a61e2e721eec9dba4f_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul0-lft7bibd9pou12_tn</v>
       </c>
       <c r="C18" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D18" t="str">
-        <v>-77%</v>
+        <v>-68%</v>
       </c>
       <c r="E18" t="str">
         <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="F18" t="str">
-        <v>ลด15% โค้ด FBSJUNE15DD15  🔥 B-271🔥 กระเป๋าผ้าลูกฟูก กระเป๋าถือ สไตล์เกาหลี ใบใหญ่ Bear</v>
+        <v>JUST STAR เกาหลีย้อนยุค ins สีแดงกระเป๋าอานมินิเมสเซนเจอร์กระเป๋าเล็กหญิงทุกการแข่งขันที่เรียบง่ายกระเป๋าโทรศัพท์มือถือ</v>
       </c>
       <c r="G18" t="str">
         <v>-</v>
       </c>
       <c r="H18" t="str">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I18" t="str">
-        <v>ขายแล้ว 53.8พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="J18" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v>139</v>
       </c>
       <c r="K18" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 4.1พัน ชิ้น</v>
       </c>
       <c r="L18" t="str">
-        <v>55</v>
-      </c>
-      <c r="M18" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v>ต่างประเทศ</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://shopee.co.th/(B-124)%F0%9F%94%A5%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B9%81%E0%B8%84%E0%B8%99%E0%B8%A7%E0%B8%B2%E0%B8%AA-%E0%B8%88%E0%B8%B8%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%84%E0%B8%94%E0%B9%89%E0%B9%80%E0%B8%A2%E0%B8%AD%E0%B8%B0-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-%E0%B9%80%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%9A%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B9%80%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%99%E0%B8%8A%E0%B8%B2%E0%B8%A2-%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87(%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A1%E0%B8%B5%E0%B9%80%E0%B8%82%E0%B9%87%E0%B8%A1%E0%B8%81%E0%B8%A5%E0%B8%B1%E0%B8%94)-i.26237854.19179862716?sp_atk=6ad6fdf0-b973-46bf-89d4-7dd4767a8c28&amp;xptdk=6ad6fdf0-b973-46bf-89d4-7dd4767a8c28</v>
+        <v>https://shopee.co.th/FM666%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B9%84%E0%B8%97%E0%B8%A2%E2%9C%A8%E0%B8%A3%E0%B8%B2%E0%B8%84%E0%B8%B2%E0%B8%95%E0%B9%88%E0%B8%B3%E0%B8%AA%E0%B8%B8%E0%B8%94%F0%9F%92%9BLMC-%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5%E0%B8%95%E0%B8%B2%E0%B8%82%E0%B9%88%E0%B8%B2%E0%B8%A2-Messenger-%E0%B9%82%E0%B8%97%E0%B8%A3%E0%B8%A8%E0%B8%B1%E0%B8%9E%E0%B8%97%E0%B9%8C%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%96%E0%B8%B7%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B9%80%E0%B8%9A%E0%B8%B2%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%81%E0%B8%B5%E0%B8%AC%E0%B8%B2-i.250455645.23342086819?sp_atk=d20da69c-de41-4465-8c30-39c117a8dc2c&amp;xptdk=d20da69c-de41-4465-8c30-39c117a8dc2c</v>
       </c>
       <c r="B19" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98u-lqluba872yg469_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul4-lgmrmk3tmm2014_tn</v>
       </c>
       <c r="C19" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D19" t="str">
-        <v>-51%</v>
+        <v>-76%</v>
       </c>
       <c r="E19" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F19" t="str">
-        <v>(B-124)🔥กระเป๋าผ้าแคนวาส จุของได้เยอะ สไตล์เกาหลี เรียบง่าย สําหรับนักเรียนชาย และหญิง(ไม่มีเข็มกลัด)</v>
+        <v>FM666พร้อมส่งจากไทย✨ราคาต่ำสุด💛LMC เกาหลีตาข่าย Messenger โทรศัพท์มือถืะเป๋าน้ำหนักเบากระเป๋ากีฬา</v>
       </c>
       <c r="G19" t="str">
-        <v>฿200</v>
+        <v>฿209</v>
       </c>
       <c r="H19" t="str">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="I19" t="str">
-        <v>ขายแล้ว 7.3พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="J19" t="str">
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <v>ขายแล้ว 16.3พัน ชิ้น</v>
+      </c>
+      <c r="L19" t="str">
         <v>จังหวัดสมุทรปราการ</v>
-      </c>
-      <c r="K19" t="str">
-        <v/>
-      </c>
-      <c r="L19" t="str">
-        <v/>
-      </c>
-      <c r="M19" t="str">
-        <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://shopee.co.th/B-187%F0%9F%94%A5%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-%E0%B9%83%E0%B8%95%E0%B9%89%E0%B8%A7%E0%B8%87%E0%B9%81%E0%B8%82%E0%B8%99-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-7%E0%B8%AA%E0%B8%B5-the-flowers-i.26237854.12799569924?sp_atk=5e90848c-ec9c-4054-b137-ac2825f407e4&amp;xptdk=5e90848c-ec9c-4054-b137-ac2825f407e4</v>
+        <v>https://shopee.co.th/%E0%B8%A5%E0%B8%9415-%E0%B9%82%E0%B8%84%E0%B9%89%E0%B8%94-FBSJUNE15DD15-%F0%9F%94%A5-B-271%F0%9F%94%A5-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B8%A5%E0%B8%B9%E0%B8%81%E0%B8%9F%E0%B8%B9%E0%B8%81-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%96%E0%B8%B7%E0%B8%AD-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-%E0%B9%83%E0%B8%9A%E0%B9%83%E0%B8%AB%E0%B8%8D%E0%B9%88-Bear-i.26237854.15745790678?sp_atk=f0edc6b5-be4d-4872-8106-1cb8a756714d&amp;xptdk=f0edc6b5-be4d-4872-8106-1cb8a756714d</v>
       </c>
       <c r="B20" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul5-li9t3x6lxwq074_tn</v>
+        <v>https://down-th.img.susercontent.com/file/531d7954c06c53a61e2e721eec9dba4f_tn</v>
       </c>
       <c r="C20" t="str">
         <v>ร้านแนะนำ</v>
       </c>
       <c r="D20" t="str">
-        <v>-53%</v>
+        <v>-77%</v>
       </c>
       <c r="E20" t="str">
         <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="F20" t="str">
-        <v>B-187🔥กระเป๋าสะพายข้าง สไตล์เกาหลี ใต้วงแขน สําหรับผู้หญิง 7สี the flowers</v>
+        <v>ลด15% โค้ด FBSJUNE15DD15  🔥 B-271🔥 กระเป๋าผ้าลูกฟูก กระเป๋าถือ สไตล์เกาหลี ใบใหญ่ Bear</v>
       </c>
       <c r="G20" t="str">
-        <v>฿180</v>
+        <v>-</v>
       </c>
       <c r="H20" t="str">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="I20" t="str">
-        <v>ขายแล้ว 6.3พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="J20" t="str">
+        <v>55</v>
+      </c>
+      <c r="K20" t="str">
+        <v>ขายแล้ว 53.9พัน ชิ้น</v>
+      </c>
+      <c r="L20" t="str">
         <v>จังหวัดสมุทรปราการ</v>
-      </c>
-      <c r="K20" t="str">
-        <v/>
-      </c>
-      <c r="L20" t="str">
-        <v/>
-      </c>
-      <c r="M20" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://shopee.co.th/B-251%F0%9F%94%A5-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-%E0%B9%83%E0%B8%95%E0%B9%89%E0%B8%A7%E0%B8%87%E0%B9%81%E0%B8%82%E0%B8%99-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-%E0%B8%88%E0%B8%B8%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%84%E0%B8%94%E0%B9%89%E0%B9%80%E0%B8%A2%E0%B8%AD%E0%B8%B0-5%E0%B8%AA%E0%B8%B5-cloud-bag-i.26237854.23676054407?sp_atk=9d70cdd7-7402-4f66-b9ab-5d312c6cf333&amp;xptdk=9d70cdd7-7402-4f66-b9ab-5d312c6cf333</v>
+        <v>https://shopee.co.th/Mousoon-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%80%E0%B8%81%E0%B9%87%E0%B8%9A%E0%B8%82%E0%B8%AD%E0%B8%87-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B9%80%E0%B8%81%E0%B9%87%E0%B8%9A%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%9E%E0%B8%B1%E0%B8%9A%E0%B9%84%E0%B8%94%E0%B9%89-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%82%E0%B8%97%E0%B9%89%E0%B8%97%E0%B8%A2%E0%B8%B2%E0%B8%A7%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2%E0%B9%84%E0%B8%94%E0%B9%89%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%88%E0%B8%B8%E0%B8%A1%E0%B8%B2%E0%B8%81-%E0%B8%9B%E0%B8%B5%E0%B8%99%E0%B9%80%E0%B8%82%E0%B8%B2%E0%B8%8B%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%8A%E0%B8%B3-%E0%B8%8A%E0%B9%89%E0%B8%AD%E0%B8%9B%E0%B8%9B%E0%B8%B4%E0%B9%89%E0%B8%87-i.445544977.18194090903?sp_atk=77e5d9f1-ad6d-4b74-9ae9-931938412a33&amp;xptdk=77e5d9f1-ad6d-4b74-9ae9-931938412a33</v>
       </c>
       <c r="B21" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbm6-lldk76suml1754_tn</v>
+        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lphb3ydbqjfba8_tn</v>
       </c>
       <c r="C21" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D21" t="str">
-        <v>-57%</v>
+        <v>-71%</v>
       </c>
       <c r="E21" t="str">
         <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F21" t="str">
-        <v>B-251🔥 กระเป๋าสะพายข้าง สไตล์เกาหลี ใต้วงแขน สําหรับผู้หญิง จุของได้เยอะ 5สี cloud bag</v>
+        <v>Mousoon กระเป๋าเก็บของ แบบพกพา ที่เก็บของพับได้ กระเป๋าโท้ทยาวพกพาได้ความจุมาก ปีนเขาซื้อของชำ ช้อปปิ้ง</v>
       </c>
       <c r="G21" t="str">
-        <v>฿180</v>
+        <v>฿98</v>
       </c>
       <c r="H21" t="str">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="I21" t="str">
-        <v>ขายแล้ว 7.6พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="J21" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v/>
       </c>
       <c r="K21" t="str">
-        <v/>
+        <v>ขายแล้ว 3พัน ชิ้น</v>
       </c>
       <c r="L21" t="str">
-        <v/>
-      </c>
-      <c r="M21" t="str">
-        <v/>
+        <v>ต่างประเทศ</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://shopee.co.th/GUCSELECTED(B1641)-w1%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B8%AA%E0%B8%B2%E0%B8%A2%E0%B9%80%E0%B8%8A%E0%B8%B7%E0%B8%AD%E0%B8%81SPOR%E0%B9%80%E0%B8%A7%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-i.13835021.5194216444?sp_atk=293d338f-03e0-4763-a744-b7c31babf335&amp;xptdk=293d338f-03e0-4763-a744-b7c31babf335</v>
+        <v>https://shopee.co.th/B-251%F0%9F%94%A5-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-%E0%B9%83%E0%B8%95%E0%B9%89%E0%B8%A7%E0%B8%87%E0%B9%81%E0%B8%82%E0%B8%99-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-%E0%B8%88%E0%B8%B8%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%84%E0%B8%94%E0%B9%89%E0%B9%80%E0%B8%A2%E0%B8%AD%E0%B8%B0-5%E0%B8%AA%E0%B8%B5-cloud-bag-i.26237854.23676054407?sp_atk=9aa1021d-c0c8-48ea-b035-3e78f46c6e04&amp;xptdk=9aa1021d-c0c8-48ea-b035-3e78f46c6e04</v>
       </c>
       <c r="B22" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul4-lfcgh6rz9xqf48_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbm6-lldk76suml1754_tn</v>
       </c>
       <c r="C22" t="str">
         <v>ร้านแนะนำ</v>
       </c>
       <c r="D22" t="str">
-        <v>-62%</v>
+        <v>-57%</v>
       </c>
       <c r="E22" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F22" t="str">
-        <v>GUCSELECTED(B1641) -w1กระเป๋าผ้าสะพายข้างสายเชือกSPORเวอร์ชั่นเกาหลี</v>
+        <v>B-251🔥 กระเป๋าสะพายข้าง สไตล์เกาหลี ใต้วงแขน สําหรับผู้หญิง จุของได้เยอะ 5สี cloud bag</v>
       </c>
       <c r="G22" t="str">
-        <v>฿129</v>
+        <v>฿180</v>
       </c>
       <c r="H22" t="str">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="I22" t="str">
-        <v>ขายแล้ว 25.3พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="J22" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v/>
       </c>
       <c r="K22" t="str">
-        <v/>
+        <v>ขายแล้ว 7.8พัน ชิ้น</v>
       </c>
       <c r="L22" t="str">
-        <v/>
-      </c>
-      <c r="M22" t="str">
-        <v/>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://shopee.co.th/%E0%B8%82%E0%B8%A7%E0%B8%94%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A2%E0%B9%8C-10-150ml-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%9E%E0%B8%AA%E0%B8%B2%E0%B8%95%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%A3%E0%B8%94%E0%B8%94%E0%B8%B5-%E0%B8%A3%E0%B8%B2%E0%B8%84%E0%B8%B2%E0%B9%82%E0%B8%A3%E0%B8%87%E0%B8%87%E0%B8%B2%E0%B8%99-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-i.270411891.8156143531?sp_atk=d8073d8d-f2c4-4039-84bf-5c998b9d3f8f&amp;xptdk=d8073d8d-f2c4-4039-84bf-5c998b9d3f8f</v>
+        <v>https://shopee.co.th/B-941-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87-i.26237854.23128896412?sp_atk=7ba7920c-fda0-4d8f-b387-8d98367b869a&amp;xptdk=7ba7920c-fda0-4d8f-b387-8d98367b869a</v>
       </c>
       <c r="B23" t="str">
-        <v>https://down-th.img.susercontent.com/file/39f3329c53f3e9febc808691967e2ce1_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-23030-jrou86k886nv96_tn</v>
       </c>
       <c r="C23" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D23" t="str">
-        <v>-71%</v>
+        <v>-51%</v>
       </c>
       <c r="E23" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="F23" t="str">
-        <v>ขวดสเปย์ 10-150ml เนื้อพสาติกเกรดดี ราคาโรงงาน พร้อมส่ง</v>
+        <v>B-941 กระเป๋าสำหรับผู้หญิง กระเป๋าสะพายข้าง</v>
       </c>
       <c r="G23" t="str">
         <v>-</v>
       </c>
       <c r="H23" t="str">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="I23" t="str">
-        <v>ขายแล้ว 94.6พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="J23" t="str">
-        <v>ต่างประเทศ</v>
+        <v>59</v>
       </c>
       <c r="K23" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 31.7พัน ชิ้น</v>
       </c>
       <c r="L23" t="str">
-        <v>7</v>
-      </c>
-      <c r="M23" t="str">
-        <v/>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://shopee.co.th/FM666%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%88%E0%B8%B2%E0%B8%81%E0%B9%84%E0%B8%97%E0%B8%A2%E2%9C%A8%E0%B8%A3%E0%B8%B2%E0%B8%84%E0%B8%B2%E0%B8%95%E0%B9%88%E0%B8%B3%E0%B8%AA%E0%B8%B8%E0%B8%94%F0%9F%92%9BLMC-%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5%E0%B8%95%E0%B8%B2%E0%B8%82%E0%B9%88%E0%B8%B2%E0%B8%A2-Messenger-%E0%B9%82%E0%B8%97%E0%B8%A3%E0%B8%A8%E0%B8%B1%E0%B8%9E%E0%B8%97%E0%B9%8C%E0%B8%A1%E0%B8%B7%E0%B8%AD%E0%B8%96%E0%B8%B7%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B9%80%E0%B8%9A%E0%B8%B2%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%81%E0%B8%B5%E0%B8%AC%E0%B8%B2-i.250455645.23342086819?sp_atk=2ba0b4ad-1246-4a74-b70e-2efb82e0ea57&amp;xptdk=2ba0b4ad-1246-4a74-b70e-2efb82e0ea57</v>
+        <v>https://shopee.co.th/Mc-JEANS-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2-%E0%B8%AD%E0%B9%80%E0%B8%99%E0%B8%81%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%AA%E0%B8%87%E0%B8%84%E0%B9%8C-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2-%E0%B8%9C%E0%B9%89%E0%B8%B2-mc-%E0%B9%81%E0%B8%97%E0%B9%89-%E0%B8%84%E0%B8%B2%E0%B8%94%E0%B8%AD%E0%B8%81-%E0%B8%84%E0%B8%B2%E0%B8%94%E0%B9%80%E0%B8%AD%E0%B8%A7-%E0%B8%A3%E0%B8%B8%E0%B9%88%E0%B8%99%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B8%94%E0%B8%B5-%E0%B8%A1%E0%B8%B5%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B9%80%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%81-2-%E0%B8%A3%E0%B8%B8%E0%B9%88%E0%B8%99-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B9%80%E0%B8%9A%E0%B8%B2-%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-M02Z022-i.33941930.5413640605?sp_atk=debb3244-3c50-4aad-b0e7-96353a2e7dce&amp;xptdk=debb3244-3c50-4aad-b0e7-96353a2e7dce</v>
       </c>
       <c r="B24" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul4-lgmrmk3tmm2014_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-23020-fonoq9tp6mnv82_tn</v>
       </c>
       <c r="C24" t="str">
         <v/>
       </c>
       <c r="D24" t="str">
-        <v>-76%</v>
+        <v>-50%</v>
       </c>
       <c r="E24" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v/>
       </c>
       <c r="F24" t="str">
-        <v>FM666พร้อมส่งจากไทย✨ราคาต่ำสุด💛LMC เกาหลีตาข่าย Messenger โทรศัพท์มือถืะเป๋าน้ำหนักเบากระเป๋ากีฬา</v>
+        <v>Mc JEANS กระเป๋าสะพาย อเนกประสงค์ กระเป๋า ผ้า mc แท้ คาดอก คาดเอว รุ่นขายดี มีให้เลือก 2 รุ่น น้ำหนักเบา พกพาง่าย M02Z022</v>
       </c>
       <c r="G24" t="str">
-        <v>฿209</v>
+        <v>฿1,195</v>
       </c>
       <c r="H24" t="str">
-        <v>50</v>
+        <v>595</v>
       </c>
       <c r="I24" t="str">
-        <v>ขายแล้ว 16พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="J24" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v/>
       </c>
       <c r="K24" t="str">
-        <v/>
+        <v>ขายแล้ว 15.1พัน ชิ้น</v>
       </c>
       <c r="L24" t="str">
-        <v/>
-      </c>
-      <c r="M24" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://shopee.co.th/-PSKX149%E0%B8%A5%E0%B8%94%E0%B8%AA%E0%B8%B9%E0%B8%87%E0%B8%AA%E0%B8%B8%E0%B8%94-99-%E0%B9%80%E0%B8%81%E0%B9%87%E0%B8%9A%E0%B9%82%E0%B8%84%E0%B9%89%E0%B8%94%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B8%9F%E0%B8%A3%E0%B8%B5%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%A3%E0%B9%89%E0%B8%B2%E0%B8%99-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%80%E0%B8%AA%E0%B8%A3%E0%B8%B4%E0%B8%A1-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%81%E0%B8%81%E0%B8%B0%E0%B8%97%E0%B8%B1%E0%B8%94%E0%B8%A5%E0%B8%B1%E0%B8%94-%E0%B8%AA%E0%B8%B0%E0%B8%94%E0%B8%A7%E0%B8%81%E0%B8%95%E0%B9%88%E0%B8%AD%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-%E0%B8%88%E0%B8%B8%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%84%E0%B8%94%E0%B9%89%E0%B8%AB%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%AD%E0%B8%A2%E0%B9%88%E0%B8%B2%E0%B8%87-gk99-i.370467051.12252384161?sp_atk=43175b18-63b7-4737-a2fa-e4e6f570d52d&amp;xptdk=43175b18-63b7-4737-a2fa-e4e6f570d52d</v>
+        <v>https://shopee.co.th/Rubber-String-Crayon-Shin-Chan-i.438204690.24407962559?sp_atk=d12ac6fa-22f5-47ec-bca9-7eed2d164cc9&amp;xptdk=d12ac6fa-22f5-47ec-bca9-7eed2d164cc9</v>
       </c>
       <c r="B25" t="str">
-        <v>https://down-th.img.susercontent.com/file/c6dea84d6547442eb155e606fe9b186a_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r992-lqe7381c27mi1d_tn</v>
       </c>
       <c r="C25" t="str">
         <v/>
       </c>
       <c r="D25" t="str">
-        <v>-89%</v>
+        <v/>
       </c>
       <c r="E25" t="str">
         <v/>
       </c>
       <c r="F25" t="str">
-        <v>[PSKX149ลดสูงสุด 99 เก็บโค้ดส่งฟรีหน้าร้าน ] กระเป๋าเสริม ขนาดเล็กกะทัดลัด สะดวกต่อการพกพา จุของได้หลายอย่าง gk99</v>
+        <v>Rubber String Crayon Shin Chan</v>
       </c>
       <c r="G25" t="str">
-        <v>฿55</v>
+        <v/>
       </c>
       <c r="H25" t="str">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="I25" t="str">
-        <v>ขายแล้ว 290พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="J25" t="str">
+        <v/>
+      </c>
+      <c r="K25" t="str">
+        <v>ขายแล้ว 407 ชิ้น</v>
+      </c>
+      <c r="L25" t="str">
         <v>จังหวัดกรุงเทพมหานคร</v>
-      </c>
-      <c r="K25" t="str">
-        <v/>
-      </c>
-      <c r="L25" t="str">
-        <v/>
-      </c>
-      <c r="M25" t="str">
-        <v/>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://shopee.co.th/(B-975)%F0%9F%94%A5%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%AB%E0%B8%A5%E0%B8%B1%E0%B8%87-%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B9%81%E0%B8%84%E0%B8%99%E0%B8%A7%E0%B8%B2%E0%B8%AA-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B9%83%E0%B8%AB%E0%B8%8D%E0%B9%88-%E0%B8%88%E0%B8%B8%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%84%E0%B8%94%E0%B9%89%E0%B9%80%E0%B8%A2%E0%B8%AD%E0%B8%B0-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-%E0%B9%80%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%9A%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-%E0%B8%A1%E0%B8%B5%E0%B8%8B%E0%B8%B4%E0%B8%9B-6%E0%B8%AA%E0%B8%B5-i.26237854.22539786339?sp_atk=30be530a-7ae8-4c17-b277-02c209af51bf&amp;xptdk=30be530a-7ae8-4c17-b277-02c209af51bf</v>
+        <v>https://shopee.co.th/%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B9%82%E0%B8%84%E0%B9%89%E0%B8%94-BGNEW2-%E0%B8%A5%E0%B8%94-15-%E0%B8%A5%E0%B8%94%E0%B8%AA%E0%B8%B9%E0%B8%87%E0%B8%AA%E0%B8%B8%E0%B8%94-110.-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%87%E0%B8%A5%E0%B9%89%E0%B8%AD%E0%B8%A5%E0%B8%B2%E0%B8%81-%E0%B8%A3%E0%B8%B8%E0%B9%88%E0%B8%99-TOKYO-SERIES-6%E0%B8%AA%E0%B8%B5%E0%B8%AA%E0%B8%B8%E0%B8%94%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81-i.66917295.14077550492?sp_atk=8b886a14-c820-47ba-baa4-7f8d3caf04bc&amp;xptdk=8b886a14-c820-47ba-baa4-7f8d3caf04bc</v>
       </c>
       <c r="B26" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qukx-lfqzpjqh34ena3_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qula-lf20aabrgnbl90_tn</v>
       </c>
       <c r="C26" t="str">
         <v>ร้านแนะนำ</v>
@@ -1413,777 +1338,720 @@
         <v>-63%</v>
       </c>
       <c r="E26" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
       </c>
       <c r="F26" t="str">
-        <v>(B-975)🔥กระเป๋าสะพายหลัง ผ้าแคนวาส ขนาดใหญ่ จุของได้เยอะ สไตล์เกาหลี เรียบง่าย มีซิป 6สี</v>
+        <v>ใส่โค้ด [BGNEW2] ลด 15% ลดสูงสุด 110.- กระเป๋าเดินทางล้อลาก รุ่น TOKYO SERIES 6สีสุดน่ารัก</v>
       </c>
       <c r="G26" t="str">
         <v>-</v>
       </c>
       <c r="H26" t="str">
-        <v>37</v>
+        <v>290</v>
       </c>
       <c r="I26" t="str">
-        <v>ขายแล้ว 45.5พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="J26" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v>1,290</v>
       </c>
       <c r="K26" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 14พัน ชิ้น</v>
       </c>
       <c r="L26" t="str">
-        <v>50</v>
-      </c>
-      <c r="M26" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://shopee.co.th/B-941-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87-i.26237854.23128896412?sp_atk=b04026f0-e07f-4fb8-ad26-6ca6fbd6a202&amp;xptdk=b04026f0-e07f-4fb8-ad26-6ca6fbd6a202</v>
+        <v>https://shopee.co.th/%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B8%84%E0%B8%A5%E0%B8%B8%E0%B8%A1%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%87%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B8%A2%E0%B8%B7%E0%B8%94-(Special-Edition)-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%9D%E0%B8%B8%E0%B9%88%E0%B8%99-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%A3%E0%B8%AD%E0%B8%A2-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-20-24-26-28-30-%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7-i.62189639.20779420714?sp_atk=3bf260ff-e269-414d-bab7-4a749372bf77&amp;xptdk=3bf260ff-e269-414d-bab7-4a749372bf77</v>
       </c>
       <c r="B27" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-23030-jrou86k886nv96_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98x-lp57szgq4ind9a_tn</v>
       </c>
       <c r="C27" t="str">
         <v>ร้านแนะนำ</v>
       </c>
       <c r="D27" t="str">
-        <v>-51%</v>
+        <v>-49%</v>
       </c>
       <c r="E27" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
       </c>
       <c r="F27" t="str">
-        <v>B-941 กระเป๋าสำหรับผู้หญิง กระเป๋าสะพายข้าง</v>
+        <v>พร้อมส่ง ผ้าคลุมกระเป๋าเดินทางผ้ายืด (Special Edition) กันฝุ่น กันรอย สำหรับขนาด 20/24/26/28/30 นิ้ว</v>
       </c>
       <c r="G27" t="str">
         <v>-</v>
       </c>
       <c r="H27" t="str">
-        <v>49</v>
+        <v>189</v>
       </c>
       <c r="I27" t="str">
-        <v>ขายแล้ว 31.5พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="J27" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v>299</v>
       </c>
       <c r="K27" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 2.4พัน ชิ้น</v>
       </c>
       <c r="L27" t="str">
-        <v>59</v>
-      </c>
-      <c r="M27" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://shopee.co.th/B-943%F0%9F%94%A5-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%AB%E0%B8%A5%E0%B9%88-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-%E0%B8%88%E0%B8%B8%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%84%E0%B8%94%E0%B9%89%E0%B9%80%E0%B8%A2%E0%B8%AD%E0%B8%B0-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-Peachrees-i.26237854.18675626945?sp_atk=91c91006-96e9-4af1-bbb3-3452a91b5849&amp;xptdk=91c91006-96e9-4af1-bbb3-3452a91b5849</v>
+        <v>https://shopee.co.th/(B-124)%F0%9F%94%A5%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B9%81%E0%B8%84%E0%B8%99%E0%B8%A7%E0%B8%B2%E0%B8%AA-%E0%B8%88%E0%B8%B8%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%84%E0%B8%94%E0%B9%89%E0%B9%80%E0%B8%A2%E0%B8%AD%E0%B8%B0-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-%E0%B9%80%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%9A%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B9%80%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%99%E0%B8%8A%E0%B8%B2%E0%B8%A2-%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87(%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A1%E0%B8%B5%E0%B9%80%E0%B8%82%E0%B9%87%E0%B8%A1%E0%B8%81%E0%B8%A5%E0%B8%B1%E0%B8%94)-i.26237854.19179862716?sp_atk=b570c69f-e12f-4962-ab13-f6b709f7bd93&amp;xptdk=b570c69f-e12f-4962-ab13-f6b709f7bd93</v>
       </c>
       <c r="B28" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbls-lman6kwqlnabca_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98u-lqluba872yg469_tn</v>
       </c>
       <c r="C28" t="str">
         <v>ร้านแนะนำ</v>
       </c>
       <c r="D28" t="str">
-        <v>-43%</v>
+        <v>-53%</v>
       </c>
       <c r="E28" t="str">
         <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F28" t="str">
-        <v>B-943🔥 กระเป๋าสะพายไหล่ สไตล์เกาหลี จุของได้เยอะ สําหรับผู้หญิง Peachrees</v>
+        <v>(B-124)🔥กระเป๋าผ้าแคนวาส จุของได้เยอะ สไตล์เกาหลี เรียบง่าย สําหรับนักเรียนชาย และหญิง(ไม่มีเข็มกลัด)</v>
       </c>
       <c r="G28" t="str">
-        <v>฿100</v>
+        <v>฿200</v>
       </c>
       <c r="H28" t="str">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="I28" t="str">
-        <v>ขายแล้ว 15.6พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="J28" t="str">
+        <v/>
+      </c>
+      <c r="K28" t="str">
+        <v>ขายแล้ว 7.4พัน ชิ้น</v>
+      </c>
+      <c r="L28" t="str">
         <v>จังหวัดสมุทรปราการ</v>
-      </c>
-      <c r="K28" t="str">
-        <v/>
-      </c>
-      <c r="L28" t="str">
-        <v/>
-      </c>
-      <c r="M28" t="str">
-        <v/>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://shopee.co.th/%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B9%82%E0%B8%84%E0%B9%89%E0%B8%94-BGNEW2-%E0%B8%A5%E0%B8%94-15-%E0%B8%A5%E0%B8%94%E0%B8%AA%E0%B8%B9%E0%B8%87%E0%B8%AA%E0%B8%B8%E0%B8%94-110.-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%87%E0%B8%A5%E0%B9%89%E0%B8%AD%E0%B8%A5%E0%B8%B2%E0%B8%81-%E0%B8%A3%E0%B8%B8%E0%B9%88%E0%B8%99-TOKYO-SERIES-6%E0%B8%AA%E0%B8%B5%E0%B8%AA%E0%B8%B8%E0%B8%94%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81-i.66917295.14077550492?sp_atk=93f04359-48f7-4bbd-bc4d-9c5b1b8e6ba1&amp;xptdk=93f04359-48f7-4bbd-bc4d-9c5b1b8e6ba1</v>
+        <v>https://shopee.co.th/Mh-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%96%E0%B8%B7%E0%B8%AD-%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B8%96%E0%B8%B1%E0%B8%81-%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%AA%E0%B8%81%E0%B9%8A%E0%B8%AD%E0%B8%95-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%8B%E0%B9%89%E0%B9%8D%E0%B8%B2%E0%B9%84%E0%B8%94%E0%B9%89-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B9%80%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%99-i.40258835.19870448470?sp_atk=f411ab66-95ba-48f2-b4dd-148aaffa0a62&amp;xptdk=f411ab66-95ba-48f2-b4dd-148aaffa0a62</v>
       </c>
       <c r="B29" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qula-lf20aabrgnbl90_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7qvff-ljj0xynjp7xnaf_tn</v>
       </c>
       <c r="C29" t="str">
         <v>ร้านแนะนำ</v>
       </c>
       <c r="D29" t="str">
-        <v>-63%</v>
+        <v>-91%</v>
       </c>
       <c r="E29" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F29" t="str">
-        <v>ใส่โค้ด [BGNEW2] ลด 15% ลดสูงสุด 110.- กระเป๋าเดินทางล้อลาก รุ่น TOKYO SERIES 6สีสุดน่ารัก</v>
+        <v>Mh กระเป๋าถือ ผ้าถัก ลายสก๊อต ใช้ซ้ําได้ สําหรับผู้หญิง นักเรียน</v>
       </c>
       <c r="G29" t="str">
         <v>-</v>
       </c>
       <c r="H29" t="str">
-        <v>290</v>
+        <v>12</v>
       </c>
       <c r="I29" t="str">
-        <v>ขายแล้ว 14พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="J29" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>42</v>
       </c>
       <c r="K29" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 3.9พัน ชิ้น</v>
       </c>
       <c r="L29" t="str">
-        <v>1,290</v>
-      </c>
-      <c r="M29" t="str">
-        <v/>
+        <v>ต่างประเทศ</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://shopee.co.th/Rubber-String-Crayon-Shin-Chan-i.438204690.24407962559?sp_atk=96432bba-b9d1-4ffb-922f-f2a0f9a54a60&amp;xptdk=96432bba-b9d1-4ffb-922f-f2a0f9a54a60</v>
+        <v>https://shopee.co.th/B-952%F0%9F%94%A5-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5%E0%B9%83%E0%B8%95%E0%B9%89%E0%B8%A7%E0%B8%87%E0%B9%81%E0%B8%82%E0%B8%99-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-Bentoy-Milkjoy-i.26237854.22233719809?sp_atk=315ccfc4-5f48-4a80-b4e1-826002923705&amp;xptdk=315ccfc4-5f48-4a80-b4e1-826002923705</v>
       </c>
       <c r="B30" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r992-lqe7381c27mi1d_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-23030-45rv1dxaaxove1_tn</v>
       </c>
       <c r="C30" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D30" t="str">
-        <v/>
+        <v>-75%</v>
       </c>
       <c r="E30" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="F30" t="str">
-        <v>Rubber String Crayon Shin Chan</v>
+        <v>B-952🔥 กระเป๋าสะพายข้าง สไตล์เกาหลีใต้วงแขน สําหรับผู้หญิง Bentoy Milkjoy</v>
       </c>
       <c r="G30" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="H30" t="str">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="I30" t="str">
-        <v>ขายแล้ว 260 ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="J30" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>49</v>
       </c>
       <c r="K30" t="str">
-        <v/>
+        <v>ขายแล้ว 40.9พัน ชิ้น</v>
       </c>
       <c r="L30" t="str">
-        <v/>
-      </c>
-      <c r="M30" t="str">
-        <v/>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://shopee.co.th/B-921%F0%9F%94%A5%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B9%81%E0%B8%84%E0%B8%99%E0%B8%A7%E0%B8%B2%E0%B8%AA-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-6%E0%B8%AA%E0%B8%B5-i.26237854.18861595358?sp_atk=8ea87961-3245-4baa-b6cc-8002f635ba5b&amp;xptdk=8ea87961-3245-4baa-b6cc-8002f635ba5b</v>
+        <v>https://shopee.co.th/Sanrio-%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%94-%E0%B8%8B%E0%B8%AD%E0%B8%87%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%94-%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B8%9A%E0%B8%B1%E0%B8%95%E0%B8%A3%E0%B8%9E%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99-%E0%B8%9B%E0%B9%89%E0%B8%B2%E0%B8%A2-%E0%B8%9A%E0%B8%B1%E0%B8%95%E0%B8%A3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%A8%E0%B8%B6%E0%B8%81%E0%B8%A9%E0%B8%B2-%E0%B8%82%E0%B8%AD%E0%B8%9A%E0%B8%8B%E0%B8%B4%E0%B8%A5%E0%B8%B4%E0%B9%82%E0%B8%84%E0%B8%99%E0%B8%99%E0%B8%B4%E0%B9%88%E0%B8%A1%E0%B8%AA%E0%B8%B5%E0%B8%9E%E0%B8%B2%E0%B8%AA%E0%B9%80%E0%B8%97%E0%B8%A5-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B8%B2%E0%B8%A2%E0%B8%84%E0%B8%A5%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%A1%E0%B8%B5%E0%B9%82%E0%B8%A2%E0%B9%82%E0%B8%A2%E0%B9%88-SF5616-i.569183297.20995664389?sp_atk=e044eb2a-cd06-411a-b86c-1db381e507e8&amp;xptdk=e044eb2a-cd06-411a-b86c-1db381e507e8</v>
       </c>
       <c r="B31" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-22110-xh06gxmqcqjv94_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbmx-lourqaauyk7x7e_tn</v>
       </c>
       <c r="C31" t="str">
         <v>ร้านแนะนำ</v>
       </c>
       <c r="D31" t="str">
-        <v>-71%</v>
+        <v>-50%</v>
       </c>
       <c r="E31" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F31" t="str">
-        <v>B-921🔥กระเป๋าสำหรับผู้หญิง กระเป๋าผ้าแคนวาส กระเป๋าสะพายข้าง สไตล์เกาหลี 6สี</v>
+        <v>Sanrio ที่ใส่การ์ด ซองใส่การ์ด ใส่บัตรพนักงาน ป้าย บัตรนักศึกษา ขอบซิลิโคนนิ่มสีพาสเทล พร้อมสายคล้องมีโยโย่ SF5616</v>
       </c>
       <c r="G31" t="str">
-        <v>-</v>
+        <v>฿58</v>
       </c>
       <c r="H31" t="str">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I31" t="str">
-        <v>ขายแล้ว 91.2พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="J31" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v/>
       </c>
       <c r="K31" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 1พัน ชิ้น</v>
       </c>
       <c r="L31" t="str">
-        <v>25</v>
-      </c>
-      <c r="M31" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v>ต่างประเทศ</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://shopee.co.th/%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%AB%E0%B8%A5%E0%B8%B1%E0%B8%87-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%AA%E0%B8%B2%E0%B8%A2%E0%B8%A3%E0%B8%B9%E0%B8%94-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-i.98465314.1795513142?sp_atk=b3ef6d31-3278-4aa9-8149-071ecc8fc7a6&amp;xptdk=b3ef6d31-3278-4aa9-8149-071ecc8fc7a6</v>
+        <v>https://shopee.co.th/%E0%B8%99%E0%B8%B2%E0%B8%97%E0%B8%B5%E0%B8%97%E0%B8%AD%E0%B8%87-3-%E0%B8%A7%E0%B8%B1%E0%B8%99-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2-m.l.b-ny-%E0%B8%A3%E0%B8%B8%E0%B9%88%E0%B8%99%E0%B8%A1%E0%B8%B5%E0%B9%83%E0%B8%9A%E0%B8%A5%E0%B8%B9%E0%B8%81-%E0%B8%AA%E0%B8%B8%E0%B8%94%E0%B8%AE%E0%B8%B4%E0%B8%95-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%81%E0%B8%A5%E0%B9%88%E0%B8%AD%E0%B8%87-%E0%B8%A1%E0%B8%B5%E0%B8%AA%E0%B8%AD%E0%B8%87%E0%B8%AA%E0%B8%B5-%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B8%94%E0%B8%B5%E0%B8%A1%E0%B8%B2%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%95%E0%B8%B2%E0%B8%A1%E0%B8%AB%E0%B8%B2-i.355776530.23405285281?sp_atk=1383a861-efb2-4133-a5e7-02748a630287&amp;xptdk=1383a861-efb2-4133-a5e7-02748a630287</v>
       </c>
       <c r="B32" t="str">
-        <v>https://down-th.img.susercontent.com/file/05511ae54dfc2f726b39c79c5ed3c12f_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul3-lk4h93a59v0p66_tn</v>
       </c>
       <c r="C32" t="str">
         <v/>
       </c>
       <c r="D32" t="str">
-        <v>-82%</v>
+        <v>-28%</v>
       </c>
       <c r="E32" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v/>
       </c>
       <c r="F32" t="str">
-        <v>กระเป๋าสะพายหลัง แบบสายรูด สำหรับพกพา</v>
+        <v>นาทีทอง 3 วัน กระเป๋า m.l.b ny รุ่นมีใบลูก สุดฮิต พร้อมกล่อง มีสองสี ขายดีมากงานตามหา</v>
       </c>
       <c r="G32" t="str">
         <v>-</v>
       </c>
       <c r="H32" t="str">
-        <v>9</v>
+        <v>499</v>
       </c>
       <c r="I32" t="str">
-        <v>ขายแล้ว 40.6พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="J32" t="str">
-        <v>ต่างประเทศ</v>
+        <v>509</v>
       </c>
       <c r="K32" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 1.5พัน ชิ้น</v>
       </c>
       <c r="L32" t="str">
-        <v>19</v>
-      </c>
-      <c r="M32" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v>จังหวัดนครปฐม</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://shopee.co.th/(B-950)%F0%9F%94%A5%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%84%E0%B8%B2%E0%B8%94%E0%B8%AB%E0%B8%99%E0%B9%89%E0%B8%B2%E0%B8%AD%E0%B8%81-%E0%B8%84%E0%B8%B2%E0%B8%94%E0%B9%80%E0%B8%AD%E0%B8%A7-%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B8%AA%E0%B8%9B%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%95-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B8%97%E0%B8%B1%E0%B8%94%E0%B8%A3%E0%B8%B1%E0%B8%94-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%9C%E0%B9%89%E0%B8%B2-i.26237854.20376671295?sp_atk=5eb1c3dc-ca63-46b8-9a08-b7fd6d2c06d6&amp;xptdk=5eb1c3dc-ca63-46b8-9a08-b7fd6d2c06d6</v>
+        <v>https://shopee.co.th/Care-Bears-Chain-Crossbody-Bag-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B9%81%E0%B8%84%E0%B8%A3%E0%B9%8C%E0%B9%81%E0%B8%9A%E0%B8%A3%E0%B9%8C-%E0%B8%A5%E0%B8%B4%E0%B8%82%E0%B8%AA%E0%B8%B4%E0%B8%97%E0%B8%98%E0%B8%B4%E0%B9%8C%E0%B9%81%E0%B8%97%E0%B9%89-i.237990287.13148036492?sp_atk=c4a08f11-095c-4448-bfc1-5a585d67ef87&amp;xptdk=c4a08f11-095c-4448-bfc1-5a585d67ef87</v>
       </c>
       <c r="B33" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-23030-nogjtcar0wov95_tn</v>
+        <v>https://down-th.img.susercontent.com/file/81125721b11d62e3ddb0b36b3f6d4546_tn</v>
       </c>
       <c r="C33" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D33" t="str">
-        <v>-64%</v>
+        <v/>
       </c>
       <c r="E33" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
       </c>
       <c r="F33" t="str">
-        <v>(B-950)🔥กระเป๋าคาดหน้าอก คาดเอว สะพายข้าง สไตล์สปอร์ต ขนาดกระทัดรัด กระเป๋าผ้า</v>
+        <v>Care Bears Chain Crossbody Bag - กระเป๋าสะพายข้างแคร์แบร์ ลิขสิทธิ์แท้</v>
       </c>
       <c r="G33" t="str">
-        <v>-</v>
+        <v/>
       </c>
       <c r="H33" t="str">
-        <v>36</v>
+        <v>595</v>
       </c>
       <c r="I33" t="str">
-        <v>ขายแล้ว 19.5พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="J33" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v/>
       </c>
       <c r="K33" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 4.8พัน ชิ้น</v>
       </c>
       <c r="L33" t="str">
-        <v>38</v>
-      </c>
-      <c r="M33" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v>จังหวัดปทุมธานี</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://shopee.co.th/%F0%9F%94%A5%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B9%82%E0%B8%84%E0%B9%89%E0%B8%94-INCLZ12-%E0%B8%A5%E0%B8%94-50-%F0%9F%94%A5-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%AB%E0%B8%A5%E0%B9%88-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2-%E0%B8%8D%E0%B8%B5%E0%B9%88%E0%B8%9B%E0%B8%B8%E0%B9%88%E0%B8%99-Retro-%E0%B8%A1%E0%B8%B5%E0%B8%AA%E0%B8%B2%E0%B8%A2%E0%B8%84%E0%B8%A5%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B9%84%E0%B8%AB%E0%B8%A5%E0%B9%88-%E0%B8%97%E0%B8%A3%E0%B8%87-%E0%B8%AA%E0%B8%B5%E0%B9%88%E0%B9%80%E0%B8%AB%E0%B8%A5%E0%B8%B5%E0%B9%88%E0%B8%A2%E0%B8%A1%E0%B9%81%E0%B8%99%E0%B8%A7%E0%B8%99%E0%B8%AD%E0%B8%99-%E0%B8%A1%E0%B8%B5-5-%E0%B8%AA%E0%B8%B5-i.62685270.21438951997?sp_atk=1c286a3f-1b04-43c5-9740-3e8c4f2da79f&amp;xptdk=1c286a3f-1b04-43c5-9740-3e8c4f2da79f</v>
+        <v>https://shopee.co.th/JUST-STAR-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87-%E0%B8%97%E0%B8%A3%E0%B8%87%E0%B8%AA%E0%B8%B5%E0%B9%88%E0%B9%80%E0%B8%AB%E0%B8%A5%E0%B8%B5%E0%B9%88%E0%B8%A2%E0%B8%A1-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%81-%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B8%A2%E0%B8%AD%E0%B8%94%E0%B8%99%E0%B8%B4%E0%B8%A2%E0%B8%A1-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-i.593652892.22046466097?sp_atk=d2ea5ac4-c6b7-4421-a26e-30b42c8d4db5&amp;xptdk=d2ea5ac4-c6b7-4421-a26e-30b42c8d4db5</v>
       </c>
       <c r="B34" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98u-lojcb4ooygv362_tn</v>
+        <v>https://down-th.img.susercontent.com/file/cn-11134211-7r98o-lpqc5mybyo8zed_tn</v>
       </c>
       <c r="C34" t="str">
         <v/>
       </c>
       <c r="D34" t="str">
-        <v/>
+        <v>-60%</v>
       </c>
       <c r="E34" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="F34" t="str">
-        <v>🔥ใส่โค้ด INCLZ12 ลด 50%🔥 กระเป๋าสะพายไหล่ กระเป๋า ญี่ปุ่น Retro มีสายคล้องไหล่ ทรง สี่เหลี่ยมแนวนอน มี 5 สี</v>
+        <v>JUST STAR  กระเป๋าสะพายข้าง ทรงสี่เหลี่ยม ขนาดเล็ก แฟชั่นยอดนิยม สไตล์เกาหลี สําหรับผู้หญิง</v>
       </c>
       <c r="G34" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="H34" t="str">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="I34" t="str">
-        <v>ขายแล้ว 14.3พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="J34" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>86</v>
       </c>
       <c r="K34" t="str">
-        <v/>
+        <v>ขายแล้ว 6.6พัน ชิ้น</v>
       </c>
       <c r="L34" t="str">
-        <v/>
-      </c>
-      <c r="M34" t="str">
-        <v/>
+        <v>ต่างประเทศ</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://shopee.co.th/(B-954)%F0%9F%94%A5-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%9C%E0%B9%89%E0%B8%B2-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B8%A1%E0%B8%B2-%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%AA%E0%B8%81%E0%B9%8A%E0%B8%AD%E0%B8%95-plaid-bag(%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A1%E0%B8%B5%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%AB%E0%B9%89%E0%B8%AD%E0%B8%A2%E0%B9%81%E0%B8%96%E0%B8%A1)-i.26237854.22234963267?sp_atk=b586e2ba-60cc-46d2-8e5b-b34970e60701&amp;xptdk=b586e2ba-60cc-46d2-8e5b-b34970e60701</v>
+        <v>https://shopee.co.th/%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%AB%E0%B8%A1%E0%B8%B5-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B8%82%E0%B8%AD%E0%B8%87-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%AB%E0%B8%B9%E0%B8%A3%E0%B8%B9%E0%B8%94-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B9%84%E0%B8%94%E0%B9%89%E0%B8%AD%E0%B8%A2%E0%B9%88%E0%B8%B2%E0%B8%87%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2%E0%B8%94%E0%B8%B2%E0%B8%A2-%E0%B8%99%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%AB%E0%B8%A1%E0%B8%B5-4-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B9%80%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%81-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B9%86-%E0%B9%80%E0%B8%9B%E0%B8%B4%E0%B8%94-%E0%B8%9B%E0%B8%B4%E0%B8%94%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%83%E0%B8%8A%E0%B9%89-i.448328557.17598514562?sp_atk=2f0d8e96-e4d1-4d3b-9c42-30344d95b994&amp;xptdk=2f0d8e96-e4d1-4d3b-9c42-30344d95b994</v>
       </c>
       <c r="B35" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qukw-leu6wcoj445tdd_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7qvcw-lki0dar931x5dc_tn</v>
       </c>
       <c r="C35" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D35" t="str">
-        <v>-46%</v>
+        <v>-75%</v>
       </c>
       <c r="E35" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v/>
       </c>
       <c r="F35" t="str">
-        <v>(B-954)🔥 กระเป๋าสะพายข้าง กระเป๋าผ้า สไตล์เกาหลี แฟชั่นมา น่ารัก กระเป๋าลายสก๊อต-plaid bag(ไม่มีที่ห้อยแถม)</v>
+        <v>ถุงหมี ถุงใส่ของ ถุงหูรูด กันน้ำ ใช้งานได้อย่างง่ายดาย น้องหมี 4 ขนาด ให้เลือก แบบน่ารักๆ เปิด/ปิดง่าย ใส่ของใช้</v>
       </c>
       <c r="G35" t="str">
         <v>-</v>
       </c>
       <c r="H35" t="str">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="I35" t="str">
-        <v>ขายแล้ว 34.9พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="J35" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v>4</v>
       </c>
       <c r="K35" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 3.2พัน ชิ้น</v>
       </c>
       <c r="L35" t="str">
-        <v>63</v>
-      </c>
-      <c r="M35" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://shopee.co.th/B-182%F0%9F%94%A5%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%96%E0%B8%B7%E0%B8%AD-%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%95%E0%B8%B9%E0%B8%99-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%97%E0%B8%AD-%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B8%AA%E0%B8%9B%E0%B8%B1%E0%B8%99%E0%B8%9A%E0%B8%AD%E0%B8%99%E0%B8%94%E0%B9%8C-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%AB%E0%B8%B4%E0%B8%A7%E0%B8%8A%E0%B9%89%E0%B8%AD%E0%B8%9B%E0%B8%9B%E0%B8%B4%E0%B9%89%E0%B8%87-%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B9%86-i.26237854.23446007121?sp_atk=58ca43b0-4ca2-4b47-8535-07df32a93250&amp;xptdk=58ca43b0-4ca2-4b47-8535-07df32a93250</v>
+        <v>https://shopee.co.th/GUCSELECTED(B1641)-w1%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B8%AA%E0%B8%B2%E0%B8%A2%E0%B9%80%E0%B8%8A%E0%B8%B7%E0%B8%AD%E0%B8%81SPOR%E0%B9%80%E0%B8%A7%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-i.13835021.5194216444?sp_atk=894a159f-e0be-48ad-b80a-e11a7f6a5cf4&amp;xptdk=894a159f-e0be-48ad-b80a-e11a7f6a5cf4</v>
       </c>
       <c r="B36" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul3-li8gckq427zc4f_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul4-lfcgh6rz9xqf48_tn</v>
       </c>
       <c r="C36" t="str">
         <v>ร้านแนะนำ</v>
       </c>
       <c r="D36" t="str">
-        <v>-95%</v>
+        <v>-62%</v>
       </c>
       <c r="E36" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v/>
       </c>
       <c r="F36" t="str">
-        <v>B-182🔥พร้อมส่ง กระเป๋าถือ ลายการ์ตูน ถุงผ้าไม่ทอ ผ้าสปันบอนด์ ถุงหิวช้อปปิ้ง น่ารักๆ</v>
+        <v>GUCSELECTED(B1641) -w1กระเป๋าผ้าสะพายข้างสายเชือกSPORเวอร์ชั่นเกาหลี</v>
       </c>
       <c r="G36" t="str">
-        <v>-</v>
+        <v>฿129</v>
       </c>
       <c r="H36" t="str">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="I36" t="str">
-        <v>ขายแล้ว 512.3พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="J36" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v/>
       </c>
       <c r="K36" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 25.3พัน ชิ้น</v>
       </c>
       <c r="L36" t="str">
-        <v>9</v>
-      </c>
-      <c r="M36" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://shopee.co.th/Perfect-girls-%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A2%E0%B9%8C%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%94-20ml-%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1-%E0%B9%80%E0%B9%80%E0%B8%AD%E0%B8%A5%E0%B8%81%E0%B8%AD%E0%B8%AE%E0%B8%AD%E0%B8%A5%E0%B9%8C-%E0%B8%82%E0%B8%A7%E0%B8%94%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A3%E0%B8%A2%E0%B9%8C-%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%94%E0%B8%A7%E0%B8%81-%E0%B8%84%E0%B8%B8%E0%B8%93%E0%B8%A0%E0%B8%B2%E0%B8%9E%E0%B8%94%E0%B8%B5-i.498271361.16411453269?sp_atk=8b21be95-b33d-417a-8fb6-3fc3908db809&amp;xptdk=8b21be95-b33d-417a-8fb6-3fc3908db809</v>
+        <v>https://shopee.co.th/Tpartner-%E2%80%8B-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%87%E0%B9%80%E0%B8%9F%E0%B8%A3%E0%B8%A1%E0%B8%8B%E0%B8%B4%E0%B8%9B%E0%B8%A3%E0%B8%B8%E0%B9%88%E0%B8%99-Eco-Series-i.76171761.18165811206?sp_atk=3c036b08-e882-4208-93fe-636d7b0bfcf9&amp;xptdk=3c036b08-e882-4208-93fe-636d7b0bfcf9</v>
       </c>
       <c r="B37" t="str">
-        <v>https://down-th.img.susercontent.com/file/fbe8157784b821124d07c42d76c467e9_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-22120-j5q6p7x8nwkve6_tn</v>
       </c>
       <c r="C37" t="str">
         <v/>
       </c>
       <c r="D37" t="str">
-        <v>-90%</v>
+        <v>-53%</v>
       </c>
       <c r="E37" t="str">
         <v/>
       </c>
       <c r="F37" t="str">
-        <v>Perfect girls สเปย์การ์ด 20ml ใส่น้ำหอม เเอลกอฮอล์ ขวดสเปรย์ พกพาสะดวก คุณภาพดี</v>
+        <v>Tpartner ​ กระเป๋าเดินทางเฟรมซิปรุ่น Eco Series</v>
       </c>
       <c r="G37" t="str">
-        <v>฿29</v>
+        <v>-</v>
       </c>
       <c r="H37" t="str">
-        <v>3</v>
+        <v>359</v>
       </c>
       <c r="I37" t="str">
-        <v>ขายแล้ว 19.8พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="J37" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>1,299</v>
       </c>
       <c r="K37" t="str">
-        <v/>
+        <v>ขายแล้ว 13.8พัน ชิ้น</v>
       </c>
       <c r="L37" t="str">
-        <v/>
-      </c>
-      <c r="M37" t="str">
-        <v/>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://shopee.co.th/Mc-JEANS-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2-%E0%B8%AD%E0%B9%80%E0%B8%99%E0%B8%81%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B8%AA%E0%B8%87%E0%B8%84%E0%B9%8C-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2-%E0%B8%9C%E0%B9%89%E0%B8%B2-mc-%E0%B9%81%E0%B8%97%E0%B9%89-%E0%B8%84%E0%B8%B2%E0%B8%94%E0%B8%AD%E0%B8%81-%E0%B8%84%E0%B8%B2%E0%B8%94%E0%B9%80%E0%B8%AD%E0%B8%A7-%E0%B8%A3%E0%B8%B8%E0%B9%88%E0%B8%99%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B8%94%E0%B8%B5-%E0%B8%A1%E0%B8%B5%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B9%80%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%81-2-%E0%B8%A3%E0%B8%B8%E0%B9%88%E0%B8%99-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B9%80%E0%B8%9A%E0%B8%B2-%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-M02Z022-i.33941930.5413640605?sp_atk=ad7d1cd3-32bf-4331-a05e-e13d6af58f3e&amp;xptdk=ad7d1cd3-32bf-4331-a05e-e13d6af58f3e</v>
+        <v>https://shopee.co.th/B-187%F0%9F%94%A5%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-%E0%B9%83%E0%B8%95%E0%B9%89%E0%B8%A7%E0%B8%87%E0%B9%81%E0%B8%82%E0%B8%99-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-7%E0%B8%AA%E0%B8%B5-the-flowers-i.26237854.12799569924?sp_atk=dee94d13-66c5-4e6c-bba8-3f59e31b9723&amp;xptdk=dee94d13-66c5-4e6c-bba8-3f59e31b9723</v>
       </c>
       <c r="B38" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-23020-fonoq9tp6mnv82_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul5-li9t3x6lxwq074_tn</v>
       </c>
       <c r="C38" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D38" t="str">
-        <v>-30%</v>
+        <v>-53%</v>
       </c>
       <c r="E38" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="F38" t="str">
-        <v>Mc JEANS กระเป๋าสะพาย อเนกประสงค์ กระเป๋า ผ้า mc แท้ คาดอก คาดเอว รุ่นขายดี มีให้เลือก 2 รุ่น น้ำหนักเบา พกพาง่าย M02Z022</v>
+        <v>B-187🔥กระเป๋าสะพายข้าง สไตล์เกาหลี ใต้วงแขน สําหรับผู้หญิง 7สี the flowers</v>
       </c>
       <c r="G38" t="str">
-        <v>฿1,195</v>
+        <v>฿180</v>
       </c>
       <c r="H38" t="str">
-        <v>836</v>
+        <v>85</v>
       </c>
       <c r="I38" t="str">
-        <v>ขายแล้ว 15พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="J38" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v/>
       </c>
       <c r="K38" t="str">
-        <v/>
+        <v>ขายแล้ว 6.3พัน ชิ้น</v>
       </c>
       <c r="L38" t="str">
-        <v/>
-      </c>
-      <c r="M38" t="str">
-        <v/>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://shopee.co.th/Care-Bears-Chain-Crossbody-Bag-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B9%81%E0%B8%84%E0%B8%A3%E0%B9%8C%E0%B9%81%E0%B8%9A%E0%B8%A3%E0%B9%8C-%E0%B8%A5%E0%B8%B4%E0%B8%82%E0%B8%AA%E0%B8%B4%E0%B8%97%E0%B8%98%E0%B8%B4%E0%B9%8C%E0%B9%81%E0%B8%97%E0%B9%89-i.237990287.13148036492?sp_atk=1304ecc9-962a-47de-bbee-823af5e6f88b&amp;xptdk=1304ecc9-962a-47de-bbee-823af5e6f88b</v>
+        <v>https://shopee.co.th/%F0%9F%A4%8D%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%F0%9F%A4%8D-%E0%B8%8B%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%9A%E0%B9%88%E0%B8%87%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%80%E0%B8%AB%E0%B8%A5%E0%B8%A7%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%80%E0%B8%AB%E0%B8%A5%E0%B8%A7-%E0%B8%8B%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%9A%E0%B9%88%E0%B8%87%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%9D%E0%B8%B2%E0%B9%80%E0%B8%81%E0%B8%A5%E0%B8%B5%E0%B8%A2%E0%B8%A7-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%9A%E0%B8%A3%E0%B8%A3%E0%B8%88%E0%B8%B8%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%80%E0%B8%AB%E0%B8%A5%E0%B8%A7-%E0%B8%8B%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%9A%E0%B9%88%E0%B8%87%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%80%E0%B8%AB%E0%B8%A5%E0%B8%A7-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1-i.364065682.19924210396?sp_atk=abc3ae1c-73e5-40cb-8268-44467a997b32&amp;xptdk=abc3ae1c-73e5-40cb-8268-44467a997b32</v>
       </c>
       <c r="B39" t="str">
-        <v>https://down-th.img.susercontent.com/file/81125721b11d62e3ddb0b36b3f6d4546_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qukz-liu3vv4w3oupb2_tn</v>
       </c>
       <c r="C39" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D39" t="str">
-        <v/>
+        <v>-67%</v>
       </c>
       <c r="E39" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F39" t="str">
-        <v>Care Bears Chain Crossbody Bag - กระเป๋าสะพายข้างแคร์แบร์ ลิขสิทธิ์แท้</v>
+        <v>🤍พร้อมส่ง🤍 ซองแบ่งของเหลวพกพา ถุงใส่ของเหลว ซองแบ่งครีมขนาดพกพา ถุงฝาเกลียว ถุงบรรจุของเหลว ซองแบ่งของเหลว ถุงใส่ครีม</v>
       </c>
       <c r="G39" t="str">
-        <v/>
+        <v>-</v>
       </c>
       <c r="H39" t="str">
-        <v>595</v>
+        <v>3</v>
       </c>
       <c r="I39" t="str">
-        <v>ขายแล้ว 4.7พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="J39" t="str">
-        <v>จังหวัดปทุมธานี</v>
+        <v>6</v>
       </c>
       <c r="K39" t="str">
-        <v/>
+        <v>ขายแล้ว 65.9พัน ชิ้น</v>
       </c>
       <c r="L39" t="str">
-        <v/>
-      </c>
-      <c r="M39" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://shopee.co.th/%F0%9F%94%A5(B-205)%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%95%E0%B8%B2%E0%B8%87%E0%B8%84%E0%B9%8C%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%95%E0%B8%B2%E0%B8%87%E0%B8%84%E0%B9%8C-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%8A%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B8%9A%E0%B8%B1%E0%B8%95%E0%B8%A3-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-%E0%B9%83%E0%B8%9A%E0%B8%AA%E0%B8%B1%E0%B9%89%E0%B8%99-i.26237854.19381589734?sp_atk=39caf762-355f-4c76-8c85-32e2099011c6&amp;xptdk=39caf762-355f-4c76-8c85-32e2099011c6</v>
+        <v>https://shopee.co.th/%E0%B8%AB%E0%B8%A1%E0%B8%AD%E0%B8%99%E0%B8%A3%E0%B8%AD%E0%B8%87%E0%B8%84%E0%B8%AD-Memory-Foam-%E0%B8%A1%E0%B9%89%E0%B8%A7%E0%B8%99%E0%B9%80%E0%B8%81%E0%B9%87%E0%B8%9A%E0%B9%84%E0%B8%94%E0%B9%89-i.24561084.1326836483?sp_atk=08e32d8e-ddd3-45d6-8bec-42ab779a0357&amp;xptdk=08e32d8e-ddd3-45d6-8bec-42ab779a0357</v>
       </c>
       <c r="B40" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul0-lix0zkqjvgmg15_tn</v>
+        <v>https://down-th.img.susercontent.com/file/3696bdbea8a1b5c11bd8fd067f40bab4_tn</v>
       </c>
       <c r="C40" t="str">
         <v>ร้านแนะนำ</v>
       </c>
       <c r="D40" t="str">
-        <v>-57%</v>
+        <v>-56%</v>
       </c>
       <c r="E40" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F40" t="str">
-        <v>🔥(B-205)กระเป๋าสตางค์น่ารัก กระเป๋าสตางค์ พร้อมช่องใส่บัตร สําหรับผู้หญิง ใบสั้น</v>
+        <v>หมอนรองคอ Memory Foam ม้วนเก็บได้</v>
       </c>
       <c r="G40" t="str">
         <v>-</v>
       </c>
       <c r="H40" t="str">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="I40" t="str">
+        <v>฿</v>
+      </c>
+      <c r="J40" t="str">
+        <v>199</v>
+      </c>
+      <c r="K40" t="str">
         <v>ขายแล้ว 21.9พัน ชิ้น</v>
       </c>
-      <c r="J40" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
-      </c>
-      <c r="K40" t="str">
-        <v>฿</v>
-      </c>
       <c r="L40" t="str">
-        <v>45</v>
-      </c>
-      <c r="M40" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://shopee.co.th/B-931-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%95%E0%B8%B2%E0%B8%87%E0%B8%84%E0%B9%8C%E0%B9%83%E0%B8%9A%E0%B8%AA%E0%B8%B1%E0%B9%89%E0%B8%99-%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%9A%E0%B8%B2%E0%B8%87%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%94%E0%B8%A7%E0%B8%81%E0%B8%B0%E0%B8%94%E0%B8%A7%E0%B8%81-i.26237854.23111497571?sp_atk=16f10567-86ce-48a7-8332-118df1bcc377&amp;xptdk=16f10567-86ce-48a7-8332-118df1bcc377</v>
+        <v>https://shopee.co.th/AMILA-STANDOIL-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%95%E0%B8%A3%E0%B8%B5%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-Glossy-Black-%E0%B8%AA%E0%B8%B4%E0%B8%97%E0%B8%98%E0%B8%B4%E0%B8%9A%E0%B8%B1%E0%B8%95%E0%B8%A3%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%87%E0%B9%84%E0%B8%AB%E0%B8%A5%E0%B9%88%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2-Retro-Preppy-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%88%E0%B8%B8%E0%B8%AA%E0%B8%B9%E0%B8%87%E0%B8%A7%E0%B8%B4%E0%B8%97%E0%B8%A2%E0%B8%B2%E0%B8%A5%E0%B8%B1%E0%B8%A2%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B9%80%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%99%E0%B8%9E%E0%B8%A3%E0%B9%87%E0%B8%AD%E0%B8%9E%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2-i.593877548.18859503981?sp_atk=9cfc06ba-59d7-4237-9917-6ac5df012aa9&amp;xptdk=9cfc06ba-59d7-4237-9917-6ac5df012aa9</v>
       </c>
       <c r="B41" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-22120-sbjr5mtqk5kvbc_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qukx-lgkhz2en3sr2e2_tn</v>
       </c>
       <c r="C41" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D41" t="str">
-        <v>-44%</v>
+        <v>-59%</v>
       </c>
       <c r="E41" t="str">
         <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F41" t="str">
-        <v>B-931 กระเป๋าสตางค์ใบสั้น แฟชั่นแบบบางพกพาสะดวกะดวก</v>
+        <v>AMILA STANDOIL กระเป๋าสตรีเกาหลี Glossy Black สิทธิบัตรหนังไหล่กระเป๋า Retro Preppy สไตล์ความจุสูงวิทยาลัยนักเรียนพร็อพกระเป๋า</v>
       </c>
       <c r="G41" t="str">
-        <v>฿50</v>
+        <v>-</v>
       </c>
       <c r="H41" t="str">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="I41" t="str">
-        <v>ขายแล้ว 60.4พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="J41" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v>251</v>
       </c>
       <c r="K41" t="str">
-        <v/>
+        <v>ขายแล้ว 11.5พัน ชิ้น</v>
       </c>
       <c r="L41" t="str">
-        <v/>
-      </c>
-      <c r="M41" t="str">
-        <v/>
+        <v>ต่างประเทศ</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://shopee.co.th/B-136%F0%9F%94%A5%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%F0%9F%94%A5%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%80%E0%B8%9B%E0%B9%89-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99-%E0%B8%84%E0%B8%A7%E0%B8%B2%E0%B8%A1%E0%B8%88%E0%B8%B8%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B9%83%E0%B8%AB%E0%B8%8D%E0%B9%88%E0%B9%80%E0%B8%A7%E0%B8%AD%E0%B8%A3%E0%B9%8C%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%80%E0%B8%9B%E0%B9%89%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%AB%E0%B8%A5%E0%B8%B1%E0%B8%87-%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B9%80%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%99%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99-BE-YOUR-STYLE-i.26237854.1731952485?sp_atk=209044b7-7c37-402e-a4f0-e6e41480e6f3&amp;xptdk=209044b7-7c37-402e-a4f0-e6e41480e6f3</v>
+        <v>https://shopee.co.th/%E0%B8%AA%E0%B8%B2%E0%B8%A2%E0%B8%A3%E0%B8%B1%E0%B8%94%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%87-Luggage-Strap-i.24561084.885609026?sp_atk=a7510436-4100-443f-9027-9af4f9ee9e22&amp;xptdk=a7510436-4100-443f-9027-9af4f9ee9e22</v>
       </c>
       <c r="B42" t="str">
-        <v>https://down-th.img.susercontent.com/file/573a64079bbd278ee20c06d566b91d22_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r990-loavqcpnefowbf_tn</v>
       </c>
       <c r="C42" t="str">
         <v>ร้านแนะนำ</v>
       </c>
       <c r="D42" t="str">
-        <v>-68%</v>
+        <v>-47%</v>
       </c>
       <c r="E42" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F42" t="str">
-        <v>B-136🔥พร้อมส่ง🔥กระเป๋าเป้ กระเป๋าแฟชั่น ความจุขนาดใหญ่เวอร์ชั่นเกาหลีของกระเป๋าเป้สะพายหลัง นักเรียนแฟชั่น BE YOUR STYLE</v>
+        <v>สายรัดกระเป๋าเดินทาง - Luggage Strap</v>
       </c>
       <c r="G42" t="str">
         <v>-</v>
       </c>
       <c r="H42" t="str">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="I42" t="str">
-        <v>ขายแล้ว 37.5พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="J42" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v>85</v>
       </c>
       <c r="K42" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 15.9พัน ชิ้น</v>
       </c>
       <c r="L42" t="str">
-        <v>57</v>
-      </c>
-      <c r="M42" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://shopee.co.th/%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AA%E0%B8%B3%E0%B8%AD%E0%B8%B2%E0%B8%87-%E0%B8%97%E0%B8%A3%E0%B8%87%E0%B8%81%E0%B8%A5%E0%B9%88%E0%B8%AD%E0%B8%87-%E0%B8%82%E0%B8%99%E0%B8%99%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%99%E0%B8%B4%E0%B9%88%E0%B8%A1-%E0%B9%84%E0%B8%8B%E0%B8%AA%E0%B9%8C%E0%B8%A1%E0%B8%B4%E0%B8%99%E0%B8%B4-%E0%B8%A1%E0%B8%B57%E0%B8%A5%E0%B8%B2%E0%B8%A2-i.37723018.20788442997?sp_atk=53a25303-3881-4202-afd7-b93ebc8a17ba&amp;xptdk=53a25303-3881-4202-afd7-b93ebc8a17ba</v>
+        <v>https://shopee.co.th/ShopeeFood-%E0%B9%80%E0%B8%8B%E0%B9%87%E0%B8%95%E0%B8%AD%E0%B8%B8%E0%B8%9B%E0%B8%81%E0%B8%A3%E0%B8%93%E0%B9%8C%E0%B9%80%E0%B8%94%E0%B8%A5%E0%B8%B4%E0%B9%80%E0%B8%A7%E0%B8%AD%E0%B8%A3%E0%B8%B5-SS-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%81-%E0%B9%80%E0%B8%AA%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%A2%E0%B8%B7%E0%B8%94%E0%B9%81%E0%B8%82%E0%B8%99%E0%B8%A2%E0%B8%B2%E0%B8%A7-i.474642576.20971071950?sp_atk=43f9af45-e54f-41cb-97d6-902932d175cc&amp;xptdk=43f9af45-e54f-41cb-97d6-902932d175cc</v>
       </c>
       <c r="B43" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rblo-lma06zu55k3pfb_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qukw-lep9gj95nr4z5f_tn</v>
       </c>
       <c r="C43" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D43" t="str">
-        <v>-78%</v>
+        <v/>
       </c>
       <c r="E43" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v/>
       </c>
       <c r="F43" t="str">
-        <v>กระเป๋าแฟชั่น กระเป๋าใส่เครื่องสำอาง ทรงกล่อง ขนนุ่มนิ่ม ไซส์มินิ มี7ลาย</v>
+        <v>ShopeeFood เซ็ตอุปกรณ์เดลิเวอรี SS  กระเป๋าขนาดเล็ก+เสื้อยืดแขนยาว</v>
       </c>
       <c r="G43" t="str">
-        <v>฿159</v>
+        <v/>
       </c>
       <c r="H43" t="str">
-        <v>65</v>
+        <v>650</v>
       </c>
       <c r="I43" t="str">
-        <v>ขายแล้ว 8.9พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="J43" t="str">
-        <v>จังหวัดนนทบุรี</v>
+        <v/>
       </c>
       <c r="K43" t="str">
-        <v/>
+        <v>ขายแล้ว 5.4พัน ชิ้น</v>
       </c>
       <c r="L43" t="str">
-        <v/>
-      </c>
-      <c r="M43" t="str">
-        <v/>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://shopee.co.th/GUCSELECTED(B1833)-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B9%84%E0%B8%99%E0%B8%A5%E0%B9%88%E0%B8%AD%E0%B8%99%E0%B8%AA%E0%B8%B5%E0%B8%9E%E0%B8%B7%E0%B9%89%E0%B8%99%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B9%80%E0%B8%AA%E0%B9%89%E0%B8%99-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5(%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A1%E0%B8%B5%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%AB%E0%B9%89%E0%B8%AD%E0%B8%A2%E0%B9%81%E0%B8%96%E0%B8%A1)-i.13835021.20672930651?sp_atk=fd6d772f-dea5-478d-b510-930f2167833a&amp;xptdk=fd6d772f-dea5-478d-b510-930f2167833a</v>
+        <v>https://shopee.co.th/B-931-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%95%E0%B8%B2%E0%B8%87%E0%B8%84%E0%B9%8C%E0%B9%83%E0%B8%9A%E0%B8%AA%E0%B8%B1%E0%B9%89%E0%B8%99-%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%9A%E0%B8%B2%E0%B8%87%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%94%E0%B8%A7%E0%B8%81%E0%B8%B0%E0%B8%94%E0%B8%A7%E0%B8%81-i.26237854.23111497571?sp_atk=3505bebc-a763-4ca9-854e-8d41cdf92bd4&amp;xptdk=3505bebc-a763-4ca9-854e-8d41cdf92bd4</v>
       </c>
       <c r="B44" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul5-lga9jz8g2nguec_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-22120-sbjr5mtqk5kvbc_tn</v>
       </c>
       <c r="C44" t="str">
         <v>ร้านแนะนำ</v>
       </c>
       <c r="D44" t="str">
-        <v>-74%</v>
+        <v>-44%</v>
       </c>
       <c r="E44" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F44" t="str">
-        <v>GUCSELECTED(B1833) กระเป๋าสะพายข้างผ้าไนล่อนสีพื้นลายเส้น สไตล์เกาหลี(ไม่มีที่ห้อยแถม)</v>
+        <v>B-931 กระเป๋าสตางค์ใบสั้น แฟชั่นแบบบางพกพาสะดวกะดวก</v>
       </c>
       <c r="G44" t="str">
-        <v>฿179</v>
+        <v>฿50</v>
       </c>
       <c r="H44" t="str">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I44" t="str">
-        <v>ขายแล้ว 9.4พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="J44" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v/>
       </c>
       <c r="K44" t="str">
-        <v/>
+        <v>ขายแล้ว 60.6พัน ชิ้น</v>
       </c>
       <c r="L44" t="str">
-        <v/>
-      </c>
-      <c r="M44" t="str">
-        <v/>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://shopee.co.th/%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2-Tote-Bag-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B8%A1%E0%B8%B4%E0%B8%99%E0%B8%B4%E0%B8%A1%E0%B8%AD%E0%B8%A5-9-%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%AA%E0%B8%81%E0%B8%A3%E0%B8%B5%E0%B8%99-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-43x33cm-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%9C%E0%B9%89%E0%B8%B2-i.65173690.11482878789?sp_atk=f12db738-19d0-41aa-bc01-a47e00b80ed4&amp;xptdk=f12db738-19d0-41aa-bc01-a47e00b80ed4</v>
+        <v>https://shopee.co.th/%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%AB%E0%B8%A5%E0%B9%88-%E0%B8%A5%E0%B9%8D%E0%B8%B2%E0%B8%A5%E0%B8%AD%E0%B8%87-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%AA%E0%B8%95%E0%B8%A3%E0%B8%B5-%E0%B8%88%E0%B8%B8%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%84%E0%B8%94%E0%B9%89%E0%B9%80%E0%B8%A2%E0%B8%AD%E0%B8%B0-%E0%B8%97%E0%B8%A3%E0%B8%87%E0%B9%80%E0%B8%A1%E0%B8%AA%E0%B9%80%E0%B8%8B%E0%B8%99%E0%B9%80%E0%B8%88%E0%B8%AD%E0%B8%A3%E0%B9%8C-%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%81%E0%B9%89%E0%B8%AD%E0%B8%99%E0%B9%80%E0%B8%A1%E0%B8%86%E0%B9%82%E0%B8%88%E0%B9%8A%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%AD%E0%B8%A3%E0%B9%8C-i.729667409.18675845883?sp_atk=d081bdd2-d516-4faa-ae05-f407fcb67f0a&amp;xptdk=d081bdd2-d516-4faa-ae05-f407fcb67f0a</v>
       </c>
       <c r="B45" t="str">
-        <v>https://down-th.img.susercontent.com/file/9ca848e29395318ed1a7aba164a84260_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-23020-lnhnelnbz3nv83_tn</v>
       </c>
       <c r="C45" t="str">
         <v/>
@@ -2192,502 +2060,466 @@
         <v>-81%</v>
       </c>
       <c r="E45" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-dfe02b2e2296fa17d79fc513bfadb4da</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F45" t="str">
-        <v>กระเป๋า Tote Bag กระเป๋าผ้ามินิมอล 9 ลายสกรีน ขนาด 43x33cm กระเป๋าผ้า</v>
+        <v>ใหม่ กระเป๋าสะพายไหล่ ลําลอง สําหรับสตรี จุของได้เยอะ ทรงเมสเซนเจอร์ ลายก้อนเมฆโจ๊กเกอร์</v>
       </c>
       <c r="G45" t="str">
         <v>-</v>
       </c>
       <c r="H45" t="str">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I45" t="str">
-        <v>ขายแล้ว 150.3พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="J45" t="str">
-        <v>จังหวัดมุกดาหาร</v>
+        <v>46</v>
       </c>
       <c r="K45" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 37.1พัน ชิ้น</v>
       </c>
       <c r="L45" t="str">
-        <v>26</v>
-      </c>
-      <c r="M45" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
+        <v>ต่างประเทศ</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://shopee.co.th/B-917-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B9%81%E0%B8%84%E0%B8%99%E0%B8%A7%E0%B8%B2%E0%B8%AA-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%96%E0%B8%B7%E0%B8%AD-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-6%E0%B8%AA%E0%B8%B5-i.26237854.22803402665?sp_atk=e3223bc6-b645-4e7d-887d-3ac5982563a7&amp;xptdk=e3223bc6-b645-4e7d-887d-3ac5982563a7</v>
+        <v>https://shopee.co.th/%E0%B8%82%E0%B8%A7%E0%B8%94%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A2%E0%B9%8C-10-150ml-%E0%B9%80%E0%B8%99%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%9E%E0%B8%AA%E0%B8%B2%E0%B8%95%E0%B8%B4%E0%B8%81%E0%B9%80%E0%B8%81%E0%B8%A3%E0%B8%94%E0%B8%94%E0%B8%B5-%E0%B8%A3%E0%B8%B2%E0%B8%84%E0%B8%B2%E0%B9%82%E0%B8%A3%E0%B8%87%E0%B8%87%E0%B8%B2%E0%B8%99-%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87-i.270411891.8156143531?sp_atk=59f83f0a-c18e-4fa5-86aa-677fd9730d75&amp;xptdk=59f83f0a-c18e-4fa5-86aa-677fd9730d75</v>
       </c>
       <c r="B46" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-22110-v334ttd9odjv6f_tn</v>
+        <v>https://down-th.img.susercontent.com/file/39f3329c53f3e9febc808691967e2ce1_tn</v>
       </c>
       <c r="C46" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D46" t="str">
-        <v>-51%</v>
+        <v>-71%</v>
       </c>
       <c r="E46" t="str">
         <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F46" t="str">
-        <v>B-917 กระเป๋าผ้าแคนวาส กระเป๋าถือ สไตล์เกาหลี 6สี</v>
+        <v>ขวดสเปย์ 10-150ml เนื้อพสาติกเกรดดี ราคาโรงงาน พร้อมส่ง</v>
       </c>
       <c r="G46" t="str">
-        <v>฿80</v>
+        <v>-</v>
       </c>
       <c r="H46" t="str">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="I46" t="str">
-        <v>ขายแล้ว 22พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="J46" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v>7</v>
       </c>
       <c r="K46" t="str">
-        <v/>
+        <v>ขายแล้ว 95.3พัน ชิ้น</v>
       </c>
       <c r="L46" t="str">
-        <v/>
-      </c>
-      <c r="M46" t="str">
-        <v/>
+        <v>ต่างประเทศ</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://shopee.co.th/%E0%B8%A1%E0%B8%B58%E0%B8%A5%E0%B8%B2%E0%B8%A2%F0%9F%A4%97-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2BW%E0%B8%AB%E0%B8%A1%E0%B8%B5-%E2%9A%A0%EF%B8%8F%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B9%84%E0%B8%94%E0%B9%89%E0%B8%A3%E0%B8%A7%E0%B8%A1%E0%B8%95%E0%B8%B8%E0%B9%8A%E0%B8%81%E0%B8%95%E0%B8%B2-i.78168007.22272266639?sp_atk=537af3f9-37d9-49eb-9de9-a649218b1fb2&amp;xptdk=537af3f9-37d9-49eb-9de9-a649218b1fb2</v>
+        <v>https://shopee.co.th/GUCSELECTED(B1833)-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B9%84%E0%B8%99%E0%B8%A5%E0%B9%88%E0%B8%AD%E0%B8%99%E0%B8%AA%E0%B8%B5%E0%B8%9E%E0%B8%B7%E0%B9%89%E0%B8%99%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B9%80%E0%B8%AA%E0%B9%89%E0%B8%99-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5(%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A1%E0%B8%B5%E0%B8%97%E0%B8%B5%E0%B9%88%E0%B8%AB%E0%B9%89%E0%B8%AD%E0%B8%A2%E0%B9%81%E0%B8%96%E0%B8%A1)-i.13835021.20672930651?sp_atk=2dafeb77-201c-42fa-a38b-0f48dfad208f&amp;xptdk=2dafeb77-201c-42fa-a38b-0f48dfad208f</v>
       </c>
       <c r="B47" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul0-lilv5c72r20832_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul5-lga9jz8g2nguec_tn</v>
       </c>
       <c r="C47" t="str">
         <v>ร้านแนะนำ</v>
       </c>
       <c r="D47" t="str">
-        <v/>
+        <v>-74%</v>
       </c>
       <c r="E47" t="str">
         <v/>
       </c>
       <c r="F47" t="str">
-        <v>มี8ลาย🤗 กระเป๋าสะพายBWหมี ⚠️ไม่ได้รวมตุ๊กตา</v>
+        <v>GUCSELECTED(B1833) กระเป๋าสะพายข้างผ้าไนล่อนสีพื้นลายเส้น สไตล์เกาหลี(ไม่มีที่ห้อยแถม)</v>
       </c>
       <c r="G47" t="str">
-        <v/>
+        <v>฿179</v>
       </c>
       <c r="H47" t="str">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I47" t="str">
-        <v>ขายแล้ว 5.8พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="J47" t="str">
-        <v>จังหวัดสระแก้ว</v>
+        <v/>
       </c>
       <c r="K47" t="str">
-        <v/>
+        <v>ขายแล้ว 9.5พัน ชิ้น</v>
       </c>
       <c r="L47" t="str">
-        <v/>
-      </c>
-      <c r="M47" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>https://shopee.co.th/Mh-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%96%E0%B8%B7%E0%B8%AD-%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B8%96%E0%B8%B1%E0%B8%81-%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%AA%E0%B8%81%E0%B9%8A%E0%B8%AD%E0%B8%95-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%8B%E0%B9%89%E0%B9%8D%E0%B8%B2%E0%B9%84%E0%B8%94%E0%B9%89-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B9%80%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%99-i.40258835.19870448470?sp_atk=7a1c9398-73b3-4ae3-ad51-460bdc9c3cf5&amp;xptdk=7a1c9398-73b3-4ae3-ad51-460bdc9c3cf5</v>
+        <v>https://shopee.co.th/%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B8%A1%E0%B8%B4%E0%B8%99%E0%B8%B4%E0%B8%A1%E0%B8%AD%E0%B8%A5-10-%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%AA%E0%B8%81%E0%B8%A3%E0%B8%B5%E0%B8%99-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-31x34cm-tote-Bag-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%9C%E0%B9%89%E0%B8%B2-i.65173690.23203332150?sp_atk=d013df6c-fa86-4189-91be-e9d1fea2de57&amp;xptdk=d013df6c-fa86-4189-91be-e9d1fea2de57</v>
       </c>
       <c r="B48" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7qvff-ljj0xynjp7xnaf_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-22110-3wrhn4pa6cjv08_tn</v>
       </c>
       <c r="C48" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D48" t="str">
-        <v>-91%</v>
+        <v>-78%</v>
       </c>
       <c r="E48" t="str">
         <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F48" t="str">
-        <v>Mh กระเป๋าถือ ผ้าถัก ลายสก๊อต ใช้ซ้ําได้ สําหรับผู้หญิง นักเรียน</v>
+        <v>กระเป๋าผ้ามินิมอล 10 ลายสกรีน ขนาด 31x34cm tote Bag กระเป๋าผ้า</v>
       </c>
       <c r="G48" t="str">
         <v>-</v>
       </c>
       <c r="H48" t="str">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I48" t="str">
-        <v>ขายแล้ว 3.9พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="J48" t="str">
-        <v>ต่างประเทศ</v>
+        <v>26</v>
       </c>
       <c r="K48" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 69.9พัน ชิ้น</v>
       </c>
       <c r="L48" t="str">
-        <v>42</v>
-      </c>
-      <c r="M48" t="str">
-        <v/>
+        <v>จังหวัดมุกดาหาร</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>https://shopee.co.th/B-971%F0%9F%94%A5%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%81%E0%B9%89%E0%B8%AD%E0%B8%99%E0%B9%80%E0%B8%A1%E0%B8%86-%E0%B9%83%E0%B8%9A%E0%B9%83%E0%B8%AB%E0%B8%8D%E0%B9%88-%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%84%E0%B8%94%E0%B9%89%E0%B9%80%E0%B8%A2%E0%B8%AD%E0%B8%B0-i.26237854.12198709659?sp_atk=3ff3f2dc-96dd-4289-85a2-9c47cecffbc4&amp;xptdk=3ff3f2dc-96dd-4289-85a2-9c47cecffbc4</v>
+        <v>https://shopee.co.th/%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%96%E0%B8%B7%E0%B8%AD-PVC-%E0%B8%9E%E0%B8%B4%E0%B8%A1%E0%B8%9E%E0%B9%8C%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%99%E0%B8%81%E0%B8%B5%E0%B9%89-%E0%B8%88%E0%B8%B8%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%84%E0%B8%94%E0%B9%89%E0%B9%80%E0%B8%A2%E0%B8%AD%E0%B8%B0-%E0%B8%AA%E0%B8%B0%E0%B8%94%E0%B8%A7%E0%B8%81%E0%B8%AA%E0%B8%9A%E0%B8%B2%E0%B8%A2-%E0%B9%80%E0%B8%AB%E0%B8%A1%E0%B8%B2%E0%B8%B0%E0%B8%81%E0%B8%B1%E0%B8%9A%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%87-i.191570452.21481189752?sp_atk=d340e476-47ac-4658-b82e-86705422fa34&amp;xptdk=d340e476-47ac-4658-b82e-86705422fa34</v>
       </c>
       <c r="B49" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbm1-lman6l1qebww91_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul6-liehp81ut52gff_tn</v>
       </c>
       <c r="C49" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D49" t="str">
-        <v>-56%</v>
+        <v/>
       </c>
       <c r="E49" t="str">
         <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F49" t="str">
-        <v>B-971🔥กระเป๋าสะพายข้างลายก้อนเมฆ ใบใหญ่ ใส่ของได้เยอะ</v>
+        <v>กระเป๋าถือ PVC พิมพ์ลายไนกี้ จุของได้เยอะ สะดวกสบาย เหมาะกับการเดินทาง</v>
       </c>
       <c r="G49" t="str">
-        <v>฿200</v>
+        <v>-</v>
       </c>
       <c r="H49" t="str">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="I49" t="str">
-        <v>ขายแล้ว 16.4พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="J49" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v>125</v>
       </c>
       <c r="K49" t="str">
-        <v/>
+        <v>ขายแล้ว 2พัน ชิ้น</v>
       </c>
       <c r="L49" t="str">
-        <v/>
-      </c>
-      <c r="M49" t="str">
-        <v/>
+        <v>จังหวัดสมุทรสาคร</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>https://shopee.co.th/%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%AB%E0%B8%A1%E0%B8%B5-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B8%82%E0%B8%AD%E0%B8%87-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%AB%E0%B8%B9%E0%B8%A3%E0%B8%B9%E0%B8%94-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B9%83%E0%B8%8A%E0%B9%89%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B9%84%E0%B8%94%E0%B9%89%E0%B8%AD%E0%B8%A2%E0%B9%88%E0%B8%B2%E0%B8%87%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2%E0%B8%94%E0%B8%B2%E0%B8%A2-%E0%B8%99%E0%B9%89%E0%B8%AD%E0%B8%87%E0%B8%AB%E0%B8%A1%E0%B8%B5-4-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-%E0%B9%83%E0%B8%AB%E0%B9%89%E0%B9%80%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%81-%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B9%86-%E0%B9%80%E0%B8%9B%E0%B8%B4%E0%B8%94-%E0%B8%9B%E0%B8%B4%E0%B8%94%E0%B8%87%E0%B9%88%E0%B8%B2%E0%B8%A2-%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%83%E0%B8%8A%E0%B9%89-i.448328557.17598514562?sp_atk=1aa0c080-ad74-4c23-a92d-8b9e287095fc&amp;xptdk=1aa0c080-ad74-4c23-a92d-8b9e287095fc</v>
+        <v>https://shopee.co.th/Mh-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%AB%E0%B8%A5%E0%B9%88-%E0%B9%80%E0%B8%A1%E0%B8%86-%E0%B8%AA%E0%B8%B5%E0%B8%9E%E0%B8%B7%E0%B9%89%E0%B8%99-%E0%B8%AB%E0%B8%A3%E0%B8%B9%E0%B8%AB%E0%B8%A3%E0%B8%B2-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-i.40258835.23983599787?sp_atk=4d1f277b-33a6-48eb-bd53-673c18192588&amp;xptdk=4d1f277b-33a6-48eb-bd53-673c18192588</v>
       </c>
       <c r="B50" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-7qvcw-lki0dar931x5dc_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbkt-lmyc17dfzwo31b_tn</v>
       </c>
       <c r="C50" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D50" t="str">
-        <v>-75%</v>
+        <v>-73%</v>
       </c>
       <c r="E50" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F50" t="str">
-        <v>ถุงหมี ถุงใส่ของ ถุงหูรูด กันน้ำ ใช้งานได้อย่างง่ายดาย น้องหมี 4 ขนาด ให้เลือก แบบน่ารักๆ เปิด/ปิดง่าย ใส่ของใช้</v>
+        <v>Mh กระเป๋าสะพายไหล่ เมฆ สีพื้น หรูหรา สําหรับผู้หญิง</v>
       </c>
       <c r="G50" t="str">
         <v>-</v>
       </c>
       <c r="H50" t="str">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="I50" t="str">
-        <v>ขายแล้ว 3.1พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="J50" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>134</v>
       </c>
       <c r="K50" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 1.5พัน ชิ้น</v>
       </c>
       <c r="L50" t="str">
-        <v>4</v>
-      </c>
-      <c r="M50" t="str">
-        <v/>
+        <v>ต่างประเทศ</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>https://shopee.co.th/(B-154)%F0%9F%94%A5%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%84%E0%B8%99%E0%B8%A5%E0%B8%AD%E0%B8%99-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B8%A1%E0%B8%B2%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-3%E0%B8%AA%E0%B8%B5-(%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A1%E0%B8%B5%E0%B8%88%E0%B8%B5%E0%B9%89%E0%B8%AB%E0%B9%89%E0%B8%AD%E0%B8%A2%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2)-i.26237854.14497555852?sp_atk=6641ee36-45b6-484a-89a3-b796b1925043&amp;xptdk=6641ee36-45b6-484a-89a3-b796b1925043</v>
+        <v>https://shopee.co.th/B-948%F0%9F%94%A5-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%95%E0%B8%B2%E0%B8%87%E0%B8%84%E0%B9%8C-Fashion-%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81-i.26237854.22431211499?sp_atk=1911d559-94f7-4c8e-8699-1bff87a24362&amp;xptdk=1911d559-94f7-4c8e-8699-1bff87a24362</v>
       </c>
       <c r="B51" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7quky-lhg4kqce6v1f65_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-23030-2qbutplkxiovfc_tn</v>
       </c>
       <c r="C51" t="str">
         <v>ร้านแนะนำ</v>
       </c>
       <c r="D51" t="str">
-        <v>-41%</v>
+        <v>-56%</v>
       </c>
       <c r="E51" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F51" t="str">
-        <v>(B-154)🔥กระเป๋าสะพายข้าง กระเป๋าไนลอน สไตล์เกาหลี แฟชั่นมาใหม่ ผ้ากันน้ำ 3สี (ไม่มีจี้ห้อยกระเป๋า)</v>
+        <v>B-948🔥 กระเป๋าสำหรับผู้หญิง กระเป๋าสตางค์ Fashion -น่ารัก</v>
       </c>
       <c r="G51" t="str">
-        <v>-</v>
+        <v>฿80</v>
       </c>
       <c r="H51" t="str">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="I51" t="str">
-        <v>ขายแล้ว 6พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="J51" t="str">
+        <v/>
+      </c>
+      <c r="K51" t="str">
+        <v>ขายแล้ว 13.3พัน ชิ้น</v>
+      </c>
+      <c r="L51" t="str">
         <v>จังหวัดสมุทรปราการ</v>
-      </c>
-      <c r="K51" t="str">
-        <v>฿</v>
-      </c>
-      <c r="L51" t="str">
-        <v>60</v>
-      </c>
-      <c r="M51" t="str">
-        <v>ช้อปปี้ถูกชัวร์</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>https://shopee.co.th/%E0%B8%81%E0%B8%A3%E0%B8%A7%E0%B8%A2%E0%B8%9E%E0%B8%A5%E0%B8%B2%E0%B8%AA%E0%B8%95%E0%B8%B4%E0%B8%81-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B9%80%E0%B8%A5%E0%B9%87%E0%B8%81-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%81%E0%B8%A3%E0%B8%AD%E0%B8%81%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1-%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%A1%E0%B8%B1%E0%B8%99-i.270411666.12743286946?sp_atk=27980c58-d6e3-4175-a238-b935a73c2e24&amp;xptdk=27980c58-d6e3-4175-a238-b935a73c2e24</v>
+        <v>https://shopee.co.th/C%EF%BC%86K-%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%95%E0%B8%B2%E0%B8%87%E0%B8%84%E0%B9%8C%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B8%95%E0%B8%B8%E0%B9%8A%E0%B8%81%E0%B8%95%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81%E0%B8%AB%E0%B8%B1%E0%B8%A7%E0%B9%83%E0%B8%88%E0%B8%9B%E0%B8%B1%E0%B8%81%E0%B8%8B%E0%B8%B4%E0%B8%9B%E0%B8%AA%E0%B8%B1%E0%B9%89%E0%B8%99%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A2%E0%B8%8A%E0%B8%B8%E0%B8%94-INS-%E0%B8%9B%E0%B8%B2%E0%B8%A5%E0%B9%8C%E0%B8%A1%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%95%E0%B8%B9%E0%B8%99%E0%B8%9E%E0%B8%B4%E0%B8%A1%E0%B8%9E%E0%B9%8C%E0%B8%94%E0%B8%B4%E0%B8%88%E0%B8%B4%E0%B8%95%E0%B8%AD%E0%B8%A5%E0%B8%A8%E0%B8%B9%E0%B8%99%E0%B8%A2%E0%B9%8C%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%95%E0%B8%B2%E0%B8%87%E0%B8%84%E0%B9%8C-i.886122338.20591226675?sp_atk=a83a9c6d-6e7f-47ed-a1ce-c51e60d93cdc&amp;xptdk=a83a9c6d-6e7f-47ed-a1ce-c51e60d93cdc</v>
       </c>
       <c r="B52" t="str">
-        <v>https://down-th.img.susercontent.com/file/b9a0736a576c12d65cddf7652cb523e9_tn</v>
+        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lowbrcazgzpz04_tn</v>
       </c>
       <c r="C52" t="str">
         <v/>
       </c>
       <c r="D52" t="str">
-        <v>-67%</v>
+        <v>-69%</v>
       </c>
       <c r="E52" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F52" t="str">
-        <v>กรวยพลาสติก ขนาดเล็ก สำหรับกรอกน้ำหอม น้ำมัน</v>
+        <v>C＆K ผู้หญิงกระเป๋าสตางค์น่ารักตุ๊กตารักหัวใจปักซิปสั้นเกาหลีร้อยชุด INS ปาล์มการ์ตูนพิมพ์ดิจิตอลศูนย์กระเป๋าสตางค์</v>
       </c>
       <c r="G52" t="str">
-        <v>฿3</v>
+        <v>฿126</v>
       </c>
       <c r="H52" t="str">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I52" t="str">
-        <v>ขายแล้ว 46.2พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="J52" t="str">
+        <v/>
+      </c>
+      <c r="K52" t="str">
+        <v>ขายแล้ว 2.1พัน ชิ้น</v>
+      </c>
+      <c r="L52" t="str">
         <v>ต่างประเทศ</v>
-      </c>
-      <c r="K52" t="str">
-        <v/>
-      </c>
-      <c r="L52" t="str">
-        <v/>
-      </c>
-      <c r="M52" t="str">
-        <v/>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>https://shopee.co.th/%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%95%E0%B8%B2%E0%B8%87%E0%B8%84%E0%B9%8C-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B8%9A%E0%B8%B1%E0%B8%95%E0%B8%A3%E0%B9%84%E0%B8%94%E0%B9%89%E0%B9%80%E0%B8%A2%E0%B8%AD%E0%B8%B0-(GC-091)-i.783038845.22973062748?sp_atk=22e9961f-78ce-463f-971d-9a108a4eaeeb&amp;xptdk=22e9961f-78ce-463f-971d-9a108a4eaeeb</v>
+        <v>https://shopee.co.th/B-943%F0%9F%94%A5-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%AB%E0%B8%A5%E0%B9%88-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-%E0%B8%88%E0%B8%B8%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%84%E0%B8%94%E0%B9%89%E0%B9%80%E0%B8%A2%E0%B8%AD%E0%B8%B0-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-Peachrees-i.26237854.18675626945?sp_atk=8a43da48-80a2-48b1-8e2d-713bdef1feb8&amp;xptdk=8a43da48-80a2-48b1-8e2d-713bdef1feb8</v>
       </c>
       <c r="B53" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qukw-lk6byonpdesma4_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbls-lman6kwqlnabca_tn</v>
       </c>
       <c r="C53" t="str">
-        <v/>
+        <v>ร้านแนะนำ</v>
       </c>
       <c r="D53" t="str">
-        <v>-91%</v>
+        <v>-45%</v>
       </c>
       <c r="E53" t="str">
-        <v/>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
       </c>
       <c r="F53" t="str">
-        <v>กระเป๋าสตางค์ กระเป๋าใส่บัตรได้เยอะ (GC-091)</v>
+        <v>B-943🔥 กระเป๋าสะพายไหล่ สไตล์เกาหลี จุของได้เยอะ สําหรับผู้หญิง Peachrees</v>
       </c>
       <c r="G53" t="str">
-        <v>-</v>
+        <v>฿100</v>
       </c>
       <c r="H53" t="str">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I53" t="str">
-        <v>ขายแล้ว 3.1พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="J53" t="str">
-        <v>จังหวัดปทุมธานี</v>
+        <v/>
       </c>
       <c r="K53" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 15.8พัน ชิ้น</v>
       </c>
       <c r="L53" t="str">
-        <v>19</v>
-      </c>
-      <c r="M53" t="str">
-        <v/>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>https://shopee.co.th/B-237%F0%9F%94%A5%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B9%81%E0%B8%84%E0%B8%99%E0%B8%A7%E0%B8%B2%E0%B8%AA-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81-7%E0%B8%AA%E0%B8%B5-i.26237854.14699235674?sp_atk=a24aedb4-d2aa-4f2c-8782-3389d5293d4a&amp;xptdk=a24aedb4-d2aa-4f2c-8782-3389d5293d4a</v>
+        <v>https://shopee.co.th/%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%87-%E0%B8%A3%E0%B8%B8%E0%B9%88%E0%B8%99Dakota-%E0%B8%A1%E0%B8%B55%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-14-16-20-24-29-%E0%B8%99%E0%B8%B4%E0%B9%89%E0%B8%A7-HUGE-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%87%E0%B8%A5%E0%B9%89%E0%B8%AD%E0%B8%A5%E0%B8%B2%E0%B8%81-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%87%E0%B9%80%E0%B8%9F%E0%B8%A3%E0%B8%A1%E0%B8%8B%E0%B8%B4%E0%B8%9B-%E0%B8%A1%E0%B8%B5%E0%B8%A5%E0%B9%89%E0%B8%AD%E0%B8%A5%E0%B8%B2%E0%B8%81-%E0%B8%97%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%99-i.271086846.22385094997?sp_atk=f1eae939-a3ab-4d77-8fdd-b47b55531a7a&amp;xptdk=f1eae939-a3ab-4d77-8fdd-b47b55531a7a</v>
       </c>
       <c r="B54" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qul7-ljxxj8oq1g7d50_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98z-lnthqcl719pj42_tn</v>
       </c>
       <c r="C54" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D54" t="str">
-        <v>-44%</v>
+        <v>-67%</v>
       </c>
       <c r="E54" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-300ddf00d967483819649fe53299280c</v>
       </c>
       <c r="F54" t="str">
-        <v>B-237🔥กระเป๋าสำหรับผู้หญิง กระเป๋าผ้าแคนวาส สไตล์เกาหลี  น่ารัก -7สี</v>
+        <v>กระเป๋าเดินทาง รุ่นDakota มี5ขนาด 14 16 20 24 29 นิ้ว HUGE กระเป๋าเดินทางล้อลาก กระเป๋าเดินทางเฟรมซิป มีล้อลาก ทนทาน</v>
       </c>
       <c r="G54" t="str">
-        <v>฿50</v>
+        <v>-</v>
       </c>
       <c r="H54" t="str">
-        <v>28</v>
+        <v>300</v>
       </c>
       <c r="I54" t="str">
-        <v>ขายแล้ว 8.4พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="J54" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v>889</v>
       </c>
       <c r="K54" t="str">
-        <v/>
+        <v>ขายแล้ว 1.6พัน ชิ้น</v>
       </c>
       <c r="L54" t="str">
-        <v/>
-      </c>
-      <c r="M54" t="str">
-        <v/>
+        <v>จังหวัดปทุมธานี</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>https://shopee.co.th/(COM-3588)%F0%9F%94%A5%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%96%E0%B8%B7%E0%B8%AD-GOOD-LIFE-i.26237854.13201370210?sp_atk=a1236698-2919-4f5f-8755-1b5a41e74b89&amp;xptdk=a1236698-2919-4f5f-8755-1b5a41e74b89</v>
+        <v>https://shopee.co.th/%F0%9D%91%AC%F0%9D%91%BD%F0%9D%91%AC-%F0%9F%87%B9%F0%9F%87%AD%F0%9F%87%B9%F0%9F%87%AD-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87-%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99-%E0%B8%A3%E0%B8%B8%E0%B9%88%E0%B8%99%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-2022-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B9%84%E0%B8%99%E0%B8%A5%E0%B9%88%E0%B8%AD%E0%B8%99-%E0%B8%AA%E0%B8%B2%E0%B8%A2%E0%B8%9C%E0%B9%89%E0%B8%B2-%E0%B8%9B%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%AA%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%94%E0%B9%89-%E0%B8%94%E0%B8%B9%E0%B9%81%E0%B8%82%E0%B9%87%E0%B8%87%E0%B9%81%E0%B8%A3%E0%B8%87-%E0%B9%80%E0%B8%97%E0%B9%88%E0%B9%86-(E-0055)-i.37723018.6586646643?sp_atk=7a48e83a-b20e-4854-85d7-cd88e8a73916&amp;xptdk=7a48e83a-b20e-4854-85d7-cd88e8a73916</v>
       </c>
       <c r="B55" t="str">
-        <v>https://down-th.img.susercontent.com/file/9a8f65156bfb8620202a4cef79189d8d_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rbni-lma7ihmfusm117_tn</v>
       </c>
       <c r="C55" t="str">
         <v>ร้านแนะนำ</v>
       </c>
       <c r="D55" t="str">
-        <v>-76%</v>
+        <v>-59%</v>
       </c>
       <c r="E55" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F55" t="str">
-        <v>(COM-3588)🔥กระเป๋าถือ GOOD LIFE</v>
+        <v>𝑬𝑽𝑬 🇹🇭🇹🇭 กระเป๋าสะพายข้าง แฟชั่น รุ่นใหม่ 2022 กระเป๋าผ้าไนล่อน สายผ้า ปรับสายได้ ดูแข็งแรง เท่ๆ (E-0055)</v>
       </c>
       <c r="G55" t="str">
-        <v>-</v>
+        <v>฿169</v>
       </c>
       <c r="H55" t="str">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I55" t="str">
-        <v>ขายแล้ว 31.3พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="J55" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v/>
       </c>
       <c r="K55" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 16.7พัน ชิ้น</v>
       </c>
       <c r="L55" t="str">
-        <v>73</v>
-      </c>
-      <c r="M55" t="str">
-        <v/>
+        <v>จังหวัดนนทบุรี</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>https://shopee.co.th/%F0%9F%A4%8D%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%F0%9F%A4%8D-%E0%B8%8B%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%9A%E0%B9%88%E0%B8%87%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%80%E0%B8%AB%E0%B8%A5%E0%B8%A7%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%80%E0%B8%AB%E0%B8%A5%E0%B8%A7-%E0%B8%8B%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%9A%E0%B9%88%E0%B8%87%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%9D%E0%B8%B2%E0%B9%80%E0%B8%81%E0%B8%A5%E0%B8%B5%E0%B8%A2%E0%B8%A7-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%9A%E0%B8%A3%E0%B8%A3%E0%B8%88%E0%B8%B8%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%80%E0%B8%AB%E0%B8%A5%E0%B8%A7-%E0%B8%8B%E0%B8%AD%E0%B8%87%E0%B9%81%E0%B8%9A%E0%B9%88%E0%B8%87%E0%B8%82%E0%B8%AD%E0%B8%87%E0%B9%80%E0%B8%AB%E0%B8%A5%E0%B8%A7-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B8%84%E0%B8%A3%E0%B8%B5%E0%B8%A1-i.364065682.19924210396?sp_atk=bf8834cc-fbfa-43c2-a78e-1267eaf9b9e2&amp;xptdk=bf8834cc-fbfa-43c2-a78e-1267eaf9b9e2</v>
+        <v>https://shopee.co.th/(B-154)%F0%9F%94%A5%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B8%82%E0%B9%89%E0%B8%B2%E0%B8%87-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%84%E0%B8%99%E0%B8%A5%E0%B8%AD%E0%B8%99-%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B8%A1%E0%B8%B2%E0%B9%83%E0%B8%AB%E0%B8%A1%E0%B9%88-%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-3%E0%B8%AA%E0%B8%B5-(%E0%B9%84%E0%B8%A1%E0%B9%88%E0%B8%A1%E0%B8%B5%E0%B8%88%E0%B8%B5%E0%B9%89%E0%B8%AB%E0%B9%89%E0%B8%AD%E0%B8%A2%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2)-i.26237854.14497555852?sp_atk=c87148bd-5f64-4782-8bad-b949157f2577&amp;xptdk=c87148bd-5f64-4782-8bad-b949157f2577</v>
       </c>
       <c r="B56" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7qukz-liu3vv4w3oupb2_tn</v>
+        <v>https://down-th.img.susercontent.com/file/th-11134207-7quky-lhg4kqce6v1f65_tn</v>
       </c>
       <c r="C56" t="str">
         <v>ร้านแนะนำ</v>
       </c>
       <c r="D56" t="str">
-        <v>-67%</v>
+        <v>-41%</v>
       </c>
       <c r="E56" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="F56" t="str">
-        <v>🤍พร้อมส่ง🤍 ซองแบ่งของเหลวพกพา ถุงใส่ของเหลว ซองแบ่งครีมขนาดพกพา ถุงฝาเกลียว ถุงบรรจุของเหลว ซองแบ่งของเหลว ถุงใส่ครีม</v>
+        <v>(B-154)🔥กระเป๋าสะพายข้าง กระเป๋าไนลอน สไตล์เกาหลี แฟชั่นมาใหม่ ผ้ากันน้ำ 3สี (ไม่มีจี้ห้อยกระเป๋า)</v>
       </c>
       <c r="G56" t="str">
         <v>-</v>
       </c>
       <c r="H56" t="str">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="I56" t="str">
-        <v>ขายแล้ว 65.6พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="J56" t="str">
-        <v>จังหวัดกรุงเทพมหานคร</v>
+        <v>60</v>
       </c>
       <c r="K56" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 6.1พัน ชิ้น</v>
       </c>
       <c r="L56" t="str">
-        <v>6</v>
-      </c>
-      <c r="M56" t="str">
-        <v/>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>https://shopee.co.th/1.1%F0%9F%8C%B7%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%E0%B9%83%E0%B8%99%E0%B9%84%E0%B8%97%E0%B8%A2%F0%9F%8E%80-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%95%E0%B8%B2%E0%B8%87%E0%B8%84%E0%B9%8C%E0%B8%A1%E0%B8%B4%E0%B8%99%E0%B8%B4%E0%B8%A1%E0%B8%AD%E0%B8%A5-%E0%B8%A7%E0%B8%B1%E0%B8%AA%E0%B8%94%E0%B8%B8%E0%B8%AB%E0%B8%99%E0%B8%B1%E0%B8%87-%E0%B8%A1%E0%B8%B5%E0%B8%A1%E0%B8%B2%E0%B8%81%E0%B8%96%E0%B8%B6%E0%B8%87-10-%E0%B8%AA%E0%B8%B5-%E0%B8%AA%E0%B8%B5%E0%B8%99%E0%B9%88%E0%B8%B2%E0%B8%A3%E0%B8%B1%E0%B8%81-%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%94%E0%B8%A7%E0%B8%81-%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B8%9A%E0%B8%B1%E0%B8%95%E0%B8%A3%E0%B9%84%E0%B8%94%E0%B9%89%E0%B9%80%E0%B8%A2%E0%B8%AD%E0%B8%B0-i.385903185.22640605836?sp_atk=e89b4382-8391-43cd-bbeb-c873fe3b1f85&amp;xptdk=e89b4382-8391-43cd-bbeb-c873fe3b1f85</v>
+        <v>https://shopee.co.th/%F0%9F%94%A5(B-805)-%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2%E0%B8%9E%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A1%E0%B8%AA%E0%B9%88%E0%B8%87%E2%9A%A1%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%87%E0%B9%81%E0%B8%9A%E0%B8%9A%E0%B8%96%E0%B8%B7%E0%B8%AD-i.26237854.21315371771?sp_atk=00d2f6f0-85fd-4c93-afea-11b6cb402b25&amp;xptdk=00d2f6f0-85fd-4c93-afea-11b6cb402b25</v>
       </c>
       <c r="B57" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-11134207-7r98q-lmvvk04nmgav0d_tn</v>
+        <v>https://down-th.img.susercontent.com/file/b1c94bb1f4249b79a18c47b4502a89fa_tn</v>
       </c>
       <c r="C57" t="str">
         <v>ร้านแนะนำ</v>
       </c>
       <c r="D57" t="str">
-        <v>-8%</v>
+        <v>-59%</v>
       </c>
       <c r="E57" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="F57" t="str">
-        <v>1.1🌷พร้อมส่งในไทย🎀 กระเป๋าสตางค์มินิมอล วัสดุหนัง มีมากถึง 10 สี สีน่ารัก พกพาสะดวก ใส่บัตรได้เยอะ</v>
+        <v>🔥(B-805) สินค้าพร้อมส่ง⚡กระเป๋าเดินทางแบบถือ</v>
       </c>
       <c r="G57" t="str">
         <v>-</v>
@@ -2696,109 +2528,100 @@
         <v>83</v>
       </c>
       <c r="I57" t="str">
-        <v>ขายแล้ว 3.4พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="J57" t="str">
-        <v>จังหวัดมหาสารคาม</v>
+        <v>98</v>
       </c>
       <c r="K57" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 44.7พัน ชิ้น</v>
       </c>
       <c r="L57" t="str">
-        <v>87</v>
-      </c>
-      <c r="M57" t="str">
-        <v/>
+        <v>จังหวัดสมุทรปราการ</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>https://shopee.co.th/914-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%95%E0%B8%B2%E0%B8%87%E0%B8%84%E0%B9%8C%E0%B9%83%E0%B8%9A%E0%B8%AA%E0%B8%B1%E0%B9%89%E0%B8%99-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%95%E0%B8%B1%E0%B8%87%E0%B8%84%E0%B9%8C%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-i.65173690.10814921215?sp_atk=6c0d6dcb-ba9e-4318-9653-0875108a44aa&amp;xptdk=6c0d6dcb-ba9e-4318-9653-0875108a44aa</v>
+        <v>https://shopee.co.th/Camidy-%E2%9A%A1%E0%B8%A1%E0%B8%B5%E0%B8%AA%E0%B8%B4%E0%B8%99%E0%B8%84%E0%B9%89%E0%B8%B2-%E0%B8%82%E0%B8%B2%E0%B8%A2%E0%B8%AA%E0%B9%88%E0%B8%87%E2%9A%A1%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%9E%E0%B8%B2%E0%B8%A2%E0%B9%84%E0%B8%AB%E0%B8%A5%E0%B9%88-%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B8%9D%E0%B9%89%E0%B8%B2%E0%B8%A2-%E0%B8%9B%E0%B8%B1%E0%B8%81%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B9%80%E0%B8%A1%E0%B8%86-%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B8%AA%E0%B9%84%E0%B8%95%E0%B8%A5%E0%B9%8C%E0%B9%80%E0%B8%81%E0%B8%B2%E0%B8%AB%E0%B8%A5%E0%B8%B5-%E0%B8%AA%E0%B9%8D%E0%B8%B2%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-i.593631498.18294277490?sp_atk=cde0b26c-eb06-4d09-bdb0-39e68cd1a9dd&amp;xptdk=cde0b26c-eb06-4d09-bdb0-39e68cd1a9dd</v>
       </c>
       <c r="B58" t="str">
-        <v>https://down-th.img.susercontent.com/file/ee9a5772f7bdb32982d9b6f1b998c826_tn</v>
+        <v>https://down-th.img.susercontent.com/file/cn-11134207-7r98o-lpgddzflnj30bc_tn</v>
       </c>
       <c r="C58" t="str">
         <v/>
       </c>
       <c r="D58" t="str">
-        <v>-10%</v>
+        <v>-63%</v>
       </c>
       <c r="E58" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-7e2d94cea1f22ac04e85327f430d5557</v>
       </c>
       <c r="F58" t="str">
-        <v>914 กระเป๋าสตางค์ใบสั้น กระเป๋าตังค์ผู้หญิง</v>
+        <v>Camidy ⚡มีสินค้า ขายส่ง⚡กระเป๋าสะพายไหล่ ผ้าฝ้าย ปักลายเมฆ แฟชั่นสไตล์เกาหลี สําหรับผู้หญิง</v>
       </c>
       <c r="G58" t="str">
         <v>-</v>
       </c>
       <c r="H58" t="str">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="I58" t="str">
-        <v>ขายแล้ว 33.8พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="J58" t="str">
-        <v>จังหวัดมุกดาหาร</v>
+        <v>347</v>
       </c>
       <c r="K58" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 2.3พัน ชิ้น</v>
       </c>
       <c r="L58" t="str">
-        <v>38</v>
-      </c>
-      <c r="M58" t="str">
-        <v/>
+        <v>ต่างประเทศ</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>https://shopee.co.th/(B-335)%F0%9F%94%A5-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%84%E0%B8%B2%E0%B8%94%E0%B8%AD%E0%B8%81%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%8A%E0%B8%B2%E0%B8%A2-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%84%E0%B8%B2%E0%B8%94%E0%B8%AD%E0%B8%81%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%8A%E0%B8%B2%E0%B8%A2%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99%E0%B8%AA%E0%B8%B8%E0%B8%94%E0%B9%80%E0%B8%97%E0%B9%88%E0%B8%8A%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B9%80%E0%B8%A2%E0%B8%AD%E0%B8%B0-i.26237854.15658221056?sp_atk=03b57807-0ac0-43ed-be4c-503a65aad258&amp;xptdk=03b57807-0ac0-43ed-be4c-503a65aad258</v>
+        <v>https://shopee.co.th/914-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%AA%E0%B8%95%E0%B8%B2%E0%B8%87%E0%B8%84%E0%B9%8C%E0%B9%83%E0%B8%9A%E0%B8%AA%E0%B8%B1%E0%B9%89%E0%B8%99-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%95%E0%B8%B1%E0%B8%87%E0%B8%84%E0%B9%8C%E0%B8%9C%E0%B8%B9%E0%B9%89%E0%B8%AB%E0%B8%8D%E0%B8%B4%E0%B8%87-i.65173690.10814921215?sp_atk=d182969c-d1d5-4468-a33a-d465daca8086&amp;xptdk=d182969c-d1d5-4468-a33a-d465daca8086</v>
       </c>
       <c r="B59" t="str">
-        <v>https://down-th.img.susercontent.com/file/2eeaa448231bc783e9f90e847a340b33_tn</v>
+        <v>https://down-th.img.susercontent.com/file/ee9a5772f7bdb32982d9b6f1b998c826_tn</v>
       </c>
       <c r="C59" t="str">
-        <v>ร้านแนะนำ</v>
+        <v/>
       </c>
       <c r="D59" t="str">
-        <v>-79%</v>
+        <v>-10%</v>
       </c>
       <c r="E59" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-9c786d792d156d2e2f25280da85238f4</v>
+        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F59" t="str">
-        <v>(B-335)🔥 กระเป๋าคาดอกผู้ชาย กระเป๋าคาดอกผู้ชายแฟชั่นสุดเท่ช่องเยอะ</v>
+        <v>914 กระเป๋าสตางค์ใบสั้น กระเป๋าตังค์ผู้หญิง</v>
       </c>
       <c r="G59" t="str">
-        <v>฿150</v>
+        <v>-</v>
       </c>
       <c r="H59" t="str">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I59" t="str">
-        <v>ขายแล้ว 29พัน ชิ้น</v>
+        <v>฿</v>
       </c>
       <c r="J59" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v>38</v>
       </c>
       <c r="K59" t="str">
-        <v/>
+        <v>ขายแล้ว 33.8พัน ชิ้น</v>
       </c>
       <c r="L59" t="str">
-        <v/>
-      </c>
-      <c r="M59" t="str">
-        <v/>
+        <v>จังหวัดมุกดาหาร</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>https://shopee.co.th/Look-After-%E0%B8%96%E0%B8%B8%E0%B8%87%E0%B8%8B%E0%B8%B4%E0%B8%9B%E0%B9%83%E0%B8%AA-%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B9%80%E0%B8%AA%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%9C%E0%B9%89%E0%B8%B2-%E0%B8%AA%E0%B8%B3%E0%B8%AB%E0%B8%A3%E0%B8%B1%E0%B8%9A%E0%B9%80%E0%B8%94%E0%B8%B4%E0%B8%99%E0%B8%97%E0%B8%B2%E0%B8%87-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B9%80%E0%B8%AA%E0%B8%B7%E0%B9%89%E0%B8%AD%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B8%A2%E0%B8%B1%E0%B8%9A-%E0%B8%81%E0%B8%B1%E0%B8%99%E0%B8%99%E0%B9%89%E0%B8%B3-%E0%B9%80%E0%B8%81%E0%B9%87%E0%B8%9A%E0%B9%80%E0%B8%9B%E0%B9%87%E0%B8%99%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9A%E0%B8%B5%E0%B8%A2%E0%B8%9A-%E0%B9%80%E0%B8%A3%E0%B8%B5%E0%B8%A2%E0%B8%9A%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%A2-i.418614072.13347172946?sp_atk=607ca203-6317-46b4-adc2-11bb371c3b6f&amp;xptdk=607ca203-6317-46b4-adc2-11bb371c3b6f</v>
+        <v>https://shopee.co.th/%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%81%E0%B8%9F%E0%B8%8A%E0%B8%B1%E0%B9%88%E0%B8%99-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B9%80%E0%B8%84%E0%B8%A3%E0%B8%B7%E0%B9%88%E0%B8%AD%E0%B8%87%E0%B8%AA%E0%B8%B3%E0%B8%AD%E0%B8%B2%E0%B8%87-%E0%B8%97%E0%B8%A3%E0%B8%87%E0%B8%81%E0%B8%A5%E0%B9%88%E0%B8%AD%E0%B8%87-%E0%B8%82%E0%B8%99%E0%B8%99%E0%B8%B8%E0%B9%88%E0%B8%A1%E0%B8%99%E0%B8%B4%E0%B9%88%E0%B8%A1-%E0%B9%84%E0%B8%8B%E0%B8%AA%E0%B9%8C%E0%B8%A1%E0%B8%B4%E0%B8%99%E0%B8%B4-%E0%B8%A1%E0%B8%B57%E0%B8%A5%E0%B8%B2%E0%B8%A2-i.37723018.20788442997?sp_atk=c8735aea-1639-496b-9df1-f513447fe631&amp;xptdk=c8735aea-1639-496b-9df1-f513447fe631</v>
       </c>
       <c r="B60" t="str">
-        <v>https://down-th.img.susercontent.com/file/8c9e935a7a4826fdb484d15c01424ed1_tn</v>
+        <v>https://down-th.img.susercontent.com/file/sg-11134201-7rblo-lma06zu55k3pfb_tn</v>
       </c>
       <c r="C60" t="str">
         <v>ร้านแนะนำ</v>
@@ -2810,69 +2633,63 @@
         <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
       </c>
       <c r="F60" t="str">
-        <v>Look After ถุงซิปใส ใส่เสื้อผ้า สำหรับเดินทาง กันเสื้อผ้ายับ กันน้ำ เก็บเป็นระเบียบ เรียบร้อย</v>
+        <v>กระเป๋าแฟชั่น กระเป๋าใส่เครื่องสำอาง ทรงกล่อง ขนนุ่มนิ่ม ไซส์มินิ มี7ลาย</v>
       </c>
       <c r="G60" t="str">
-        <v>-</v>
+        <v>฿159</v>
       </c>
       <c r="H60" t="str">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="I60" t="str">
-        <v>ขายแล้ว 265.4พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="J60" t="str">
-        <v>จังหวัดสมุทรปราการ</v>
+        <v/>
       </c>
       <c r="K60" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 8.9พัน ชิ้น</v>
       </c>
       <c r="L60" t="str">
-        <v>10</v>
-      </c>
-      <c r="M60" t="str">
-        <v/>
+        <v>จังหวัดนนทบุรี</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>https://shopee.co.th/%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%9C%E0%B9%89%E0%B8%B2%E0%B8%A1%E0%B8%B4%E0%B8%99%E0%B8%B4%E0%B8%A1%E0%B8%AD%E0%B8%A5-10-%E0%B8%A5%E0%B8%B2%E0%B8%A2%E0%B8%AA%E0%B8%81%E0%B8%A3%E0%B8%B5%E0%B8%99-%E0%B8%82%E0%B8%99%E0%B8%B2%E0%B8%94-31x34cm-tote-Bag-%E0%B8%81%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%9B%E0%B9%8B%E0%B8%B2%E0%B8%9C%E0%B9%89%E0%B8%B2-i.65173690.23203332150?sp_atk=f6dd7dff-14d1-4194-9f76-b2619e582e21&amp;xptdk=f6dd7dff-14d1-4194-9f76-b2619e582e21</v>
+        <v>https://shopee.co.th/YOTAI-%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A2%E0%B9%8C%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B9%8C%E0%B8%94-20ml-%E0%B9%83%E0%B8%AA%E0%B9%88%E0%B8%99%E0%B9%89%E0%B8%B3%E0%B8%AB%E0%B8%AD%E0%B8%A1-%E0%B9%80%E0%B9%80%E0%B8%AD%E0%B8%A5%E0%B8%81%E0%B8%AD%E0%B8%AE%E0%B8%AD%E0%B8%A5%E0%B9%8C-%E0%B8%82%E0%B8%A7%E0%B8%94%E0%B8%AA%E0%B9%80%E0%B8%9B%E0%B8%A3%E0%B8%A2%E0%B9%8C-%E0%B8%9E%E0%B8%81%E0%B8%9E%E0%B8%B2%E0%B8%AA%E0%B8%B0%E0%B8%94%E0%B8%A7%E0%B8%81-%E0%B8%84%E0%B8%B8%E0%B8%93%E0%B8%A0%E0%B8%B2%E0%B8%9E%E0%B8%94%E0%B8%B5-i.165601508.10378447817?sp_atk=c73dc5ff-a4e0-4f6b-ab09-0a359c98dcff&amp;xptdk=c73dc5ff-a4e0-4f6b-ab09-0a359c98dcff</v>
       </c>
       <c r="B61" t="str">
-        <v>https://down-th.img.susercontent.com/file/sg-11134201-22110-3wrhn4pa6cjv08_tn</v>
+        <v>https://down-th.img.susercontent.com/file/f9372817c7965363a26413cf96e54846_tn</v>
       </c>
       <c r="C61" t="str">
         <v/>
       </c>
       <c r="D61" t="str">
-        <v>-78%</v>
+        <v>-90%</v>
       </c>
       <c r="E61" t="str">
-        <v>https://down-th.img.susercontent.com/file/th-50009109-046794c5ea23d6812a0e40e6e0f9ef76</v>
+        <v/>
       </c>
       <c r="F61" t="str">
-        <v>กระเป๋าผ้ามินิมอล 10 ลายสกรีน ขนาด 31x34cm tote Bag กระเป๋าผ้า</v>
+        <v>YOTAI สเปย์การ์ด 20ml ใส่น้ำหอม เเอลกอฮอล์ ขวดสเปรย์ พกพาสะดวก คุณภาพดี</v>
       </c>
       <c r="G61" t="str">
-        <v>-</v>
+        <v>฿29</v>
       </c>
       <c r="H61" t="str">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="I61" t="str">
-        <v>ขายแล้ว 69.9พัน ชิ้น</v>
+        <v/>
       </c>
       <c r="J61" t="str">
-        <v>จังหวัดมุกดาหาร</v>
+        <v/>
       </c>
       <c r="K61" t="str">
-        <v>฿</v>
+        <v>ขายแล้ว 539.4พัน ชิ้น</v>
       </c>
       <c r="L61" t="str">
-        <v>26</v>
-      </c>
-      <c r="M61" t="str">
-        <v/>
+        <v>จังหวัดกรุงเทพมหานคร</v>
       </c>
     </row>
   </sheetData>
